--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC679"/>
+  <dimension ref="A1:AC677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -52996,7 +52996,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -53008,76 +53008,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F590" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G590" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H590">
         <v>0</v>
       </c>
       <c r="I590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J590" t="s">
         <v>62</v>
       </c>
       <c r="K590">
+        <v>2.3</v>
+      </c>
+      <c r="L590">
         <v>2.9</v>
       </c>
-      <c r="L590">
-        <v>3.1</v>
-      </c>
       <c r="M590">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N590">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O590">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P590">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q590">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R590">
+        <v>1.9</v>
+      </c>
+      <c r="S590">
+        <v>1.95</v>
+      </c>
+      <c r="T590">
+        <v>1.5</v>
+      </c>
+      <c r="U590">
         <v>1.875</v>
       </c>
-      <c r="S590">
+      <c r="V590">
         <v>1.975</v>
       </c>
-      <c r="T590">
-        <v>1.75</v>
-      </c>
-      <c r="U590">
-        <v>1.95</v>
-      </c>
-      <c r="V590">
+      <c r="W590">
+        <v>-1</v>
+      </c>
+      <c r="X590">
+        <v>-1</v>
+      </c>
+      <c r="Y590">
         <v>1.9</v>
       </c>
-      <c r="W590">
-        <v>-1</v>
-      </c>
-      <c r="X590">
-        <v>-1</v>
-      </c>
-      <c r="Y590">
-        <v>1.375</v>
-      </c>
       <c r="Z590">
         <v>-1</v>
       </c>
       <c r="AA590">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB590">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC590">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53085,7 +53085,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53097,56 +53097,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F591" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G591" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H591">
         <v>0</v>
       </c>
       <c r="I591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J591" t="s">
         <v>62</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L591">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M591">
+        <v>2.5</v>
+      </c>
+      <c r="N591">
         <v>3.5</v>
       </c>
-      <c r="N591">
-        <v>2.8</v>
-      </c>
       <c r="O591">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P591">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q591">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R591">
+        <v>1.875</v>
+      </c>
+      <c r="S591">
+        <v>1.975</v>
+      </c>
+      <c r="T591">
+        <v>1.75</v>
+      </c>
+      <c r="U591">
+        <v>1.95</v>
+      </c>
+      <c r="V591">
         <v>1.9</v>
       </c>
-      <c r="S591">
-        <v>1.95</v>
-      </c>
-      <c r="T591">
-        <v>1.5</v>
-      </c>
-      <c r="U591">
-        <v>1.875</v>
-      </c>
-      <c r="V591">
-        <v>1.975</v>
-      </c>
       <c r="W591">
         <v>-1</v>
       </c>
@@ -53154,19 +53154,19 @@
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z591">
         <v>-1</v>
       </c>
       <c r="AA591">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB591">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC591">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -54776,7 +54776,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54788,40 +54788,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F610" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G610" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H610">
         <v>0</v>
       </c>
       <c r="I610">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J610" t="s">
         <v>62</v>
       </c>
       <c r="K610">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L610">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M610">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N610">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O610">
         <v>3</v>
       </c>
       <c r="P610">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q610">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R610">
         <v>1.8</v>
@@ -54833,10 +54833,10 @@
         <v>1.75</v>
       </c>
       <c r="U610">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V610">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W610">
         <v>-1</v>
@@ -54845,7 +54845,7 @@
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z610">
         <v>-1</v>
@@ -54854,10 +54854,10 @@
         <v>1.05</v>
       </c>
       <c r="AB610">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC610">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -54865,7 +54865,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54877,40 +54877,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F611" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G611" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H611">
         <v>0</v>
       </c>
       <c r="I611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J611" t="s">
         <v>62</v>
       </c>
       <c r="K611">
+        <v>2.875</v>
+      </c>
+      <c r="L611">
         <v>2.9</v>
       </c>
-      <c r="L611">
-        <v>3</v>
-      </c>
       <c r="M611">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N611">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O611">
         <v>3</v>
       </c>
       <c r="P611">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q611">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R611">
         <v>1.8</v>
@@ -54922,10 +54922,10 @@
         <v>1.75</v>
       </c>
       <c r="U611">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V611">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W611">
         <v>-1</v>
@@ -54934,7 +54934,7 @@
         <v>-1</v>
       </c>
       <c r="Y611">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z611">
         <v>-1</v>
@@ -54943,10 +54943,10 @@
         <v>1.05</v>
       </c>
       <c r="AB611">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC611">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -60027,7 +60027,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>7670035</v>
+        <v>7670041</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60036,34 +60036,34 @@
         <v>30</v>
       </c>
       <c r="E669" s="2">
-        <v>45346.91666666666</v>
+        <v>45347.70833333334</v>
       </c>
       <c r="F669" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G669" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K669">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L669">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M669">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N669">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O669">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P669">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q669">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R669">
         <v>1.875</v>
@@ -60072,13 +60072,13 @@
         <v>1.975</v>
       </c>
       <c r="T669">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U669">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V669">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W669">
         <v>0</v>
@@ -60101,7 +60101,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>7670036</v>
+        <v>7670038</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60110,49 +60110,49 @@
         <v>30</v>
       </c>
       <c r="E670" s="2">
-        <v>45346.91666666666</v>
+        <v>45347.8125</v>
       </c>
       <c r="F670" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G670" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="K670">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L670">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M670">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N670">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O670">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P670">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q670">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R670">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S670">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T670">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U670">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V670">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W670">
         <v>0</v>
@@ -60175,7 +60175,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>7670041</v>
+        <v>7670039</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60184,49 +60184,49 @@
         <v>30</v>
       </c>
       <c r="E671" s="2">
-        <v>45347.70833333334</v>
+        <v>45347.82291666666</v>
       </c>
       <c r="F671" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G671" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K671">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L671">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M671">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="N671">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O671">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P671">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q671">
         <v>-0.5</v>
       </c>
       <c r="R671">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S671">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T671">
         <v>2</v>
       </c>
       <c r="U671">
+        <v>2.05</v>
+      </c>
+      <c r="V671">
         <v>1.8</v>
-      </c>
-      <c r="V671">
-        <v>2.05</v>
       </c>
       <c r="W671">
         <v>0</v>
@@ -60249,7 +60249,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>7670038</v>
+        <v>7670046</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60258,49 +60258,49 @@
         <v>30</v>
       </c>
       <c r="E672" s="2">
-        <v>45347.8125</v>
+        <v>45347.91666666666</v>
       </c>
       <c r="F672" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G672" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K672">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L672">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M672">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N672">
+        <v>2</v>
+      </c>
+      <c r="O672">
         <v>3.1</v>
       </c>
-      <c r="O672">
-        <v>2.9</v>
-      </c>
       <c r="P672">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q672">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R672">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S672">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T672">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U672">
+        <v>1.8</v>
+      </c>
+      <c r="V672">
         <v>2.05</v>
-      </c>
-      <c r="V672">
-        <v>1.8</v>
       </c>
       <c r="W672">
         <v>0</v>
@@ -60323,7 +60323,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7670039</v>
+        <v>7670048</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60332,49 +60332,49 @@
         <v>30</v>
       </c>
       <c r="E673" s="2">
-        <v>45347.82291666666</v>
+        <v>45347.91666666666</v>
       </c>
       <c r="F673" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G673" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="K673">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L673">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M673">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="N673">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O673">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P673">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q673">
         <v>-0.5</v>
       </c>
       <c r="R673">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S673">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T673">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U673">
+        <v>1.775</v>
+      </c>
+      <c r="V673">
         <v>2.1</v>
-      </c>
-      <c r="V673">
-        <v>1.775</v>
       </c>
       <c r="W673">
         <v>0</v>
@@ -60397,7 +60397,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>7670046</v>
+        <v>7670045</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60406,49 +60406,49 @@
         <v>30</v>
       </c>
       <c r="E674" s="2">
-        <v>45347.91666666666</v>
+        <v>45348.79166666666</v>
       </c>
       <c r="F674" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G674" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K674">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L674">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M674">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N674">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O674">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P674">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q674">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R674">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S674">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T674">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U674">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V674">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W674">
         <v>0</v>
@@ -60471,7 +60471,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>7670048</v>
+        <v>7853564</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60480,49 +60480,49 @@
         <v>30</v>
       </c>
       <c r="E675" s="2">
-        <v>45347.91666666666</v>
+        <v>45348.8125</v>
       </c>
       <c r="F675" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G675" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K675">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L675">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M675">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="N675">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O675">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P675">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q675">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R675">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S675">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T675">
         <v>2</v>
       </c>
       <c r="U675">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V675">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W675">
         <v>0</v>
@@ -60545,7 +60545,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>7670045</v>
+        <v>7670044</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60554,28 +60554,28 @@
         <v>30</v>
       </c>
       <c r="E676" s="2">
-        <v>45348.79166666666</v>
+        <v>45348.89583333334</v>
       </c>
       <c r="F676" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G676" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K676">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L676">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M676">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N676">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O676">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P676">
         <v>6</v>
@@ -60584,19 +60584,19 @@
         <v>-0.75</v>
       </c>
       <c r="R676">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S676">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T676">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U676">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V676">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W676">
         <v>0</v>
@@ -60619,7 +60619,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>7853564</v>
+        <v>7670047</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60628,50 +60628,50 @@
         <v>30</v>
       </c>
       <c r="E677" s="2">
-        <v>45348.8125</v>
+        <v>45348.90625</v>
       </c>
       <c r="F677" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G677" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K677">
+        <v>2.7</v>
+      </c>
+      <c r="L677">
+        <v>2.8</v>
+      </c>
+      <c r="M677">
+        <v>3</v>
+      </c>
+      <c r="N677">
+        <v>3</v>
+      </c>
+      <c r="O677">
+        <v>2.8</v>
+      </c>
+      <c r="P677">
+        <v>2.75</v>
+      </c>
+      <c r="Q677">
+        <v>0</v>
+      </c>
+      <c r="R677">
+        <v>2</v>
+      </c>
+      <c r="S677">
         <v>1.85</v>
       </c>
-      <c r="L677">
-        <v>3.3</v>
-      </c>
-      <c r="M677">
-        <v>4.6</v>
-      </c>
-      <c r="N677">
-        <v>1.85</v>
-      </c>
-      <c r="O677">
-        <v>3.3</v>
-      </c>
-      <c r="P677">
-        <v>4.75</v>
-      </c>
-      <c r="Q677">
-        <v>-0.5</v>
-      </c>
-      <c r="R677">
+      <c r="T677">
+        <v>1.75</v>
+      </c>
+      <c r="U677">
+        <v>1.975</v>
+      </c>
+      <c r="V677">
         <v>1.875</v>
       </c>
-      <c r="S677">
-        <v>1.975</v>
-      </c>
-      <c r="T677">
-        <v>2</v>
-      </c>
-      <c r="U677">
-        <v>1.925</v>
-      </c>
-      <c r="V677">
-        <v>1.925</v>
-      </c>
       <c r="W677">
         <v>0</v>
       </c>
@@ -60685,154 +60685,6 @@
         <v>0</v>
       </c>
       <c r="AA677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="1:27">
-      <c r="A678" s="1">
-        <v>676</v>
-      </c>
-      <c r="B678">
-        <v>7670044</v>
-      </c>
-      <c r="C678" t="s">
-        <v>28</v>
-      </c>
-      <c r="D678" t="s">
-        <v>30</v>
-      </c>
-      <c r="E678" s="2">
-        <v>45348.89583333334</v>
-      </c>
-      <c r="F678" t="s">
-        <v>43</v>
-      </c>
-      <c r="G678" t="s">
-        <v>45</v>
-      </c>
-      <c r="K678">
-        <v>1.8</v>
-      </c>
-      <c r="L678">
-        <v>3.25</v>
-      </c>
-      <c r="M678">
-        <v>5</v>
-      </c>
-      <c r="N678">
-        <v>1.615</v>
-      </c>
-      <c r="O678">
-        <v>3.75</v>
-      </c>
-      <c r="P678">
-        <v>6</v>
-      </c>
-      <c r="Q678">
-        <v>-0.75</v>
-      </c>
-      <c r="R678">
-        <v>1.825</v>
-      </c>
-      <c r="S678">
-        <v>2.025</v>
-      </c>
-      <c r="T678">
-        <v>2.25</v>
-      </c>
-      <c r="U678">
-        <v>2.1</v>
-      </c>
-      <c r="V678">
-        <v>1.775</v>
-      </c>
-      <c r="W678">
-        <v>0</v>
-      </c>
-      <c r="X678">
-        <v>0</v>
-      </c>
-      <c r="Y678">
-        <v>0</v>
-      </c>
-      <c r="Z678">
-        <v>0</v>
-      </c>
-      <c r="AA678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:27">
-      <c r="A679" s="1">
-        <v>677</v>
-      </c>
-      <c r="B679">
-        <v>7670047</v>
-      </c>
-      <c r="C679" t="s">
-        <v>28</v>
-      </c>
-      <c r="D679" t="s">
-        <v>30</v>
-      </c>
-      <c r="E679" s="2">
-        <v>45348.90625</v>
-      </c>
-      <c r="F679" t="s">
-        <v>36</v>
-      </c>
-      <c r="G679" t="s">
-        <v>55</v>
-      </c>
-      <c r="K679">
-        <v>2.7</v>
-      </c>
-      <c r="L679">
-        <v>2.8</v>
-      </c>
-      <c r="M679">
-        <v>3</v>
-      </c>
-      <c r="N679">
-        <v>3</v>
-      </c>
-      <c r="O679">
-        <v>2.8</v>
-      </c>
-      <c r="P679">
-        <v>2.75</v>
-      </c>
-      <c r="Q679">
-        <v>0</v>
-      </c>
-      <c r="R679">
-        <v>2</v>
-      </c>
-      <c r="S679">
-        <v>1.85</v>
-      </c>
-      <c r="T679">
-        <v>1.75</v>
-      </c>
-      <c r="U679">
-        <v>1.975</v>
-      </c>
-      <c r="V679">
-        <v>1.875</v>
-      </c>
-      <c r="W679">
-        <v>0</v>
-      </c>
-      <c r="X679">
-        <v>0</v>
-      </c>
-      <c r="Y679">
-        <v>0</v>
-      </c>
-      <c r="Z679">
-        <v>0</v>
-      </c>
-      <c r="AA679">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Central Cordoba</t>
+    <t>Rosario Central</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Central Cordoba</t>
   </si>
   <si>
     <t>Racing Club</t>
@@ -169,10 +169,10 @@
     <t>Banfield</t>
   </si>
   <si>
-    <t>Instituto AC Cordoba</t>
+    <t>Velez Sarsfield</t>
   </si>
   <si>
-    <t>Velez Sarsfield</t>
+    <t>Instituto AC Cordoba</t>
   </si>
   <si>
     <t>Defensa y Justicia</t>
@@ -181,10 +181,10 @@
     <t>Colon</t>
   </si>
   <si>
-    <t>Atltico Tucumn</t>
+    <t>Gimnasia LP</t>
   </si>
   <si>
-    <t>Gimnasia LP</t>
+    <t>Atltico Tucumn</t>
   </si>
   <si>
     <t>River Plate</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC445"/>
+  <dimension ref="A1:AC442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6120049</v>
+        <v>6120060</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1213,55 +1213,55 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1270,16 +1270,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6120060</v>
+        <v>6120049</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1302,55 +1302,55 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1359,16 +1359,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1480,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6120066</v>
+        <v>6120069</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2548,73 +2548,73 @@
         <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
         <v>2.8</v>
       </c>
-      <c r="N23">
-        <v>2.2</v>
-      </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2622,7 +2622,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6120069</v>
+        <v>6120066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2889,7 +2889,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6745339</v>
+        <v>6120075</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2904,13 +2904,13 @@
         <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
@@ -2919,40 +2919,40 @@
         <v>2.7</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M27">
+        <v>2.625</v>
+      </c>
+      <c r="N27">
+        <v>2.9</v>
+      </c>
+      <c r="O27">
+        <v>2.75</v>
+      </c>
+      <c r="P27">
         <v>2.875</v>
       </c>
-      <c r="N27">
-        <v>2.25</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>3.6</v>
-      </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2961,16 +2961,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2978,7 +2978,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6120075</v>
+        <v>6745339</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2993,13 +2993,13 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
@@ -3008,40 +3008,40 @@
         <v>2.7</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3050,16 +3050,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3171,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3435,10 +3435,10 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3705,7 +3705,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4325,7 +4325,7 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>54</v>
@@ -4417,7 +4417,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4681,7 +4681,7 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4770,7 +4770,7 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4951,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -5470,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6120871</v>
+        <v>6120094</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5482,10 +5482,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5497,43 +5497,43 @@
         <v>62</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
+        <v>2.875</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>3.2</v>
+      </c>
+      <c r="O56">
         <v>3</v>
       </c>
-      <c r="M56">
-        <v>3.5</v>
-      </c>
-      <c r="N56">
+      <c r="P56">
+        <v>2.45</v>
+      </c>
+      <c r="Q56">
+        <v>0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
         <v>1.95</v>
       </c>
-      <c r="O56">
-        <v>3.25</v>
-      </c>
-      <c r="P56">
-        <v>4.2</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>2.05</v>
-      </c>
-      <c r="S56">
-        <v>1.8</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2.025</v>
-      </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5542,7 +5542,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5551,7 +5551,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6120094</v>
+        <v>6120871</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5571,10 +5571,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5586,43 +5586,43 @@
         <v>62</v>
       </c>
       <c r="K57">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M57">
+        <v>3.5</v>
+      </c>
+      <c r="N57">
+        <v>1.95</v>
+      </c>
+      <c r="O57">
+        <v>3.25</v>
+      </c>
+      <c r="P57">
+        <v>4.2</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>1.8</v>
+      </c>
+      <c r="T57">
         <v>2.5</v>
       </c>
-      <c r="N57">
-        <v>3.2</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>2.45</v>
-      </c>
-      <c r="Q57">
-        <v>0.25</v>
-      </c>
-      <c r="R57">
+      <c r="U57">
+        <v>2.025</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
       <c r="W57">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5631,16 +5631,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>1.05</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5752,7 +5752,7 @@
         <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5841,7 +5841,7 @@
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>45112.75</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6538,7 +6538,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6120111</v>
+        <v>6120106</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6550,76 +6550,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6627,7 +6627,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6120106</v>
+        <v>6120111</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6639,76 +6639,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K69">
+        <v>1.909</v>
+      </c>
+      <c r="L69">
+        <v>3.1</v>
+      </c>
+      <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.7</v>
+      </c>
+      <c r="O69">
         <v>3.5</v>
       </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>3.4</v>
-      </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6820,7 +6820,7 @@
         <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>45114.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -6995,7 +6995,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -7351,7 +7351,7 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
         <v>34</v>
@@ -7440,7 +7440,7 @@
         <v>45116.75</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
@@ -8063,10 +8063,10 @@
         <v>45118.78125</v>
       </c>
       <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
         <v>38</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8241,10 +8241,10 @@
         <v>45118.89583333334</v>
       </c>
       <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s">
         <v>55</v>
-      </c>
-      <c r="G87" t="s">
-        <v>56</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8689,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>45123.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -9119,7 +9119,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6894217</v>
+        <v>6894218</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9131,76 +9131,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N97">
+        <v>2.45</v>
+      </c>
+      <c r="O97">
+        <v>3.1</v>
+      </c>
+      <c r="P97">
+        <v>3.1</v>
+      </c>
+      <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
       </c>
-      <c r="O97">
-        <v>3.25</v>
-      </c>
-      <c r="P97">
-        <v>5.25</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.825</v>
-      </c>
-      <c r="S97">
-        <v>2.025</v>
-      </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.1</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.8</v>
       </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.825</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9208,7 +9208,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6894218</v>
+        <v>6894217</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>5.5</v>
+      </c>
+      <c r="N98">
+        <v>1.8</v>
+      </c>
+      <c r="O98">
         <v>3.25</v>
       </c>
-      <c r="M98">
-        <v>3</v>
-      </c>
-      <c r="N98">
-        <v>2.45</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6120138</v>
+        <v>6120139</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45124.75</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>63</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>2.3</v>
+      </c>
+      <c r="O99">
+        <v>2.9</v>
+      </c>
+      <c r="P99">
+        <v>3.6</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>1.775</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>2.6</v>
       </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>2.8</v>
-      </c>
-      <c r="P99">
-        <v>2.7</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2.1</v>
-      </c>
-      <c r="S99">
-        <v>1.775</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>1.85</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>1.7</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.925</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB99">
-        <v>0.5</v>
-      </c>
-      <c r="AC99">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9386,7 +9386,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6120139</v>
+        <v>6120138</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9398,55 +9398,55 @@
         <v>45124.75</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>63</v>
       </c>
       <c r="K100">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9455,19 +9455,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9490,7 +9490,7 @@
         <v>49</v>
       </c>
       <c r="G101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>45130.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
         <v>45</v>
@@ -10021,7 +10021,7 @@
         <v>45130.875</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>57</v>
@@ -10110,7 +10110,7 @@
         <v>45131.6875</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10202,7 +10202,7 @@
         <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10380,7 +10380,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10733,7 +10733,7 @@
         <v>45132.85416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -11003,7 +11003,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11267,10 +11267,10 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6961142</v>
+        <v>6120166</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11623,10 +11623,10 @@
         <v>45137.625</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11638,43 +11638,43 @@
         <v>62</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11700,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6120166</v>
+        <v>6961142</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11712,10 +11712,10 @@
         <v>45137.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11727,43 +11727,43 @@
         <v>62</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11789,7 +11789,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6120161</v>
+        <v>6120160</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11801,76 +11801,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K127">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
         <v>2.8</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>1.75</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6120160</v>
+        <v>6120161</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11890,76 +11890,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O128">
         <v>2.8</v>
       </c>
       <c r="P128">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T128">
         <v>1.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11982,7 +11982,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12424,7 +12424,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12513,7 +12513,7 @@
         <v>45157.875</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12605,7 +12605,7 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12780,10 +12780,10 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13317,7 +13317,7 @@
         <v>54</v>
       </c>
       <c r="G144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13569,7 +13569,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7095519</v>
+        <v>7095524</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13581,58 +13581,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G147" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>62</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>2.75</v>
+      </c>
+      <c r="N147">
+        <v>2.05</v>
+      </c>
+      <c r="O147">
         <v>3.2</v>
       </c>
-      <c r="M147">
-        <v>6</v>
-      </c>
-      <c r="N147">
-        <v>1.909</v>
-      </c>
-      <c r="O147">
-        <v>3.25</v>
-      </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>1.75</v>
+      </c>
+      <c r="U147">
         <v>1.925</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.925</v>
       </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13641,16 +13641,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
+        <v>1.05</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.925</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
-      <c r="AB147">
-        <v>1</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13658,7 +13658,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7095524</v>
+        <v>7095519</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13670,58 +13670,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>62</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13730,16 +13730,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13940,7 +13940,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14118,7 +14118,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14296,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14382,10 +14382,10 @@
         <v>45166.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>45170.875</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>46</v>
@@ -14560,7 +14560,7 @@
         <v>45171.625</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G158" t="s">
         <v>45</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M160">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N160">
+        <v>2.8</v>
+      </c>
+      <c r="O160">
+        <v>2.55</v>
+      </c>
+      <c r="P160">
+        <v>3.25</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
         <v>2.05</v>
       </c>
-      <c r="O160">
-        <v>2.875</v>
-      </c>
-      <c r="P160">
-        <v>4.75</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>2.1</v>
-      </c>
-      <c r="S160">
-        <v>1.775</v>
-      </c>
       <c r="T160">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X161">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14916,7 +14916,7 @@
         <v>45171.89583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G162" t="s">
         <v>57</v>
@@ -15005,7 +15005,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G163" t="s">
         <v>50</v>
@@ -15186,7 +15186,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15272,7 +15272,7 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
         <v>48</v>
@@ -15806,10 +15806,10 @@
         <v>45182.75</v>
       </c>
       <c r="F172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15898,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16328,7 +16328,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7137513</v>
+        <v>7137524</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16340,76 +16340,76 @@
         <v>45184.875</v>
       </c>
       <c r="F178" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.3</v>
+      </c>
+      <c r="M178">
+        <v>3.1</v>
+      </c>
+      <c r="N178">
+        <v>2.375</v>
+      </c>
+      <c r="O178">
         <v>3.2</v>
       </c>
-      <c r="L178">
-        <v>2.9</v>
-      </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3</v>
-      </c>
       <c r="P178">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>1.75</v>
-      </c>
-      <c r="U178">
-        <v>1.8</v>
-      </c>
-      <c r="V178">
-        <v>2.05</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16417,7 +16417,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7137524</v>
+        <v>7137513</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16429,76 +16429,76 @@
         <v>45184.875</v>
       </c>
       <c r="F179" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.8</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.05</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16696,7 +16696,7 @@
         <v>45185.79166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -16788,7 +16788,7 @@
         <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17141,7 +17141,7 @@
         <v>45188.78125</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
@@ -17218,7 +17218,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7178899</v>
+        <v>7178907</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17230,76 +17230,76 @@
         <v>45188.875</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K188">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L188">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <v>3.75</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O188">
+        <v>2.875</v>
+      </c>
+      <c r="P188">
         <v>3</v>
       </c>
-      <c r="P188">
-        <v>5.25</v>
-      </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>2.025</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>1.875</v>
       </c>
-      <c r="S188">
-        <v>1.975</v>
-      </c>
-      <c r="T188">
-        <v>1.75</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17307,7 +17307,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7178907</v>
+        <v>7178899</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17319,76 +17319,76 @@
         <v>45188.875</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M189">
         <v>3.75</v>
       </c>
       <c r="N189">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X189">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17675,7 +17675,7 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -17853,7 +17853,7 @@
         <v>45189.875</v>
       </c>
       <c r="F195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G195" t="s">
         <v>54</v>
@@ -18212,7 +18212,7 @@
         <v>57</v>
       </c>
       <c r="G199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18298,10 +18298,10 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18464,7 +18464,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7032058</v>
+        <v>7031969</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18476,58 +18476,58 @@
         <v>45192.875</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>62</v>
       </c>
       <c r="K202">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M202">
         <v>3</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O202">
+        <v>2.8</v>
+      </c>
+      <c r="P202">
         <v>3.5</v>
       </c>
-      <c r="P202">
-        <v>3.8</v>
-      </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U202">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18536,13 +18536,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18553,7 +18553,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7031969</v>
+        <v>7032058</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18565,58 +18565,58 @@
         <v>45192.875</v>
       </c>
       <c r="F203" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>62</v>
       </c>
       <c r="K203">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L203">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
         <v>3</v>
       </c>
       <c r="N203">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O203">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18625,13 +18625,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18657,7 +18657,7 @@
         <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032055</v>
+        <v>7032056</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19010,76 +19010,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K208">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O208">
         <v>2.7</v>
       </c>
       <c r="P208">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032056</v>
+        <v>7032055</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19099,76 +19099,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L209">
+        <v>2.9</v>
+      </c>
+      <c r="M209">
         <v>3</v>
       </c>
-      <c r="M209">
-        <v>4.1</v>
-      </c>
       <c r="N209">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O209">
         <v>2.7</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
         <v>1.75</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X209">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19354,7 +19354,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7031973</v>
+        <v>7031975</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19366,13 +19366,13 @@
         <v>45194.875</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19381,43 +19381,43 @@
         <v>62</v>
       </c>
       <c r="K212">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19426,16 +19426,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19443,7 +19443,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7031975</v>
+        <v>7031973</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19455,13 +19455,13 @@
         <v>45194.875</v>
       </c>
       <c r="F213" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19470,43 +19470,43 @@
         <v>62</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.75</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.925</v>
       </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19515,16 +19515,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19547,7 +19547,7 @@
         <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19811,7 +19811,7 @@
         <v>45199.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
         <v>49</v>
@@ -20259,7 +20259,7 @@
         <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20526,7 +20526,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20600,7 +20600,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7031981</v>
+        <v>7031985</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20612,10 +20612,10 @@
         <v>45201.875</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20627,40 +20627,40 @@
         <v>61</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O226">
         <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T226">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20672,16 +20672,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20689,7 +20689,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7031985</v>
+        <v>7031981</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20701,10 +20701,10 @@
         <v>45201.875</v>
       </c>
       <c r="F227" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20716,40 +20716,40 @@
         <v>61</v>
       </c>
       <c r="K227">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
         <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20761,16 +20761,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20790,7 +20790,7 @@
         <v>45205.85416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>58</v>
@@ -21134,7 +21134,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7032059</v>
+        <v>7031991</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21146,76 +21146,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O232">
         <v>3.1</v>
       </c>
       <c r="P232">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S232">
+        <v>2.05</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
         <v>2.1</v>
       </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
-      <c r="U232">
-        <v>2.05</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
-      <c r="W232">
-        <v>2.2</v>
-      </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21223,7 +21223,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7031991</v>
+        <v>7032059</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21235,76 +21235,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K233">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N233">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O233">
         <v>3.1</v>
       </c>
       <c r="P233">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
+        <v>2.1</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
         <v>2.05</v>
       </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
-      <c r="U233">
-        <v>2.025</v>
-      </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21413,10 +21413,10 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21858,10 +21858,10 @@
         <v>45208.85416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -22039,7 +22039,7 @@
         <v>50</v>
       </c>
       <c r="G242" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22125,7 +22125,7 @@
         <v>45215.75</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
         <v>43</v>
@@ -22481,7 +22481,7 @@
         <v>45218.66666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -22748,10 +22748,10 @@
         <v>45218.86458333334</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23003,7 +23003,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7289503</v>
+        <v>7289447</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23015,76 +23015,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K253">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L253">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M253">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N253">
+        <v>1.45</v>
+      </c>
+      <c r="O253">
+        <v>4.2</v>
+      </c>
+      <c r="P253">
+        <v>7.5</v>
+      </c>
+      <c r="Q253">
+        <v>-1</v>
+      </c>
+      <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
         <v>2.05</v>
       </c>
-      <c r="O253">
-        <v>2.8</v>
-      </c>
-      <c r="P253">
-        <v>5.25</v>
-      </c>
-      <c r="Q253">
-        <v>-0.5</v>
-      </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
-      <c r="S253">
-        <v>1.825</v>
-      </c>
       <c r="T253">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
         <v>1.8</v>
       </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y253">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
         <v>0.8</v>
-      </c>
-      <c r="AC253">
-        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23092,7 +23092,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7289447</v>
+        <v>7289503</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23104,76 +23104,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H254">
         <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K254">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M254">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P254">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
+        <v>1.825</v>
+      </c>
+      <c r="T254">
+        <v>1.5</v>
+      </c>
+      <c r="U254">
         <v>1.8</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.05</v>
       </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>2.05</v>
-      </c>
-      <c r="V254">
-        <v>1.8</v>
-      </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23371,7 +23371,7 @@
         <v>45222.875</v>
       </c>
       <c r="F257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G257" t="s">
         <v>50</v>
@@ -23463,7 +23463,7 @@
         <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23715,7 +23715,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7299919</v>
+        <v>7299922</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23727,34 +23727,34 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K261">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L261">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N261">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
         <v>4.75</v>
@@ -23763,40 +23763,40 @@
         <v>-0.5</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23804,7 +23804,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7299922</v>
+        <v>7299919</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23816,34 +23816,34 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G262" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K262">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N262">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
         <v>4.75</v>
@@ -23852,40 +23852,40 @@
         <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y262">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB262">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23997,7 +23997,7 @@
         <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -24083,7 +24083,7 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F265" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G265" t="s">
         <v>48</v>
@@ -24617,10 +24617,10 @@
         <v>45227.89583333334</v>
       </c>
       <c r="F271" t="s">
+        <v>52</v>
+      </c>
+      <c r="G271" t="s">
         <v>51</v>
-      </c>
-      <c r="G271" t="s">
-        <v>52</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -24709,7 +24709,7 @@
         <v>54</v>
       </c>
       <c r="G272" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -24795,7 +24795,7 @@
         <v>45228.6875</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G273" t="s">
         <v>35</v>
@@ -24884,7 +24884,7 @@
         <v>45228.72916666666</v>
       </c>
       <c r="F274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G274" t="s">
         <v>57</v>
@@ -25596,7 +25596,7 @@
         <v>45230.875</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G282" t="s">
         <v>40</v>
@@ -25777,7 +25777,7 @@
         <v>32</v>
       </c>
       <c r="G284" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -26041,7 +26041,7 @@
         <v>45234.875</v>
       </c>
       <c r="F287" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G287" t="s">
         <v>45</v>
@@ -26130,7 +26130,7 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G288" t="s">
         <v>48</v>
@@ -26311,7 +26311,7 @@
         <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26563,7 +26563,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7402254</v>
+        <v>7402247</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26575,76 +26575,76 @@
         <v>45236.77083333334</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K293">
+        <v>2.625</v>
+      </c>
+      <c r="L293">
+        <v>2.9</v>
+      </c>
+      <c r="M293">
+        <v>3</v>
+      </c>
+      <c r="N293">
+        <v>2.375</v>
+      </c>
+      <c r="O293">
+        <v>2.8</v>
+      </c>
+      <c r="P293">
+        <v>3.4</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.975</v>
+      </c>
+      <c r="S293">
+        <v>1.875</v>
+      </c>
+      <c r="T293">
+        <v>2</v>
+      </c>
+      <c r="U293">
+        <v>1.925</v>
+      </c>
+      <c r="V293">
+        <v>1.925</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>1.8</v>
       </c>
-      <c r="L293">
-        <v>3.3</v>
-      </c>
-      <c r="M293">
-        <v>5</v>
-      </c>
-      <c r="N293">
-        <v>1.75</v>
-      </c>
-      <c r="O293">
-        <v>3.1</v>
-      </c>
-      <c r="P293">
-        <v>5.5</v>
-      </c>
-      <c r="Q293">
+      <c r="Y293">
+        <v>-1</v>
+      </c>
+      <c r="Z293">
         <v>-0.5</v>
       </c>
-      <c r="R293">
-        <v>1.8</v>
-      </c>
-      <c r="S293">
-        <v>2.05</v>
-      </c>
-      <c r="T293">
-        <v>1.75</v>
-      </c>
-      <c r="U293">
-        <v>1.8</v>
-      </c>
-      <c r="V293">
-        <v>2.05</v>
-      </c>
-      <c r="W293">
-        <v>0.75</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
-      <c r="Y293">
-        <v>-1</v>
-      </c>
-      <c r="Z293">
-        <v>0.8</v>
-      </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB293">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26652,7 +26652,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7402247</v>
+        <v>7402254</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26664,76 +26664,76 @@
         <v>45236.77083333334</v>
       </c>
       <c r="F294" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G294" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K294">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L294">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O294">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X294">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
+        <v>0.8</v>
+      </c>
+      <c r="AA294">
+        <v>-1</v>
+      </c>
+      <c r="AB294">
+        <v>0.4</v>
+      </c>
+      <c r="AC294">
         <v>-0.5</v>
-      </c>
-      <c r="AA294">
-        <v>0.4375</v>
-      </c>
-      <c r="AB294">
-        <v>0</v>
-      </c>
-      <c r="AC294">
-        <v>-0</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26741,7 +26741,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7402243</v>
+        <v>7402248</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26753,73 +26753,73 @@
         <v>45236.875</v>
       </c>
       <c r="F295" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G295" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K295">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L295">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q295">
         <v>-0.25</v>
       </c>
       <c r="R295">
+        <v>2.125</v>
+      </c>
+      <c r="S295">
+        <v>1.75</v>
+      </c>
+      <c r="T295">
+        <v>1.75</v>
+      </c>
+      <c r="U295">
         <v>1.85</v>
       </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
-      <c r="U295">
-        <v>2</v>
-      </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W295">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>0.75</v>
+      </c>
+      <c r="AB295">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
-      <c r="AB295">
-        <v>1</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26830,7 +26830,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7402248</v>
+        <v>7402243</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26842,73 +26842,73 @@
         <v>45236.875</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G296" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296" t="s">
+        <v>62</v>
+      </c>
+      <c r="K296">
+        <v>2.1</v>
+      </c>
+      <c r="L296">
+        <v>3.2</v>
+      </c>
+      <c r="M296">
+        <v>3.75</v>
+      </c>
+      <c r="N296">
+        <v>2.1</v>
+      </c>
+      <c r="O296">
         <v>3</v>
       </c>
-      <c r="J296" t="s">
-        <v>63</v>
-      </c>
-      <c r="K296">
-        <v>1.727</v>
-      </c>
-      <c r="L296">
-        <v>3.6</v>
-      </c>
-      <c r="M296">
-        <v>5</v>
-      </c>
-      <c r="N296">
-        <v>2.5</v>
-      </c>
-      <c r="O296">
-        <v>2.875</v>
-      </c>
       <c r="P296">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q296">
         <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U296">
+        <v>2</v>
+      </c>
+      <c r="V296">
         <v>1.85</v>
       </c>
-      <c r="V296">
-        <v>2</v>
-      </c>
       <c r="W296">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -27020,7 +27020,7 @@
         <v>45240.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27109,10 +27109,10 @@
         <v>45240.875</v>
       </c>
       <c r="F299" t="s">
+        <v>55</v>
+      </c>
+      <c r="G299" t="s">
         <v>56</v>
-      </c>
-      <c r="G299" t="s">
-        <v>55</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27201,7 +27201,7 @@
         <v>35</v>
       </c>
       <c r="G300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -27287,7 +27287,7 @@
         <v>45241.77083333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G301" t="s">
         <v>57</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M308">
+        <v>3.9</v>
+      </c>
+      <c r="N308">
+        <v>1.909</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
         <v>5</v>
       </c>
-      <c r="N308">
-        <v>2.625</v>
-      </c>
-      <c r="O308">
-        <v>2.8</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
-      </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
         <v>2.1</v>
       </c>
-      <c r="S308">
-        <v>1.7</v>
-      </c>
-      <c r="T308">
-        <v>1.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K309">
+        <v>1.8</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>2.625</v>
+      </c>
+      <c r="O309">
+        <v>2.8</v>
+      </c>
+      <c r="P309">
+        <v>3.1</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
         <v>2.1</v>
       </c>
-      <c r="L309">
-        <v>2.8</v>
-      </c>
-      <c r="M309">
-        <v>3.9</v>
-      </c>
-      <c r="N309">
-        <v>1.909</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>5</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.9</v>
-      </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28177,7 +28177,7 @@
         <v>45243.875</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G311" t="s">
         <v>44</v>
@@ -28266,7 +28266,7 @@
         <v>45255.75</v>
       </c>
       <c r="F312" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G312" t="s">
         <v>54</v>
@@ -28536,7 +28536,7 @@
         <v>50</v>
       </c>
       <c r="G315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -28610,7 +28610,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7475437</v>
+        <v>7475397</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28622,73 +28622,73 @@
         <v>45256.75</v>
       </c>
       <c r="F316" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K316">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L316">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N316">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O316">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R316">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V316">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W316">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z316">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB316">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28711,7 +28711,7 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G317" t="s">
         <v>58</v>
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475472</v>
+        <v>7475437</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,76 +28800,76 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G318" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K318">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M318">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N318">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O318">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P318">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q318">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X318">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475397</v>
+        <v>7475472</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G319" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K319">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L319">
+        <v>3.75</v>
+      </c>
+      <c r="M319">
+        <v>5.5</v>
+      </c>
+      <c r="N319">
+        <v>1.4</v>
+      </c>
+      <c r="O319">
+        <v>4.2</v>
+      </c>
+      <c r="P319">
+        <v>9.5</v>
+      </c>
+      <c r="Q319">
+        <v>-1.25</v>
+      </c>
+      <c r="R319">
+        <v>1.95</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>1.925</v>
+      </c>
+      <c r="V319">
+        <v>1.925</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>3.2</v>
       </c>
-      <c r="M319">
-        <v>1.909</v>
-      </c>
-      <c r="N319">
-        <v>4.5</v>
-      </c>
-      <c r="O319">
-        <v>3.5</v>
-      </c>
-      <c r="P319">
-        <v>1.8</v>
-      </c>
-      <c r="Q319">
-        <v>0.75</v>
-      </c>
-      <c r="R319">
-        <v>1.8</v>
-      </c>
-      <c r="S319">
-        <v>2.05</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
-      <c r="U319">
-        <v>1.8</v>
-      </c>
-      <c r="V319">
-        <v>2.05</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29055,7 +29055,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7475444</v>
+        <v>7475439</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29067,40 +29067,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G321" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K321">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L321">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M321">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N321">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O321">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
         <v>2.05</v>
@@ -29109,34 +29109,34 @@
         <v>1.8</v>
       </c>
       <c r="T321">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V321">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB321">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29144,7 +29144,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7475439</v>
+        <v>7475444</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29156,40 +29156,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K322">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L322">
+        <v>3.1</v>
+      </c>
+      <c r="M322">
+        <v>3.5</v>
+      </c>
+      <c r="N322">
+        <v>2</v>
+      </c>
+      <c r="O322">
         <v>3.2</v>
       </c>
-      <c r="M322">
-        <v>4.333</v>
-      </c>
-      <c r="N322">
-        <v>1.7</v>
-      </c>
-      <c r="O322">
-        <v>3.4</v>
-      </c>
       <c r="P322">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q322">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
         <v>2.05</v>
@@ -29198,34 +29198,34 @@
         <v>1.8</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U322">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X322">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA322">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
+        <v>0.45</v>
+      </c>
+      <c r="AC322">
         <v>-0.5</v>
-      </c>
-      <c r="AC322">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29515,7 +29515,7 @@
         <v>54</v>
       </c>
       <c r="G326" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -29871,7 +29871,7 @@
         <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H330">
         <v>8</v>
@@ -30049,7 +30049,7 @@
         <v>57</v>
       </c>
       <c r="G332" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30138,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="G333" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G334" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O334">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R334">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G335" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
+        <v>1.909</v>
+      </c>
+      <c r="L335">
+        <v>3.3</v>
+      </c>
+      <c r="M335">
+        <v>4.333</v>
+      </c>
+      <c r="N335">
         <v>2.3</v>
       </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
-      <c r="M335">
-        <v>3.2</v>
-      </c>
-      <c r="N335">
-        <v>1.8</v>
-      </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P335">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q335">
+        <v>-0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.925</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>1.75</v>
+      </c>
+      <c r="U335">
+        <v>1.925</v>
+      </c>
+      <c r="V335">
+        <v>1.925</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>1.875</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
         <v>-0.5</v>
       </c>
-      <c r="R335">
-        <v>1.85</v>
-      </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
-      <c r="U335">
-        <v>2.05</v>
-      </c>
-      <c r="V335">
-        <v>1.8</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>2.4</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
       <c r="AA335">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30402,10 +30402,10 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F336" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30491,7 +30491,7 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G337" t="s">
         <v>49</v>
@@ -30583,7 +30583,7 @@
         <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -30672,7 +30672,7 @@
         <v>48</v>
       </c>
       <c r="G339" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,56 +30758,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G340" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
+        <v>2.5</v>
+      </c>
+      <c r="N340">
         <v>3.5</v>
       </c>
-      <c r="N340">
-        <v>2.8</v>
-      </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.875</v>
+      </c>
+      <c r="S340">
+        <v>1.975</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.9</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.5</v>
-      </c>
-      <c r="U340">
-        <v>1.875</v>
-      </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30815,19 +30815,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,76 +30847,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
+        <v>2.3</v>
+      </c>
+      <c r="L341">
         <v>2.9</v>
       </c>
-      <c r="L341">
-        <v>3.1</v>
-      </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O341">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P341">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>1.9</v>
       </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.375</v>
-      </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31470,10 +31470,10 @@
         <v>45320.875</v>
       </c>
       <c r="F348" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G348" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H348">
         <v>3</v>
@@ -31648,7 +31648,7 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G350" t="s">
         <v>50</v>
@@ -31737,7 +31737,7 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F351" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G351" t="s">
         <v>59</v>
@@ -31814,7 +31814,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7669965</v>
+        <v>7669975</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31826,37 +31826,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H352">
         <v>0</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
         <v>63</v>
       </c>
       <c r="K352">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L352">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N352">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P352">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -31871,10 +31871,10 @@
         <v>1.75</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31883,7 +31883,7 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
@@ -31892,10 +31892,10 @@
         <v>1.05</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC352">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31903,7 +31903,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7669975</v>
+        <v>7669965</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31915,37 +31915,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J353" t="s">
         <v>63</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L353">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M353">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N353">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O353">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -31960,10 +31960,10 @@
         <v>1.75</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31972,7 +31972,7 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z353">
         <v>-1</v>
@@ -31981,10 +31981,10 @@
         <v>1.05</v>
       </c>
       <c r="AB353">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32627,7 +32627,7 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G361" t="s">
         <v>42</v>
@@ -32719,7 +32719,7 @@
         <v>45</v>
       </c>
       <c r="G362" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32793,7 +32793,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7669984</v>
+        <v>7669983</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32805,58 +32805,58 @@
         <v>45325.88541666666</v>
       </c>
       <c r="F363" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G363" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
         <v>62</v>
       </c>
       <c r="K363">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L363">
         <v>3</v>
       </c>
       <c r="M363">
+        <v>3.5</v>
+      </c>
+      <c r="N363">
+        <v>1.8</v>
+      </c>
+      <c r="O363">
+        <v>3.3</v>
+      </c>
+      <c r="P363">
+        <v>5.25</v>
+      </c>
+      <c r="Q363">
+        <v>-0.75</v>
+      </c>
+      <c r="R363">
+        <v>2</v>
+      </c>
+      <c r="S363">
+        <v>1.85</v>
+      </c>
+      <c r="T363">
         <v>2.25</v>
       </c>
-      <c r="N363">
-        <v>3.1</v>
-      </c>
-      <c r="O363">
-        <v>2.9</v>
-      </c>
-      <c r="P363">
-        <v>2.6</v>
-      </c>
-      <c r="Q363">
-        <v>0</v>
-      </c>
-      <c r="R363">
-        <v>2.1</v>
-      </c>
-      <c r="S363">
-        <v>1.775</v>
-      </c>
-      <c r="T363">
-        <v>1.75</v>
-      </c>
       <c r="U363">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V363">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W363">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32865,16 +32865,16 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA363">
         <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC363">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32882,7 +32882,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7669983</v>
+        <v>7669984</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32894,58 +32894,58 @@
         <v>45325.88541666666</v>
       </c>
       <c r="F364" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>62</v>
       </c>
       <c r="K364">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L364">
         <v>3</v>
       </c>
       <c r="M364">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N364">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O364">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P364">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U364">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32954,16 +32954,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33075,7 +33075,7 @@
         <v>57</v>
       </c>
       <c r="G366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H366">
         <v>5</v>
@@ -33164,7 +33164,7 @@
         <v>46</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33698,7 +33698,7 @@
         <v>50</v>
       </c>
       <c r="G373" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -33873,7 +33873,7 @@
         <v>45328.88541666666</v>
       </c>
       <c r="F375" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G375" t="s">
         <v>35</v>
@@ -33962,7 +33962,7 @@
         <v>45330.8125</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G376" t="s">
         <v>59</v>
@@ -34407,10 +34407,10 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F381" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G381" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H381">
         <v>3</v>
@@ -34662,7 +34662,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7670003</v>
+        <v>7670005</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34674,76 +34674,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F384" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G384" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K384">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L384">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M384">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N384">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O384">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P384">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q384">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S384">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T384">
         <v>1.75</v>
       </c>
       <c r="U384">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V384">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W384">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA384">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC384">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34751,7 +34751,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7670005</v>
+        <v>7670003</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34763,76 +34763,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F385" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G385" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H385">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K385">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L385">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M385">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N385">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O385">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P385">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q385">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S385">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T385">
         <v>1.75</v>
       </c>
       <c r="U385">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V385">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W385">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z385">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB385">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC385">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -35033,7 +35033,7 @@
         <v>44</v>
       </c>
       <c r="G388" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35119,7 +35119,7 @@
         <v>45334.79166666666</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G389" t="s">
         <v>48</v>
@@ -35386,7 +35386,7 @@
         <v>45335.80208333334</v>
       </c>
       <c r="F392" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G392" t="s">
         <v>58</v>
@@ -35478,7 +35478,7 @@
         <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -35819,7 +35819,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7670015</v>
+        <v>7670009</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35831,76 +35831,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K397">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L397">
+        <v>3</v>
+      </c>
+      <c r="M397">
         <v>4</v>
       </c>
-      <c r="M397">
-        <v>6.5</v>
-      </c>
       <c r="N397">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O397">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P397">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q397">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R397">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S397">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T397">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U397">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V397">
+        <v>1.875</v>
+      </c>
+      <c r="W397">
+        <v>-1</v>
+      </c>
+      <c r="X397">
         <v>1.8</v>
       </c>
-      <c r="W397">
-        <v>0.363</v>
-      </c>
-      <c r="X397">
-        <v>-1</v>
-      </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35908,7 +35908,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7670009</v>
+        <v>7670015</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35920,76 +35920,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K398">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L398">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M398">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N398">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O398">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P398">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q398">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R398">
+        <v>1.85</v>
+      </c>
+      <c r="S398">
+        <v>2</v>
+      </c>
+      <c r="T398">
+        <v>2.5</v>
+      </c>
+      <c r="U398">
         <v>2.05</v>
       </c>
-      <c r="S398">
+      <c r="V398">
         <v>1.8</v>
       </c>
-      <c r="T398">
-        <v>1.75</v>
-      </c>
-      <c r="U398">
-        <v>1.975</v>
-      </c>
-      <c r="V398">
-        <v>1.875</v>
-      </c>
       <c r="W398">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X398">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA398">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36009,7 +36009,7 @@
         <v>45336.89583333334</v>
       </c>
       <c r="F399" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G399" t="s">
         <v>57</v>
@@ -36101,7 +36101,7 @@
         <v>60</v>
       </c>
       <c r="G400" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H400">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>59</v>
       </c>
       <c r="G402" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -36632,10 +36632,10 @@
         <v>45339.875</v>
       </c>
       <c r="F406" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G406" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -36721,7 +36721,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G407" t="s">
         <v>45</v>
@@ -36810,7 +36810,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G408" t="s">
         <v>58</v>
@@ -37080,7 +37080,7 @@
         <v>60</v>
       </c>
       <c r="G411" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -37154,7 +37154,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7670029</v>
+        <v>7670025</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37166,58 +37166,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F412" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G412" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H412">
         <v>2</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="s">
         <v>62</v>
       </c>
       <c r="K412">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L412">
         <v>3.1</v>
       </c>
       <c r="M412">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N412">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O412">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P412">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q412">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R412">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S412">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T412">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U412">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V412">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W412">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37226,16 +37226,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC412">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37243,7 +37243,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7670025</v>
+        <v>7670029</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37255,58 +37255,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F413" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G413" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>62</v>
       </c>
       <c r="K413">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L413">
         <v>3.1</v>
       </c>
       <c r="M413">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N413">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O413">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P413">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q413">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S413">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T413">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U413">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V413">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W413">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37315,16 +37315,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37332,7 +37332,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7670031</v>
+        <v>7670032</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37344,76 +37344,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F414" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G414" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K414">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L414">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M414">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N414">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O414">
         <v>3</v>
       </c>
       <c r="P414">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R414">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S414">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T414">
         <v>1.75</v>
       </c>
       <c r="U414">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V414">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W414">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X414">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA414">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB414">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC414">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37421,7 +37421,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7670032</v>
+        <v>7670031</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37433,76 +37433,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G415" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H415">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K415">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L415">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M415">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N415">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
         <v>3</v>
       </c>
       <c r="P415">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q415">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S415">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T415">
         <v>1.75</v>
       </c>
       <c r="U415">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V415">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W415">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB415">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37614,7 +37614,7 @@
         <v>53</v>
       </c>
       <c r="G417" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L419">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M419">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N419">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O419">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P419">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q419">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U419">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V419">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA419">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC419">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G420" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N420">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P420">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q420">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U420">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V420">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA420">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K421">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L421">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N421">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O421">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X421">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K422">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L422">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M422">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N422">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P422">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q422">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S422">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38234,7 +38234,7 @@
         <v>45347.8125</v>
       </c>
       <c r="F424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G424" t="s">
         <v>33</v>
@@ -38326,7 +38326,7 @@
         <v>49</v>
       </c>
       <c r="G425" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H425">
         <v>0</v>
@@ -38412,7 +38412,7 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G426" t="s">
         <v>42</v>
@@ -38768,7 +38768,7 @@
         <v>45348.89583333334</v>
       </c>
       <c r="F430" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G430" t="s">
         <v>34</v>
@@ -38857,10 +38857,10 @@
         <v>45348.90625</v>
       </c>
       <c r="F431" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G431" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H431">
         <v>0</v>
@@ -38946,10 +38946,10 @@
         <v>45351.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G432" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H432">
         <v>1</v>
@@ -39038,7 +39038,7 @@
         <v>58</v>
       </c>
       <c r="G433" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H433">
         <v>2</v>
@@ -39216,7 +39216,7 @@
         <v>34</v>
       </c>
       <c r="G435" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -39290,7 +39290,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7670060</v>
+        <v>7670050</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39302,76 +39302,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F436" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G436" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436">
         <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K436">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M436">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N436">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P436">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q436">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R436">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S436">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T436">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U436">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V436">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W436">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X436">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA436">
+        <v>-1</v>
+      </c>
+      <c r="AB436">
+        <v>0.45</v>
+      </c>
+      <c r="AC436">
         <v>-0.5</v>
-      </c>
-      <c r="AB436">
-        <v>-1</v>
-      </c>
-      <c r="AC436">
-        <v>0.875</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39379,7 +39379,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7670050</v>
+        <v>7670060</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39391,76 +39391,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F437" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G437" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437">
         <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K437">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M437">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N437">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P437">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q437">
+        <v>0.25</v>
+      </c>
+      <c r="R437">
+        <v>2.025</v>
+      </c>
+      <c r="S437">
+        <v>1.825</v>
+      </c>
+      <c r="T437">
+        <v>2</v>
+      </c>
+      <c r="U437">
+        <v>1.975</v>
+      </c>
+      <c r="V437">
+        <v>1.875</v>
+      </c>
+      <c r="W437">
+        <v>-1</v>
+      </c>
+      <c r="X437">
+        <v>2</v>
+      </c>
+      <c r="Y437">
+        <v>-1</v>
+      </c>
+      <c r="Z437">
+        <v>0.5125</v>
+      </c>
+      <c r="AA437">
         <v>-0.5</v>
       </c>
-      <c r="R437">
-        <v>1.975</v>
-      </c>
-      <c r="S437">
-        <v>1.875</v>
-      </c>
-      <c r="T437">
-        <v>1.75</v>
-      </c>
-      <c r="U437">
-        <v>1.9</v>
-      </c>
-      <c r="V437">
-        <v>1.95</v>
-      </c>
-      <c r="W437">
-        <v>0.95</v>
-      </c>
-      <c r="X437">
-        <v>-1</v>
-      </c>
-      <c r="Y437">
-        <v>-1</v>
-      </c>
-      <c r="Z437">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA437">
-        <v>-1</v>
-      </c>
       <c r="AB437">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39485,6 +39485,15 @@
       <c r="G438" t="s">
         <v>40</v>
       </c>
+      <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
+        <v>2</v>
+      </c>
+      <c r="J438" t="s">
+        <v>63</v>
+      </c>
       <c r="K438">
         <v>2.15</v>
       </c>
@@ -39495,46 +39504,52 @@
         <v>3.7</v>
       </c>
       <c r="N438">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O438">
         <v>2.8</v>
       </c>
       <c r="P438">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q438">
         <v>0</v>
       </c>
       <c r="R438">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S438">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T438">
         <v>1.75</v>
       </c>
       <c r="U438">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V438">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W438">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X438">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z438">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="AB438">
+        <v>1.05</v>
+      </c>
+      <c r="AC438">
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39542,7 +39557,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7670049</v>
+        <v>7670057</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39551,49 +39566,49 @@
         <v>30</v>
       </c>
       <c r="E439" s="2">
-        <v>45353.79166666666</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G439" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K439">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L439">
+        <v>3</v>
+      </c>
+      <c r="M439">
+        <v>3.5</v>
+      </c>
+      <c r="N439">
+        <v>2.375</v>
+      </c>
+      <c r="O439">
         <v>2.9</v>
       </c>
-      <c r="M439">
-        <v>3.1</v>
-      </c>
-      <c r="N439">
-        <v>2.75</v>
-      </c>
-      <c r="O439">
-        <v>3</v>
-      </c>
       <c r="P439">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R439">
+        <v>2.025</v>
+      </c>
+      <c r="S439">
+        <v>1.825</v>
+      </c>
+      <c r="T439">
+        <v>2</v>
+      </c>
+      <c r="U439">
         <v>1.875</v>
       </c>
-      <c r="S439">
+      <c r="V439">
         <v>1.975</v>
-      </c>
-      <c r="T439">
-        <v>2</v>
-      </c>
-      <c r="U439">
-        <v>1.95</v>
-      </c>
-      <c r="V439">
-        <v>1.9</v>
       </c>
       <c r="W439">
         <v>0</v>
@@ -39616,7 +39631,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7670053</v>
+        <v>7670061</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39625,22 +39640,22 @@
         <v>30</v>
       </c>
       <c r="E440" s="2">
-        <v>45353.80208333334</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G440" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K440">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L440">
         <v>3</v>
       </c>
       <c r="M440">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N440">
         <v>2.5</v>
@@ -39661,13 +39676,13 @@
         <v>1.75</v>
       </c>
       <c r="T440">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U440">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V440">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W440">
         <v>0</v>
@@ -39690,7 +39705,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>7670051</v>
+        <v>7670058</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39699,49 +39714,49 @@
         <v>30</v>
       </c>
       <c r="E441" s="2">
-        <v>45353.89583333334</v>
+        <v>45354.80208333334</v>
       </c>
       <c r="F441" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G441" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="K441">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="L441">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M441">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N441">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O441">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P441">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q441">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R441">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S441">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T441">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U441">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V441">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W441">
         <v>0</v>
@@ -39764,7 +39779,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670057</v>
+        <v>7670062</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39773,50 +39788,50 @@
         <v>30</v>
       </c>
       <c r="E442" s="2">
-        <v>45354.70833333334</v>
+        <v>45354.89583333334</v>
       </c>
       <c r="F442" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G442" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K442">
+        <v>2.5</v>
+      </c>
+      <c r="L442">
+        <v>2.75</v>
+      </c>
+      <c r="M442">
+        <v>3.1</v>
+      </c>
+      <c r="N442">
         <v>2.15</v>
       </c>
-      <c r="L442">
-        <v>3</v>
-      </c>
-      <c r="M442">
-        <v>3.5</v>
-      </c>
-      <c r="N442">
-        <v>2.375</v>
-      </c>
       <c r="O442">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P442">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q442">
         <v>-0.25</v>
       </c>
       <c r="R442">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S442">
+        <v>2.1</v>
+      </c>
+      <c r="T442">
+        <v>1.75</v>
+      </c>
+      <c r="U442">
+        <v>2</v>
+      </c>
+      <c r="V442">
         <v>1.85</v>
       </c>
-      <c r="T442">
-        <v>2</v>
-      </c>
-      <c r="U442">
-        <v>1.9</v>
-      </c>
-      <c r="V442">
-        <v>1.95</v>
-      </c>
       <c r="W442">
         <v>0</v>
       </c>
@@ -39830,228 +39845,6 @@
         <v>0</v>
       </c>
       <c r="AA442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:29">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>7670061</v>
-      </c>
-      <c r="C443" t="s">
-        <v>28</v>
-      </c>
-      <c r="D443" t="s">
-        <v>30</v>
-      </c>
-      <c r="E443" s="2">
-        <v>45354.70833333334</v>
-      </c>
-      <c r="F443" t="s">
-        <v>42</v>
-      </c>
-      <c r="G443" t="s">
-        <v>33</v>
-      </c>
-      <c r="K443">
-        <v>2.05</v>
-      </c>
-      <c r="L443">
-        <v>3</v>
-      </c>
-      <c r="M443">
-        <v>3.8</v>
-      </c>
-      <c r="N443">
-        <v>2.45</v>
-      </c>
-      <c r="O443">
-        <v>2.9</v>
-      </c>
-      <c r="P443">
-        <v>3.4</v>
-      </c>
-      <c r="Q443">
-        <v>-0.25</v>
-      </c>
-      <c r="R443">
-        <v>2.05</v>
-      </c>
-      <c r="S443">
-        <v>1.8</v>
-      </c>
-      <c r="T443">
-        <v>2</v>
-      </c>
-      <c r="U443">
-        <v>2.05</v>
-      </c>
-      <c r="V443">
-        <v>1.8</v>
-      </c>
-      <c r="W443">
-        <v>0</v>
-      </c>
-      <c r="X443">
-        <v>0</v>
-      </c>
-      <c r="Y443">
-        <v>0</v>
-      </c>
-      <c r="Z443">
-        <v>0</v>
-      </c>
-      <c r="AA443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:29">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>7670058</v>
-      </c>
-      <c r="C444" t="s">
-        <v>28</v>
-      </c>
-      <c r="D444" t="s">
-        <v>30</v>
-      </c>
-      <c r="E444" s="2">
-        <v>45354.80208333334</v>
-      </c>
-      <c r="F444" t="s">
-        <v>47</v>
-      </c>
-      <c r="G444" t="s">
-        <v>36</v>
-      </c>
-      <c r="K444">
-        <v>2.05</v>
-      </c>
-      <c r="L444">
-        <v>3.05</v>
-      </c>
-      <c r="M444">
-        <v>3.75</v>
-      </c>
-      <c r="N444">
-        <v>1.727</v>
-      </c>
-      <c r="O444">
-        <v>3.5</v>
-      </c>
-      <c r="P444">
-        <v>5.5</v>
-      </c>
-      <c r="Q444">
-        <v>-0.75</v>
-      </c>
-      <c r="R444">
-        <v>1.95</v>
-      </c>
-      <c r="S444">
-        <v>1.9</v>
-      </c>
-      <c r="T444">
-        <v>2</v>
-      </c>
-      <c r="U444">
-        <v>1.85</v>
-      </c>
-      <c r="V444">
-        <v>2</v>
-      </c>
-      <c r="W444">
-        <v>0</v>
-      </c>
-      <c r="X444">
-        <v>0</v>
-      </c>
-      <c r="Y444">
-        <v>0</v>
-      </c>
-      <c r="Z444">
-        <v>0</v>
-      </c>
-      <c r="AA444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:29">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>7670062</v>
-      </c>
-      <c r="C445" t="s">
-        <v>28</v>
-      </c>
-      <c r="D445" t="s">
-        <v>30</v>
-      </c>
-      <c r="E445" s="2">
-        <v>45354.89583333334</v>
-      </c>
-      <c r="F445" t="s">
-        <v>49</v>
-      </c>
-      <c r="G445" t="s">
-        <v>41</v>
-      </c>
-      <c r="K445">
-        <v>2.5</v>
-      </c>
-      <c r="L445">
-        <v>2.75</v>
-      </c>
-      <c r="M445">
-        <v>3.1</v>
-      </c>
-      <c r="N445">
-        <v>2.2</v>
-      </c>
-      <c r="O445">
-        <v>2.8</v>
-      </c>
-      <c r="P445">
-        <v>4.2</v>
-      </c>
-      <c r="Q445">
-        <v>-0.25</v>
-      </c>
-      <c r="R445">
-        <v>1.8</v>
-      </c>
-      <c r="S445">
-        <v>2.05</v>
-      </c>
-      <c r="T445">
-        <v>1.75</v>
-      </c>
-      <c r="U445">
-        <v>1.975</v>
-      </c>
-      <c r="V445">
-        <v>1.875</v>
-      </c>
-      <c r="W445">
-        <v>0</v>
-      </c>
-      <c r="X445">
-        <v>0</v>
-      </c>
-      <c r="Y445">
-        <v>0</v>
-      </c>
-      <c r="Z445">
-        <v>0</v>
-      </c>
-      <c r="AA445">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Central Cordoba</t>
+    <t>Rosario Central</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Central Cordoba</t>
   </si>
   <si>
     <t>Racing Club</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC472"/>
+  <dimension ref="A1:AC473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6120049</v>
+        <v>6120060</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1213,55 +1213,55 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1270,16 +1270,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6120060</v>
+        <v>6120049</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1302,55 +1302,55 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1359,16 +1359,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1836,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -4325,7 +4325,7 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>53</v>
@@ -4951,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6120871</v>
+        <v>6120094</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5482,10 +5482,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5497,43 +5497,43 @@
         <v>62</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
+        <v>2.875</v>
+      </c>
+      <c r="M56">
+        <v>2.5</v>
+      </c>
+      <c r="N56">
+        <v>3.2</v>
+      </c>
+      <c r="O56">
         <v>3</v>
       </c>
-      <c r="M56">
-        <v>3.5</v>
-      </c>
-      <c r="N56">
+      <c r="P56">
+        <v>2.45</v>
+      </c>
+      <c r="Q56">
+        <v>0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
         <v>1.95</v>
       </c>
-      <c r="O56">
-        <v>3.25</v>
-      </c>
-      <c r="P56">
-        <v>4.2</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>2.05</v>
-      </c>
-      <c r="S56">
-        <v>1.8</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>2.025</v>
-      </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5542,7 +5542,7 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5551,7 +5551,7 @@
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6120094</v>
+        <v>6120871</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5571,10 +5571,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5586,43 +5586,43 @@
         <v>62</v>
       </c>
       <c r="K57">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M57">
+        <v>3.5</v>
+      </c>
+      <c r="N57">
+        <v>1.95</v>
+      </c>
+      <c r="O57">
+        <v>3.25</v>
+      </c>
+      <c r="P57">
+        <v>4.2</v>
+      </c>
+      <c r="Q57">
+        <v>-0.5</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>1.8</v>
+      </c>
+      <c r="T57">
         <v>2.5</v>
       </c>
-      <c r="N57">
-        <v>3.2</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>2.45</v>
-      </c>
-      <c r="Q57">
-        <v>0.25</v>
-      </c>
-      <c r="R57">
+      <c r="U57">
+        <v>2.025</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
       <c r="W57">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5631,16 +5631,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>1.05</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
-      <c r="AC57">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6105,7 +6105,7 @@
         <v>45112.75</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6538,7 +6538,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6120106</v>
+        <v>6120111</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6550,76 +6550,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K68">
+        <v>1.909</v>
+      </c>
+      <c r="L68">
+        <v>3.1</v>
+      </c>
+      <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.7</v>
+      </c>
+      <c r="O68">
         <v>3.5</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="N68">
-        <v>3.4</v>
-      </c>
-      <c r="O68">
-        <v>3.25</v>
-      </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6627,7 +6627,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6120111</v>
+        <v>6120106</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6639,76 +6639,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6716,7 +6716,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6120104</v>
+        <v>6120112</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6728,55 +6728,55 @@
         <v>45113.89583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>63</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O70">
         <v>3.1</v>
       </c>
       <c r="P70">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
         <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V70">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6785,19 +6785,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.333</v>
+        <v>3.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC70">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6805,7 +6805,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6120112</v>
+        <v>6120104</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6817,55 +6817,55 @@
         <v>45113.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>63</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O71">
         <v>3.1</v>
       </c>
       <c r="P71">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q71">
         <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
         <v>1.75</v>
       </c>
       <c r="U71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6874,19 +6874,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6995,7 +6995,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -8063,10 +8063,10 @@
         <v>45118.78125</v>
       </c>
       <c r="F85" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
         <v>38</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8689,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9119,7 +9119,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6894218</v>
+        <v>6894217</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9131,76 +9131,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
+        <v>3.2</v>
+      </c>
+      <c r="M97">
+        <v>5.5</v>
+      </c>
+      <c r="N97">
+        <v>1.8</v>
+      </c>
+      <c r="O97">
         <v>3.25</v>
       </c>
-      <c r="M97">
-        <v>3</v>
-      </c>
-      <c r="N97">
-        <v>2.45</v>
-      </c>
-      <c r="O97">
-        <v>3.1</v>
-      </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9208,7 +9208,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6894217</v>
+        <v>6894218</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K98">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M98">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N98">
+        <v>2.45</v>
+      </c>
+      <c r="O98">
+        <v>3.1</v>
+      </c>
+      <c r="P98">
+        <v>3.1</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
         <v>1.8</v>
       </c>
-      <c r="O98">
-        <v>3.25</v>
-      </c>
-      <c r="P98">
-        <v>5.25</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>2.1</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.8</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.825</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10021,7 +10021,7 @@
         <v>45130.875</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>57</v>
@@ -10098,7 +10098,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6937653</v>
+        <v>6120154</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10110,61 +10110,61 @@
         <v>45131.6875</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>61</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N108">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.875</v>
+        <v>3.5</v>
       </c>
       <c r="Y108">
         <v>-1</v>
@@ -10173,13 +10173,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10187,7 +10187,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6120154</v>
+        <v>6937653</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10199,62 +10199,62 @@
         <v>45131.6875</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>61</v>
       </c>
       <c r="K109">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
         <v>4</v>
       </c>
-      <c r="M109">
-        <v>6.5</v>
-      </c>
       <c r="N109">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O109">
+        <v>2.875</v>
+      </c>
+      <c r="P109">
         <v>4.5</v>
       </c>
-      <c r="P109">
-        <v>9</v>
-      </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>1.875</v>
       </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>3.5</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
@@ -10262,13 +10262,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10380,7 +10380,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -11092,7 +11092,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>56</v>
@@ -11611,7 +11611,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6961142</v>
+        <v>6120166</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11623,10 +11623,10 @@
         <v>45137.625</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11638,43 +11638,43 @@
         <v>62</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11700,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6120166</v>
+        <v>6961142</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11712,10 +11712,10 @@
         <v>45137.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11727,43 +11727,43 @@
         <v>62</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11789,7 +11789,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6120160</v>
+        <v>6120161</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11801,76 +11801,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L127">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O127">
         <v>2.8</v>
       </c>
       <c r="P127">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T127">
         <v>1.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X127">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6120161</v>
+        <v>6120160</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11890,76 +11890,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G128" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K128">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L128">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M128">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O128">
         <v>2.8</v>
       </c>
       <c r="P128">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
         <v>1.75</v>
       </c>
       <c r="U128">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12780,7 +12780,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>56</v>
@@ -13139,7 +13139,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13940,7 +13940,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14296,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14471,7 +14471,7 @@
         <v>45170.875</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>46</v>
@@ -15183,7 +15183,7 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>48</v>
@@ -15898,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16343,7 +16343,7 @@
         <v>53</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -17141,7 +17141,7 @@
         <v>45188.78125</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
@@ -17218,7 +17218,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7178907</v>
+        <v>7178899</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17230,76 +17230,76 @@
         <v>45188.875</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K188">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M188">
         <v>3.75</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O188">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P188">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X188">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17307,7 +17307,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7178899</v>
+        <v>7178907</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17319,76 +17319,76 @@
         <v>45188.875</v>
       </c>
       <c r="F189" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M189">
         <v>3.75</v>
       </c>
       <c r="N189">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O189">
+        <v>2.875</v>
+      </c>
+      <c r="P189">
         <v>3</v>
       </c>
-      <c r="P189">
-        <v>5.25</v>
-      </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
+        <v>2.025</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
+        <v>1.825</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>1.875</v>
       </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>1.75</v>
-      </c>
-      <c r="U189">
-        <v>1.875</v>
-      </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
-      <c r="W189">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17574,7 +17574,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7178903</v>
+        <v>7179016</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17586,76 +17586,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K192">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L192">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
+        <v>5</v>
+      </c>
+      <c r="N192">
+        <v>1.7</v>
+      </c>
+      <c r="O192">
         <v>3.4</v>
       </c>
-      <c r="N192">
-        <v>2.2</v>
-      </c>
-      <c r="O192">
-        <v>2.9</v>
-      </c>
       <c r="P192">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
         <v>1.9</v>
       </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
       <c r="T192">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X192">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.475</v>
+      </c>
+      <c r="AA192">
         <v>-0.5</v>
       </c>
-      <c r="AA192">
-        <v>0.475</v>
-      </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17663,7 +17663,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7179016</v>
+        <v>7178903</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17675,76 +17675,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K193">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N193">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P193">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
+        <v>1.9</v>
+      </c>
+      <c r="S193">
         <v>1.95</v>
       </c>
-      <c r="S193">
+      <c r="T193">
+        <v>1.75</v>
+      </c>
+      <c r="U193">
+        <v>1.925</v>
+      </c>
+      <c r="V193">
+        <v>1.925</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>1.9</v>
       </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>2.05</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
-      <c r="W193">
-        <v>0.7</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>-0.5</v>
+      </c>
+      <c r="AA193">
         <v>0.475</v>
       </c>
-      <c r="AA193">
-        <v>-0.5</v>
-      </c>
       <c r="AB193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17752,7 +17752,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7178898</v>
+        <v>7178902</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17764,13 +17764,13 @@
         <v>45189.875</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -17779,43 +17779,43 @@
         <v>62</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L194">
+        <v>3.4</v>
+      </c>
+      <c r="M194">
+        <v>4.5</v>
+      </c>
+      <c r="N194">
+        <v>2.3</v>
+      </c>
+      <c r="O194">
+        <v>3.3</v>
+      </c>
+      <c r="P194">
         <v>3.2</v>
-      </c>
-      <c r="M194">
-        <v>3.3</v>
-      </c>
-      <c r="N194">
-        <v>2.05</v>
-      </c>
-      <c r="O194">
-        <v>3.1</v>
-      </c>
-      <c r="P194">
-        <v>3.8</v>
       </c>
       <c r="Q194">
         <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
         <v>2</v>
       </c>
       <c r="U194">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17824,13 +17824,13 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17841,7 +17841,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7178902</v>
+        <v>7178898</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17853,13 +17853,13 @@
         <v>45189.875</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G195" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -17868,43 +17868,43 @@
         <v>62</v>
       </c>
       <c r="K195">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N195">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17913,13 +17913,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -18301,7 +18301,7 @@
         <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18464,7 +18464,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7031969</v>
+        <v>7032058</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18476,58 +18476,58 @@
         <v>45192.875</v>
       </c>
       <c r="F202" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>62</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L202">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
         <v>3</v>
       </c>
       <c r="N202">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O202">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T202">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18536,13 +18536,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18553,7 +18553,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7032058</v>
+        <v>7031969</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18565,58 +18565,58 @@
         <v>45192.875</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G203" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>62</v>
       </c>
       <c r="K203">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M203">
         <v>3</v>
       </c>
       <c r="N203">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O203">
+        <v>2.8</v>
+      </c>
+      <c r="P203">
         <v>3.5</v>
       </c>
-      <c r="P203">
-        <v>3.8</v>
-      </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U203">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18625,13 +18625,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18998,7 +18998,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032056</v>
+        <v>7032055</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19010,76 +19010,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L208">
+        <v>2.9</v>
+      </c>
+      <c r="M208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
       <c r="N208">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O208">
         <v>2.7</v>
       </c>
       <c r="P208">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032055</v>
+        <v>7032056</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19099,76 +19099,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="N209">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
         <v>2.7</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>1.75</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19176,7 +19176,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7032054</v>
+        <v>7031972</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19188,76 +19188,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K210">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
         <v>2.7</v>
       </c>
       <c r="N210">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA210">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC210">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19265,7 +19265,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7031972</v>
+        <v>7032054</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19277,76 +19277,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K211">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L211">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M211">
         <v>2.7</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P211">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
         <v>1.975</v>
       </c>
-      <c r="V211">
-        <v>1.875</v>
-      </c>
       <c r="W211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB211">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19354,7 +19354,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7031975</v>
+        <v>7031973</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19366,13 +19366,13 @@
         <v>45194.875</v>
       </c>
       <c r="F212" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19381,43 +19381,43 @@
         <v>62</v>
       </c>
       <c r="K212">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N212">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.75</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
         <v>1.925</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.925</v>
       </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
-      <c r="V212">
-        <v>2.025</v>
-      </c>
       <c r="W212">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19426,16 +19426,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19443,7 +19443,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7031973</v>
+        <v>7031975</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19455,13 +19455,13 @@
         <v>45194.875</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19470,43 +19470,43 @@
         <v>62</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19515,16 +19515,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19811,7 +19811,7 @@
         <v>45199.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
         <v>49</v>
@@ -20600,7 +20600,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7031981</v>
+        <v>7031985</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20612,10 +20612,10 @@
         <v>45201.875</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20627,40 +20627,40 @@
         <v>61</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O226">
         <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T226">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20672,16 +20672,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20689,7 +20689,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7031985</v>
+        <v>7031981</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20701,10 +20701,10 @@
         <v>45201.875</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20716,40 +20716,40 @@
         <v>61</v>
       </c>
       <c r="K227">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
         <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20761,16 +20761,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20790,7 +20790,7 @@
         <v>45205.85416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>58</v>
@@ -20956,7 +20956,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032064</v>
+        <v>7032060</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20968,55 +20968,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>63</v>
       </c>
       <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>3.6</v>
+      </c>
+      <c r="N230">
         <v>1.909</v>
       </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>4.333</v>
-      </c>
-      <c r="N230">
-        <v>2.1</v>
-      </c>
       <c r="O230">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21025,19 +21025,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21045,7 +21045,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7032060</v>
+        <v>7032064</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21057,55 +21057,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>63</v>
       </c>
       <c r="K231">
+        <v>1.909</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>4.333</v>
+      </c>
+      <c r="N231">
         <v>2.1</v>
       </c>
-      <c r="L231">
-        <v>3.2</v>
-      </c>
-      <c r="M231">
-        <v>3.6</v>
-      </c>
-      <c r="N231">
-        <v>1.909</v>
-      </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21114,19 +21114,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21134,7 +21134,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7031991</v>
+        <v>7032059</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21146,76 +21146,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K232">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N232">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O232">
         <v>3.1</v>
       </c>
       <c r="P232">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S232">
+        <v>2.1</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
         <v>2.05</v>
       </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
-      <c r="U232">
-        <v>2.025</v>
-      </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA232">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21223,7 +21223,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7032059</v>
+        <v>7031991</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21235,76 +21235,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K233">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N233">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O233">
         <v>3.1</v>
       </c>
       <c r="P233">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S233">
+        <v>2.05</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
+        <v>2.025</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
         <v>2.1</v>
       </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
-      <c r="U233">
-        <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
-      <c r="W233">
-        <v>2.2</v>
-      </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21668,7 +21668,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7031990</v>
+        <v>7031988</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21680,76 +21680,76 @@
         <v>45208.75</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P238">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21757,7 +21757,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7031988</v>
+        <v>7031990</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21769,76 +21769,76 @@
         <v>45208.75</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
         <v>3.2</v>
       </c>
       <c r="M239">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O239">
+        <v>3</v>
+      </c>
+      <c r="P239">
         <v>2.9</v>
       </c>
-      <c r="P239">
-        <v>2.45</v>
-      </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X239">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22125,7 +22125,7 @@
         <v>45215.75</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
         <v>43</v>
@@ -22748,7 +22748,7 @@
         <v>45218.86458333334</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
         <v>52</v>
@@ -23730,7 +23730,7 @@
         <v>51</v>
       </c>
       <c r="G261" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23997,7 +23997,7 @@
         <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -24338,7 +24338,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7299917</v>
+        <v>7299921</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24350,76 +24350,76 @@
         <v>45225.875</v>
       </c>
       <c r="F268" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G268" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K268">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L268">
+        <v>3.2</v>
+      </c>
+      <c r="M268">
+        <v>3.2</v>
+      </c>
+      <c r="N268">
+        <v>2.55</v>
+      </c>
+      <c r="O268">
         <v>3</v>
       </c>
-      <c r="M268">
-        <v>4</v>
-      </c>
-      <c r="N268">
+      <c r="P268">
+        <v>3.1</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>1.725</v>
+      </c>
+      <c r="S268">
         <v>2.15</v>
       </c>
-      <c r="O268">
-        <v>2.875</v>
-      </c>
-      <c r="P268">
-        <v>4.2</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>1.775</v>
-      </c>
-      <c r="S268">
-        <v>2.1</v>
-      </c>
       <c r="T268">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V268">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AC268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24427,7 +24427,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7299921</v>
+        <v>7299917</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24439,76 +24439,76 @@
         <v>45225.875</v>
       </c>
       <c r="F269" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K269">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>4</v>
+      </c>
+      <c r="N269">
+        <v>2.15</v>
+      </c>
+      <c r="O269">
+        <v>2.875</v>
+      </c>
+      <c r="P269">
+        <v>4.2</v>
+      </c>
+      <c r="Q269">
+        <v>-0.25</v>
+      </c>
+      <c r="R269">
+        <v>1.775</v>
+      </c>
+      <c r="S269">
+        <v>2.1</v>
+      </c>
+      <c r="T269">
+        <v>1.75</v>
+      </c>
+      <c r="U269">
+        <v>1.775</v>
+      </c>
+      <c r="V269">
+        <v>2.1</v>
+      </c>
+      <c r="W269">
+        <v>-1</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
         <v>3.2</v>
       </c>
-      <c r="M269">
-        <v>3.2</v>
-      </c>
-      <c r="N269">
-        <v>2.55</v>
-      </c>
-      <c r="O269">
-        <v>3</v>
-      </c>
-      <c r="P269">
-        <v>3.1</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269">
-        <v>1.725</v>
-      </c>
-      <c r="S269">
-        <v>2.15</v>
-      </c>
-      <c r="T269">
-        <v>2</v>
-      </c>
-      <c r="U269">
-        <v>2.05</v>
-      </c>
-      <c r="V269">
-        <v>1.8</v>
-      </c>
-      <c r="W269">
-        <v>1.55</v>
-      </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
       <c r="Z269">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB269">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24795,7 +24795,7 @@
         <v>45228.6875</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G273" t="s">
         <v>34</v>
@@ -25596,7 +25596,7 @@
         <v>45230.875</v>
       </c>
       <c r="F282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G282" t="s">
         <v>40</v>
@@ -26311,7 +26311,7 @@
         <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26667,7 +26667,7 @@
         <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -27020,7 +27020,7 @@
         <v>45240.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27287,7 +27287,7 @@
         <v>45241.77083333334</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G301" t="s">
         <v>57</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K308">
+        <v>1.8</v>
+      </c>
+      <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
+        <v>5</v>
+      </c>
+      <c r="N308">
+        <v>2.625</v>
+      </c>
+      <c r="O308">
+        <v>2.8</v>
+      </c>
+      <c r="P308">
+        <v>3.1</v>
+      </c>
+      <c r="Q308">
+        <v>-0.25</v>
+      </c>
+      <c r="R308">
         <v>2.1</v>
       </c>
-      <c r="L308">
-        <v>2.8</v>
-      </c>
-      <c r="M308">
-        <v>3.9</v>
-      </c>
-      <c r="N308">
-        <v>1.909</v>
-      </c>
-      <c r="O308">
-        <v>3</v>
-      </c>
-      <c r="P308">
-        <v>5</v>
-      </c>
-      <c r="Q308">
-        <v>-0.5</v>
-      </c>
-      <c r="R308">
-        <v>1.9</v>
-      </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U308">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X308">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA308">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H309">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M309">
+        <v>3.9</v>
+      </c>
+      <c r="N309">
+        <v>1.909</v>
+      </c>
+      <c r="O309">
+        <v>3</v>
+      </c>
+      <c r="P309">
         <v>5</v>
       </c>
-      <c r="N309">
-        <v>2.625</v>
-      </c>
-      <c r="O309">
-        <v>2.8</v>
-      </c>
-      <c r="P309">
-        <v>3.1</v>
-      </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
+        <v>1.9</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2</v>
+      </c>
+      <c r="U309">
         <v>2.1</v>
       </c>
-      <c r="S309">
-        <v>1.7</v>
-      </c>
-      <c r="T309">
-        <v>1.75</v>
-      </c>
-      <c r="U309">
-        <v>1.85</v>
-      </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W309">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB309">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28343,7 +28343,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7475473</v>
+        <v>7475441</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28355,10 +28355,10 @@
         <v>45255.75</v>
       </c>
       <c r="F313" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G313" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28373,58 +28373,58 @@
         <v>2.2</v>
       </c>
       <c r="L313">
+        <v>3.2</v>
+      </c>
+      <c r="M313">
         <v>3.4</v>
       </c>
-      <c r="M313">
-        <v>3.2</v>
-      </c>
       <c r="N313">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O313">
         <v>3.1</v>
       </c>
       <c r="P313">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q313">
         <v>-0.25</v>
       </c>
       <c r="R313">
+        <v>1.9</v>
+      </c>
+      <c r="S313">
+        <v>1.95</v>
+      </c>
+      <c r="T313">
+        <v>1.75</v>
+      </c>
+      <c r="U313">
         <v>1.8</v>
       </c>
-      <c r="S313">
+      <c r="V313">
         <v>2.05</v>
       </c>
-      <c r="T313">
-        <v>2</v>
-      </c>
-      <c r="U313">
-        <v>1.875</v>
-      </c>
-      <c r="V313">
-        <v>1.975</v>
-      </c>
       <c r="W313">
+        <v>1.2</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
+        <v>-1</v>
+      </c>
+      <c r="Z313">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA313">
+        <v>-1</v>
+      </c>
+      <c r="AB313">
+        <v>-1</v>
+      </c>
+      <c r="AC313">
         <v>1.05</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>-1</v>
-      </c>
-      <c r="Z313">
-        <v>0.8</v>
-      </c>
-      <c r="AA313">
-        <v>-1</v>
-      </c>
-      <c r="AB313">
-        <v>-1</v>
-      </c>
-      <c r="AC313">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28432,7 +28432,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7475419</v>
+        <v>7475473</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28444,13 +28444,13 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G314" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28459,43 +28459,43 @@
         <v>62</v>
       </c>
       <c r="K314">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L314">
+        <v>3.4</v>
+      </c>
+      <c r="M314">
         <v>3.2</v>
       </c>
-      <c r="M314">
-        <v>5</v>
-      </c>
       <c r="N314">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O314">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P314">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
         <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S314">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T314">
         <v>2</v>
       </c>
       <c r="U314">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28504,16 +28504,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28521,7 +28521,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7475441</v>
+        <v>7475419</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28533,13 +28533,13 @@
         <v>45255.75</v>
       </c>
       <c r="F315" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G315" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28548,19 +28548,19 @@
         <v>62</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L315">
         <v>3.2</v>
       </c>
       <c r="M315">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N315">
         <v>2.2</v>
       </c>
       <c r="O315">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P315">
         <v>3.6</v>
@@ -28575,13 +28575,13 @@
         <v>1.95</v>
       </c>
       <c r="T315">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W315">
         <v>1.2</v>
@@ -28599,10 +28599,10 @@
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475437</v>
+        <v>7475397</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,73 +28711,73 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K317">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L317">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N317">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O317">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P317">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R317">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="S317">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z317">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB317">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC317">
         <v>-1</v>
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475397</v>
+        <v>7475420</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,13 +28800,13 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G318" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -28815,40 +28815,40 @@
         <v>63</v>
       </c>
       <c r="K318">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L318">
+        <v>2.9</v>
+      </c>
+      <c r="M318">
+        <v>3.5</v>
+      </c>
+      <c r="N318">
+        <v>2.625</v>
+      </c>
+      <c r="O318">
+        <v>2.75</v>
+      </c>
+      <c r="P318">
         <v>3.2</v>
       </c>
-      <c r="M318">
-        <v>1.909</v>
-      </c>
-      <c r="N318">
-        <v>4.5</v>
-      </c>
-      <c r="O318">
-        <v>3.5</v>
-      </c>
-      <c r="P318">
-        <v>1.8</v>
-      </c>
       <c r="Q318">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S318">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V318">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W318">
         <v>-1</v>
@@ -28857,19 +28857,19 @@
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z318">
+        <v>-1</v>
+      </c>
+      <c r="AA318">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB318">
+        <v>0.425</v>
+      </c>
+      <c r="AC318">
         <v>-0.5</v>
-      </c>
-      <c r="AA318">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB318">
-        <v>0.8</v>
-      </c>
-      <c r="AC318">
-        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475420</v>
+        <v>7475437</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G319" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I319">
         <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K319">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L319">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M319">
+        <v>3.3</v>
+      </c>
+      <c r="N319">
+        <v>2.6</v>
+      </c>
+      <c r="O319">
+        <v>2.6</v>
+      </c>
+      <c r="P319">
         <v>3.5</v>
-      </c>
-      <c r="N319">
-        <v>2.625</v>
-      </c>
-      <c r="O319">
-        <v>2.75</v>
-      </c>
-      <c r="P319">
-        <v>3.2</v>
       </c>
       <c r="Q319">
         <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T319">
         <v>1.75</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA319">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29055,7 +29055,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7475444</v>
+        <v>7475439</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29067,40 +29067,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G321" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K321">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L321">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M321">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N321">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O321">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P321">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
         <v>2.05</v>
@@ -29109,34 +29109,34 @@
         <v>1.8</v>
       </c>
       <c r="T321">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V321">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB321">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29144,7 +29144,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7475439</v>
+        <v>7475444</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29156,40 +29156,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K322">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L322">
+        <v>3.1</v>
+      </c>
+      <c r="M322">
+        <v>3.5</v>
+      </c>
+      <c r="N322">
+        <v>2</v>
+      </c>
+      <c r="O322">
         <v>3.2</v>
       </c>
-      <c r="M322">
-        <v>4.333</v>
-      </c>
-      <c r="N322">
-        <v>1.7</v>
-      </c>
-      <c r="O322">
-        <v>3.4</v>
-      </c>
       <c r="P322">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q322">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
         <v>2.05</v>
@@ -29198,34 +29198,34 @@
         <v>1.8</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U322">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X322">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA322">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
+        <v>0.45</v>
+      </c>
+      <c r="AC322">
         <v>-0.5</v>
-      </c>
-      <c r="AC322">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29871,7 +29871,7 @@
         <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H330">
         <v>8</v>
@@ -30049,7 +30049,7 @@
         <v>57</v>
       </c>
       <c r="G332" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30138,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="G333" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>56</v>
       </c>
       <c r="G336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30491,7 +30491,7 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G337" t="s">
         <v>49</v>
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,76 +30758,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G340" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
+        <v>2.3</v>
+      </c>
+      <c r="L340">
         <v>2.9</v>
       </c>
-      <c r="L340">
-        <v>3.1</v>
-      </c>
       <c r="M340">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N340">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O340">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P340">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R340">
+        <v>1.9</v>
+      </c>
+      <c r="S340">
+        <v>1.95</v>
+      </c>
+      <c r="T340">
+        <v>1.5</v>
+      </c>
+      <c r="U340">
         <v>1.875</v>
       </c>
-      <c r="S340">
+      <c r="V340">
         <v>1.975</v>
       </c>
-      <c r="T340">
-        <v>1.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
+      <c r="W340">
+        <v>-1</v>
+      </c>
+      <c r="X340">
+        <v>-1</v>
+      </c>
+      <c r="Y340">
         <v>1.9</v>
       </c>
-      <c r="W340">
-        <v>-1</v>
-      </c>
-      <c r="X340">
-        <v>-1</v>
-      </c>
-      <c r="Y340">
-        <v>1.375</v>
-      </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC340">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,56 +30847,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G341" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L341">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M341">
+        <v>2.5</v>
+      </c>
+      <c r="N341">
         <v>3.5</v>
       </c>
-      <c r="N341">
-        <v>2.8</v>
-      </c>
       <c r="O341">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P341">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q341">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
+        <v>1.875</v>
+      </c>
+      <c r="S341">
+        <v>1.975</v>
+      </c>
+      <c r="T341">
+        <v>1.75</v>
+      </c>
+      <c r="U341">
+        <v>1.95</v>
+      </c>
+      <c r="V341">
         <v>1.9</v>
       </c>
-      <c r="S341">
-        <v>1.95</v>
-      </c>
-      <c r="T341">
-        <v>1.5</v>
-      </c>
-      <c r="U341">
-        <v>1.875</v>
-      </c>
-      <c r="V341">
-        <v>1.975</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30904,19 +30904,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB341">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31737,7 +31737,7 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G351" t="s">
         <v>50</v>
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L360">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M360">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N360">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V360">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC360">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
+        <v>2.875</v>
+      </c>
+      <c r="L361">
         <v>2.9</v>
       </c>
-      <c r="L361">
-        <v>3</v>
-      </c>
       <c r="M361">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N361">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V361">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32897,7 +32897,7 @@
         <v>48</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H364">
         <v>4</v>
@@ -33164,7 +33164,7 @@
         <v>46</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33962,7 +33962,7 @@
         <v>45330.8125</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G376" t="s">
         <v>59</v>
@@ -34674,7 +34674,7 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F384" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G384" t="s">
         <v>31</v>
@@ -35463,7 +35463,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7670012</v>
+        <v>7817098</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35475,76 +35475,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K393">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L393">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M393">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N393">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O393">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P393">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q393">
+        <v>-0.25</v>
+      </c>
+      <c r="R393">
+        <v>1.8</v>
+      </c>
+      <c r="S393">
+        <v>2.05</v>
+      </c>
+      <c r="T393">
+        <v>1.75</v>
+      </c>
+      <c r="U393">
+        <v>1.825</v>
+      </c>
+      <c r="V393">
+        <v>2.025</v>
+      </c>
+      <c r="W393">
+        <v>-1</v>
+      </c>
+      <c r="X393">
+        <v>1.9</v>
+      </c>
+      <c r="Y393">
+        <v>-1</v>
+      </c>
+      <c r="Z393">
         <v>-0.5</v>
       </c>
-      <c r="R393">
-        <v>2.025</v>
-      </c>
-      <c r="S393">
-        <v>1.825</v>
-      </c>
-      <c r="T393">
-        <v>2</v>
-      </c>
-      <c r="U393">
-        <v>1.95</v>
-      </c>
-      <c r="V393">
-        <v>1.9</v>
-      </c>
-      <c r="W393">
-        <v>0.95</v>
-      </c>
-      <c r="X393">
-        <v>-1</v>
-      </c>
-      <c r="Y393">
-        <v>-1</v>
-      </c>
-      <c r="Z393">
+      <c r="AA393">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB393">
+        <v>-1</v>
+      </c>
+      <c r="AC393">
         <v>1.025</v>
-      </c>
-      <c r="AA393">
-        <v>-1</v>
-      </c>
-      <c r="AB393">
-        <v>-1</v>
-      </c>
-      <c r="AC393">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35552,7 +35552,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7817098</v>
+        <v>7670012</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35564,76 +35564,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G394" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394">
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K394">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M394">
+        <v>3.75</v>
+      </c>
+      <c r="N394">
+        <v>1.95</v>
+      </c>
+      <c r="O394">
+        <v>3.25</v>
+      </c>
+      <c r="P394">
         <v>4.333</v>
       </c>
-      <c r="N394">
-        <v>2.15</v>
-      </c>
-      <c r="O394">
-        <v>2.9</v>
-      </c>
-      <c r="P394">
-        <v>4</v>
-      </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S394">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T394">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U394">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V394">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X394">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA394">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35923,7 +35923,7 @@
         <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -36632,7 +36632,7 @@
         <v>45339.875</v>
       </c>
       <c r="F406" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G406" t="s">
         <v>55</v>
@@ -36709,7 +36709,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7670023</v>
+        <v>7670021</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36721,76 +36721,76 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K407">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L407">
         <v>3</v>
       </c>
       <c r="M407">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N407">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O407">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P407">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S407">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T407">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U407">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V407">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA407">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC407">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36798,7 +36798,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7670021</v>
+        <v>7670023</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36810,76 +36810,76 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G408" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K408">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L408">
         <v>3</v>
       </c>
       <c r="M408">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N408">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O408">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P408">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>1.8</v>
+      </c>
+      <c r="S408">
+        <v>2.05</v>
+      </c>
+      <c r="T408">
+        <v>1.75</v>
+      </c>
+      <c r="U408">
+        <v>1.925</v>
+      </c>
+      <c r="V408">
+        <v>1.925</v>
+      </c>
+      <c r="W408">
+        <v>-1</v>
+      </c>
+      <c r="X408">
+        <v>-1</v>
+      </c>
+      <c r="Y408">
+        <v>2</v>
+      </c>
+      <c r="Z408">
+        <v>-1</v>
+      </c>
+      <c r="AA408">
+        <v>1.05</v>
+      </c>
+      <c r="AB408">
+        <v>0.4625</v>
+      </c>
+      <c r="AC408">
         <v>-0.5</v>
-      </c>
-      <c r="R408">
-        <v>2.025</v>
-      </c>
-      <c r="S408">
-        <v>1.825</v>
-      </c>
-      <c r="T408">
-        <v>2</v>
-      </c>
-      <c r="U408">
-        <v>1.95</v>
-      </c>
-      <c r="V408">
-        <v>1.9</v>
-      </c>
-      <c r="W408">
-        <v>0.95</v>
-      </c>
-      <c r="X408">
-        <v>-1</v>
-      </c>
-      <c r="Y408">
-        <v>-1</v>
-      </c>
-      <c r="Z408">
-        <v>1.025</v>
-      </c>
-      <c r="AA408">
-        <v>-1</v>
-      </c>
-      <c r="AB408">
-        <v>-1</v>
-      </c>
-      <c r="AC408">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37332,7 +37332,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7670031</v>
+        <v>7670032</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37344,76 +37344,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F414" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G414" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K414">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L414">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M414">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N414">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O414">
         <v>3</v>
       </c>
       <c r="P414">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R414">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S414">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T414">
         <v>1.75</v>
       </c>
       <c r="U414">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V414">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W414">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X414">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA414">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB414">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC414">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37421,7 +37421,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7670032</v>
+        <v>7670031</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37433,76 +37433,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G415" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H415">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K415">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L415">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M415">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N415">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
         <v>3</v>
       </c>
       <c r="P415">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q415">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S415">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T415">
         <v>1.75</v>
       </c>
       <c r="U415">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V415">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W415">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X415">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB415">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37614,7 +37614,7 @@
         <v>54</v>
       </c>
       <c r="G417" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G419" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L419">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M419">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N419">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O419">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P419">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U419">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA419">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB419">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L420">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N420">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O420">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P420">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V420">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA420">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC420">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -38326,7 +38326,7 @@
         <v>49</v>
       </c>
       <c r="G425" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H425">
         <v>0</v>
@@ -38857,7 +38857,7 @@
         <v>45348.90625</v>
       </c>
       <c r="F431" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G431" t="s">
         <v>56</v>
@@ -39023,7 +39023,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7670055</v>
+        <v>7670052</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39035,76 +39035,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F433" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G433" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J433" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K433">
+        <v>3.6</v>
+      </c>
+      <c r="L433">
+        <v>3.05</v>
+      </c>
+      <c r="M433">
+        <v>2.1</v>
+      </c>
+      <c r="N433">
         <v>2.55</v>
       </c>
-      <c r="L433">
-        <v>2.9</v>
-      </c>
-      <c r="M433">
+      <c r="O433">
         <v>2.875</v>
       </c>
-      <c r="N433">
-        <v>2.3</v>
-      </c>
-      <c r="O433">
-        <v>3</v>
-      </c>
       <c r="P433">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q433">
         <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S433">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T433">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V433">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W433">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z433">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB433">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AC433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39112,7 +39112,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7670052</v>
+        <v>7670055</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39124,76 +39124,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F434" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G434" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434" t="s">
+        <v>62</v>
+      </c>
+      <c r="K434">
+        <v>2.55</v>
+      </c>
+      <c r="L434">
+        <v>2.9</v>
+      </c>
+      <c r="M434">
+        <v>2.875</v>
+      </c>
+      <c r="N434">
+        <v>2.3</v>
+      </c>
+      <c r="O434">
         <v>3</v>
       </c>
-      <c r="J434" t="s">
-        <v>63</v>
-      </c>
-      <c r="K434">
+      <c r="P434">
         <v>3.6</v>
-      </c>
-      <c r="L434">
-        <v>3.05</v>
-      </c>
-      <c r="M434">
-        <v>2.1</v>
-      </c>
-      <c r="N434">
-        <v>2.55</v>
-      </c>
-      <c r="O434">
-        <v>2.875</v>
-      </c>
-      <c r="P434">
-        <v>3.2</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
         <v>1.75</v>
       </c>
-      <c r="T434">
-        <v>2</v>
-      </c>
       <c r="U434">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W434">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA434">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AC434">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39216,7 +39216,7 @@
         <v>35</v>
       </c>
       <c r="G435" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -39824,7 +39824,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670061</v>
+        <v>7670057</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39836,56 +39836,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G442" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J442" t="s">
         <v>63</v>
       </c>
       <c r="K442">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L442">
         <v>3</v>
       </c>
       <c r="M442">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P442">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S442">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T442">
         <v>2</v>
       </c>
       <c r="U442">
+        <v>1.975</v>
+      </c>
+      <c r="V442">
         <v>1.875</v>
       </c>
-      <c r="V442">
-        <v>1.975</v>
-      </c>
       <c r="W442">
         <v>-1</v>
       </c>
@@ -39893,16 +39893,16 @@
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z442">
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB442">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39913,7 +39913,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7670057</v>
+        <v>7670061</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39925,56 +39925,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G443" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
         <v>63</v>
       </c>
       <c r="K443">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L443">
         <v>3</v>
       </c>
       <c r="M443">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N443">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O443">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P443">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S443">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T443">
         <v>2</v>
       </c>
       <c r="U443">
+        <v>1.875</v>
+      </c>
+      <c r="V443">
         <v>1.975</v>
       </c>
-      <c r="V443">
-        <v>1.875</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39982,16 +39982,16 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40462,7 +40462,7 @@
         <v>52</v>
       </c>
       <c r="G449" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H449">
         <v>1</v>
@@ -40625,7 +40625,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7670247</v>
+        <v>7670249</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40637,76 +40637,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F451" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G451" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H451">
         <v>1</v>
       </c>
       <c r="I451">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K451">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L451">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M451">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="N451">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O451">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P451">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q451">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R451">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S451">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T451">
         <v>2</v>
       </c>
       <c r="U451">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V451">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W451">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z451">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA451">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB451">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC451">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40714,7 +40714,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7670249</v>
+        <v>7670247</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40726,76 +40726,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F452" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H452">
         <v>1</v>
       </c>
       <c r="I452">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J452" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K452">
+        <v>3</v>
+      </c>
+      <c r="L452">
+        <v>2.9</v>
+      </c>
+      <c r="M452">
+        <v>2.6</v>
+      </c>
+      <c r="N452">
+        <v>3.5</v>
+      </c>
+      <c r="O452">
+        <v>2.9</v>
+      </c>
+      <c r="P452">
+        <v>2.375</v>
+      </c>
+      <c r="Q452">
+        <v>0.25</v>
+      </c>
+      <c r="R452">
         <v>1.85</v>
       </c>
-      <c r="L452">
-        <v>3.3</v>
-      </c>
-      <c r="M452">
-        <v>4.6</v>
-      </c>
-      <c r="N452">
-        <v>1.75</v>
-      </c>
-      <c r="O452">
-        <v>3.2</v>
-      </c>
-      <c r="P452">
-        <v>6</v>
-      </c>
-      <c r="Q452">
-        <v>-0.75</v>
-      </c>
-      <c r="R452">
-        <v>2.05</v>
-      </c>
       <c r="S452">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T452">
         <v>2</v>
       </c>
       <c r="U452">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V452">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W452">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA452">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB452">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC452">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41085,7 +41085,7 @@
         <v>43</v>
       </c>
       <c r="G456" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H456">
         <v>0</v>
@@ -41337,7 +41337,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7670265</v>
+        <v>7670260</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41349,61 +41349,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G459" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="H459">
+        <v>3</v>
+      </c>
+      <c r="I459">
+        <v>1</v>
+      </c>
+      <c r="J459" t="s">
+        <v>62</v>
       </c>
       <c r="K459">
+        <v>4.5</v>
+      </c>
+      <c r="L459">
+        <v>3.3</v>
+      </c>
+      <c r="M459">
+        <v>1.85</v>
+      </c>
+      <c r="N459">
+        <v>3.2</v>
+      </c>
+      <c r="O459">
         <v>3.1</v>
       </c>
-      <c r="L459">
-        <v>3</v>
-      </c>
-      <c r="M459">
-        <v>2.45</v>
-      </c>
-      <c r="N459">
-        <v>2.25</v>
-      </c>
-      <c r="O459">
-        <v>3.2</v>
-      </c>
       <c r="P459">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q459">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S459">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T459">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U459">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V459">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W459">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA459">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB459">
+        <v>1.025</v>
+      </c>
+      <c r="AC459">
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41411,7 +41426,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7670260</v>
+        <v>7670265</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41423,61 +41438,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H460">
+        <v>2</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460" t="s">
+        <v>62</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L460">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M460">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N460">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O460">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P460">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q460">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W460">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB460">
+        <v>-0.5</v>
+      </c>
+      <c r="AC460">
+        <v>0.45</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41502,6 +41532,15 @@
       <c r="G461" t="s">
         <v>57</v>
       </c>
+      <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
+        <v>1</v>
+      </c>
+      <c r="J461" t="s">
+        <v>61</v>
+      </c>
       <c r="K461">
         <v>5</v>
       </c>
@@ -41512,46 +41551,52 @@
         <v>1.75</v>
       </c>
       <c r="N461">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O461">
         <v>3.1</v>
       </c>
       <c r="P461">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q461">
         <v>0.25</v>
       </c>
       <c r="R461">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S461">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T461">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U461">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="V461">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W461">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X461">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y461">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA461">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB461">
+        <v>-0.5</v>
+      </c>
+      <c r="AC461">
+        <v>0.3875</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41571,11 +41616,20 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G462" t="s">
         <v>51</v>
       </c>
+      <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462" t="s">
+        <v>62</v>
+      </c>
       <c r="K462">
         <v>2.375</v>
       </c>
@@ -41589,7 +41643,7 @@
         <v>2.625</v>
       </c>
       <c r="O462">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P462">
         <v>3</v>
@@ -41598,34 +41652,40 @@
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T462">
         <v>1.75</v>
       </c>
       <c r="U462">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V462">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W462">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA462">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB462">
+        <v>-1</v>
+      </c>
+      <c r="AC462">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41650,6 +41710,15 @@
       <c r="G463" t="s">
         <v>41</v>
       </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463" t="s">
+        <v>61</v>
+      </c>
       <c r="K463">
         <v>3.1</v>
       </c>
@@ -41660,46 +41729,52 @@
         <v>2.5</v>
       </c>
       <c r="N463">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O463">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P463">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S463">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T463">
         <v>1.5</v>
       </c>
       <c r="U463">
+        <v>1.95</v>
+      </c>
+      <c r="V463">
         <v>1.9</v>
       </c>
-      <c r="V463">
-        <v>1.95</v>
-      </c>
       <c r="W463">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y463">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z463">
         <v>0</v>
       </c>
       <c r="AA463">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB463">
+        <v>-1</v>
+      </c>
+      <c r="AC463">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41724,6 +41799,15 @@
       <c r="G464" t="s">
         <v>49</v>
       </c>
+      <c r="H464">
+        <v>1</v>
+      </c>
+      <c r="I464">
+        <v>1</v>
+      </c>
+      <c r="J464" t="s">
+        <v>61</v>
+      </c>
       <c r="K464">
         <v>1.727</v>
       </c>
@@ -41734,49 +41818,55 @@
         <v>5.25</v>
       </c>
       <c r="N464">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O464">
         <v>3.1</v>
       </c>
       <c r="P464">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S464">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T464">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U464">
+        <v>1.875</v>
+      </c>
+      <c r="V464">
         <v>1.975</v>
       </c>
-      <c r="V464">
-        <v>1.875</v>
-      </c>
       <c r="W464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X464">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB464">
+        <v>0.4375</v>
+      </c>
+      <c r="AC464">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:29">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -41798,6 +41888,15 @@
       <c r="G465" t="s">
         <v>34</v>
       </c>
+      <c r="H465">
+        <v>1</v>
+      </c>
+      <c r="I465">
+        <v>1</v>
+      </c>
+      <c r="J465" t="s">
+        <v>61</v>
+      </c>
       <c r="K465">
         <v>3.4</v>
       </c>
@@ -41808,54 +41907,60 @@
         <v>2.3</v>
       </c>
       <c r="N465">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O465">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q465">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R465">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S465">
+        <v>1.85</v>
+      </c>
+      <c r="T465">
+        <v>2</v>
+      </c>
+      <c r="U465">
+        <v>2.025</v>
+      </c>
+      <c r="V465">
+        <v>1.825</v>
+      </c>
+      <c r="W465">
+        <v>-1</v>
+      </c>
+      <c r="X465">
         <v>2.1</v>
       </c>
-      <c r="T465">
-        <v>2</v>
-      </c>
-      <c r="U465">
-        <v>2.05</v>
-      </c>
-      <c r="V465">
-        <v>1.8</v>
-      </c>
-      <c r="W465">
-        <v>0</v>
-      </c>
-      <c r="X465">
-        <v>0</v>
-      </c>
       <c r="Y465">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:27">
+        <v>0.425</v>
+      </c>
+      <c r="AB465">
+        <v>0</v>
+      </c>
+      <c r="AC465">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:29">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7670261</v>
+        <v>7670269</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41867,69 +41972,84 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F466" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G466" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="H466">
+        <v>4</v>
+      </c>
+      <c r="I466">
+        <v>1</v>
+      </c>
+      <c r="J466" t="s">
+        <v>62</v>
       </c>
       <c r="K466">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L466">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M466">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="N466">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O466">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P466">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q466">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S466">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T466">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U466">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V466">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W466">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X466">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB466">
+        <v>1.025</v>
+      </c>
+      <c r="AC466">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:29">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7670269</v>
+        <v>7670261</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -41941,64 +42061,79 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F467" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G467" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467" t="s">
+        <v>62</v>
       </c>
       <c r="K467">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L467">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M467">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="N467">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O467">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P467">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q467">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R467">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S467">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T467">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U467">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V467">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W467">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X467">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y467">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB467">
+        <v>0.925</v>
+      </c>
+      <c r="AC467">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:29">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -42020,6 +42155,15 @@
       <c r="G468" t="s">
         <v>39</v>
       </c>
+      <c r="H468">
+        <v>4</v>
+      </c>
+      <c r="I468">
+        <v>2</v>
+      </c>
+      <c r="J468" t="s">
+        <v>62</v>
+      </c>
       <c r="K468">
         <v>2.2</v>
       </c>
@@ -42030,54 +42174,60 @@
         <v>3.6</v>
       </c>
       <c r="N468">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O468">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P468">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q468">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R468">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S468">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T468">
         <v>2</v>
       </c>
       <c r="U468">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V468">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W468">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X468">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y468">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z468">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB468">
+        <v>0.875</v>
+      </c>
+      <c r="AC468">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:29">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7670263</v>
+        <v>7670262</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42086,50 +42236,50 @@
         <v>30</v>
       </c>
       <c r="E469" s="2">
-        <v>45362.79166666666</v>
+        <v>45363.88541666666</v>
       </c>
       <c r="F469" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G469" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K469">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L469">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M469">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N469">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O469">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P469">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q469">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R469">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S469">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T469">
         <v>2</v>
       </c>
       <c r="U469">
+        <v>1.9</v>
+      </c>
+      <c r="V469">
         <v>1.95</v>
       </c>
-      <c r="V469">
-        <v>1.9</v>
-      </c>
       <c r="W469">
         <v>0</v>
       </c>
@@ -42146,12 +42296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:27">
+    <row r="470" spans="1:29">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7670266</v>
+        <v>7670277</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42160,49 +42310,49 @@
         <v>30</v>
       </c>
       <c r="E470" s="2">
-        <v>45362.88541666666</v>
+        <v>45366.875</v>
       </c>
       <c r="F470" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G470" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K470">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L470">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M470">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N470">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O470">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P470">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q470">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R470">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S470">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T470">
         <v>2</v>
       </c>
       <c r="U470">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V470">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W470">
         <v>0</v>
@@ -42220,12 +42370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:27">
+    <row r="471" spans="1:29">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7670268</v>
+        <v>7670274</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42234,49 +42384,49 @@
         <v>30</v>
       </c>
       <c r="E471" s="2">
-        <v>45362.88541666666</v>
+        <v>45367.80208333334</v>
       </c>
       <c r="F471" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G471" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K471">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L471">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M471">
+        <v>4.5</v>
+      </c>
+      <c r="N471">
+        <v>1.65</v>
+      </c>
+      <c r="O471">
         <v>3.6</v>
       </c>
-      <c r="N471">
-        <v>2.15</v>
-      </c>
-      <c r="O471">
-        <v>3.1</v>
-      </c>
       <c r="P471">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q471">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R471">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S471">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T471">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V471">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W471">
         <v>0</v>
@@ -42294,12 +42444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:27">
+    <row r="472" spans="1:29">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7670262</v>
+        <v>7670281</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42308,63 +42458,137 @@
         <v>30</v>
       </c>
       <c r="E472" s="2">
-        <v>45363.88541666666</v>
+        <v>45368.77083333334</v>
       </c>
       <c r="F472" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G472" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="K472">
+        <v>1.444</v>
+      </c>
+      <c r="L472">
+        <v>5</v>
+      </c>
+      <c r="M472">
+        <v>6</v>
+      </c>
+      <c r="N472">
+        <v>1.4</v>
+      </c>
+      <c r="O472">
+        <v>5</v>
+      </c>
+      <c r="P472">
+        <v>7</v>
+      </c>
+      <c r="Q472">
+        <v>-1.25</v>
+      </c>
+      <c r="R472">
+        <v>1.85</v>
+      </c>
+      <c r="S472">
+        <v>2</v>
+      </c>
+      <c r="T472">
+        <v>3</v>
+      </c>
+      <c r="U472">
+        <v>2.05</v>
+      </c>
+      <c r="V472">
+        <v>1.8</v>
+      </c>
+      <c r="W472">
+        <v>0</v>
+      </c>
+      <c r="X472">
+        <v>0</v>
+      </c>
+      <c r="Y472">
+        <v>0</v>
+      </c>
+      <c r="Z472">
+        <v>0</v>
+      </c>
+      <c r="AA472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:29">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>7670275</v>
+      </c>
+      <c r="C473" t="s">
+        <v>28</v>
+      </c>
+      <c r="D473" t="s">
+        <v>30</v>
+      </c>
+      <c r="E473" s="2">
+        <v>45368.875</v>
+      </c>
+      <c r="F473" t="s">
+        <v>33</v>
+      </c>
+      <c r="G473" t="s">
+        <v>47</v>
+      </c>
+      <c r="K473">
+        <v>2.625</v>
+      </c>
+      <c r="L473">
+        <v>3</v>
+      </c>
+      <c r="M473">
         <v>2.9</v>
       </c>
-      <c r="L472">
-        <v>2.9</v>
-      </c>
-      <c r="M472">
-        <v>2.625</v>
-      </c>
-      <c r="N472">
-        <v>2.9</v>
-      </c>
-      <c r="O472">
-        <v>2.9</v>
-      </c>
-      <c r="P472">
-        <v>2.625</v>
-      </c>
-      <c r="Q472">
-        <v>0</v>
-      </c>
-      <c r="R472">
+      <c r="N473">
+        <v>2.4</v>
+      </c>
+      <c r="O473">
+        <v>3</v>
+      </c>
+      <c r="P473">
+        <v>3.2</v>
+      </c>
+      <c r="Q473">
+        <v>-0.25</v>
+      </c>
+      <c r="R473">
         <v>2.05</v>
       </c>
-      <c r="S472">
+      <c r="S473">
         <v>1.8</v>
       </c>
-      <c r="T472">
-        <v>2</v>
-      </c>
-      <c r="U472">
-        <v>2.025</v>
-      </c>
-      <c r="V472">
-        <v>1.825</v>
-      </c>
-      <c r="W472">
-        <v>0</v>
-      </c>
-      <c r="X472">
-        <v>0</v>
-      </c>
-      <c r="Y472">
-        <v>0</v>
-      </c>
-      <c r="Z472">
-        <v>0</v>
-      </c>
-      <c r="AA472">
+      <c r="T473">
+        <v>2</v>
+      </c>
+      <c r="U473">
+        <v>1.95</v>
+      </c>
+      <c r="V473">
+        <v>1.9</v>
+      </c>
+      <c r="W473">
+        <v>0</v>
+      </c>
+      <c r="X473">
+        <v>0</v>
+      </c>
+      <c r="Y473">
+        <v>0</v>
+      </c>
+      <c r="Z473">
+        <v>0</v>
+      </c>
+      <c r="AA473">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Estudiantes LP</t>
   </si>
   <si>
-    <t>Argentinos Jrs</t>
+    <t>CA Tigre</t>
   </si>
   <si>
-    <t>CA Tigre</t>
+    <t>Argentinos Jrs</t>
   </si>
   <si>
     <t>Belgrano</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC473"/>
+  <dimension ref="A1:AC484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6120056</v>
+        <v>6120055</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -946,73 +946,73 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z5">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6120055</v>
+        <v>6120056</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1035,73 +1035,73 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N6">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -2014,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>45099.70833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>52</v>
@@ -3969,7 +3969,7 @@
         <v>45100.89583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>54</v>
@@ -4669,7 +4669,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6120099</v>
+        <v>6120095</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4681,10 +4681,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4696,43 +4696,43 @@
         <v>62</v>
       </c>
       <c r="K47">
+        <v>1.615</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>5.5</v>
+      </c>
+      <c r="N47">
+        <v>1.8</v>
+      </c>
+      <c r="O47">
+        <v>3.25</v>
+      </c>
+      <c r="P47">
+        <v>5.25</v>
+      </c>
+      <c r="Q47">
+        <v>-0.5</v>
+      </c>
+      <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
         <v>2.05</v>
       </c>
-      <c r="L47">
-        <v>3.1</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>2.25</v>
-      </c>
-      <c r="O47">
-        <v>3.1</v>
-      </c>
-      <c r="P47">
-        <v>3.5</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.8</v>
       </c>
-      <c r="V47">
-        <v>2.05</v>
-      </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4750,7 +4750,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6120095</v>
+        <v>6120099</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4770,10 +4770,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4785,43 +4785,43 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48">
+        <v>3.1</v>
+      </c>
+      <c r="P48">
+        <v>3.5</v>
+      </c>
+      <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
         <v>1.8</v>
       </c>
-      <c r="O48">
-        <v>3.25</v>
-      </c>
-      <c r="P48">
-        <v>5.25</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-      <c r="U48">
+      <c r="V48">
         <v>2.05</v>
       </c>
-      <c r="V48">
-        <v>1.8</v>
-      </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4839,7 +4839,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5470,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6120094</v>
+        <v>6120871</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5482,7 +5482,7 @@
         <v>45109.8125</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5497,43 +5497,43 @@
         <v>62</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M56">
+        <v>3.5</v>
+      </c>
+      <c r="N56">
+        <v>1.95</v>
+      </c>
+      <c r="O56">
+        <v>3.25</v>
+      </c>
+      <c r="P56">
+        <v>4.2</v>
+      </c>
+      <c r="Q56">
+        <v>-0.5</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="N56">
-        <v>3.2</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>2.45</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
+        <v>2.025</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>2.025</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5542,16 +5542,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>1.05</v>
+      </c>
+      <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.825</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6120871</v>
+        <v>6120094</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5571,7 +5571,7 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>35</v>
@@ -5586,43 +5586,43 @@
         <v>62</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
+        <v>2.875</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
         <v>3</v>
       </c>
-      <c r="M57">
-        <v>3.5</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
+        <v>2.45</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="O57">
-        <v>3.25</v>
-      </c>
-      <c r="P57">
-        <v>4.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.8</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>2.025</v>
-      </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5631,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5640,7 +5640,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6016,7 +6016,7 @@
         <v>45112.70833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>50</v>
@@ -6538,7 +6538,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6120111</v>
+        <v>6120106</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6550,76 +6550,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6627,7 +6627,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6120106</v>
+        <v>6120111</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6639,76 +6639,76 @@
         <v>45113.79166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K69">
+        <v>1.909</v>
+      </c>
+      <c r="L69">
+        <v>3.1</v>
+      </c>
+      <c r="M69">
+        <v>3.75</v>
+      </c>
+      <c r="N69">
+        <v>1.7</v>
+      </c>
+      <c r="O69">
         <v>3.5</v>
       </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>3.4</v>
-      </c>
-      <c r="O69">
-        <v>3.25</v>
-      </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7354,7 +7354,7 @@
         <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7710,7 +7710,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -9119,7 +9119,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6894217</v>
+        <v>6894218</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9131,76 +9131,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N97">
+        <v>2.45</v>
+      </c>
+      <c r="O97">
+        <v>3.1</v>
+      </c>
+      <c r="P97">
+        <v>3.1</v>
+      </c>
+      <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
         <v>1.8</v>
       </c>
-      <c r="O97">
-        <v>3.25</v>
-      </c>
-      <c r="P97">
-        <v>5.25</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.825</v>
-      </c>
-      <c r="S97">
-        <v>2.025</v>
-      </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.1</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.8</v>
       </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.825</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9208,7 +9208,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6894218</v>
+        <v>6894217</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>5.5</v>
+      </c>
+      <c r="N98">
+        <v>1.8</v>
+      </c>
+      <c r="O98">
         <v>3.25</v>
       </c>
-      <c r="M98">
-        <v>3</v>
-      </c>
-      <c r="N98">
-        <v>2.45</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9398,7 +9398,7 @@
         <v>45124.75</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -9579,7 +9579,7 @@
         <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -10647,7 +10647,7 @@
         <v>53</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10822,7 +10822,7 @@
         <v>45135.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -11534,7 +11534,7 @@
         <v>45136.83333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>41</v>
@@ -11789,7 +11789,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6120161</v>
+        <v>6120160</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11801,76 +11801,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K127">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
         <v>2.8</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>1.75</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6120160</v>
+        <v>6120161</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11890,76 +11890,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O128">
         <v>2.8</v>
       </c>
       <c r="P128">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T128">
         <v>1.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12694,7 +12694,7 @@
         <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12958,7 +12958,7 @@
         <v>45158.875</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>57</v>
@@ -13228,7 +13228,7 @@
         <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13759,7 +13759,7 @@
         <v>45164.89583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X160">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>2.55</v>
+      </c>
+      <c r="P161">
+        <v>3.25</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
         <v>2.05</v>
       </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>4.75</v>
-      </c>
-      <c r="Q161">
-        <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>2.1</v>
-      </c>
-      <c r="S161">
-        <v>1.775</v>
-      </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14993,7 +14993,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7032040</v>
+        <v>7031950</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -15005,76 +15005,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N163">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
         <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>1.5</v>
+      </c>
+      <c r="U163">
+        <v>1.8</v>
+      </c>
+      <c r="V163">
         <v>2.05</v>
       </c>
-      <c r="S163">
-        <v>1.8</v>
-      </c>
-      <c r="T163">
-        <v>2.25</v>
-      </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15082,7 +15082,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7031950</v>
+        <v>7032040</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15094,76 +15094,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G164" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L164">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O164">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.85</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
         <v>2.1</v>
       </c>
-      <c r="S164">
-        <v>1.775</v>
-      </c>
-      <c r="T164">
-        <v>1.5</v>
-      </c>
-      <c r="U164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>2.05</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
       <c r="Y164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15171,7 +15171,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7031951</v>
+        <v>7031949</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15183,76 +15183,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
+        <v>1.95</v>
+      </c>
+      <c r="S165">
         <v>1.9</v>
       </c>
-      <c r="S165">
-        <v>1.95</v>
-      </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
       <c r="W165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15260,7 +15260,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7031949</v>
+        <v>7031951</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15272,76 +15272,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N166">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O166">
         <v>3.2</v>
       </c>
       <c r="P166">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
         <v>1.95</v>
       </c>
-      <c r="S166">
-        <v>1.9</v>
-      </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
         <v>1.825</v>
       </c>
-      <c r="V166">
-        <v>2.025</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15364,7 +15364,7 @@
         <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -16162,7 +16162,7 @@
         <v>45184.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
@@ -16432,7 +16432,7 @@
         <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -17218,7 +17218,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7178899</v>
+        <v>7178907</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17230,76 +17230,76 @@
         <v>45188.875</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K188">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L188">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <v>3.75</v>
       </c>
       <c r="N188">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O188">
+        <v>2.875</v>
+      </c>
+      <c r="P188">
         <v>3</v>
       </c>
-      <c r="P188">
-        <v>5.25</v>
-      </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
+        <v>2.025</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>1.875</v>
       </c>
-      <c r="S188">
-        <v>1.975</v>
-      </c>
-      <c r="T188">
-        <v>1.75</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17307,7 +17307,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7178907</v>
+        <v>7178899</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17319,76 +17319,76 @@
         <v>45188.875</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M189">
         <v>3.75</v>
       </c>
       <c r="N189">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X189">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17396,7 +17396,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7178900</v>
+        <v>7178875</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17408,13 +17408,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17423,43 +17423,43 @@
         <v>62</v>
       </c>
       <c r="K190">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N190">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
         <v>2.9</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17468,16 +17468,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17485,7 +17485,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7178875</v>
+        <v>7178900</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17497,13 +17497,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G191" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17512,43 +17512,43 @@
         <v>62</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N191">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O191">
         <v>2.9</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17557,16 +17557,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC191">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18120,7 +18120,7 @@
         <v>45190.80208333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
         <v>48</v>
@@ -18832,7 +18832,7 @@
         <v>45193.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -19176,7 +19176,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7031972</v>
+        <v>7032054</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19188,76 +19188,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K210">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M210">
         <v>2.7</v>
       </c>
       <c r="N210">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
       </c>
-      <c r="V210">
-        <v>1.875</v>
-      </c>
       <c r="W210">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB210">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19265,7 +19265,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7032054</v>
+        <v>7031972</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19277,76 +19277,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K211">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M211">
         <v>2.7</v>
       </c>
       <c r="N211">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
         <v>1.875</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA211">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19354,7 +19354,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7031973</v>
+        <v>7031975</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19366,13 +19366,13 @@
         <v>45194.875</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19381,43 +19381,43 @@
         <v>62</v>
       </c>
       <c r="K212">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19426,16 +19426,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.75</v>
+        <v>0.4625</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19443,7 +19443,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7031975</v>
+        <v>7031973</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19455,13 +19455,13 @@
         <v>45194.875</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19470,43 +19470,43 @@
         <v>62</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.75</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.925</v>
       </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19515,16 +19515,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19544,7 +19544,7 @@
         <v>45198.83333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
         <v>52</v>
@@ -20422,7 +20422,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7031986</v>
+        <v>7031976</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20434,10 +20434,10 @@
         <v>45201.77083333334</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20449,58 +20449,58 @@
         <v>61</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O224">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
         <v>1.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AC224">
         <v>-0.5</v>
@@ -20511,7 +20511,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7031976</v>
+        <v>7031986</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20523,10 +20523,10 @@
         <v>45201.77083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20538,58 +20538,58 @@
         <v>61</v>
       </c>
       <c r="K225">
+        <v>2.2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>3.6</v>
+      </c>
+      <c r="N225">
+        <v>2.6</v>
+      </c>
+      <c r="O225">
+        <v>3</v>
+      </c>
+      <c r="P225">
+        <v>3</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.775</v>
+      </c>
+      <c r="S225">
         <v>2.1</v>
-      </c>
-      <c r="L225">
-        <v>3.5</v>
-      </c>
-      <c r="M225">
-        <v>3.25</v>
-      </c>
-      <c r="N225">
-        <v>2.05</v>
-      </c>
-      <c r="O225">
-        <v>3.2</v>
-      </c>
-      <c r="P225">
-        <v>3.8</v>
-      </c>
-      <c r="Q225">
-        <v>-0.5</v>
-      </c>
-      <c r="R225">
-        <v>2.05</v>
-      </c>
-      <c r="S225">
-        <v>1.8</v>
       </c>
       <c r="T225">
         <v>1.75</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AC225">
         <v>-0.5</v>
@@ -20704,7 +20704,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -21134,7 +21134,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7032059</v>
+        <v>7031991</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21146,76 +21146,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O232">
         <v>3.1</v>
       </c>
       <c r="P232">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S232">
+        <v>2.05</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
         <v>2.1</v>
       </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
-      <c r="U232">
-        <v>2.05</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
-      <c r="W232">
-        <v>2.2</v>
-      </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21223,7 +21223,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7031991</v>
+        <v>7032059</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21235,76 +21235,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F233" t="s">
+        <v>38</v>
+      </c>
+      <c r="G233" t="s">
         <v>34</v>
       </c>
-      <c r="G233" t="s">
-        <v>45</v>
-      </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K233">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N233">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O233">
         <v>3.1</v>
       </c>
       <c r="P233">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
+        <v>2.1</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
         <v>2.05</v>
       </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
-      <c r="U233">
-        <v>2.025</v>
-      </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22484,7 +22484,7 @@
         <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H247">
         <v>3</v>
@@ -22926,7 +22926,7 @@
         <v>45219.69791666666</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
         <v>49</v>
@@ -23003,7 +23003,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7289503</v>
+        <v>7289447</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23015,76 +23015,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K253">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L253">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M253">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N253">
+        <v>1.45</v>
+      </c>
+      <c r="O253">
+        <v>4.2</v>
+      </c>
+      <c r="P253">
+        <v>7.5</v>
+      </c>
+      <c r="Q253">
+        <v>-1</v>
+      </c>
+      <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
         <v>2.05</v>
       </c>
-      <c r="O253">
-        <v>2.8</v>
-      </c>
-      <c r="P253">
-        <v>5.25</v>
-      </c>
-      <c r="Q253">
-        <v>-0.5</v>
-      </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
-      <c r="S253">
-        <v>1.825</v>
-      </c>
       <c r="T253">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
         <v>1.8</v>
       </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y253">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
         <v>0.8</v>
-      </c>
-      <c r="AC253">
-        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23092,7 +23092,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7289447</v>
+        <v>7289503</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23104,76 +23104,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H254">
         <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K254">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M254">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P254">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
+        <v>1.825</v>
+      </c>
+      <c r="T254">
+        <v>1.5</v>
+      </c>
+      <c r="U254">
         <v>1.8</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.05</v>
       </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>2.05</v>
-      </c>
-      <c r="V254">
-        <v>1.8</v>
-      </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23715,7 +23715,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7299919</v>
+        <v>7299922</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23727,34 +23727,34 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K261">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L261">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N261">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
         <v>4.75</v>
@@ -23763,40 +23763,40 @@
         <v>-0.5</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23804,7 +23804,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7299922</v>
+        <v>7299919</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23816,34 +23816,34 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G262" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K262">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N262">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
         <v>4.75</v>
@@ -23852,40 +23852,40 @@
         <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y262">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB262">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23982,7 +23982,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7032072</v>
+        <v>7032004</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23994,76 +23994,76 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G264" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K264">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L264">
         <v>3.1</v>
       </c>
       <c r="M264">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N264">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O264">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P264">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
+        <v>2.075</v>
+      </c>
+      <c r="S264">
+        <v>1.725</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
         <v>1.875</v>
       </c>
-      <c r="S264">
+      <c r="V264">
         <v>1.975</v>
       </c>
-      <c r="T264">
-        <v>1.75</v>
-      </c>
-      <c r="U264">
-        <v>1.825</v>
-      </c>
-      <c r="V264">
-        <v>2.025</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X264">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>-1</v>
+      </c>
+      <c r="AC264">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB264">
-        <v>0.4125</v>
-      </c>
-      <c r="AC264">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24071,7 +24071,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7032004</v>
+        <v>7032072</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24083,76 +24083,76 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H265">
         <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K265">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L265">
         <v>3.1</v>
       </c>
       <c r="M265">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N265">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O265">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R265">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC265">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24338,7 +24338,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7299921</v>
+        <v>7299917</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24350,76 +24350,76 @@
         <v>45225.875</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K268">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>4</v>
+      </c>
+      <c r="N268">
+        <v>2.15</v>
+      </c>
+      <c r="O268">
+        <v>2.875</v>
+      </c>
+      <c r="P268">
+        <v>4.2</v>
+      </c>
+      <c r="Q268">
+        <v>-0.25</v>
+      </c>
+      <c r="R268">
+        <v>1.775</v>
+      </c>
+      <c r="S268">
+        <v>2.1</v>
+      </c>
+      <c r="T268">
+        <v>1.75</v>
+      </c>
+      <c r="U268">
+        <v>1.775</v>
+      </c>
+      <c r="V268">
+        <v>2.1</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>3.2</v>
       </c>
-      <c r="M268">
-        <v>3.2</v>
-      </c>
-      <c r="N268">
-        <v>2.55</v>
-      </c>
-      <c r="O268">
-        <v>3</v>
-      </c>
-      <c r="P268">
-        <v>3.1</v>
-      </c>
-      <c r="Q268">
-        <v>0</v>
-      </c>
-      <c r="R268">
-        <v>1.725</v>
-      </c>
-      <c r="S268">
-        <v>2.15</v>
-      </c>
-      <c r="T268">
-        <v>2</v>
-      </c>
-      <c r="U268">
-        <v>2.05</v>
-      </c>
-      <c r="V268">
-        <v>1.8</v>
-      </c>
-      <c r="W268">
-        <v>1.55</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>-1</v>
-      </c>
       <c r="Z268">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB268">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24427,7 +24427,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7299917</v>
+        <v>7299921</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24439,76 +24439,76 @@
         <v>45225.875</v>
       </c>
       <c r="F269" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K269">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>3.2</v>
+      </c>
+      <c r="N269">
+        <v>2.55</v>
+      </c>
+      <c r="O269">
         <v>3</v>
       </c>
-      <c r="M269">
-        <v>4</v>
-      </c>
-      <c r="N269">
+      <c r="P269">
+        <v>3.1</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1.725</v>
+      </c>
+      <c r="S269">
         <v>2.15</v>
       </c>
-      <c r="O269">
-        <v>2.875</v>
-      </c>
-      <c r="P269">
-        <v>4.2</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.775</v>
-      </c>
-      <c r="S269">
-        <v>2.1</v>
-      </c>
       <c r="T269">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V269">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24798,7 +24798,7 @@
         <v>37</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H273">
         <v>3</v>
@@ -25507,7 +25507,7 @@
         <v>45230.79166666666</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
         <v>42</v>
@@ -25952,7 +25952,7 @@
         <v>45234.625</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
         <v>51</v>
@@ -26756,7 +26756,7 @@
         <v>36</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -27198,7 +27198,7 @@
         <v>45241.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G300" t="s">
         <v>52</v>
@@ -27821,7 +27821,7 @@
         <v>45242.70486111111</v>
       </c>
       <c r="F307" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G307" t="s">
         <v>46</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M308">
+        <v>3.9</v>
+      </c>
+      <c r="N308">
+        <v>1.909</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
         <v>5</v>
       </c>
-      <c r="N308">
-        <v>2.625</v>
-      </c>
-      <c r="O308">
-        <v>2.8</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
-      </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
         <v>2.1</v>
       </c>
-      <c r="S308">
-        <v>1.7</v>
-      </c>
-      <c r="T308">
-        <v>1.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K309">
+        <v>1.8</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>2.625</v>
+      </c>
+      <c r="O309">
+        <v>2.8</v>
+      </c>
+      <c r="P309">
+        <v>3.1</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
         <v>2.1</v>
       </c>
-      <c r="L309">
-        <v>2.8</v>
-      </c>
-      <c r="M309">
-        <v>3.9</v>
-      </c>
-      <c r="N309">
-        <v>1.909</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>5</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.9</v>
-      </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28254,7 +28254,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7475471</v>
+        <v>7475419</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28266,58 +28266,58 @@
         <v>45255.75</v>
       </c>
       <c r="F312" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G312" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
         <v>62</v>
       </c>
       <c r="K312">
+        <v>1.8</v>
+      </c>
+      <c r="L312">
+        <v>3.2</v>
+      </c>
+      <c r="M312">
+        <v>5</v>
+      </c>
+      <c r="N312">
         <v>2.2</v>
       </c>
-      <c r="L312">
-        <v>3.3</v>
-      </c>
-      <c r="M312">
-        <v>3.3</v>
-      </c>
-      <c r="N312">
-        <v>2.15</v>
-      </c>
       <c r="O312">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P312">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q312">
         <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T312">
         <v>2</v>
       </c>
       <c r="U312">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V312">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X312">
         <v>-1</v>
@@ -28326,16 +28326,16 @@
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA312">
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28432,7 +28432,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7475473</v>
+        <v>7475471</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28444,16 +28444,16 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H314">
+        <v>3</v>
+      </c>
+      <c r="I314">
         <v>1</v>
-      </c>
-      <c r="I314">
-        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>62</v>
@@ -28462,16 +28462,16 @@
         <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M314">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N314">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O314">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P314">
         <v>3.8</v>
@@ -28489,13 +28489,13 @@
         <v>2</v>
       </c>
       <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
       </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
       <c r="W314">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28510,10 +28510,10 @@
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC314">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28521,7 +28521,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7475419</v>
+        <v>7475473</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28533,13 +28533,13 @@
         <v>45255.75</v>
       </c>
       <c r="F315" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G315" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28548,43 +28548,43 @@
         <v>62</v>
       </c>
       <c r="K315">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L315">
+        <v>3.4</v>
+      </c>
+      <c r="M315">
         <v>3.2</v>
       </c>
-      <c r="M315">
-        <v>5</v>
-      </c>
       <c r="N315">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S315">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T315">
         <v>2</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V315">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W315">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28593,16 +28593,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28610,7 +28610,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7475472</v>
+        <v>7475437</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28622,76 +28622,76 @@
         <v>45256.75</v>
       </c>
       <c r="F316" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G316" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K316">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L316">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M316">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N316">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O316">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P316">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q316">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S316">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V316">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X316">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA316">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC316">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475437</v>
+        <v>7475472</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K319">
+        <v>1.615</v>
+      </c>
+      <c r="L319">
+        <v>3.75</v>
+      </c>
+      <c r="M319">
+        <v>5.5</v>
+      </c>
+      <c r="N319">
+        <v>1.4</v>
+      </c>
+      <c r="O319">
+        <v>4.2</v>
+      </c>
+      <c r="P319">
+        <v>9.5</v>
+      </c>
+      <c r="Q319">
+        <v>-1.25</v>
+      </c>
+      <c r="R319">
+        <v>1.95</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
         <v>2.5</v>
       </c>
-      <c r="L319">
-        <v>2.75</v>
-      </c>
-      <c r="M319">
-        <v>3.3</v>
-      </c>
-      <c r="N319">
-        <v>2.6</v>
-      </c>
-      <c r="O319">
-        <v>2.6</v>
-      </c>
-      <c r="P319">
-        <v>3.5</v>
-      </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>2.15</v>
-      </c>
-      <c r="S319">
-        <v>1.725</v>
-      </c>
-      <c r="T319">
-        <v>1.75</v>
-      </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29426,7 +29426,7 @@
         <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -30313,7 +30313,7 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
         <v>31</v>
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,56 +30758,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G340" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
+        <v>2.5</v>
+      </c>
+      <c r="N340">
         <v>3.5</v>
       </c>
-      <c r="N340">
-        <v>2.8</v>
-      </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.875</v>
+      </c>
+      <c r="S340">
+        <v>1.975</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.9</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.5</v>
-      </c>
-      <c r="U340">
-        <v>1.875</v>
-      </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30815,19 +30815,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,76 +30847,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
+        <v>2.3</v>
+      </c>
+      <c r="L341">
         <v>2.9</v>
       </c>
-      <c r="L341">
-        <v>3.1</v>
-      </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O341">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P341">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>1.9</v>
       </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.375</v>
-      </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31295,7 +31295,7 @@
         <v>57</v>
       </c>
       <c r="G346" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -32004,7 +32004,7 @@
         <v>45322.70833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G354" t="s">
         <v>60</v>
@@ -32274,7 +32274,7 @@
         <v>39</v>
       </c>
       <c r="G357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H357">
         <v>3</v>
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
+        <v>2.875</v>
+      </c>
+      <c r="L360">
         <v>2.9</v>
       </c>
-      <c r="L360">
-        <v>3</v>
-      </c>
       <c r="M360">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N360">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G361" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L361">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M361">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N361">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC361">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33517,7 +33517,7 @@
         <v>45327.82291666666</v>
       </c>
       <c r="F371" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G371" t="s">
         <v>47</v>
@@ -33876,7 +33876,7 @@
         <v>56</v>
       </c>
       <c r="G375" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H375">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7670002</v>
+        <v>7670000</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34140,76 +34140,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K378">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L378">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M378">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O378">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P378">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q378">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T378">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U378">
+        <v>1.8</v>
+      </c>
+      <c r="V378">
         <v>2.05</v>
       </c>
-      <c r="V378">
-        <v>1.8</v>
-      </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34217,7 +34217,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7670000</v>
+        <v>7670002</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34229,76 +34229,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K379">
+        <v>2.75</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379">
+        <v>2.75</v>
+      </c>
+      <c r="N379">
+        <v>3.2</v>
+      </c>
+      <c r="O379">
+        <v>2.625</v>
+      </c>
+      <c r="P379">
+        <v>2.7</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
+        <v>1.775</v>
+      </c>
+      <c r="T379">
+        <v>1.75</v>
+      </c>
+      <c r="U379">
+        <v>2.05</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="L379">
-        <v>3.6</v>
-      </c>
-      <c r="M379">
-        <v>4.5</v>
-      </c>
-      <c r="N379">
-        <v>1.666</v>
-      </c>
-      <c r="O379">
-        <v>3.8</v>
-      </c>
-      <c r="P379">
-        <v>5</v>
-      </c>
-      <c r="Q379">
-        <v>-0.75</v>
-      </c>
-      <c r="R379">
-        <v>1.9</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>2</v>
-      </c>
-      <c r="U379">
-        <v>1.8</v>
-      </c>
-      <c r="V379">
-        <v>2.05</v>
-      </c>
       <c r="W379">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34496,7 +34496,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G382" t="s">
         <v>50</v>
@@ -34662,7 +34662,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7670005</v>
+        <v>7670003</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34674,76 +34674,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G384" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K384">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L384">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M384">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N384">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O384">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P384">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S384">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T384">
         <v>1.75</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W384">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z384">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB384">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34751,7 +34751,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7670003</v>
+        <v>7670005</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34763,76 +34763,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G385" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K385">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L385">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M385">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N385">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O385">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P385">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S385">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T385">
         <v>1.75</v>
       </c>
       <c r="U385">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V385">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W385">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z385">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA385">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC385">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -35742,7 +35742,7 @@
         <v>45336.70833333334</v>
       </c>
       <c r="F396" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
         <v>54</v>
@@ -35819,7 +35819,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7670009</v>
+        <v>7670015</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35831,76 +35831,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F397" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K397">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M397">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N397">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O397">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P397">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q397">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R397">
+        <v>1.85</v>
+      </c>
+      <c r="S397">
+        <v>2</v>
+      </c>
+      <c r="T397">
+        <v>2.5</v>
+      </c>
+      <c r="U397">
         <v>2.05</v>
       </c>
-      <c r="S397">
+      <c r="V397">
         <v>1.8</v>
       </c>
-      <c r="T397">
-        <v>1.75</v>
-      </c>
-      <c r="U397">
-        <v>1.975</v>
-      </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X397">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA397">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35908,7 +35908,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7670015</v>
+        <v>7670009</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35920,76 +35920,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K398">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L398">
+        <v>3</v>
+      </c>
+      <c r="M398">
         <v>4</v>
       </c>
-      <c r="M398">
-        <v>6.5</v>
-      </c>
       <c r="N398">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O398">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P398">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q398">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S398">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T398">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U398">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V398">
+        <v>1.875</v>
+      </c>
+      <c r="W398">
+        <v>-1</v>
+      </c>
+      <c r="X398">
         <v>1.8</v>
       </c>
-      <c r="W398">
-        <v>0.363</v>
-      </c>
-      <c r="X398">
-        <v>-1</v>
-      </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36368,7 +36368,7 @@
         <v>48</v>
       </c>
       <c r="G403" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H403">
         <v>2</v>
@@ -36457,7 +36457,7 @@
         <v>41</v>
       </c>
       <c r="G404" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H404">
         <v>2</v>
@@ -37154,7 +37154,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7670025</v>
+        <v>7670029</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37166,58 +37166,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F412" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G412" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H412">
         <v>2</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="s">
         <v>62</v>
       </c>
       <c r="K412">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L412">
         <v>3.1</v>
       </c>
       <c r="M412">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O412">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q412">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R412">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S412">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U412">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V412">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37226,16 +37226,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC412">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37243,7 +37243,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7670029</v>
+        <v>7670025</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37255,58 +37255,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G413" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>62</v>
       </c>
       <c r="K413">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L413">
         <v>3.1</v>
       </c>
       <c r="M413">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N413">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O413">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P413">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R413">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S413">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T413">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V413">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W413">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37315,16 +37315,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC413">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37522,7 +37522,7 @@
         <v>45342.8125</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G416" t="s">
         <v>59</v>
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L419">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M419">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N419">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O419">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P419">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q419">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U419">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V419">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA419">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC419">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G420" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N420">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P420">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q420">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U420">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V420">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA420">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -38679,7 +38679,7 @@
         <v>45348.8125</v>
       </c>
       <c r="F429" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G429" t="s">
         <v>46</v>
@@ -38771,7 +38771,7 @@
         <v>52</v>
       </c>
       <c r="G430" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H430">
         <v>2</v>
@@ -39213,7 +39213,7 @@
         <v>45352.79166666666</v>
       </c>
       <c r="F435" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G435" t="s">
         <v>38</v>
@@ -39661,7 +39661,7 @@
         <v>45</v>
       </c>
       <c r="G440" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H440">
         <v>2</v>
@@ -39824,7 +39824,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670057</v>
+        <v>7670061</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39836,56 +39836,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G442" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J442" t="s">
         <v>63</v>
       </c>
       <c r="K442">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L442">
         <v>3</v>
       </c>
       <c r="M442">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N442">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O442">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S442">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T442">
         <v>2</v>
       </c>
       <c r="U442">
+        <v>1.875</v>
+      </c>
+      <c r="V442">
         <v>1.975</v>
       </c>
-      <c r="V442">
-        <v>1.875</v>
-      </c>
       <c r="W442">
         <v>-1</v>
       </c>
@@ -39893,16 +39893,16 @@
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z442">
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB442">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39913,7 +39913,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7670061</v>
+        <v>7670057</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39925,56 +39925,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G443" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443" t="s">
         <v>63</v>
       </c>
       <c r="K443">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L443">
         <v>3</v>
       </c>
       <c r="M443">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N443">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O443">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P443">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S443">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T443">
         <v>2</v>
       </c>
       <c r="U443">
+        <v>1.975</v>
+      </c>
+      <c r="V443">
         <v>1.875</v>
       </c>
-      <c r="V443">
-        <v>1.975</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39982,16 +39982,16 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB443">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40548,7 +40548,7 @@
         <v>45357.70833333334</v>
       </c>
       <c r="F450" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G450" t="s">
         <v>55</v>
@@ -40803,7 +40803,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>7670252</v>
+        <v>7670254</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40815,76 +40815,76 @@
         <v>45357.89583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G453" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J453" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K453">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L453">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M453">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N453">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O453">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P453">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q453">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R453">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S453">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T453">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="U453">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V453">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W453">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA453">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB453">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40892,7 +40892,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>7670254</v>
+        <v>7670252</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40904,76 +40904,76 @@
         <v>45357.89583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G454" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K454">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L454">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M454">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N454">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O454">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P454">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q454">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S454">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T454">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U454">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V454">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W454">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z454">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA454">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC454">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -41263,7 +41263,7 @@
         <v>49</v>
       </c>
       <c r="G458" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H458">
         <v>1</v>
@@ -41604,7 +41604,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7670270</v>
+        <v>7670259</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41616,76 +41616,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G462" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K462">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L462">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M462">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N462">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O462">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P462">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S462">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T462">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U462">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V462">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W462">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
         <v>-1</v>
       </c>
       <c r="AC462">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41693,7 +41693,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7670259</v>
+        <v>7670270</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41705,76 +41705,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F463" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G463" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K463">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L463">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N463">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O463">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P463">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S463">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T463">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X463">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA463">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
         <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41782,7 +41782,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7670258</v>
+        <v>7670264</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41794,10 +41794,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G464" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41809,40 +41809,40 @@
         <v>61</v>
       </c>
       <c r="K464">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M464">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N464">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
         <v>3.1</v>
       </c>
       <c r="P464">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>1.85</v>
+      </c>
+      <c r="T464">
+        <v>2</v>
+      </c>
+      <c r="U464">
         <v>2.025</v>
       </c>
-      <c r="S464">
+      <c r="V464">
         <v>1.825</v>
-      </c>
-      <c r="T464">
-        <v>1.75</v>
-      </c>
-      <c r="U464">
-        <v>1.875</v>
-      </c>
-      <c r="V464">
-        <v>1.975</v>
       </c>
       <c r="W464">
         <v>-1</v>
@@ -41854,16 +41854,16 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB464">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41871,7 +41871,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7670264</v>
+        <v>7670258</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41883,10 +41883,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G465" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41898,40 +41898,40 @@
         <v>61</v>
       </c>
       <c r="K465">
+        <v>1.727</v>
+      </c>
+      <c r="L465">
         <v>3.4</v>
       </c>
-      <c r="L465">
-        <v>3</v>
-      </c>
       <c r="M465">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N465">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O465">
         <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S465">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T465">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U465">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41943,16 +41943,16 @@
         <v>-1</v>
       </c>
       <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.825</v>
+      </c>
+      <c r="AB465">
+        <v>0.4375</v>
+      </c>
+      <c r="AC465">
         <v>-0.5</v>
-      </c>
-      <c r="AA465">
-        <v>0.425</v>
-      </c>
-      <c r="AB465">
-        <v>0</v>
-      </c>
-      <c r="AC465">
-        <v>-0</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42227,7 +42227,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7670262</v>
+        <v>7670263</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42236,64 +42236,79 @@
         <v>30</v>
       </c>
       <c r="E469" s="2">
-        <v>45363.88541666666</v>
+        <v>45362.80208333334</v>
       </c>
       <c r="F469" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G469" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="H469">
+        <v>2</v>
+      </c>
+      <c r="I469">
+        <v>3</v>
+      </c>
+      <c r="J469" t="s">
+        <v>63</v>
       </c>
       <c r="K469">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L469">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M469">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N469">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="O469">
         <v>3</v>
       </c>
       <c r="P469">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q469">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R469">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S469">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T469">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U469">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V469">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB469">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC469">
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42301,7 +42316,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7670277</v>
+        <v>7670268</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42310,64 +42325,79 @@
         <v>30</v>
       </c>
       <c r="E470" s="2">
-        <v>45366.875</v>
+        <v>45362.88541666666</v>
       </c>
       <c r="F470" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G470" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="H470">
+        <v>1</v>
+      </c>
+      <c r="I470">
+        <v>2</v>
+      </c>
+      <c r="J470" t="s">
+        <v>63</v>
       </c>
       <c r="K470">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L470">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M470">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N470">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O470">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P470">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q470">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R470">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S470">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T470">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U470">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V470">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W470">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X470">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y470">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z470">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA470">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB470">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC470">
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42375,7 +42405,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7670274</v>
+        <v>7670266</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42384,64 +42414,79 @@
         <v>30</v>
       </c>
       <c r="E471" s="2">
-        <v>45367.80208333334</v>
+        <v>45362.90625</v>
       </c>
       <c r="F471" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G471" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H471">
+        <v>1</v>
+      </c>
+      <c r="I471">
+        <v>2</v>
+      </c>
+      <c r="J471" t="s">
+        <v>63</v>
       </c>
       <c r="K471">
+        <v>2.75</v>
+      </c>
+      <c r="L471">
+        <v>3.1</v>
+      </c>
+      <c r="M471">
+        <v>2.7</v>
+      </c>
+      <c r="N471">
+        <v>2.8</v>
+      </c>
+      <c r="O471">
+        <v>3</v>
+      </c>
+      <c r="P471">
+        <v>2.7</v>
+      </c>
+      <c r="Q471">
+        <v>0</v>
+      </c>
+      <c r="R471">
+        <v>2.025</v>
+      </c>
+      <c r="S471">
+        <v>1.825</v>
+      </c>
+      <c r="T471">
+        <v>1.75</v>
+      </c>
+      <c r="U471">
         <v>1.8</v>
       </c>
-      <c r="L471">
-        <v>3.5</v>
-      </c>
-      <c r="M471">
-        <v>4.5</v>
-      </c>
-      <c r="N471">
-        <v>1.65</v>
-      </c>
-      <c r="O471">
-        <v>3.6</v>
-      </c>
-      <c r="P471">
-        <v>5.5</v>
-      </c>
-      <c r="Q471">
-        <v>-0.75</v>
-      </c>
-      <c r="R471">
-        <v>1.875</v>
-      </c>
-      <c r="S471">
-        <v>1.975</v>
-      </c>
-      <c r="T471">
-        <v>2.5</v>
-      </c>
-      <c r="U471">
-        <v>2</v>
-      </c>
       <c r="V471">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y471">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA471">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB471">
+        <v>0.8</v>
+      </c>
+      <c r="AC471">
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42449,7 +42494,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7670281</v>
+        <v>7670262</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42458,64 +42503,79 @@
         <v>30</v>
       </c>
       <c r="E472" s="2">
-        <v>45368.77083333334</v>
+        <v>45363.88541666666</v>
       </c>
       <c r="F472" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G472" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="H472">
+        <v>2</v>
+      </c>
+      <c r="I472">
+        <v>2</v>
+      </c>
+      <c r="J472" t="s">
+        <v>61</v>
       </c>
       <c r="K472">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="L472">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M472">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N472">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O472">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P472">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q472">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R472">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S472">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T472">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U472">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V472">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X472">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z472">
         <v>0</v>
       </c>
       <c r="AA472">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB472">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC472">
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42523,7 +42583,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7670275</v>
+        <v>7670280</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42532,63 +42592,937 @@
         <v>30</v>
       </c>
       <c r="E473" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F473" t="s">
+        <v>60</v>
+      </c>
+      <c r="G473" t="s">
+        <v>45</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473" t="s">
+        <v>62</v>
+      </c>
+      <c r="K473">
+        <v>4.75</v>
+      </c>
+      <c r="L473">
+        <v>3.4</v>
+      </c>
+      <c r="M473">
+        <v>1.8</v>
+      </c>
+      <c r="N473">
+        <v>5.25</v>
+      </c>
+      <c r="O473">
+        <v>3.1</v>
+      </c>
+      <c r="P473">
+        <v>1.85</v>
+      </c>
+      <c r="Q473">
+        <v>0.5</v>
+      </c>
+      <c r="R473">
+        <v>2</v>
+      </c>
+      <c r="S473">
+        <v>1.85</v>
+      </c>
+      <c r="T473">
+        <v>1.75</v>
+      </c>
+      <c r="U473">
+        <v>1.875</v>
+      </c>
+      <c r="V473">
+        <v>1.975</v>
+      </c>
+      <c r="W473">
+        <v>4.25</v>
+      </c>
+      <c r="X473">
+        <v>-1</v>
+      </c>
+      <c r="Y473">
+        <v>-1</v>
+      </c>
+      <c r="Z473">
+        <v>1</v>
+      </c>
+      <c r="AA473">
+        <v>-1</v>
+      </c>
+      <c r="AB473">
+        <v>-1</v>
+      </c>
+      <c r="AC473">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:29">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>7670277</v>
+      </c>
+      <c r="C474" t="s">
+        <v>28</v>
+      </c>
+      <c r="D474" t="s">
+        <v>30</v>
+      </c>
+      <c r="E474" s="2">
+        <v>45366.875</v>
+      </c>
+      <c r="F474" t="s">
+        <v>49</v>
+      </c>
+      <c r="G474" t="s">
+        <v>46</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474" t="s">
+        <v>61</v>
+      </c>
+      <c r="K474">
+        <v>1.8</v>
+      </c>
+      <c r="L474">
+        <v>3.3</v>
+      </c>
+      <c r="M474">
+        <v>4.75</v>
+      </c>
+      <c r="N474">
+        <v>2</v>
+      </c>
+      <c r="O474">
+        <v>3.1</v>
+      </c>
+      <c r="P474">
+        <v>4.333</v>
+      </c>
+      <c r="Q474">
+        <v>-0.5</v>
+      </c>
+      <c r="R474">
+        <v>1.875</v>
+      </c>
+      <c r="S474">
+        <v>1.975</v>
+      </c>
+      <c r="T474">
+        <v>1.75</v>
+      </c>
+      <c r="U474">
+        <v>1.875</v>
+      </c>
+      <c r="V474">
+        <v>1.975</v>
+      </c>
+      <c r="W474">
+        <v>-1</v>
+      </c>
+      <c r="X474">
+        <v>2.1</v>
+      </c>
+      <c r="Y474">
+        <v>-1</v>
+      </c>
+      <c r="Z474">
+        <v>-1</v>
+      </c>
+      <c r="AA474">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB474">
+        <v>-1</v>
+      </c>
+      <c r="AC474">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:29">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>7670276</v>
+      </c>
+      <c r="C475" t="s">
+        <v>28</v>
+      </c>
+      <c r="D475" t="s">
+        <v>30</v>
+      </c>
+      <c r="E475" s="2">
+        <v>45367.70833333334</v>
+      </c>
+      <c r="F475" t="s">
+        <v>41</v>
+      </c>
+      <c r="G475" t="s">
+        <v>31</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475" t="s">
+        <v>62</v>
+      </c>
+      <c r="K475">
+        <v>1.727</v>
+      </c>
+      <c r="L475">
+        <v>3.5</v>
+      </c>
+      <c r="M475">
+        <v>5</v>
+      </c>
+      <c r="N475">
+        <v>1.75</v>
+      </c>
+      <c r="O475">
+        <v>3.2</v>
+      </c>
+      <c r="P475">
+        <v>5.75</v>
+      </c>
+      <c r="Q475">
+        <v>-0.75</v>
+      </c>
+      <c r="R475">
+        <v>2.025</v>
+      </c>
+      <c r="S475">
+        <v>1.825</v>
+      </c>
+      <c r="T475">
+        <v>1.75</v>
+      </c>
+      <c r="U475">
+        <v>1.875</v>
+      </c>
+      <c r="V475">
+        <v>1.975</v>
+      </c>
+      <c r="W475">
+        <v>0.75</v>
+      </c>
+      <c r="X475">
+        <v>-1</v>
+      </c>
+      <c r="Y475">
+        <v>-1</v>
+      </c>
+      <c r="Z475">
+        <v>0.5125</v>
+      </c>
+      <c r="AA475">
+        <v>-0.5</v>
+      </c>
+      <c r="AB475">
+        <v>-1</v>
+      </c>
+      <c r="AC475">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:29">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>7670274</v>
+      </c>
+      <c r="C476" t="s">
+        <v>28</v>
+      </c>
+      <c r="D476" t="s">
+        <v>30</v>
+      </c>
+      <c r="E476" s="2">
+        <v>45367.80208333334</v>
+      </c>
+      <c r="F476" t="s">
+        <v>39</v>
+      </c>
+      <c r="G476" t="s">
+        <v>54</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>61</v>
+      </c>
+      <c r="K476">
+        <v>1.8</v>
+      </c>
+      <c r="L476">
+        <v>3.5</v>
+      </c>
+      <c r="M476">
+        <v>4.5</v>
+      </c>
+      <c r="N476">
+        <v>1.6</v>
+      </c>
+      <c r="O476">
+        <v>4</v>
+      </c>
+      <c r="P476">
+        <v>5.75</v>
+      </c>
+      <c r="Q476">
+        <v>-1</v>
+      </c>
+      <c r="R476">
+        <v>2</v>
+      </c>
+      <c r="S476">
+        <v>1.85</v>
+      </c>
+      <c r="T476">
+        <v>2.5</v>
+      </c>
+      <c r="U476">
+        <v>1.825</v>
+      </c>
+      <c r="V476">
+        <v>2.025</v>
+      </c>
+      <c r="W476">
+        <v>-1</v>
+      </c>
+      <c r="X476">
+        <v>3</v>
+      </c>
+      <c r="Y476">
+        <v>-1</v>
+      </c>
+      <c r="Z476">
+        <v>-1</v>
+      </c>
+      <c r="AA476">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB476">
+        <v>-1</v>
+      </c>
+      <c r="AC476">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="477" spans="1:29">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>7670282</v>
+      </c>
+      <c r="C477" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" t="s">
+        <v>30</v>
+      </c>
+      <c r="E477" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F477" t="s">
+        <v>44</v>
+      </c>
+      <c r="G477" t="s">
+        <v>58</v>
+      </c>
+      <c r="K477">
+        <v>2.9</v>
+      </c>
+      <c r="L477">
+        <v>2.875</v>
+      </c>
+      <c r="M477">
+        <v>2.75</v>
+      </c>
+      <c r="N477">
+        <v>3.5</v>
+      </c>
+      <c r="O477">
+        <v>2.9</v>
+      </c>
+      <c r="P477">
+        <v>2.375</v>
+      </c>
+      <c r="Q477">
+        <v>0.25</v>
+      </c>
+      <c r="R477">
+        <v>1.875</v>
+      </c>
+      <c r="S477">
+        <v>1.975</v>
+      </c>
+      <c r="T477">
+        <v>2</v>
+      </c>
+      <c r="U477">
+        <v>2.05</v>
+      </c>
+      <c r="V477">
+        <v>1.8</v>
+      </c>
+      <c r="W477">
+        <v>0</v>
+      </c>
+      <c r="X477">
+        <v>0</v>
+      </c>
+      <c r="Y477">
+        <v>0</v>
+      </c>
+      <c r="Z477">
+        <v>0</v>
+      </c>
+      <c r="AA477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:29">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>7670271</v>
+      </c>
+      <c r="C478" t="s">
+        <v>28</v>
+      </c>
+      <c r="D478" t="s">
+        <v>30</v>
+      </c>
+      <c r="E478" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F478" t="s">
+        <v>42</v>
+      </c>
+      <c r="G478" t="s">
+        <v>34</v>
+      </c>
+      <c r="K478">
+        <v>1.8</v>
+      </c>
+      <c r="L478">
+        <v>3.5</v>
+      </c>
+      <c r="M478">
+        <v>4.5</v>
+      </c>
+      <c r="N478">
+        <v>1.6</v>
+      </c>
+      <c r="O478">
+        <v>4</v>
+      </c>
+      <c r="P478">
+        <v>5.5</v>
+      </c>
+      <c r="Q478">
+        <v>-1</v>
+      </c>
+      <c r="R478">
+        <v>2.1</v>
+      </c>
+      <c r="S478">
+        <v>1.775</v>
+      </c>
+      <c r="T478">
+        <v>2.25</v>
+      </c>
+      <c r="U478">
+        <v>1.9</v>
+      </c>
+      <c r="V478">
+        <v>1.95</v>
+      </c>
+      <c r="W478">
+        <v>0</v>
+      </c>
+      <c r="X478">
+        <v>0</v>
+      </c>
+      <c r="Y478">
+        <v>0</v>
+      </c>
+      <c r="Z478">
+        <v>0</v>
+      </c>
+      <c r="AA478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:29">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>7670281</v>
+      </c>
+      <c r="C479" t="s">
+        <v>28</v>
+      </c>
+      <c r="D479" t="s">
+        <v>30</v>
+      </c>
+      <c r="E479" s="2">
+        <v>45368.77083333334</v>
+      </c>
+      <c r="F479" t="s">
+        <v>57</v>
+      </c>
+      <c r="G479" t="s">
+        <v>55</v>
+      </c>
+      <c r="K479">
+        <v>1.444</v>
+      </c>
+      <c r="L479">
+        <v>5</v>
+      </c>
+      <c r="M479">
+        <v>6</v>
+      </c>
+      <c r="N479">
+        <v>1.4</v>
+      </c>
+      <c r="O479">
+        <v>5</v>
+      </c>
+      <c r="P479">
+        <v>7.5</v>
+      </c>
+      <c r="Q479">
+        <v>-1.25</v>
+      </c>
+      <c r="R479">
+        <v>1.875</v>
+      </c>
+      <c r="S479">
+        <v>1.975</v>
+      </c>
+      <c r="T479">
+        <v>2.75</v>
+      </c>
+      <c r="U479">
+        <v>1.8</v>
+      </c>
+      <c r="V479">
+        <v>2.05</v>
+      </c>
+      <c r="W479">
+        <v>0</v>
+      </c>
+      <c r="X479">
+        <v>0</v>
+      </c>
+      <c r="Y479">
+        <v>0</v>
+      </c>
+      <c r="Z479">
+        <v>0</v>
+      </c>
+      <c r="AA479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>7670275</v>
+      </c>
+      <c r="C480" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" t="s">
+        <v>30</v>
+      </c>
+      <c r="E480" s="2">
         <v>45368.875</v>
       </c>
-      <c r="F473" t="s">
+      <c r="F480" t="s">
         <v>33</v>
       </c>
-      <c r="G473" t="s">
+      <c r="G480" t="s">
         <v>47</v>
       </c>
-      <c r="K473">
+      <c r="K480">
         <v>2.625</v>
       </c>
-      <c r="L473">
+      <c r="L480">
         <v>3</v>
       </c>
-      <c r="M473">
+      <c r="M480">
         <v>2.9</v>
       </c>
-      <c r="N473">
-        <v>2.4</v>
-      </c>
-      <c r="O473">
+      <c r="N480">
+        <v>2.45</v>
+      </c>
+      <c r="O480">
         <v>3</v>
       </c>
-      <c r="P473">
+      <c r="P480">
+        <v>3.3</v>
+      </c>
+      <c r="Q480">
+        <v>-0.25</v>
+      </c>
+      <c r="R480">
+        <v>2.05</v>
+      </c>
+      <c r="S480">
+        <v>1.8</v>
+      </c>
+      <c r="T480">
+        <v>2</v>
+      </c>
+      <c r="U480">
+        <v>1.975</v>
+      </c>
+      <c r="V480">
+        <v>1.875</v>
+      </c>
+      <c r="W480">
+        <v>0</v>
+      </c>
+      <c r="X480">
+        <v>0</v>
+      </c>
+      <c r="Y480">
+        <v>0</v>
+      </c>
+      <c r="Z480">
+        <v>0</v>
+      </c>
+      <c r="AA480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>7670278</v>
+      </c>
+      <c r="C481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>30</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45368.875</v>
+      </c>
+      <c r="F481" t="s">
+        <v>50</v>
+      </c>
+      <c r="G481" t="s">
+        <v>48</v>
+      </c>
+      <c r="K481">
+        <v>3.1</v>
+      </c>
+      <c r="L481">
+        <v>3.1</v>
+      </c>
+      <c r="M481">
+        <v>2.375</v>
+      </c>
+      <c r="N481">
         <v>3.2</v>
       </c>
-      <c r="Q473">
-        <v>-0.25</v>
-      </c>
-      <c r="R473">
+      <c r="O481">
+        <v>3.1</v>
+      </c>
+      <c r="P481">
+        <v>2.45</v>
+      </c>
+      <c r="Q481">
+        <v>0.25</v>
+      </c>
+      <c r="R481">
+        <v>1.75</v>
+      </c>
+      <c r="S481">
+        <v>2.125</v>
+      </c>
+      <c r="T481">
+        <v>2</v>
+      </c>
+      <c r="U481">
+        <v>1.95</v>
+      </c>
+      <c r="V481">
+        <v>1.9</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>7670273</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482" t="s">
+        <v>30</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45369.88541666666</v>
+      </c>
+      <c r="F482" t="s">
+        <v>40</v>
+      </c>
+      <c r="G482" t="s">
+        <v>38</v>
+      </c>
+      <c r="K482">
+        <v>2.1</v>
+      </c>
+      <c r="L482">
+        <v>3.2</v>
+      </c>
+      <c r="M482">
+        <v>3.75</v>
+      </c>
+      <c r="N482">
+        <v>1.8</v>
+      </c>
+      <c r="O482">
+        <v>3.4</v>
+      </c>
+      <c r="P482">
+        <v>5</v>
+      </c>
+      <c r="Q482">
+        <v>-0.5</v>
+      </c>
+      <c r="R482">
+        <v>1.825</v>
+      </c>
+      <c r="S482">
+        <v>2.025</v>
+      </c>
+      <c r="T482">
+        <v>2</v>
+      </c>
+      <c r="U482">
+        <v>1.9</v>
+      </c>
+      <c r="V482">
+        <v>1.95</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>0</v>
+      </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
+      <c r="AA482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>7947672</v>
+      </c>
+      <c r="C483" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E483" s="2">
+        <v>45370.88541666666</v>
+      </c>
+      <c r="F483" t="s">
+        <v>35</v>
+      </c>
+      <c r="G483" t="s">
+        <v>37</v>
+      </c>
+      <c r="K483">
+        <v>2.375</v>
+      </c>
+      <c r="L483">
+        <v>3.2</v>
+      </c>
+      <c r="M483">
+        <v>3</v>
+      </c>
+      <c r="N483">
+        <v>1.909</v>
+      </c>
+      <c r="O483">
+        <v>3.5</v>
+      </c>
+      <c r="P483">
+        <v>4</v>
+      </c>
+      <c r="Q483">
+        <v>-0.5</v>
+      </c>
+      <c r="R483">
+        <v>1.925</v>
+      </c>
+      <c r="S483">
+        <v>1.925</v>
+      </c>
+      <c r="T483">
+        <v>2</v>
+      </c>
+      <c r="U483">
+        <v>1.8</v>
+      </c>
+      <c r="V483">
         <v>2.05</v>
       </c>
-      <c r="S473">
-        <v>1.8</v>
-      </c>
-      <c r="T473">
-        <v>2</v>
-      </c>
-      <c r="U473">
+      <c r="W483">
+        <v>0</v>
+      </c>
+      <c r="X483">
+        <v>0</v>
+      </c>
+      <c r="Y483">
+        <v>0</v>
+      </c>
+      <c r="Z483">
+        <v>0</v>
+      </c>
+      <c r="AA483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>7670272</v>
+      </c>
+      <c r="C484" t="s">
+        <v>28</v>
+      </c>
+      <c r="D484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E484" s="2">
+        <v>45371.88541666666</v>
+      </c>
+      <c r="F484" t="s">
+        <v>36</v>
+      </c>
+      <c r="G484" t="s">
+        <v>43</v>
+      </c>
+      <c r="K484">
+        <v>2.75</v>
+      </c>
+      <c r="L484">
+        <v>3.2</v>
+      </c>
+      <c r="M484">
+        <v>2.625</v>
+      </c>
+      <c r="N484">
+        <v>2.7</v>
+      </c>
+      <c r="O484">
+        <v>3.25</v>
+      </c>
+      <c r="P484">
+        <v>2.7</v>
+      </c>
+      <c r="Q484">
+        <v>0</v>
+      </c>
+      <c r="R484">
+        <v>1.9</v>
+      </c>
+      <c r="S484">
         <v>1.95</v>
       </c>
-      <c r="V473">
-        <v>1.9</v>
-      </c>
-      <c r="W473">
-        <v>0</v>
-      </c>
-      <c r="X473">
-        <v>0</v>
-      </c>
-      <c r="Y473">
-        <v>0</v>
-      </c>
-      <c r="Z473">
-        <v>0</v>
-      </c>
-      <c r="AA473">
+      <c r="T484">
+        <v>2</v>
+      </c>
+      <c r="U484">
+        <v>1.825</v>
+      </c>
+      <c r="V484">
+        <v>2.025</v>
+      </c>
+      <c r="W484">
+        <v>0</v>
+      </c>
+      <c r="X484">
+        <v>0</v>
+      </c>
+      <c r="Y484">
+        <v>0</v>
+      </c>
+      <c r="Z484">
+        <v>0</v>
+      </c>
+      <c r="AA484">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -181,10 +181,10 @@
     <t>Colon</t>
   </si>
   <si>
-    <t>Gimnasia LP</t>
+    <t>Atltico Tucumn</t>
   </si>
   <si>
-    <t>Atltico Tucumn</t>
+    <t>Gimnasia LP</t>
   </si>
   <si>
     <t>River Plate</t>
@@ -1480,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2889,7 +2889,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6120075</v>
+        <v>6745339</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2904,13 +2904,13 @@
         <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
@@ -2919,40 +2919,40 @@
         <v>2.7</v>
       </c>
       <c r="L27">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2961,16 +2961,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2978,7 +2978,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6745339</v>
+        <v>6120075</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2993,13 +2993,13 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
@@ -3008,40 +3008,40 @@
         <v>2.7</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
+        <v>2.625</v>
+      </c>
+      <c r="N28">
+        <v>2.9</v>
+      </c>
+      <c r="O28">
+        <v>2.75</v>
+      </c>
+      <c r="P28">
         <v>2.875</v>
       </c>
-      <c r="N28">
-        <v>2.25</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>3.6</v>
-      </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3050,16 +3050,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3438,7 +3438,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -4669,7 +4669,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6120095</v>
+        <v>6120099</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4681,10 +4681,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4696,43 +4696,43 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
+        <v>2.25</v>
+      </c>
+      <c r="O47">
+        <v>3.1</v>
+      </c>
+      <c r="P47">
+        <v>3.5</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
         <v>1.8</v>
       </c>
-      <c r="O47">
-        <v>3.25</v>
-      </c>
-      <c r="P47">
-        <v>5.25</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.875</v>
-      </c>
-      <c r="S47">
-        <v>1.975</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.05</v>
       </c>
-      <c r="V47">
-        <v>1.8</v>
-      </c>
       <c r="W47">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4750,7 +4750,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6120099</v>
+        <v>6120095</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4770,10 +4770,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4785,43 +4785,43 @@
         <v>62</v>
       </c>
       <c r="K48">
+        <v>1.615</v>
+      </c>
+      <c r="L48">
+        <v>3.4</v>
+      </c>
+      <c r="M48">
+        <v>5.5</v>
+      </c>
+      <c r="N48">
+        <v>1.8</v>
+      </c>
+      <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
+        <v>5.25</v>
+      </c>
+      <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
         <v>2.05</v>
       </c>
-      <c r="L48">
-        <v>3.1</v>
-      </c>
-      <c r="M48">
-        <v>3.5</v>
-      </c>
-      <c r="N48">
-        <v>2.25</v>
-      </c>
-      <c r="O48">
-        <v>3.1</v>
-      </c>
-      <c r="P48">
-        <v>3.5</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.925</v>
-      </c>
-      <c r="S48">
-        <v>1.925</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-      <c r="U48">
+      <c r="V48">
         <v>1.8</v>
       </c>
-      <c r="V48">
-        <v>2.05</v>
-      </c>
       <c r="W48">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4839,7 +4839,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5752,7 +5752,7 @@
         <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -6820,7 +6820,7 @@
         <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>45114.79166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -7250,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6857892</v>
+        <v>6857883</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7262,49 +7262,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7313,19 +7313,19 @@
         <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6857883</v>
+        <v>6857892</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7351,49 +7351,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7402,19 +7402,19 @@
         <v>2.025</v>
       </c>
       <c r="W77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7517,7 +7517,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6857882</v>
+        <v>6857884</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7529,55 +7529,55 @@
         <v>45116.85416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>61</v>
       </c>
       <c r="K79">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N79">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
         <v>3.2</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2.05</v>
-      </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7589,16 +7589,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7606,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6857884</v>
+        <v>6857882</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7618,55 +7618,55 @@
         <v>45116.85416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>61</v>
       </c>
       <c r="K80">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M80">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O80">
         <v>3.2</v>
       </c>
       <c r="P80">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
         <v>2.05</v>
       </c>
-      <c r="S80">
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>2.05</v>
+      </c>
+      <c r="V80">
         <v>1.8</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7678,16 +7678,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8241,10 +8241,10 @@
         <v>45118.89583333334</v>
       </c>
       <c r="F87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" t="s">
         <v>56</v>
-      </c>
-      <c r="G87" t="s">
-        <v>55</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8953,7 +8953,7 @@
         <v>45123.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -9490,7 +9490,7 @@
         <v>49</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>45130.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G105" t="s">
         <v>45</v>
@@ -10202,7 +10202,7 @@
         <v>48</v>
       </c>
       <c r="G109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10988,7 +10988,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6120159</v>
+        <v>6120169</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11000,76 +11000,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>61</v>
       </c>
       <c r="K118">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>1.75</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB118">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11077,7 +11077,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6120169</v>
+        <v>6120159</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11089,76 +11089,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>61</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>1.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.425</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="AA119">
-        <v>0.4125</v>
-      </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11270,7 +11270,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11801,7 +11801,7 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
         <v>46</v>
@@ -12424,7 +12424,7 @@
         <v>45157.79166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12783,7 +12783,7 @@
         <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13317,7 +13317,7 @@
         <v>54</v>
       </c>
       <c r="G144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -14382,7 +14382,7 @@
         <v>45166.89583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G156" t="s">
         <v>51</v>
@@ -14560,7 +14560,7 @@
         <v>45171.625</v>
       </c>
       <c r="F158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G158" t="s">
         <v>45</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G160" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X160">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>2.55</v>
+      </c>
+      <c r="P161">
+        <v>3.25</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
         <v>2.05</v>
       </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>4.75</v>
-      </c>
-      <c r="Q161">
-        <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>2.1</v>
-      </c>
-      <c r="S161">
-        <v>1.775</v>
-      </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14993,7 +14993,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7031950</v>
+        <v>7032040</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -15005,76 +15005,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G163" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O163">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
         <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.85</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="S163">
-        <v>1.775</v>
-      </c>
-      <c r="T163">
-        <v>1.5</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2.05</v>
-      </c>
-      <c r="W163">
-        <v>-1</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15082,7 +15082,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7032040</v>
+        <v>7031950</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15094,76 +15094,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
         <v>2.05</v>
       </c>
-      <c r="S164">
-        <v>1.8</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>2</v>
-      </c>
-      <c r="V164">
-        <v>1.85</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15186,7 +15186,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15806,7 +15806,7 @@
         <v>45182.75</v>
       </c>
       <c r="F172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G172" t="s">
         <v>52</v>
@@ -16696,7 +16696,7 @@
         <v>45185.79166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G182" t="s">
         <v>44</v>
@@ -17322,7 +17322,7 @@
         <v>58</v>
       </c>
       <c r="G189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7178900</v>
+        <v>7178875</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17408,13 +17408,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17423,43 +17423,43 @@
         <v>62</v>
       </c>
       <c r="K190">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N190">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O190">
         <v>2.9</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17468,16 +17468,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17485,7 +17485,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7178875</v>
+        <v>7178900</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17497,13 +17497,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G191" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17512,43 +17512,43 @@
         <v>62</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N191">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O191">
         <v>2.9</v>
       </c>
       <c r="P191">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17557,16 +17557,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC191">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18212,7 +18212,7 @@
         <v>57</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18298,7 +18298,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G200" t="s">
         <v>37</v>
@@ -18998,7 +18998,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032056</v>
+        <v>7032055</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19010,76 +19010,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L208">
+        <v>2.9</v>
+      </c>
+      <c r="M208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
       <c r="N208">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O208">
         <v>2.7</v>
       </c>
       <c r="P208">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032055</v>
+        <v>7032056</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19099,76 +19099,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="N209">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
         <v>2.7</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>1.75</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19455,7 +19455,7 @@
         <v>45194.875</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -20259,7 +20259,7 @@
         <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20701,7 +20701,7 @@
         <v>45201.875</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -21416,7 +21416,7 @@
         <v>51</v>
       </c>
       <c r="G235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21668,7 +21668,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7031990</v>
+        <v>7031988</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21680,76 +21680,76 @@
         <v>45208.75</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P238">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21757,7 +21757,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7031988</v>
+        <v>7031990</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21769,76 +21769,76 @@
         <v>45208.75</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
         <v>3.2</v>
       </c>
       <c r="M239">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O239">
+        <v>3</v>
+      </c>
+      <c r="P239">
         <v>2.9</v>
       </c>
-      <c r="P239">
-        <v>2.45</v>
-      </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X239">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21861,7 +21861,7 @@
         <v>52</v>
       </c>
       <c r="G240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -22039,7 +22039,7 @@
         <v>50</v>
       </c>
       <c r="G242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22481,7 +22481,7 @@
         <v>45218.66666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -23463,7 +23463,7 @@
         <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23994,7 +23994,7 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G264" t="s">
         <v>48</v>
@@ -24709,7 +24709,7 @@
         <v>54</v>
       </c>
       <c r="G272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -24884,7 +24884,7 @@
         <v>45228.72916666666</v>
       </c>
       <c r="F274" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G274" t="s">
         <v>57</v>
@@ -25777,7 +25777,7 @@
         <v>32</v>
       </c>
       <c r="G284" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>45234.875</v>
       </c>
       <c r="F287" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G287" t="s">
         <v>45</v>
@@ -27109,10 +27109,10 @@
         <v>45240.875</v>
       </c>
       <c r="F299" t="s">
+        <v>56</v>
+      </c>
+      <c r="G299" t="s">
         <v>55</v>
-      </c>
-      <c r="G299" t="s">
-        <v>56</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M308">
+        <v>3.9</v>
+      </c>
+      <c r="N308">
+        <v>1.909</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
         <v>5</v>
       </c>
-      <c r="N308">
-        <v>2.625</v>
-      </c>
-      <c r="O308">
-        <v>2.8</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
-      </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
         <v>2.1</v>
       </c>
-      <c r="S308">
-        <v>1.7</v>
-      </c>
-      <c r="T308">
-        <v>1.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K309">
+        <v>1.8</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>2.625</v>
+      </c>
+      <c r="O309">
+        <v>2.8</v>
+      </c>
+      <c r="P309">
+        <v>3.1</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
         <v>2.1</v>
       </c>
-      <c r="L309">
-        <v>2.8</v>
-      </c>
-      <c r="M309">
-        <v>3.9</v>
-      </c>
-      <c r="N309">
-        <v>1.909</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>5</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.9</v>
-      </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28254,7 +28254,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7475441</v>
+        <v>7475419</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28266,13 +28266,13 @@
         <v>45255.75</v>
       </c>
       <c r="F312" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G312" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -28281,19 +28281,19 @@
         <v>62</v>
       </c>
       <c r="K312">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L312">
         <v>3.2</v>
       </c>
       <c r="M312">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N312">
         <v>2.2</v>
       </c>
       <c r="O312">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P312">
         <v>3.6</v>
@@ -28308,13 +28308,13 @@
         <v>1.95</v>
       </c>
       <c r="T312">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V312">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
         <v>1.2</v>
@@ -28332,10 +28332,10 @@
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC312">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28343,7 +28343,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7475419</v>
+        <v>7475471</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28355,58 +28355,58 @@
         <v>45255.75</v>
       </c>
       <c r="F313" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G313" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>62</v>
       </c>
       <c r="K313">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M313">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N313">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O313">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P313">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q313">
         <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S313">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T313">
         <v>2</v>
       </c>
       <c r="U313">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V313">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W313">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28415,16 +28415,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC313">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28432,7 +28432,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7475471</v>
+        <v>7475441</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28444,16 +28444,16 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G314" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>62</v>
@@ -28462,40 +28462,40 @@
         <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M314">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N314">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O314">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P314">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q314">
         <v>-0.25</v>
       </c>
       <c r="R314">
+        <v>1.9</v>
+      </c>
+      <c r="S314">
+        <v>1.95</v>
+      </c>
+      <c r="T314">
+        <v>1.75</v>
+      </c>
+      <c r="U314">
         <v>1.8</v>
       </c>
-      <c r="S314">
+      <c r="V314">
         <v>2.05</v>
       </c>
-      <c r="T314">
-        <v>2</v>
-      </c>
-      <c r="U314">
-        <v>1.975</v>
-      </c>
-      <c r="V314">
-        <v>1.875</v>
-      </c>
       <c r="W314">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28504,16 +28504,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475420</v>
+        <v>7475472</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,76 +28711,76 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G317" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H317">
         <v>0</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K317">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L317">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M317">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N317">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O317">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
+        <v>9.5</v>
+      </c>
+      <c r="Q317">
+        <v>-1.25</v>
+      </c>
+      <c r="R317">
+        <v>1.95</v>
+      </c>
+      <c r="S317">
+        <v>1.9</v>
+      </c>
+      <c r="T317">
+        <v>2.5</v>
+      </c>
+      <c r="U317">
+        <v>1.925</v>
+      </c>
+      <c r="V317">
+        <v>1.925</v>
+      </c>
+      <c r="W317">
+        <v>-1</v>
+      </c>
+      <c r="X317">
         <v>3.2</v>
       </c>
-      <c r="Q317">
-        <v>-0.25</v>
-      </c>
-      <c r="R317">
-        <v>2.1</v>
-      </c>
-      <c r="S317">
-        <v>1.775</v>
-      </c>
-      <c r="T317">
-        <v>1.75</v>
-      </c>
-      <c r="U317">
-        <v>1.85</v>
-      </c>
-      <c r="V317">
-        <v>2</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
-      <c r="X317">
-        <v>-1</v>
-      </c>
       <c r="Y317">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB317">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475472</v>
+        <v>7475420</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K319">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L319">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M319">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N319">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O319">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P319">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q319">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC319">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29515,7 +29515,7 @@
         <v>54</v>
       </c>
       <c r="G326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -30491,7 +30491,7 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F337" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G337" t="s">
         <v>37</v>
@@ -30672,7 +30672,7 @@
         <v>48</v>
       </c>
       <c r="G339" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,56 +30758,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G340" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
+        <v>2.5</v>
+      </c>
+      <c r="N340">
         <v>3.5</v>
       </c>
-      <c r="N340">
-        <v>2.8</v>
-      </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.875</v>
+      </c>
+      <c r="S340">
+        <v>1.975</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.9</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.5</v>
-      </c>
-      <c r="U340">
-        <v>1.875</v>
-      </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30815,19 +30815,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,76 +30847,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
+        <v>2.3</v>
+      </c>
+      <c r="L341">
         <v>2.9</v>
       </c>
-      <c r="L341">
-        <v>3.1</v>
-      </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O341">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P341">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>1.9</v>
       </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.375</v>
-      </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31473,7 +31473,7 @@
         <v>51</v>
       </c>
       <c r="G348" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H348">
         <v>3</v>
@@ -31737,7 +31737,7 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F351" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G351" t="s">
         <v>59</v>
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
+        <v>2.875</v>
+      </c>
+      <c r="L360">
         <v>2.9</v>
       </c>
-      <c r="L360">
-        <v>3</v>
-      </c>
       <c r="M360">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N360">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G361" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L361">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M361">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N361">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC361">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32719,7 +32719,7 @@
         <v>45</v>
       </c>
       <c r="G362" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -33873,7 +33873,7 @@
         <v>45328.88541666666</v>
       </c>
       <c r="F375" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G375" t="s">
         <v>35</v>
@@ -34306,7 +34306,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7670001</v>
+        <v>7669993</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34318,13 +34318,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F380" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G380" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -34333,43 +34333,43 @@
         <v>62</v>
       </c>
       <c r="K380">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L380">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M380">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N380">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O380">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P380">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q380">
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T380">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U380">
+        <v>2.025</v>
+      </c>
+      <c r="V380">
         <v>1.825</v>
       </c>
-      <c r="V380">
-        <v>2.025</v>
-      </c>
       <c r="W380">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34378,13 +34378,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34395,7 +34395,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7669993</v>
+        <v>7670001</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34407,13 +34407,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F381" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G381" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -34422,43 +34422,43 @@
         <v>62</v>
       </c>
       <c r="K381">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L381">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M381">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N381">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O381">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P381">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q381">
         <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S381">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U381">
+        <v>1.825</v>
+      </c>
+      <c r="V381">
         <v>2.025</v>
       </c>
-      <c r="V381">
-        <v>1.825</v>
-      </c>
       <c r="W381">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34467,13 +34467,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA381">
         <v>-1</v>
       </c>
       <c r="AB381">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -35033,7 +35033,7 @@
         <v>44</v>
       </c>
       <c r="G388" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35386,7 +35386,7 @@
         <v>45335.80208333334</v>
       </c>
       <c r="F392" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G392" t="s">
         <v>58</v>
@@ -35463,7 +35463,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7817098</v>
+        <v>7670012</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35475,76 +35475,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K393">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L393">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M393">
+        <v>3.75</v>
+      </c>
+      <c r="N393">
+        <v>1.95</v>
+      </c>
+      <c r="O393">
+        <v>3.25</v>
+      </c>
+      <c r="P393">
         <v>4.333</v>
       </c>
-      <c r="N393">
-        <v>2.15</v>
-      </c>
-      <c r="O393">
-        <v>2.9</v>
-      </c>
-      <c r="P393">
-        <v>4</v>
-      </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S393">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T393">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U393">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V393">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X393">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA393">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35552,7 +35552,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7670012</v>
+        <v>7817098</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35564,76 +35564,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394">
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L394">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M394">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N394">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O394">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P394">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q394">
+        <v>-0.25</v>
+      </c>
+      <c r="R394">
+        <v>1.8</v>
+      </c>
+      <c r="S394">
+        <v>2.05</v>
+      </c>
+      <c r="T394">
+        <v>1.75</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>2.025</v>
+      </c>
+      <c r="W394">
+        <v>-1</v>
+      </c>
+      <c r="X394">
+        <v>1.9</v>
+      </c>
+      <c r="Y394">
+        <v>-1</v>
+      </c>
+      <c r="Z394">
         <v>-0.5</v>
       </c>
-      <c r="R394">
-        <v>2.025</v>
-      </c>
-      <c r="S394">
-        <v>1.825</v>
-      </c>
-      <c r="T394">
-        <v>2</v>
-      </c>
-      <c r="U394">
-        <v>1.95</v>
-      </c>
-      <c r="V394">
-        <v>1.9</v>
-      </c>
-      <c r="W394">
-        <v>0.95</v>
-      </c>
-      <c r="X394">
-        <v>-1</v>
-      </c>
-      <c r="Y394">
-        <v>-1</v>
-      </c>
-      <c r="Z394">
+      <c r="AA394">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB394">
+        <v>-1</v>
+      </c>
+      <c r="AC394">
         <v>1.025</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>-1</v>
-      </c>
-      <c r="AC394">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -36009,7 +36009,7 @@
         <v>45336.89583333334</v>
       </c>
       <c r="F399" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G399" t="s">
         <v>57</v>
@@ -36635,7 +36635,7 @@
         <v>37</v>
       </c>
       <c r="G406" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -37080,7 +37080,7 @@
         <v>60</v>
       </c>
       <c r="G411" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -37154,7 +37154,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7670025</v>
+        <v>7670029</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37166,58 +37166,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F412" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G412" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H412">
         <v>2</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="s">
         <v>62</v>
       </c>
       <c r="K412">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L412">
         <v>3.1</v>
       </c>
       <c r="M412">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O412">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q412">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R412">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S412">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U412">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V412">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37226,16 +37226,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC412">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37243,7 +37243,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7670029</v>
+        <v>7670025</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37255,58 +37255,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G413" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>62</v>
       </c>
       <c r="K413">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L413">
         <v>3.1</v>
       </c>
       <c r="M413">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N413">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O413">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P413">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R413">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S413">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T413">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V413">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W413">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37315,16 +37315,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC413">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K421">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L421">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N421">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O421">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X421">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K422">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L422">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M422">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N422">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P422">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q422">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S422">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38234,7 +38234,7 @@
         <v>45347.8125</v>
       </c>
       <c r="F424" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G424" t="s">
         <v>33</v>
@@ -38860,7 +38860,7 @@
         <v>38</v>
       </c>
       <c r="G431" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H431">
         <v>0</v>
@@ -38946,7 +38946,7 @@
         <v>45351.79166666666</v>
       </c>
       <c r="F432" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G432" t="s">
         <v>51</v>
@@ -39290,7 +39290,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7670060</v>
+        <v>7670050</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39302,76 +39302,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F436" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G436" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436">
         <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K436">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M436">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N436">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P436">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q436">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R436">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S436">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T436">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U436">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V436">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W436">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X436">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA436">
+        <v>-1</v>
+      </c>
+      <c r="AB436">
+        <v>0.45</v>
+      </c>
+      <c r="AC436">
         <v>-0.5</v>
-      </c>
-      <c r="AB436">
-        <v>-1</v>
-      </c>
-      <c r="AC436">
-        <v>0.875</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39379,7 +39379,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7670050</v>
+        <v>7670060</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39391,76 +39391,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F437" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G437" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437">
         <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K437">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M437">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N437">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P437">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q437">
+        <v>0.25</v>
+      </c>
+      <c r="R437">
+        <v>2.025</v>
+      </c>
+      <c r="S437">
+        <v>1.825</v>
+      </c>
+      <c r="T437">
+        <v>2</v>
+      </c>
+      <c r="U437">
+        <v>1.975</v>
+      </c>
+      <c r="V437">
+        <v>1.875</v>
+      </c>
+      <c r="W437">
+        <v>-1</v>
+      </c>
+      <c r="X437">
+        <v>2</v>
+      </c>
+      <c r="Y437">
+        <v>-1</v>
+      </c>
+      <c r="Z437">
+        <v>0.5125</v>
+      </c>
+      <c r="AA437">
         <v>-0.5</v>
       </c>
-      <c r="R437">
-        <v>1.975</v>
-      </c>
-      <c r="S437">
-        <v>1.875</v>
-      </c>
-      <c r="T437">
-        <v>1.75</v>
-      </c>
-      <c r="U437">
-        <v>1.9</v>
-      </c>
-      <c r="V437">
-        <v>1.95</v>
-      </c>
-      <c r="W437">
-        <v>0.95</v>
-      </c>
-      <c r="X437">
-        <v>-1</v>
-      </c>
-      <c r="Y437">
-        <v>-1</v>
-      </c>
-      <c r="Z437">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA437">
-        <v>-1</v>
-      </c>
       <c r="AB437">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39569,7 +39569,7 @@
         <v>45353.79166666666</v>
       </c>
       <c r="F439" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G439" t="s">
         <v>52</v>
@@ -40551,7 +40551,7 @@
         <v>35</v>
       </c>
       <c r="G450" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H450">
         <v>2</v>
@@ -40904,7 +40904,7 @@
         <v>45357.89583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G454" t="s">
         <v>50</v>
@@ -41349,7 +41349,7 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G459" t="s">
         <v>44</v>
@@ -41604,7 +41604,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7670270</v>
+        <v>7670259</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41616,76 +41616,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G462" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K462">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L462">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M462">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N462">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O462">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P462">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S462">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T462">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U462">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V462">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W462">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
         <v>-1</v>
       </c>
       <c r="AC462">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41693,7 +41693,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7670259</v>
+        <v>7670270</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41705,76 +41705,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F463" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G463" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K463">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L463">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N463">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O463">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P463">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S463">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T463">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X463">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA463">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
         <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41960,7 +41960,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7670269</v>
+        <v>7670261</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41972,13 +41972,13 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F466" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G466" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H466">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I466">
         <v>1</v>
@@ -41987,43 +41987,43 @@
         <v>62</v>
       </c>
       <c r="K466">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L466">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M466">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="N466">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O466">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P466">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q466">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R466">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S466">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T466">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U466">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V466">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W466">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="X466">
         <v>-1</v>
@@ -42032,13 +42032,13 @@
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC466">
         <v>-1</v>
@@ -42049,7 +42049,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7670261</v>
+        <v>7670269</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42061,13 +42061,13 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F467" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G467" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I467">
         <v>1</v>
@@ -42076,43 +42076,43 @@
         <v>62</v>
       </c>
       <c r="K467">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L467">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M467">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="N467">
+        <v>2.05</v>
+      </c>
+      <c r="O467">
+        <v>3.1</v>
+      </c>
+      <c r="P467">
+        <v>4.2</v>
+      </c>
+      <c r="Q467">
+        <v>-0.5</v>
+      </c>
+      <c r="R467">
+        <v>2</v>
+      </c>
+      <c r="S467">
+        <v>1.85</v>
+      </c>
+      <c r="T467">
         <v>2.25</v>
       </c>
-      <c r="O467">
-        <v>3</v>
-      </c>
-      <c r="P467">
-        <v>3.75</v>
-      </c>
-      <c r="Q467">
-        <v>-0.25</v>
-      </c>
-      <c r="R467">
-        <v>1.875</v>
-      </c>
-      <c r="S467">
-        <v>1.975</v>
-      </c>
-      <c r="T467">
-        <v>2</v>
-      </c>
       <c r="U467">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V467">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W467">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="X467">
         <v>-1</v>
@@ -42121,13 +42121,13 @@
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA467">
         <v>-1</v>
       </c>
       <c r="AB467">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -42939,7 +42939,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7670279</v>
+        <v>7670284</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42951,49 +42951,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G477" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J477" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K477">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L477">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M477">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N477">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O477">
+        <v>3.1</v>
+      </c>
+      <c r="P477">
         <v>3.5</v>
       </c>
-      <c r="P477">
-        <v>5.5</v>
-      </c>
       <c r="Q477">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R477">
+        <v>1.875</v>
+      </c>
+      <c r="S477">
         <v>1.975</v>
       </c>
-      <c r="S477">
-        <v>1.875</v>
-      </c>
       <c r="T477">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -43002,25 +43002,25 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X477">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA477">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43028,7 +43028,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7670284</v>
+        <v>7670279</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43040,49 +43040,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F478" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G478" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K478">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L478">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M478">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N478">
+        <v>1.727</v>
+      </c>
+      <c r="O478">
+        <v>3.5</v>
+      </c>
+      <c r="P478">
+        <v>5.5</v>
+      </c>
+      <c r="Q478">
+        <v>-0.75</v>
+      </c>
+      <c r="R478">
+        <v>1.975</v>
+      </c>
+      <c r="S478">
+        <v>1.875</v>
+      </c>
+      <c r="T478">
         <v>2.25</v>
-      </c>
-      <c r="O478">
-        <v>3.1</v>
-      </c>
-      <c r="P478">
-        <v>3.5</v>
-      </c>
-      <c r="Q478">
-        <v>-0.25</v>
-      </c>
-      <c r="R478">
-        <v>1.875</v>
-      </c>
-      <c r="S478">
-        <v>1.975</v>
-      </c>
-      <c r="T478">
-        <v>2</v>
       </c>
       <c r="U478">
         <v>1.95</v>
@@ -43091,25 +43091,25 @@
         <v>1.9</v>
       </c>
       <c r="W478">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X478">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y478">
         <v>-1</v>
       </c>
       <c r="Z478">
+        <v>-1</v>
+      </c>
+      <c r="AA478">
         <v>0.875</v>
       </c>
-      <c r="AA478">
-        <v>-1</v>
-      </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43310,7 +43310,7 @@
         <v>57</v>
       </c>
       <c r="G481" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H481">
         <v>3</v>
@@ -43384,7 +43384,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7670278</v>
+        <v>7670275</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43396,10 +43396,10 @@
         <v>45368.875</v>
       </c>
       <c r="F482" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G482" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43411,61 +43411,61 @@
         <v>61</v>
       </c>
       <c r="K482">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M482">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N482">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P482">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S482">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43473,7 +43473,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7670275</v>
+        <v>7670278</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43485,10 +43485,10 @@
         <v>45368.875</v>
       </c>
       <c r="F483" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G483" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -43500,61 +43500,61 @@
         <v>61</v>
       </c>
       <c r="K483">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M483">
+        <v>2.375</v>
+      </c>
+      <c r="N483">
         <v>2.9</v>
       </c>
-      <c r="N483">
-        <v>2.3</v>
-      </c>
       <c r="O483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P483">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R483">
+        <v>2.1</v>
+      </c>
+      <c r="S483">
+        <v>1.775</v>
+      </c>
+      <c r="T483">
+        <v>2</v>
+      </c>
+      <c r="U483">
+        <v>1.9</v>
+      </c>
+      <c r="V483">
         <v>1.95</v>
       </c>
-      <c r="S483">
-        <v>1.9</v>
-      </c>
-      <c r="T483">
-        <v>2</v>
-      </c>
-      <c r="U483">
-        <v>1.875</v>
-      </c>
-      <c r="V483">
-        <v>1.975</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y483">
         <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA483">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -44224,19 +44224,19 @@
         <v>0</v>
       </c>
       <c r="R491">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S491">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T491">
         <v>2</v>
       </c>
       <c r="U491">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V491">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W491">
         <v>0</v>
@@ -44289,28 +44289,28 @@
         <v>2.875</v>
       </c>
       <c r="O492">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P492">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q492">
         <v>0</v>
       </c>
       <c r="R492">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S492">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T492">
         <v>2.25</v>
       </c>
       <c r="U492">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V492">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W492">
         <v>0</v>
@@ -44360,10 +44360,10 @@
         <v>1.833</v>
       </c>
       <c r="N493">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O493">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P493">
         <v>2</v>
@@ -44381,10 +44381,10 @@
         <v>2.25</v>
       </c>
       <c r="U493">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V493">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W493">
         <v>0</v>
@@ -44446,10 +44446,10 @@
         <v>-0.5</v>
       </c>
       <c r="R494">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S494">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T494">
         <v>1.75</v>
@@ -44641,7 +44641,7 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F497" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G497" t="s">
         <v>60</v>
@@ -44751,10 +44751,10 @@
         <v>1.75</v>
       </c>
       <c r="U498">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V498">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W498">
         <v>0</v>
@@ -44792,7 +44792,7 @@
         <v>45</v>
       </c>
       <c r="G499" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K499">
         <v>1.727</v>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -169,10 +169,10 @@
     <t>Banfield</t>
   </si>
   <si>
-    <t>Instituto AC Cordoba</t>
+    <t>Velez Sarsfield</t>
   </si>
   <si>
-    <t>Velez Sarsfield</t>
+    <t>Instituto AC Cordoba</t>
   </si>
   <si>
     <t>Defensa y Justicia</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC501"/>
+  <dimension ref="A1:AC497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2533,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6120066</v>
+        <v>6120069</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2548,73 +2548,73 @@
         <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
         <v>2.8</v>
       </c>
-      <c r="N23">
-        <v>2.2</v>
-      </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2622,7 +2622,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6120069</v>
+        <v>6120066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3171,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3527,7 +3527,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3705,7 +3705,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4669,7 +4669,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6120099</v>
+        <v>6120095</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4681,10 +4681,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4696,43 +4696,43 @@
         <v>62</v>
       </c>
       <c r="K47">
+        <v>1.615</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>5.5</v>
+      </c>
+      <c r="N47">
+        <v>1.8</v>
+      </c>
+      <c r="O47">
+        <v>3.25</v>
+      </c>
+      <c r="P47">
+        <v>5.25</v>
+      </c>
+      <c r="Q47">
+        <v>-0.5</v>
+      </c>
+      <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
         <v>2.05</v>
       </c>
-      <c r="L47">
-        <v>3.1</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>2.25</v>
-      </c>
-      <c r="O47">
-        <v>3.1</v>
-      </c>
-      <c r="P47">
-        <v>3.5</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.8</v>
       </c>
-      <c r="V47">
-        <v>2.05</v>
-      </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4750,7 +4750,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6120095</v>
+        <v>6120099</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4770,10 +4770,10 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4785,43 +4785,43 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48">
+        <v>3.1</v>
+      </c>
+      <c r="P48">
+        <v>3.5</v>
+      </c>
+      <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
         <v>1.8</v>
       </c>
-      <c r="O48">
-        <v>3.25</v>
-      </c>
-      <c r="P48">
-        <v>5.25</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
-      <c r="U48">
+      <c r="V48">
         <v>2.05</v>
       </c>
-      <c r="V48">
-        <v>1.8</v>
-      </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4839,7 +4839,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5393,7 +5393,7 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -5841,7 +5841,7 @@
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6857883</v>
+        <v>6857892</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7262,49 +7262,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7313,19 +7313,19 @@
         <v>2.025</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6857892</v>
+        <v>6857883</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7351,49 +7351,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7402,19 +7402,19 @@
         <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7440,7 +7440,7 @@
         <v>45116.75</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
@@ -8318,7 +8318,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6120135</v>
+        <v>6120136</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8330,76 +8330,76 @@
         <v>45121.79166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>61</v>
       </c>
       <c r="K88">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB88">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8407,7 +8407,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6120136</v>
+        <v>6120135</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8419,76 +8419,76 @@
         <v>45121.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>61</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O89">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
+        <v>1.75</v>
+      </c>
+      <c r="U89">
+        <v>2.025</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>1.8</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
+        <v>0.5125</v>
+      </c>
+      <c r="AC89">
         <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>2.05</v>
-      </c>
-      <c r="S89">
-        <v>1.75</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>2.25</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.75</v>
-      </c>
-      <c r="AB89">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9312,7 +9312,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>45131.6875</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10733,7 +10733,7 @@
         <v>45132.85416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10810,7 +10810,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6120162</v>
+        <v>6120168</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10822,76 +10822,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K116">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
+        <v>3.6</v>
+      </c>
+      <c r="N116">
+        <v>2.625</v>
+      </c>
+      <c r="O116">
+        <v>2.9</v>
+      </c>
+      <c r="P116">
         <v>3</v>
       </c>
-      <c r="N116">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
         <v>1.85</v>
       </c>
-      <c r="O116">
-        <v>3.5</v>
-      </c>
-      <c r="P116">
-        <v>4.5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2.05</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2.05</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10899,7 +10899,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6120168</v>
+        <v>6120162</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10911,76 +10911,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L117">
         <v>3</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10988,7 +10988,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6120169</v>
+        <v>6120159</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11000,76 +11000,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>61</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N118">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>1.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
+        <v>0.425</v>
+      </c>
+      <c r="AA118">
         <v>-0.5</v>
       </c>
-      <c r="AA118">
-        <v>0.4125</v>
-      </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11077,7 +11077,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6120159</v>
+        <v>6120169</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11089,76 +11089,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>61</v>
       </c>
       <c r="K119">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>1.75</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB119">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11893,7 +11893,7 @@
         <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11982,7 +11982,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12513,7 +12513,7 @@
         <v>45157.875</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12605,7 +12605,7 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7095524</v>
+        <v>7095519</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13581,58 +13581,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
         <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>62</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N147">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13641,16 +13641,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13658,7 +13658,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7095519</v>
+        <v>7095524</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13670,58 +13670,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G148" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>62</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>2.75</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.2</v>
       </c>
-      <c r="M148">
-        <v>6</v>
-      </c>
-      <c r="N148">
-        <v>1.909</v>
-      </c>
-      <c r="O148">
-        <v>3.25</v>
-      </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>1.8</v>
+      </c>
+      <c r="T148">
+        <v>1.75</v>
+      </c>
+      <c r="U148">
         <v>1.925</v>
       </c>
-      <c r="S148">
+      <c r="V148">
         <v>1.925</v>
       </c>
-      <c r="T148">
-        <v>2</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13730,16 +13730,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
+        <v>1.05</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.925</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>1</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13836,7 +13836,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7095518</v>
+        <v>7095523</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13848,76 +13848,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K150">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.025</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
         <v>2.05</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.8</v>
       </c>
-      <c r="T150">
-        <v>2</v>
-      </c>
-      <c r="U150">
-        <v>1.925</v>
-      </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.8</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
-      <c r="AC150">
-        <v>0.925</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13925,7 +13925,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7095523</v>
+        <v>7095518</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13937,76 +13937,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14118,7 +14118,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14385,7 +14385,7 @@
         <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M160">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N160">
+        <v>2.8</v>
+      </c>
+      <c r="O160">
+        <v>2.55</v>
+      </c>
+      <c r="P160">
+        <v>3.25</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
         <v>2.05</v>
       </c>
-      <c r="O160">
-        <v>2.875</v>
-      </c>
-      <c r="P160">
-        <v>4.75</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>2.1</v>
-      </c>
-      <c r="S160">
-        <v>1.775</v>
-      </c>
       <c r="T160">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P161">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X161">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14916,7 +14916,7 @@
         <v>45171.89583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G162" t="s">
         <v>57</v>
@@ -15094,7 +15094,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G164" t="s">
         <v>50</v>
@@ -15809,7 +15809,7 @@
         <v>56</v>
       </c>
       <c r="G172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7137524</v>
+        <v>7137513</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16340,76 +16340,76 @@
         <v>45184.875</v>
       </c>
       <c r="F178" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M178">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>1.75</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
         <v>2.05</v>
       </c>
-      <c r="S178">
-        <v>1.8</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>1.05</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16417,7 +16417,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7137513</v>
+        <v>7137524</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16429,76 +16429,76 @@
         <v>45184.875</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.3</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
+        <v>2.375</v>
+      </c>
+      <c r="O179">
         <v>3.2</v>
       </c>
-      <c r="L179">
-        <v>2.9</v>
-      </c>
-      <c r="M179">
-        <v>2.375</v>
-      </c>
-      <c r="N179">
-        <v>3.5</v>
-      </c>
-      <c r="O179">
-        <v>3</v>
-      </c>
       <c r="P179">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.875</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>1.75</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2.05</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16788,7 +16788,7 @@
         <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17396,7 +17396,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7178875</v>
+        <v>7178900</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17408,13 +17408,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G190" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -17423,43 +17423,43 @@
         <v>62</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N190">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O190">
         <v>2.9</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17468,16 +17468,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17485,7 +17485,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7178900</v>
+        <v>7178875</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17497,13 +17497,13 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -17512,43 +17512,43 @@
         <v>62</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N191">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O191">
         <v>2.9</v>
       </c>
       <c r="P191">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17557,16 +17557,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17574,7 +17574,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7178903</v>
+        <v>7179016</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17586,76 +17586,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K192">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L192">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
+        <v>5</v>
+      </c>
+      <c r="N192">
+        <v>1.7</v>
+      </c>
+      <c r="O192">
         <v>3.4</v>
       </c>
-      <c r="N192">
-        <v>2.2</v>
-      </c>
-      <c r="O192">
-        <v>2.9</v>
-      </c>
       <c r="P192">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
         <v>1.9</v>
       </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
       <c r="T192">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X192">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.475</v>
+      </c>
+      <c r="AA192">
         <v>-0.5</v>
       </c>
-      <c r="AA192">
-        <v>0.475</v>
-      </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17663,7 +17663,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7179016</v>
+        <v>7178903</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17675,76 +17675,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K193">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N193">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P193">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
+        <v>1.9</v>
+      </c>
+      <c r="S193">
         <v>1.95</v>
       </c>
-      <c r="S193">
+      <c r="T193">
+        <v>1.75</v>
+      </c>
+      <c r="U193">
+        <v>1.925</v>
+      </c>
+      <c r="V193">
+        <v>1.925</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>1.9</v>
       </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>2.05</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
-      <c r="W193">
-        <v>0.7</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>-0.5</v>
+      </c>
+      <c r="AA193">
         <v>0.475</v>
       </c>
-      <c r="AA193">
-        <v>-0.5</v>
-      </c>
       <c r="AB193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17853,7 +17853,7 @@
         <v>45189.875</v>
       </c>
       <c r="F195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G195" t="s">
         <v>54</v>
@@ -18464,7 +18464,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7031969</v>
+        <v>7032058</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18476,58 +18476,58 @@
         <v>45192.875</v>
       </c>
       <c r="F202" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>62</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L202">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
         <v>3</v>
       </c>
       <c r="N202">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O202">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T202">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18536,13 +18536,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18553,7 +18553,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7032058</v>
+        <v>7031969</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18565,58 +18565,58 @@
         <v>45192.875</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G203" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>62</v>
       </c>
       <c r="K203">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M203">
         <v>3</v>
       </c>
       <c r="N203">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O203">
+        <v>2.8</v>
+      </c>
+      <c r="P203">
         <v>3.5</v>
       </c>
-      <c r="P203">
-        <v>3.8</v>
-      </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U203">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18625,13 +18625,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18657,7 +18657,7 @@
         <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032055</v>
+        <v>7032056</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19010,76 +19010,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K208">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O208">
         <v>2.7</v>
       </c>
       <c r="P208">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032056</v>
+        <v>7032055</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19099,76 +19099,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L209">
+        <v>2.9</v>
+      </c>
+      <c r="M209">
         <v>3</v>
       </c>
-      <c r="M209">
-        <v>4.1</v>
-      </c>
       <c r="N209">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O209">
         <v>2.7</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S209">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
         <v>1.75</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X209">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19547,7 +19547,7 @@
         <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -20437,7 +20437,7 @@
         <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -21413,7 +21413,7 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G235" t="s">
         <v>56</v>
@@ -21668,7 +21668,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7031988</v>
+        <v>7031990</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21680,76 +21680,76 @@
         <v>45208.75</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K238">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O238">
+        <v>3</v>
+      </c>
+      <c r="P238">
         <v>2.9</v>
       </c>
-      <c r="P238">
-        <v>2.45</v>
-      </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X238">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21757,7 +21757,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7031990</v>
+        <v>7031988</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21769,76 +21769,76 @@
         <v>45208.75</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L239">
         <v>3.2</v>
       </c>
       <c r="M239">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N239">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P239">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21858,7 +21858,7 @@
         <v>45208.85416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
         <v>55</v>
@@ -22751,7 +22751,7 @@
         <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23018,7 +23018,7 @@
         <v>58</v>
       </c>
       <c r="G253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23371,7 +23371,7 @@
         <v>45222.875</v>
       </c>
       <c r="F257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G257" t="s">
         <v>50</v>
@@ -23727,7 +23727,7 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F261" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G261" t="s">
         <v>37</v>
@@ -24617,10 +24617,10 @@
         <v>45227.89583333334</v>
       </c>
       <c r="F271" t="s">
+        <v>52</v>
+      </c>
+      <c r="G271" t="s">
         <v>51</v>
-      </c>
-      <c r="G271" t="s">
-        <v>52</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -26130,7 +26130,7 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G288" t="s">
         <v>48</v>
@@ -26563,7 +26563,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7402254</v>
+        <v>7402247</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26575,76 +26575,76 @@
         <v>45236.77083333334</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K293">
+        <v>2.625</v>
+      </c>
+      <c r="L293">
+        <v>2.9</v>
+      </c>
+      <c r="M293">
+        <v>3</v>
+      </c>
+      <c r="N293">
+        <v>2.375</v>
+      </c>
+      <c r="O293">
+        <v>2.8</v>
+      </c>
+      <c r="P293">
+        <v>3.4</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.975</v>
+      </c>
+      <c r="S293">
+        <v>1.875</v>
+      </c>
+      <c r="T293">
+        <v>2</v>
+      </c>
+      <c r="U293">
+        <v>1.925</v>
+      </c>
+      <c r="V293">
+        <v>1.925</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>1.8</v>
       </c>
-      <c r="L293">
-        <v>3.3</v>
-      </c>
-      <c r="M293">
-        <v>5</v>
-      </c>
-      <c r="N293">
-        <v>1.75</v>
-      </c>
-      <c r="O293">
-        <v>3.1</v>
-      </c>
-      <c r="P293">
-        <v>5.5</v>
-      </c>
-      <c r="Q293">
+      <c r="Y293">
+        <v>-1</v>
+      </c>
+      <c r="Z293">
         <v>-0.5</v>
       </c>
-      <c r="R293">
-        <v>1.8</v>
-      </c>
-      <c r="S293">
-        <v>2.05</v>
-      </c>
-      <c r="T293">
-        <v>1.75</v>
-      </c>
-      <c r="U293">
-        <v>1.8</v>
-      </c>
-      <c r="V293">
-        <v>2.05</v>
-      </c>
-      <c r="W293">
-        <v>0.75</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
-      <c r="Y293">
-        <v>-1</v>
-      </c>
-      <c r="Z293">
-        <v>0.8</v>
-      </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB293">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26652,7 +26652,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7402247</v>
+        <v>7402254</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26664,76 +26664,76 @@
         <v>45236.77083333334</v>
       </c>
       <c r="F294" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G294" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K294">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L294">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O294">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P294">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U294">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X294">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
+        <v>0.8</v>
+      </c>
+      <c r="AA294">
+        <v>-1</v>
+      </c>
+      <c r="AB294">
+        <v>0.4</v>
+      </c>
+      <c r="AC294">
         <v>-0.5</v>
-      </c>
-      <c r="AA294">
-        <v>0.4375</v>
-      </c>
-      <c r="AB294">
-        <v>0</v>
-      </c>
-      <c r="AC294">
-        <v>-0</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26741,7 +26741,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7402243</v>
+        <v>7402248</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26753,73 +26753,73 @@
         <v>45236.875</v>
       </c>
       <c r="F295" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G295" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K295">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L295">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N295">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P295">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q295">
         <v>-0.25</v>
       </c>
       <c r="R295">
+        <v>2.125</v>
+      </c>
+      <c r="S295">
+        <v>1.75</v>
+      </c>
+      <c r="T295">
+        <v>1.75</v>
+      </c>
+      <c r="U295">
         <v>1.85</v>
       </c>
-      <c r="S295">
-        <v>2</v>
-      </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
-      <c r="U295">
-        <v>2</v>
-      </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W295">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>0.75</v>
+      </c>
+      <c r="AB295">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
-      <c r="AB295">
-        <v>1</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26830,7 +26830,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7402248</v>
+        <v>7402243</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26842,73 +26842,73 @@
         <v>45236.875</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G296" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296" t="s">
+        <v>62</v>
+      </c>
+      <c r="K296">
+        <v>2.1</v>
+      </c>
+      <c r="L296">
+        <v>3.2</v>
+      </c>
+      <c r="M296">
+        <v>3.75</v>
+      </c>
+      <c r="N296">
+        <v>2.1</v>
+      </c>
+      <c r="O296">
         <v>3</v>
       </c>
-      <c r="J296" t="s">
-        <v>63</v>
-      </c>
-      <c r="K296">
-        <v>1.727</v>
-      </c>
-      <c r="L296">
-        <v>3.6</v>
-      </c>
-      <c r="M296">
-        <v>5</v>
-      </c>
-      <c r="N296">
-        <v>2.5</v>
-      </c>
-      <c r="O296">
-        <v>2.875</v>
-      </c>
       <c r="P296">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q296">
         <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U296">
+        <v>2</v>
+      </c>
+      <c r="V296">
         <v>1.85</v>
       </c>
-      <c r="V296">
-        <v>2</v>
-      </c>
       <c r="W296">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -27201,7 +27201,7 @@
         <v>35</v>
       </c>
       <c r="G300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K308">
+        <v>1.8</v>
+      </c>
+      <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
+        <v>5</v>
+      </c>
+      <c r="N308">
+        <v>2.625</v>
+      </c>
+      <c r="O308">
+        <v>2.8</v>
+      </c>
+      <c r="P308">
+        <v>3.1</v>
+      </c>
+      <c r="Q308">
+        <v>-0.25</v>
+      </c>
+      <c r="R308">
         <v>2.1</v>
       </c>
-      <c r="L308">
-        <v>2.8</v>
-      </c>
-      <c r="M308">
-        <v>3.9</v>
-      </c>
-      <c r="N308">
-        <v>1.909</v>
-      </c>
-      <c r="O308">
-        <v>3</v>
-      </c>
-      <c r="P308">
-        <v>5</v>
-      </c>
-      <c r="Q308">
-        <v>-0.5</v>
-      </c>
-      <c r="R308">
-        <v>1.9</v>
-      </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U308">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W308">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X308">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA308">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H309">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M309">
+        <v>3.9</v>
+      </c>
+      <c r="N309">
+        <v>1.909</v>
+      </c>
+      <c r="O309">
+        <v>3</v>
+      </c>
+      <c r="P309">
         <v>5</v>
       </c>
-      <c r="N309">
-        <v>2.625</v>
-      </c>
-      <c r="O309">
-        <v>2.8</v>
-      </c>
-      <c r="P309">
-        <v>3.1</v>
-      </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
+        <v>1.9</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2</v>
+      </c>
+      <c r="U309">
         <v>2.1</v>
       </c>
-      <c r="S309">
-        <v>1.7</v>
-      </c>
-      <c r="T309">
-        <v>1.75</v>
-      </c>
-      <c r="U309">
-        <v>1.85</v>
-      </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W309">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB309">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28177,7 +28177,7 @@
         <v>45243.875</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G311" t="s">
         <v>44</v>
@@ -28254,7 +28254,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7475419</v>
+        <v>7475441</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28266,13 +28266,13 @@
         <v>45255.75</v>
       </c>
       <c r="F312" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G312" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -28281,19 +28281,19 @@
         <v>62</v>
       </c>
       <c r="K312">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L312">
         <v>3.2</v>
       </c>
       <c r="M312">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N312">
         <v>2.2</v>
       </c>
       <c r="O312">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
         <v>3.6</v>
@@ -28308,13 +28308,13 @@
         <v>1.95</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W312">
         <v>1.2</v>
@@ -28332,10 +28332,10 @@
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28343,7 +28343,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7475471</v>
+        <v>7475419</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28355,58 +28355,58 @@
         <v>45255.75</v>
       </c>
       <c r="F313" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G313" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>62</v>
       </c>
       <c r="K313">
+        <v>1.8</v>
+      </c>
+      <c r="L313">
+        <v>3.2</v>
+      </c>
+      <c r="M313">
+        <v>5</v>
+      </c>
+      <c r="N313">
         <v>2.2</v>
       </c>
-      <c r="L313">
-        <v>3.3</v>
-      </c>
-      <c r="M313">
-        <v>3.3</v>
-      </c>
-      <c r="N313">
-        <v>2.15</v>
-      </c>
       <c r="O313">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P313">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q313">
         <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S313">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T313">
         <v>2</v>
       </c>
       <c r="U313">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V313">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W313">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28415,16 +28415,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28432,7 +28432,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7475441</v>
+        <v>7475471</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28444,16 +28444,16 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G314" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H314">
+        <v>3</v>
+      </c>
+      <c r="I314">
         <v>1</v>
-      </c>
-      <c r="I314">
-        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>62</v>
@@ -28462,40 +28462,40 @@
         <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M314">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N314">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O314">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P314">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
         <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S314">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T314">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28504,16 +28504,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC314">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475472</v>
+        <v>7475420</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,76 +28711,76 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G317" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H317">
         <v>0</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K317">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L317">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M317">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N317">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P317">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S317">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z317">
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC317">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475397</v>
+        <v>7475472</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,76 +28800,76 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G318" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K318">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L318">
+        <v>3.75</v>
+      </c>
+      <c r="M318">
+        <v>5.5</v>
+      </c>
+      <c r="N318">
+        <v>1.4</v>
+      </c>
+      <c r="O318">
+        <v>4.2</v>
+      </c>
+      <c r="P318">
+        <v>9.5</v>
+      </c>
+      <c r="Q318">
+        <v>-1.25</v>
+      </c>
+      <c r="R318">
+        <v>1.95</v>
+      </c>
+      <c r="S318">
+        <v>1.9</v>
+      </c>
+      <c r="T318">
+        <v>2.5</v>
+      </c>
+      <c r="U318">
+        <v>1.925</v>
+      </c>
+      <c r="V318">
+        <v>1.925</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>3.2</v>
       </c>
-      <c r="M318">
-        <v>1.909</v>
-      </c>
-      <c r="N318">
-        <v>4.5</v>
-      </c>
-      <c r="O318">
-        <v>3.5</v>
-      </c>
-      <c r="P318">
-        <v>1.8</v>
-      </c>
-      <c r="Q318">
-        <v>0.75</v>
-      </c>
-      <c r="R318">
-        <v>1.8</v>
-      </c>
-      <c r="S318">
-        <v>2.05</v>
-      </c>
-      <c r="T318">
-        <v>2.25</v>
-      </c>
-      <c r="U318">
-        <v>1.8</v>
-      </c>
-      <c r="V318">
-        <v>2.05</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB318">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475420</v>
+        <v>7475397</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,13 +28889,13 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G319" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>2</v>
@@ -28904,40 +28904,40 @@
         <v>63</v>
       </c>
       <c r="K319">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L319">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M319">
+        <v>1.909</v>
+      </c>
+      <c r="N319">
+        <v>4.5</v>
+      </c>
+      <c r="O319">
         <v>3.5</v>
       </c>
-      <c r="N319">
-        <v>2.625</v>
-      </c>
-      <c r="O319">
-        <v>2.75</v>
-      </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R319">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T319">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W319">
         <v>-1</v>
@@ -28946,19 +28946,19 @@
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB319">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29233,7 +29233,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7475443</v>
+        <v>7475440</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29245,46 +29245,46 @@
         <v>45257.89583333334</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H323">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>62</v>
       </c>
       <c r="K323">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L323">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O323">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R323">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S323">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T323">
         <v>2.25</v>
@@ -29293,10 +29293,10 @@
         <v>2.05</v>
       </c>
       <c r="V323">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29305,7 +29305,7 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA323">
         <v>-1</v>
@@ -29322,7 +29322,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7475440</v>
+        <v>7475443</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29334,46 +29334,46 @@
         <v>45257.89583333334</v>
       </c>
       <c r="F324" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G324" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
         <v>62</v>
       </c>
       <c r="K324">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L324">
+        <v>2.5</v>
+      </c>
+      <c r="M324">
+        <v>3.4</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324">
         <v>3.2</v>
       </c>
-      <c r="M324">
-        <v>3</v>
-      </c>
-      <c r="N324">
-        <v>1.666</v>
-      </c>
-      <c r="O324">
-        <v>3.6</v>
-      </c>
       <c r="P324">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q324">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S324">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T324">
         <v>2.25</v>
@@ -29382,10 +29382,10 @@
         <v>2.05</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W324">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29394,7 +29394,7 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA324">
         <v>-1</v>
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
+        <v>1.909</v>
+      </c>
+      <c r="L334">
+        <v>3.3</v>
+      </c>
+      <c r="M334">
+        <v>4.333</v>
+      </c>
+      <c r="N334">
         <v>2.3</v>
       </c>
-      <c r="L334">
-        <v>3.2</v>
-      </c>
-      <c r="M334">
-        <v>3.2</v>
-      </c>
-      <c r="N334">
-        <v>1.8</v>
-      </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P334">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.925</v>
+      </c>
+      <c r="S334">
+        <v>1.925</v>
+      </c>
+      <c r="T334">
+        <v>1.75</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>1.925</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>1.875</v>
+      </c>
+      <c r="Y334">
+        <v>-1</v>
+      </c>
+      <c r="Z334">
         <v>-0.5</v>
       </c>
-      <c r="R334">
-        <v>1.85</v>
-      </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>2</v>
-      </c>
-      <c r="U334">
-        <v>2.05</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
-      <c r="W334">
-        <v>-1</v>
-      </c>
-      <c r="X334">
-        <v>2.4</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
       <c r="AA334">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L335">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T335">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30583,7 +30583,7 @@
         <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31470,7 +31470,7 @@
         <v>45320.875</v>
       </c>
       <c r="F348" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G348" t="s">
         <v>55</v>
@@ -31826,7 +31826,7 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G352" t="s">
         <v>45</v>
@@ -33075,7 +33075,7 @@
         <v>57</v>
       </c>
       <c r="G366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H366">
         <v>5</v>
@@ -33698,7 +33698,7 @@
         <v>50</v>
       </c>
       <c r="G373" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7670002</v>
+        <v>7670000</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34140,76 +34140,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K378">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L378">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M378">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O378">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P378">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q378">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T378">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U378">
+        <v>1.8</v>
+      </c>
+      <c r="V378">
         <v>2.05</v>
       </c>
-      <c r="V378">
-        <v>1.8</v>
-      </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34217,7 +34217,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7670000</v>
+        <v>7670002</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34229,76 +34229,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K379">
+        <v>2.75</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379">
+        <v>2.75</v>
+      </c>
+      <c r="N379">
+        <v>3.2</v>
+      </c>
+      <c r="O379">
+        <v>2.625</v>
+      </c>
+      <c r="P379">
+        <v>2.7</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
+        <v>1.775</v>
+      </c>
+      <c r="T379">
+        <v>1.75</v>
+      </c>
+      <c r="U379">
+        <v>2.05</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="L379">
-        <v>3.6</v>
-      </c>
-      <c r="M379">
-        <v>4.5</v>
-      </c>
-      <c r="N379">
-        <v>1.666</v>
-      </c>
-      <c r="O379">
-        <v>3.8</v>
-      </c>
-      <c r="P379">
-        <v>5</v>
-      </c>
-      <c r="Q379">
-        <v>-0.75</v>
-      </c>
-      <c r="R379">
-        <v>1.9</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>2</v>
-      </c>
-      <c r="U379">
-        <v>1.8</v>
-      </c>
-      <c r="V379">
-        <v>2.05</v>
-      </c>
       <c r="W379">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34318,7 +34318,7 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F380" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G380" t="s">
         <v>56</v>
@@ -35119,7 +35119,7 @@
         <v>45334.79166666666</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G389" t="s">
         <v>48</v>
@@ -36101,7 +36101,7 @@
         <v>60</v>
       </c>
       <c r="G400" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H400">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>59</v>
       </c>
       <c r="G402" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -36721,7 +36721,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G407" t="s">
         <v>58</v>
@@ -36810,7 +36810,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G408" t="s">
         <v>45</v>
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G421" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H421">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K421">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L421">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M421">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N421">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O421">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P421">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q421">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R421">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S421">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V421">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W421">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB421">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G422" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K422">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L422">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M422">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N422">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O422">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P422">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q422">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R422">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S422">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V422">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X422">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC422">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38501,7 +38501,7 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F427" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G427" t="s">
         <v>42</v>
@@ -38768,7 +38768,7 @@
         <v>45348.89583333334</v>
       </c>
       <c r="F430" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G430" t="s">
         <v>34</v>
@@ -38949,7 +38949,7 @@
         <v>56</v>
       </c>
       <c r="G432" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H432">
         <v>1</v>
@@ -39023,7 +39023,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7670052</v>
+        <v>7670055</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39035,76 +39035,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F433" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G433" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433" t="s">
+        <v>62</v>
+      </c>
+      <c r="K433">
+        <v>2.55</v>
+      </c>
+      <c r="L433">
+        <v>2.9</v>
+      </c>
+      <c r="M433">
+        <v>2.875</v>
+      </c>
+      <c r="N433">
+        <v>2.3</v>
+      </c>
+      <c r="O433">
         <v>3</v>
       </c>
-      <c r="J433" t="s">
-        <v>63</v>
-      </c>
-      <c r="K433">
+      <c r="P433">
         <v>3.6</v>
-      </c>
-      <c r="L433">
-        <v>3.05</v>
-      </c>
-      <c r="M433">
-        <v>2.1</v>
-      </c>
-      <c r="N433">
-        <v>2.55</v>
-      </c>
-      <c r="O433">
-        <v>2.875</v>
-      </c>
-      <c r="P433">
-        <v>3.2</v>
       </c>
       <c r="Q433">
         <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S433">
+        <v>1.9</v>
+      </c>
+      <c r="T433">
         <v>1.75</v>
       </c>
-      <c r="T433">
-        <v>2</v>
-      </c>
       <c r="U433">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V433">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA433">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AC433">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39112,7 +39112,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7670055</v>
+        <v>7670052</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39124,76 +39124,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F434" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G434" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J434" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K434">
+        <v>3.6</v>
+      </c>
+      <c r="L434">
+        <v>3.05</v>
+      </c>
+      <c r="M434">
+        <v>2.1</v>
+      </c>
+      <c r="N434">
         <v>2.55</v>
       </c>
-      <c r="L434">
-        <v>2.9</v>
-      </c>
-      <c r="M434">
+      <c r="O434">
         <v>2.875</v>
       </c>
-      <c r="N434">
-        <v>2.3</v>
-      </c>
-      <c r="O434">
-        <v>3</v>
-      </c>
       <c r="P434">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S434">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T434">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U434">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V434">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W434">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z434">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA434">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB434">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AC434">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39572,7 +39572,7 @@
         <v>55</v>
       </c>
       <c r="G439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H439">
         <v>0</v>
@@ -40192,7 +40192,7 @@
         <v>45355.875</v>
       </c>
       <c r="F446" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G446" t="s">
         <v>58</v>
@@ -40459,7 +40459,7 @@
         <v>45356.89583333334</v>
       </c>
       <c r="F449" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G449" t="s">
         <v>37</v>
@@ -41159,7 +41159,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7670251</v>
+        <v>7670246</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41171,76 +41171,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F457" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G457" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H457">
         <v>1</v>
       </c>
       <c r="I457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K457">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L457">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M457">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N457">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O457">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P457">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S457">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T457">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V457">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W457">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X457">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y457">
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA457">
+        <v>0.4375</v>
+      </c>
+      <c r="AB457">
         <v>-0.5</v>
       </c>
-      <c r="AB457">
-        <v>-1</v>
-      </c>
       <c r="AC457">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41248,7 +41248,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7670246</v>
+        <v>7670251</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41260,76 +41260,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F458" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G458" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H458">
         <v>1</v>
       </c>
       <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458" t="s">
+        <v>62</v>
+      </c>
+      <c r="K458">
+        <v>1.666</v>
+      </c>
+      <c r="L458">
+        <v>3.8</v>
+      </c>
+      <c r="M458">
+        <v>5</v>
+      </c>
+      <c r="N458">
+        <v>1.615</v>
+      </c>
+      <c r="O458">
+        <v>3.75</v>
+      </c>
+      <c r="P458">
+        <v>6</v>
+      </c>
+      <c r="Q458">
+        <v>-0.75</v>
+      </c>
+      <c r="R458">
+        <v>1.8</v>
+      </c>
+      <c r="S458">
+        <v>2.05</v>
+      </c>
+      <c r="T458">
+        <v>2</v>
+      </c>
+      <c r="U458">
+        <v>1.85</v>
+      </c>
+      <c r="V458">
+        <v>2</v>
+      </c>
+      <c r="W458">
+        <v>0.615</v>
+      </c>
+      <c r="X458">
+        <v>-1</v>
+      </c>
+      <c r="Y458">
+        <v>-1</v>
+      </c>
+      <c r="Z458">
+        <v>0.4</v>
+      </c>
+      <c r="AA458">
+        <v>-0.5</v>
+      </c>
+      <c r="AB458">
+        <v>-1</v>
+      </c>
+      <c r="AC458">
         <v>1</v>
-      </c>
-      <c r="J458" t="s">
-        <v>61</v>
-      </c>
-      <c r="K458">
-        <v>2.5</v>
-      </c>
-      <c r="L458">
-        <v>3</v>
-      </c>
-      <c r="M458">
-        <v>2.9</v>
-      </c>
-      <c r="N458">
-        <v>2.3</v>
-      </c>
-      <c r="O458">
-        <v>3.1</v>
-      </c>
-      <c r="P458">
-        <v>3.1</v>
-      </c>
-      <c r="Q458">
-        <v>-0.25</v>
-      </c>
-      <c r="R458">
-        <v>1.975</v>
-      </c>
-      <c r="S458">
-        <v>1.875</v>
-      </c>
-      <c r="T458">
-        <v>2.25</v>
-      </c>
-      <c r="U458">
-        <v>2.1</v>
-      </c>
-      <c r="V458">
-        <v>1.775</v>
-      </c>
-      <c r="W458">
-        <v>-1</v>
-      </c>
-      <c r="X458">
-        <v>2.1</v>
-      </c>
-      <c r="Y458">
-        <v>-1</v>
-      </c>
-      <c r="Z458">
-        <v>-0.5</v>
-      </c>
-      <c r="AA458">
-        <v>0.4375</v>
-      </c>
-      <c r="AB458">
-        <v>-0.5</v>
-      </c>
-      <c r="AC458">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41604,7 +41604,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7670259</v>
+        <v>7670270</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41616,76 +41616,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G462" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K462">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L462">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M462">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N462">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O462">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P462">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T462">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U462">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V462">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X462">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA462">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB462">
         <v>-1</v>
       </c>
       <c r="AC462">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41693,7 +41693,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7670270</v>
+        <v>7670259</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41705,76 +41705,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F463" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G463" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K463">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L463">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M463">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N463">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O463">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P463">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S463">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T463">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U463">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V463">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W463">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB463">
         <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -42420,7 +42420,7 @@
         <v>50</v>
       </c>
       <c r="G471" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H471">
         <v>1</v>
@@ -42951,10 +42951,10 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
+        <v>51</v>
+      </c>
+      <c r="G477" t="s">
         <v>52</v>
-      </c>
-      <c r="G477" t="s">
-        <v>51</v>
       </c>
       <c r="H477">
         <v>1</v>
@@ -44108,7 +44108,7 @@
         <v>45379.875</v>
       </c>
       <c r="F490" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G490" t="s">
         <v>35</v>
@@ -44185,7 +44185,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7977851</v>
+        <v>7977912</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44194,49 +44194,49 @@
         <v>30</v>
       </c>
       <c r="E491" s="2">
-        <v>45380.75</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F491" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G491" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K491">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L491">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M491">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N491">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O491">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P491">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q491">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R491">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S491">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T491">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U491">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V491">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W491">
         <v>0</v>
@@ -44259,7 +44259,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7977954</v>
+        <v>7977737</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44268,49 +44268,49 @@
         <v>30</v>
       </c>
       <c r="E492" s="2">
-        <v>45380.75</v>
+        <v>45381.875</v>
       </c>
       <c r="F492" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G492" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K492">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L492">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M492">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N492">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O492">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P492">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q492">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R492">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S492">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T492">
         <v>2.25</v>
       </c>
       <c r="U492">
+        <v>1.875</v>
+      </c>
+      <c r="V492">
         <v>1.975</v>
-      </c>
-      <c r="V492">
-        <v>1.875</v>
       </c>
       <c r="W492">
         <v>0</v>
@@ -44333,7 +44333,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>7977956</v>
+        <v>7977955</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44342,34 +44342,34 @@
         <v>30</v>
       </c>
       <c r="E493" s="2">
-        <v>45380.85416666666</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F493" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G493" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K493">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="L493">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M493">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N493">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O493">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P493">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q493">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R493">
         <v>1.825</v>
@@ -44378,13 +44378,13 @@
         <v>2.025</v>
       </c>
       <c r="T493">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U493">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V493">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W493">
         <v>0</v>
@@ -44407,7 +44407,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7977735</v>
+        <v>7978107</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44416,40 +44416,40 @@
         <v>30</v>
       </c>
       <c r="E494" s="2">
-        <v>45381.70833333334</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F494" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G494" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K494">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L494">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M494">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N494">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O494">
         <v>3.1</v>
       </c>
       <c r="P494">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q494">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R494">
+        <v>1.8</v>
+      </c>
+      <c r="S494">
         <v>2.05</v>
-      </c>
-      <c r="S494">
-        <v>1.8</v>
       </c>
       <c r="T494">
         <v>1.75</v>
@@ -44481,7 +44481,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7977912</v>
+        <v>7977734</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44490,49 +44490,49 @@
         <v>30</v>
       </c>
       <c r="E495" s="2">
-        <v>45381.79166666666</v>
+        <v>45382.77083333334</v>
       </c>
       <c r="F495" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G495" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K495">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="L495">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M495">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N495">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O495">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P495">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q495">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R495">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S495">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T495">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U495">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V495">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W495">
         <v>0</v>
@@ -44555,7 +44555,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7977737</v>
+        <v>7978038</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44564,43 +44564,43 @@
         <v>30</v>
       </c>
       <c r="E496" s="2">
-        <v>45381.875</v>
+        <v>45382.875</v>
       </c>
       <c r="F496" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G496" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K496">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L496">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M496">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N496">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O496">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P496">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q496">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R496">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S496">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T496">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U496">
         <v>2</v>
@@ -44629,7 +44629,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7977955</v>
+        <v>7977736</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44638,49 +44638,49 @@
         <v>30</v>
       </c>
       <c r="E497" s="2">
-        <v>45382.66666666666</v>
+        <v>45383.79166666666</v>
       </c>
       <c r="F497" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G497" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="K497">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L497">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M497">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N497">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O497">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P497">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q497">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R497">
+        <v>2.025</v>
+      </c>
+      <c r="S497">
         <v>1.825</v>
       </c>
-      <c r="S497">
-        <v>2.025</v>
-      </c>
       <c r="T497">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U497">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V497">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W497">
         <v>0</v>
@@ -44695,302 +44695,6 @@
         <v>0</v>
       </c>
       <c r="AA497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:27">
-      <c r="A498" s="1">
-        <v>496</v>
-      </c>
-      <c r="B498">
-        <v>7978107</v>
-      </c>
-      <c r="C498" t="s">
-        <v>28</v>
-      </c>
-      <c r="D498" t="s">
-        <v>30</v>
-      </c>
-      <c r="E498" s="2">
-        <v>45382.66666666666</v>
-      </c>
-      <c r="F498" t="s">
-        <v>31</v>
-      </c>
-      <c r="G498" t="s">
-        <v>49</v>
-      </c>
-      <c r="K498">
-        <v>3.5</v>
-      </c>
-      <c r="L498">
-        <v>3.1</v>
-      </c>
-      <c r="M498">
-        <v>2.25</v>
-      </c>
-      <c r="N498">
-        <v>3.2</v>
-      </c>
-      <c r="O498">
-        <v>3.1</v>
-      </c>
-      <c r="P498">
-        <v>2.4</v>
-      </c>
-      <c r="Q498">
-        <v>0.25</v>
-      </c>
-      <c r="R498">
-        <v>1.8</v>
-      </c>
-      <c r="S498">
-        <v>2.05</v>
-      </c>
-      <c r="T498">
-        <v>1.75</v>
-      </c>
-      <c r="U498">
-        <v>1.825</v>
-      </c>
-      <c r="V498">
-        <v>2.025</v>
-      </c>
-      <c r="W498">
-        <v>0</v>
-      </c>
-      <c r="X498">
-        <v>0</v>
-      </c>
-      <c r="Y498">
-        <v>0</v>
-      </c>
-      <c r="Z498">
-        <v>0</v>
-      </c>
-      <c r="AA498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:27">
-      <c r="A499" s="1">
-        <v>497</v>
-      </c>
-      <c r="B499">
-        <v>7977734</v>
-      </c>
-      <c r="C499" t="s">
-        <v>28</v>
-      </c>
-      <c r="D499" t="s">
-        <v>30</v>
-      </c>
-      <c r="E499" s="2">
-        <v>45382.77083333334</v>
-      </c>
-      <c r="F499" t="s">
-        <v>45</v>
-      </c>
-      <c r="G499" t="s">
-        <v>55</v>
-      </c>
-      <c r="K499">
-        <v>1.727</v>
-      </c>
-      <c r="L499">
-        <v>3.6</v>
-      </c>
-      <c r="M499">
-        <v>4.75</v>
-      </c>
-      <c r="N499">
-        <v>1.727</v>
-      </c>
-      <c r="O499">
-        <v>3.5</v>
-      </c>
-      <c r="P499">
-        <v>5.5</v>
-      </c>
-      <c r="Q499">
-        <v>-0.75</v>
-      </c>
-      <c r="R499">
-        <v>2.025</v>
-      </c>
-      <c r="S499">
-        <v>1.825</v>
-      </c>
-      <c r="T499">
-        <v>2</v>
-      </c>
-      <c r="U499">
-        <v>2</v>
-      </c>
-      <c r="V499">
-        <v>1.85</v>
-      </c>
-      <c r="W499">
-        <v>0</v>
-      </c>
-      <c r="X499">
-        <v>0</v>
-      </c>
-      <c r="Y499">
-        <v>0</v>
-      </c>
-      <c r="Z499">
-        <v>0</v>
-      </c>
-      <c r="AA499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:27">
-      <c r="A500" s="1">
-        <v>498</v>
-      </c>
-      <c r="B500">
-        <v>7978038</v>
-      </c>
-      <c r="C500" t="s">
-        <v>28</v>
-      </c>
-      <c r="D500" t="s">
-        <v>30</v>
-      </c>
-      <c r="E500" s="2">
-        <v>45382.875</v>
-      </c>
-      <c r="F500" t="s">
-        <v>59</v>
-      </c>
-      <c r="G500" t="s">
-        <v>50</v>
-      </c>
-      <c r="K500">
-        <v>2.8</v>
-      </c>
-      <c r="L500">
-        <v>3</v>
-      </c>
-      <c r="M500">
-        <v>2.7</v>
-      </c>
-      <c r="N500">
-        <v>3.1</v>
-      </c>
-      <c r="O500">
-        <v>3</v>
-      </c>
-      <c r="P500">
-        <v>2.5</v>
-      </c>
-      <c r="Q500">
-        <v>0.25</v>
-      </c>
-      <c r="R500">
-        <v>1.75</v>
-      </c>
-      <c r="S500">
-        <v>2.125</v>
-      </c>
-      <c r="T500">
-        <v>2</v>
-      </c>
-      <c r="U500">
-        <v>1.975</v>
-      </c>
-      <c r="V500">
-        <v>1.875</v>
-      </c>
-      <c r="W500">
-        <v>0</v>
-      </c>
-      <c r="X500">
-        <v>0</v>
-      </c>
-      <c r="Y500">
-        <v>0</v>
-      </c>
-      <c r="Z500">
-        <v>0</v>
-      </c>
-      <c r="AA500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:27">
-      <c r="A501" s="1">
-        <v>499</v>
-      </c>
-      <c r="B501">
-        <v>7977736</v>
-      </c>
-      <c r="C501" t="s">
-        <v>28</v>
-      </c>
-      <c r="D501" t="s">
-        <v>30</v>
-      </c>
-      <c r="E501" s="2">
-        <v>45383.79166666666</v>
-      </c>
-      <c r="F501" t="s">
-        <v>46</v>
-      </c>
-      <c r="G501" t="s">
-        <v>42</v>
-      </c>
-      <c r="K501">
-        <v>3.4</v>
-      </c>
-      <c r="L501">
-        <v>3</v>
-      </c>
-      <c r="M501">
-        <v>2.3</v>
-      </c>
-      <c r="N501">
-        <v>2.875</v>
-      </c>
-      <c r="O501">
-        <v>2.9</v>
-      </c>
-      <c r="P501">
-        <v>2.7</v>
-      </c>
-      <c r="Q501">
-        <v>0</v>
-      </c>
-      <c r="R501">
-        <v>2.05</v>
-      </c>
-      <c r="S501">
-        <v>1.8</v>
-      </c>
-      <c r="T501">
-        <v>1.75</v>
-      </c>
-      <c r="U501">
-        <v>1.8</v>
-      </c>
-      <c r="V501">
-        <v>2.05</v>
-      </c>
-      <c r="W501">
-        <v>0</v>
-      </c>
-      <c r="X501">
-        <v>0</v>
-      </c>
-      <c r="Y501">
-        <v>0</v>
-      </c>
-      <c r="Z501">
-        <v>0</v>
-      </c>
-      <c r="AA501">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Central Cordoba</t>
   </si>
   <si>
-    <t>Central Cordoba</t>
+    <t>Rosario Central</t>
   </si>
   <si>
     <t>Racing Club</t>
@@ -175,10 +175,10 @@
     <t>Instituto AC Cordoba</t>
   </si>
   <si>
-    <t>Defensa y Justicia</t>
+    <t>Colon</t>
   </si>
   <si>
-    <t>Colon</t>
+    <t>Defensa y Justicia</t>
   </si>
   <si>
     <t>Atltico Tucumn</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC497"/>
+  <dimension ref="A1:AC500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6120060</v>
+        <v>6120049</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1213,55 +1213,55 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1270,16 +1270,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6120049</v>
+        <v>6120060</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1302,55 +1302,55 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1359,16 +1359,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1569,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6120068</v>
+        <v>6120064</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2726,10 +2726,10 @@
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2738,43 +2738,43 @@
         <v>62</v>
       </c>
       <c r="K25">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W25">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2783,16 +2783,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6120064</v>
+        <v>6120068</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2815,10 +2815,10 @@
         <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2827,43 +2827,43 @@
         <v>62</v>
       </c>
       <c r="K26">
+        <v>1.85</v>
+      </c>
+      <c r="L26">
         <v>3.3</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
       <c r="M26">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N26">
+        <v>1.727</v>
+      </c>
+      <c r="O26">
         <v>3.6</v>
       </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
       <c r="P26">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2872,16 +2872,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3260,7 +3260,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>56</v>
@@ -3972,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4325,10 +4325,10 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>45109.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -5470,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6120094</v>
+        <v>6120871</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5482,10 +5482,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5497,43 +5497,43 @@
         <v>62</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M56">
+        <v>3.5</v>
+      </c>
+      <c r="N56">
+        <v>1.95</v>
+      </c>
+      <c r="O56">
+        <v>3.25</v>
+      </c>
+      <c r="P56">
+        <v>4.2</v>
+      </c>
+      <c r="Q56">
+        <v>-0.5</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="N56">
-        <v>3.2</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>2.45</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
+        <v>2.025</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>2.025</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5542,16 +5542,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>1.05</v>
+      </c>
+      <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.825</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6120871</v>
+        <v>6120094</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5571,10 +5571,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5586,43 +5586,43 @@
         <v>62</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
+        <v>2.875</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
         <v>3</v>
       </c>
-      <c r="M57">
-        <v>3.5</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
+        <v>2.45</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="O57">
-        <v>3.25</v>
-      </c>
-      <c r="P57">
-        <v>4.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.8</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>2.025</v>
-      </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5631,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5640,7 +5640,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6105,7 +6105,7 @@
         <v>45112.75</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6286,7 +6286,7 @@
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6375,7 +6375,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -7250,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6857892</v>
+        <v>6857883</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7262,49 +7262,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7313,19 +7313,19 @@
         <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6857883</v>
+        <v>6857892</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7351,49 +7351,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7402,19 +7402,19 @@
         <v>2.025</v>
       </c>
       <c r="W77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7517,7 +7517,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6857884</v>
+        <v>6857882</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7529,55 +7529,55 @@
         <v>45116.85416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>61</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O79">
         <v>3.2</v>
       </c>
       <c r="P79">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
         <v>2.05</v>
       </c>
-      <c r="S79">
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>2.05</v>
+      </c>
+      <c r="V79">
         <v>1.8</v>
-      </c>
-      <c r="T79">
-        <v>2.25</v>
-      </c>
-      <c r="U79">
-        <v>1.9</v>
-      </c>
-      <c r="V79">
-        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7589,16 +7589,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7606,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6857882</v>
+        <v>6857884</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7618,55 +7618,55 @@
         <v>45116.85416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>61</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N80">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
         <v>3.2</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
+        <v>2.05</v>
+      </c>
+      <c r="S80">
         <v>1.8</v>
       </c>
-      <c r="S80">
-        <v>2.05</v>
-      </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7678,16 +7678,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7796,7 +7796,7 @@
         <v>45117.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -8063,10 +8063,10 @@
         <v>45118.78125</v>
       </c>
       <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
         <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8333,7 +8333,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8689,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9134,7 +9134,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9932,7 +9932,7 @@
         <v>45130.78125</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -10021,7 +10021,7 @@
         <v>45130.875</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>57</v>
@@ -10380,7 +10380,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10644,7 +10644,7 @@
         <v>45132.75</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10810,7 +10810,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6120168</v>
+        <v>6120162</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10822,76 +10822,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10899,7 +10899,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6120162</v>
+        <v>6120168</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10911,76 +10911,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K117">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
         <v>3</v>
       </c>
       <c r="M117">
+        <v>3.6</v>
+      </c>
+      <c r="N117">
+        <v>2.625</v>
+      </c>
+      <c r="O117">
+        <v>2.9</v>
+      </c>
+      <c r="P117">
         <v>3</v>
       </c>
-      <c r="N117">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="O117">
-        <v>3.5</v>
-      </c>
-      <c r="P117">
-        <v>4.5</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>2.05</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2.05</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC117">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11092,7 +11092,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>55</v>
@@ -11611,7 +11611,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6120166</v>
+        <v>6961142</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11623,10 +11623,10 @@
         <v>45137.625</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11638,43 +11638,43 @@
         <v>62</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11700,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6961142</v>
+        <v>6120166</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11712,10 +11712,10 @@
         <v>45137.625</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11727,43 +11727,43 @@
         <v>62</v>
       </c>
       <c r="K126">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="N126">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -12338,7 +12338,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12780,7 +12780,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>55</v>
@@ -13139,7 +13139,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13314,7 +13314,7 @@
         <v>45163.89583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G144" t="s">
         <v>56</v>
@@ -13569,7 +13569,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7095519</v>
+        <v>7095524</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13581,58 +13581,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G147" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>62</v>
       </c>
       <c r="K147">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>2.75</v>
+      </c>
+      <c r="N147">
+        <v>2.05</v>
+      </c>
+      <c r="O147">
         <v>3.2</v>
       </c>
-      <c r="M147">
-        <v>6</v>
-      </c>
-      <c r="N147">
-        <v>1.909</v>
-      </c>
-      <c r="O147">
-        <v>3.25</v>
-      </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>1.75</v>
+      </c>
+      <c r="U147">
         <v>1.925</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.925</v>
       </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13641,16 +13641,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
+        <v>1.05</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.925</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
-      <c r="AB147">
-        <v>1</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13658,7 +13658,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7095524</v>
+        <v>7095519</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13670,58 +13670,58 @@
         <v>45164.79166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>62</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N148">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13730,16 +13730,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13851,7 +13851,7 @@
         <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13940,7 +13940,7 @@
         <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14296,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14471,7 +14471,7 @@
         <v>45170.875</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>46</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G160" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X160">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>2.55</v>
+      </c>
+      <c r="P161">
+        <v>3.25</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
         <v>2.05</v>
       </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>4.75</v>
-      </c>
-      <c r="Q161">
-        <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>2.1</v>
-      </c>
-      <c r="S161">
-        <v>1.775</v>
-      </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15005,7 +15005,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G163" t="s">
         <v>31</v>
@@ -15171,7 +15171,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7031949</v>
+        <v>7031951</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15183,76 +15183,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
         <v>1.95</v>
       </c>
-      <c r="S165">
-        <v>1.9</v>
-      </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="V165">
-        <v>2.025</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15260,7 +15260,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7031951</v>
+        <v>7031949</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15272,76 +15272,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M166">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N166">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
         <v>3.2</v>
       </c>
       <c r="P166">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
         <v>1.9</v>
       </c>
-      <c r="S166">
-        <v>1.95</v>
-      </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
         <v>2.025</v>
       </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15717,7 +15717,7 @@
         <v>45180.83333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G171" t="s">
         <v>42</v>
@@ -15898,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         <v>45184.78125</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16328,7 +16328,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7137513</v>
+        <v>7137524</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16340,76 +16340,76 @@
         <v>45184.875</v>
       </c>
       <c r="F178" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.3</v>
+      </c>
+      <c r="M178">
+        <v>3.1</v>
+      </c>
+      <c r="N178">
+        <v>2.375</v>
+      </c>
+      <c r="O178">
         <v>3.2</v>
       </c>
-      <c r="L178">
-        <v>2.9</v>
-      </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3</v>
-      </c>
       <c r="P178">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>1.75</v>
-      </c>
-      <c r="U178">
-        <v>1.8</v>
-      </c>
-      <c r="V178">
-        <v>2.05</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16417,7 +16417,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7137524</v>
+        <v>7137513</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16429,76 +16429,76 @@
         <v>45184.875</v>
       </c>
       <c r="F179" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.8</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.05</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17141,7 +17141,7 @@
         <v>45188.78125</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
@@ -17230,7 +17230,7 @@
         <v>45188.875</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
         <v>45</v>
@@ -17408,7 +17408,7 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G190" t="s">
         <v>34</v>
@@ -17752,7 +17752,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7178902</v>
+        <v>7178898</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17764,13 +17764,13 @@
         <v>45189.875</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -17779,43 +17779,43 @@
         <v>62</v>
       </c>
       <c r="K194">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N194">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q194">
         <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
         <v>2</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17824,13 +17824,13 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17841,7 +17841,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7178898</v>
+        <v>7178902</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17853,13 +17853,13 @@
         <v>45189.875</v>
       </c>
       <c r="F195" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -17868,43 +17868,43 @@
         <v>62</v>
       </c>
       <c r="K195">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L195">
+        <v>3.4</v>
+      </c>
+      <c r="M195">
+        <v>4.5</v>
+      </c>
+      <c r="N195">
+        <v>2.3</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
         <v>3.2</v>
-      </c>
-      <c r="M195">
-        <v>3.3</v>
-      </c>
-      <c r="N195">
-        <v>2.05</v>
-      </c>
-      <c r="O195">
-        <v>3.1</v>
-      </c>
-      <c r="P195">
-        <v>3.8</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17913,13 +17913,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -18301,7 +18301,7 @@
         <v>56</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18476,10 +18476,10 @@
         <v>45192.875</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18998,7 +18998,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7032056</v>
+        <v>7032055</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19010,76 +19010,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L208">
+        <v>2.9</v>
+      </c>
+      <c r="M208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>4.1</v>
-      </c>
       <c r="N208">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O208">
         <v>2.7</v>
       </c>
       <c r="P208">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7032055</v>
+        <v>7032056</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19099,76 +19099,76 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="N209">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
         <v>2.7</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>1.75</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19176,7 +19176,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7031972</v>
+        <v>7032054</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19188,76 +19188,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K210">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M210">
         <v>2.7</v>
       </c>
       <c r="N210">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
       </c>
-      <c r="V210">
-        <v>1.875</v>
-      </c>
       <c r="W210">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB210">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19265,7 +19265,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7032054</v>
+        <v>7031972</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19277,76 +19277,76 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K211">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M211">
         <v>2.7</v>
       </c>
       <c r="N211">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
         <v>1.875</v>
       </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X211">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA211">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19636,7 +19636,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19811,7 +19811,7 @@
         <v>45199.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
         <v>49</v>
@@ -20167,7 +20167,7 @@
         <v>45200.6875</v>
       </c>
       <c r="F221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G221" t="s">
         <v>40</v>
@@ -20422,7 +20422,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7031986</v>
+        <v>7031976</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20434,10 +20434,10 @@
         <v>45201.77083333334</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20449,58 +20449,58 @@
         <v>61</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O224">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
         <v>1.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AC224">
         <v>-0.5</v>
@@ -20511,7 +20511,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7031976</v>
+        <v>7031986</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20523,10 +20523,10 @@
         <v>45201.77083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20538,58 +20538,58 @@
         <v>61</v>
       </c>
       <c r="K225">
+        <v>2.2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>3.6</v>
+      </c>
+      <c r="N225">
+        <v>2.6</v>
+      </c>
+      <c r="O225">
+        <v>3</v>
+      </c>
+      <c r="P225">
+        <v>3</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.775</v>
+      </c>
+      <c r="S225">
         <v>2.1</v>
-      </c>
-      <c r="L225">
-        <v>3.5</v>
-      </c>
-      <c r="M225">
-        <v>3.25</v>
-      </c>
-      <c r="N225">
-        <v>2.05</v>
-      </c>
-      <c r="O225">
-        <v>3.2</v>
-      </c>
-      <c r="P225">
-        <v>3.8</v>
-      </c>
-      <c r="Q225">
-        <v>-0.5</v>
-      </c>
-      <c r="R225">
-        <v>2.05</v>
-      </c>
-      <c r="S225">
-        <v>1.8</v>
       </c>
       <c r="T225">
         <v>1.75</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AC225">
         <v>-0.5</v>
@@ -20600,7 +20600,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7031981</v>
+        <v>7031985</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20612,10 +20612,10 @@
         <v>45201.875</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20627,40 +20627,40 @@
         <v>61</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O226">
         <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T226">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20672,16 +20672,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20689,7 +20689,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7031985</v>
+        <v>7031981</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20701,10 +20701,10 @@
         <v>45201.875</v>
       </c>
       <c r="F227" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20716,40 +20716,40 @@
         <v>61</v>
       </c>
       <c r="K227">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
         <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20761,16 +20761,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20790,7 +20790,7 @@
         <v>45205.85416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>58</v>
@@ -20956,7 +20956,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032064</v>
+        <v>7032060</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20968,55 +20968,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>63</v>
       </c>
       <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>3.6</v>
+      </c>
+      <c r="N230">
         <v>1.909</v>
       </c>
-      <c r="L230">
-        <v>3.3</v>
-      </c>
-      <c r="M230">
-        <v>4.333</v>
-      </c>
-      <c r="N230">
-        <v>2.1</v>
-      </c>
       <c r="O230">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21025,19 +21025,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21045,7 +21045,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7032060</v>
+        <v>7032064</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21057,55 +21057,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>63</v>
       </c>
       <c r="K231">
+        <v>1.909</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>4.333</v>
+      </c>
+      <c r="N231">
         <v>2.1</v>
       </c>
-      <c r="L231">
-        <v>3.2</v>
-      </c>
-      <c r="M231">
-        <v>3.6</v>
-      </c>
-      <c r="N231">
-        <v>1.909</v>
-      </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21114,19 +21114,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21235,7 +21235,7 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
         <v>34</v>
@@ -21312,7 +21312,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7032062</v>
+        <v>7031992</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21324,76 +21324,76 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K234">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O234">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P234">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V234">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC234">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21401,7 +21401,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7031992</v>
+        <v>7032062</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21413,76 +21413,76 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F235" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M235">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N235">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q235">
         <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2</v>
       </c>
       <c r="U235">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21668,7 +21668,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7031990</v>
+        <v>7031988</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21680,76 +21680,76 @@
         <v>45208.75</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P238">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21757,7 +21757,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7031988</v>
+        <v>7031990</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21769,76 +21769,76 @@
         <v>45208.75</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
         <v>3.2</v>
       </c>
       <c r="M239">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O239">
+        <v>3</v>
+      </c>
+      <c r="P239">
         <v>2.9</v>
       </c>
-      <c r="P239">
-        <v>2.45</v>
-      </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X239">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22125,7 +22125,7 @@
         <v>45215.75</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
         <v>43</v>
@@ -22214,7 +22214,7 @@
         <v>45215.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -22659,7 +22659,7 @@
         <v>45218.77083333334</v>
       </c>
       <c r="F249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G249" t="s">
         <v>57</v>
@@ -22748,7 +22748,7 @@
         <v>45218.86458333334</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
         <v>51</v>
@@ -23552,7 +23552,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -24086,7 +24086,7 @@
         <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24338,7 +24338,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7299921</v>
+        <v>7299917</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24350,76 +24350,76 @@
         <v>45225.875</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K268">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>4</v>
+      </c>
+      <c r="N268">
+        <v>2.15</v>
+      </c>
+      <c r="O268">
+        <v>2.875</v>
+      </c>
+      <c r="P268">
+        <v>4.2</v>
+      </c>
+      <c r="Q268">
+        <v>-0.25</v>
+      </c>
+      <c r="R268">
+        <v>1.775</v>
+      </c>
+      <c r="S268">
+        <v>2.1</v>
+      </c>
+      <c r="T268">
+        <v>1.75</v>
+      </c>
+      <c r="U268">
+        <v>1.775</v>
+      </c>
+      <c r="V268">
+        <v>2.1</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
         <v>3.2</v>
       </c>
-      <c r="M268">
-        <v>3.2</v>
-      </c>
-      <c r="N268">
-        <v>2.55</v>
-      </c>
-      <c r="O268">
-        <v>3</v>
-      </c>
-      <c r="P268">
-        <v>3.1</v>
-      </c>
-      <c r="Q268">
-        <v>0</v>
-      </c>
-      <c r="R268">
-        <v>1.725</v>
-      </c>
-      <c r="S268">
-        <v>2.15</v>
-      </c>
-      <c r="T268">
-        <v>2</v>
-      </c>
-      <c r="U268">
-        <v>2.05</v>
-      </c>
-      <c r="V268">
-        <v>1.8</v>
-      </c>
-      <c r="W268">
-        <v>1.55</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>-1</v>
-      </c>
       <c r="Z268">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB268">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24427,7 +24427,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7299917</v>
+        <v>7299921</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24439,76 +24439,76 @@
         <v>45225.875</v>
       </c>
       <c r="F269" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K269">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>3.2</v>
+      </c>
+      <c r="N269">
+        <v>2.55</v>
+      </c>
+      <c r="O269">
         <v>3</v>
       </c>
-      <c r="M269">
-        <v>4</v>
-      </c>
-      <c r="N269">
+      <c r="P269">
+        <v>3.1</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1.725</v>
+      </c>
+      <c r="S269">
         <v>2.15</v>
       </c>
-      <c r="O269">
-        <v>2.875</v>
-      </c>
-      <c r="P269">
-        <v>4.2</v>
-      </c>
-      <c r="Q269">
-        <v>-0.25</v>
-      </c>
-      <c r="R269">
-        <v>1.775</v>
-      </c>
-      <c r="S269">
-        <v>2.1</v>
-      </c>
       <c r="T269">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V269">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA269">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24706,7 +24706,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G272" t="s">
         <v>55</v>
@@ -24795,7 +24795,7 @@
         <v>45228.6875</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
         <v>35</v>
@@ -25596,7 +25596,7 @@
         <v>45230.875</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G282" t="s">
         <v>40</v>
@@ -25685,7 +25685,7 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G283" t="s">
         <v>39</v>
@@ -26311,7 +26311,7 @@
         <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26400,7 +26400,7 @@
         <v>33</v>
       </c>
       <c r="G291" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26578,7 +26578,7 @@
         <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26845,7 +26845,7 @@
         <v>50</v>
       </c>
       <c r="G296" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -27020,7 +27020,7 @@
         <v>45240.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27287,7 +27287,7 @@
         <v>45241.77083333334</v>
       </c>
       <c r="F301" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>57</v>
@@ -27554,7 +27554,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F304" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G304" t="s">
         <v>41</v>
@@ -27643,7 +27643,7 @@
         <v>45242.61111111111</v>
       </c>
       <c r="F305" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G305" t="s">
         <v>48</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M308">
+        <v>3.9</v>
+      </c>
+      <c r="N308">
+        <v>1.909</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
         <v>5</v>
       </c>
-      <c r="N308">
-        <v>2.625</v>
-      </c>
-      <c r="O308">
-        <v>2.8</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
-      </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
         <v>2.1</v>
       </c>
-      <c r="S308">
-        <v>1.7</v>
-      </c>
-      <c r="T308">
-        <v>1.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K309">
+        <v>1.8</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>2.625</v>
+      </c>
+      <c r="O309">
+        <v>2.8</v>
+      </c>
+      <c r="P309">
+        <v>3.1</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
         <v>2.1</v>
       </c>
-      <c r="L309">
-        <v>2.8</v>
-      </c>
-      <c r="M309">
-        <v>3.9</v>
-      </c>
-      <c r="N309">
-        <v>1.909</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>5</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.9</v>
-      </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28447,7 +28447,7 @@
         <v>51</v>
       </c>
       <c r="G314" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H314">
         <v>3</v>
@@ -28610,7 +28610,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7475437</v>
+        <v>7475397</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28622,73 +28622,73 @@
         <v>45256.75</v>
       </c>
       <c r="F316" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K316">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="L316">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M316">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="N316">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O316">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R316">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T316">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V316">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W316">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z316">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB316">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475420</v>
+        <v>7475472</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,76 +28711,76 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G317" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H317">
         <v>0</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K317">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L317">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M317">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N317">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O317">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
+        <v>9.5</v>
+      </c>
+      <c r="Q317">
+        <v>-1.25</v>
+      </c>
+      <c r="R317">
+        <v>1.95</v>
+      </c>
+      <c r="S317">
+        <v>1.9</v>
+      </c>
+      <c r="T317">
+        <v>2.5</v>
+      </c>
+      <c r="U317">
+        <v>1.925</v>
+      </c>
+      <c r="V317">
+        <v>1.925</v>
+      </c>
+      <c r="W317">
+        <v>-1</v>
+      </c>
+      <c r="X317">
         <v>3.2</v>
       </c>
-      <c r="Q317">
-        <v>-0.25</v>
-      </c>
-      <c r="R317">
-        <v>2.1</v>
-      </c>
-      <c r="S317">
-        <v>1.775</v>
-      </c>
-      <c r="T317">
-        <v>1.75</v>
-      </c>
-      <c r="U317">
-        <v>1.85</v>
-      </c>
-      <c r="V317">
-        <v>2</v>
-      </c>
-      <c r="W317">
-        <v>-1</v>
-      </c>
-      <c r="X317">
-        <v>-1</v>
-      </c>
       <c r="Y317">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
         <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB317">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475472</v>
+        <v>7475420</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,76 +28800,76 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G318" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H318">
         <v>0</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K318">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M318">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O318">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P318">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q318">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475397</v>
+        <v>7475437</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,73 +28889,73 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G319" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I319">
         <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K319">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="L319">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M319">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="N319">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O319">
+        <v>2.6</v>
+      </c>
+      <c r="P319">
         <v>3.5</v>
       </c>
-      <c r="P319">
-        <v>1.8</v>
-      </c>
       <c r="Q319">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="S319">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA319">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -29159,7 +29159,7 @@
         <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>2</v>
@@ -29248,7 +29248,7 @@
         <v>49</v>
       </c>
       <c r="G323" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H323">
         <v>3</v>
@@ -29512,7 +29512,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G326" t="s">
         <v>56</v>
@@ -29871,7 +29871,7 @@
         <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H330">
         <v>8</v>
@@ -30049,7 +30049,7 @@
         <v>57</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30138,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G336" t="s">
         <v>49</v>
@@ -30494,7 +30494,7 @@
         <v>55</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -31206,7 +31206,7 @@
         <v>42</v>
       </c>
       <c r="G345" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -31648,7 +31648,7 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F350" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
         <v>50</v>
@@ -32093,7 +32093,7 @@
         <v>45322.73958333334</v>
       </c>
       <c r="F355" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G355" t="s">
         <v>46</v>
@@ -32627,7 +32627,7 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G361" t="s">
         <v>42</v>
@@ -32897,7 +32897,7 @@
         <v>48</v>
       </c>
       <c r="G364" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H364">
         <v>4</v>
@@ -33164,7 +33164,7 @@
         <v>46</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33787,7 +33787,7 @@
         <v>31</v>
       </c>
       <c r="G374" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33962,7 +33962,7 @@
         <v>45330.8125</v>
       </c>
       <c r="F376" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
         <v>59</v>
@@ -34306,7 +34306,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7669993</v>
+        <v>7670001</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34318,13 +34318,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F380" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G380" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -34333,43 +34333,43 @@
         <v>62</v>
       </c>
       <c r="K380">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L380">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M380">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N380">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O380">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q380">
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S380">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T380">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U380">
+        <v>1.825</v>
+      </c>
+      <c r="V380">
         <v>2.025</v>
       </c>
-      <c r="V380">
-        <v>1.825</v>
-      </c>
       <c r="W380">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34378,13 +34378,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34395,7 +34395,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7670001</v>
+        <v>7669993</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34407,13 +34407,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G381" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -34422,43 +34422,43 @@
         <v>62</v>
       </c>
       <c r="K381">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L381">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M381">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N381">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O381">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P381">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q381">
         <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T381">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U381">
+        <v>2.025</v>
+      </c>
+      <c r="V381">
         <v>1.825</v>
       </c>
-      <c r="V381">
-        <v>2.025</v>
-      </c>
       <c r="W381">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34467,13 +34467,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA381">
         <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -34588,7 +34588,7 @@
         <v>47</v>
       </c>
       <c r="G383" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H383">
         <v>0</v>
@@ -34674,7 +34674,7 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G384" t="s">
         <v>31</v>
@@ -35478,7 +35478,7 @@
         <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -35641,7 +35641,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7670016</v>
+        <v>7670014</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35653,10 +35653,10 @@
         <v>45336.70833333334</v>
       </c>
       <c r="F395" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H395">
         <v>0</v>
@@ -35668,25 +35668,25 @@
         <v>63</v>
       </c>
       <c r="K395">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L395">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M395">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N395">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O395">
         <v>3</v>
       </c>
       <c r="P395">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R395">
         <v>1.975</v>
@@ -35695,22 +35695,22 @@
         <v>1.875</v>
       </c>
       <c r="T395">
+        <v>2</v>
+      </c>
+      <c r="U395">
+        <v>1.9</v>
+      </c>
+      <c r="V395">
+        <v>1.95</v>
+      </c>
+      <c r="W395">
+        <v>-1</v>
+      </c>
+      <c r="X395">
+        <v>-1</v>
+      </c>
+      <c r="Y395">
         <v>1.75</v>
-      </c>
-      <c r="U395">
-        <v>1.775</v>
-      </c>
-      <c r="V395">
-        <v>2.1</v>
-      </c>
-      <c r="W395">
-        <v>-1</v>
-      </c>
-      <c r="X395">
-        <v>-1</v>
-      </c>
-      <c r="Y395">
-        <v>1.2</v>
       </c>
       <c r="Z395">
         <v>-1</v>
@@ -35722,7 +35722,7 @@
         <v>-1</v>
       </c>
       <c r="AC395">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35730,7 +35730,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7670014</v>
+        <v>7670016</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35742,10 +35742,10 @@
         <v>45336.70833333334</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G396" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -35757,25 +35757,25 @@
         <v>63</v>
       </c>
       <c r="K396">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L396">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N396">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O396">
         <v>3</v>
       </c>
       <c r="P396">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
         <v>1.975</v>
@@ -35784,13 +35784,13 @@
         <v>1.875</v>
       </c>
       <c r="T396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W396">
         <v>-1</v>
@@ -35799,7 +35799,7 @@
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z396">
         <v>-1</v>
@@ -35811,7 +35811,7 @@
         <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35819,7 +35819,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7670009</v>
+        <v>7670015</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35831,76 +35831,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F397" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K397">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M397">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N397">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O397">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P397">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q397">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R397">
+        <v>1.85</v>
+      </c>
+      <c r="S397">
+        <v>2</v>
+      </c>
+      <c r="T397">
+        <v>2.5</v>
+      </c>
+      <c r="U397">
         <v>2.05</v>
       </c>
-      <c r="S397">
+      <c r="V397">
         <v>1.8</v>
       </c>
-      <c r="T397">
-        <v>1.75</v>
-      </c>
-      <c r="U397">
-        <v>1.975</v>
-      </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X397">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA397">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35908,7 +35908,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7670015</v>
+        <v>7670009</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35920,76 +35920,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K398">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L398">
+        <v>3</v>
+      </c>
+      <c r="M398">
         <v>4</v>
       </c>
-      <c r="M398">
-        <v>6.5</v>
-      </c>
       <c r="N398">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O398">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P398">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q398">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S398">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T398">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U398">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V398">
+        <v>1.875</v>
+      </c>
+      <c r="W398">
+        <v>-1</v>
+      </c>
+      <c r="X398">
         <v>1.8</v>
       </c>
-      <c r="W398">
-        <v>0.363</v>
-      </c>
-      <c r="X398">
-        <v>-1</v>
-      </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36632,7 +36632,7 @@
         <v>45339.875</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
         <v>56</v>
@@ -37611,10 +37611,10 @@
         <v>45342.83333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G417" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G419" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L419">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M419">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N419">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O419">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P419">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U419">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA419">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB419">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L420">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N420">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O420">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P420">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V420">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA420">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC420">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K421">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L421">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N421">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O421">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X421">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K422">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L422">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M422">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N422">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P422">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q422">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S422">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38326,7 +38326,7 @@
         <v>49</v>
       </c>
       <c r="G425" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H425">
         <v>0</v>
@@ -38400,7 +38400,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7670046</v>
+        <v>7670048</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38412,73 +38412,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G426" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K426">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L426">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M426">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N426">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O426">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P426">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q426">
         <v>-0.5</v>
       </c>
       <c r="R426">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S426">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T426">
         <v>1.75</v>
       </c>
       <c r="U426">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V426">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W426">
         <v>-1</v>
       </c>
       <c r="X426">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB426">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AC426">
         <v>-0.5</v>
@@ -38489,7 +38489,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7670048</v>
+        <v>7670046</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38501,73 +38501,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F427" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G427" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K427">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L427">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M427">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N427">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O427">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P427">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q427">
         <v>-0.5</v>
       </c>
       <c r="R427">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S427">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T427">
         <v>1.75</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W427">
         <v>-1</v>
       </c>
       <c r="X427">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y427">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB427">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AC427">
         <v>-0.5</v>
@@ -38590,7 +38590,7 @@
         <v>45348.79166666666</v>
       </c>
       <c r="F428" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G428" t="s">
         <v>60</v>
@@ -38857,7 +38857,7 @@
         <v>45348.90625</v>
       </c>
       <c r="F431" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G431" t="s">
         <v>55</v>
@@ -39023,7 +39023,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7670055</v>
+        <v>7670052</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39035,76 +39035,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F433" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G433" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J433" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K433">
+        <v>3.6</v>
+      </c>
+      <c r="L433">
+        <v>3.05</v>
+      </c>
+      <c r="M433">
+        <v>2.1</v>
+      </c>
+      <c r="N433">
         <v>2.55</v>
       </c>
-      <c r="L433">
-        <v>2.9</v>
-      </c>
-      <c r="M433">
+      <c r="O433">
         <v>2.875</v>
       </c>
-      <c r="N433">
-        <v>2.3</v>
-      </c>
-      <c r="O433">
-        <v>3</v>
-      </c>
       <c r="P433">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q433">
         <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S433">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T433">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V433">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W433">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z433">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB433">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AC433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39112,7 +39112,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7670052</v>
+        <v>7670055</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39124,76 +39124,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F434" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G434" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434" t="s">
+        <v>62</v>
+      </c>
+      <c r="K434">
+        <v>2.55</v>
+      </c>
+      <c r="L434">
+        <v>2.9</v>
+      </c>
+      <c r="M434">
+        <v>2.875</v>
+      </c>
+      <c r="N434">
+        <v>2.3</v>
+      </c>
+      <c r="O434">
         <v>3</v>
       </c>
-      <c r="J434" t="s">
-        <v>63</v>
-      </c>
-      <c r="K434">
+      <c r="P434">
         <v>3.6</v>
-      </c>
-      <c r="L434">
-        <v>3.05</v>
-      </c>
-      <c r="M434">
-        <v>2.1</v>
-      </c>
-      <c r="N434">
-        <v>2.55</v>
-      </c>
-      <c r="O434">
-        <v>2.875</v>
-      </c>
-      <c r="P434">
-        <v>3.2</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S434">
+        <v>1.9</v>
+      </c>
+      <c r="T434">
         <v>1.75</v>
       </c>
-      <c r="T434">
-        <v>2</v>
-      </c>
       <c r="U434">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W434">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA434">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AC434">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39216,7 +39216,7 @@
         <v>34</v>
       </c>
       <c r="G435" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -39290,7 +39290,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7670050</v>
+        <v>7670060</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39302,76 +39302,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F436" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G436" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436">
         <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K436">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L436">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M436">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N436">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O436">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P436">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q436">
+        <v>0.25</v>
+      </c>
+      <c r="R436">
+        <v>2.025</v>
+      </c>
+      <c r="S436">
+        <v>1.825</v>
+      </c>
+      <c r="T436">
+        <v>2</v>
+      </c>
+      <c r="U436">
+        <v>1.975</v>
+      </c>
+      <c r="V436">
+        <v>1.875</v>
+      </c>
+      <c r="W436">
+        <v>-1</v>
+      </c>
+      <c r="X436">
+        <v>2</v>
+      </c>
+      <c r="Y436">
+        <v>-1</v>
+      </c>
+      <c r="Z436">
+        <v>0.5125</v>
+      </c>
+      <c r="AA436">
         <v>-0.5</v>
       </c>
-      <c r="R436">
-        <v>1.975</v>
-      </c>
-      <c r="S436">
-        <v>1.875</v>
-      </c>
-      <c r="T436">
-        <v>1.75</v>
-      </c>
-      <c r="U436">
-        <v>1.9</v>
-      </c>
-      <c r="V436">
-        <v>1.95</v>
-      </c>
-      <c r="W436">
-        <v>0.95</v>
-      </c>
-      <c r="X436">
-        <v>-1</v>
-      </c>
-      <c r="Y436">
-        <v>-1</v>
-      </c>
-      <c r="Z436">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA436">
-        <v>-1</v>
-      </c>
       <c r="AB436">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC436">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39379,7 +39379,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7670060</v>
+        <v>7670050</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39391,76 +39391,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F437" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G437" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437">
         <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K437">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L437">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M437">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N437">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O437">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P437">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q437">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R437">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S437">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T437">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U437">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V437">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W437">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X437">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y437">
         <v>-1</v>
       </c>
       <c r="Z437">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA437">
+        <v>-1</v>
+      </c>
+      <c r="AB437">
+        <v>0.45</v>
+      </c>
+      <c r="AC437">
         <v>-0.5</v>
-      </c>
-      <c r="AB437">
-        <v>-1</v>
-      </c>
-      <c r="AC437">
-        <v>0.875</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39836,7 +39836,7 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G442" t="s">
         <v>43</v>
@@ -40462,7 +40462,7 @@
         <v>51</v>
       </c>
       <c r="G449" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H449">
         <v>1</v>
@@ -40625,7 +40625,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7670249</v>
+        <v>7670247</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40637,76 +40637,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F451" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G451" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H451">
         <v>1</v>
       </c>
       <c r="I451">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J451" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K451">
+        <v>3</v>
+      </c>
+      <c r="L451">
+        <v>2.9</v>
+      </c>
+      <c r="M451">
+        <v>2.6</v>
+      </c>
+      <c r="N451">
+        <v>3.5</v>
+      </c>
+      <c r="O451">
+        <v>2.9</v>
+      </c>
+      <c r="P451">
+        <v>2.375</v>
+      </c>
+      <c r="Q451">
+        <v>0.25</v>
+      </c>
+      <c r="R451">
         <v>1.85</v>
       </c>
-      <c r="L451">
-        <v>3.3</v>
-      </c>
-      <c r="M451">
-        <v>4.6</v>
-      </c>
-      <c r="N451">
-        <v>1.75</v>
-      </c>
-      <c r="O451">
-        <v>3.2</v>
-      </c>
-      <c r="P451">
-        <v>6</v>
-      </c>
-      <c r="Q451">
-        <v>-0.75</v>
-      </c>
-      <c r="R451">
-        <v>2.05</v>
-      </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T451">
         <v>2</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V451">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W451">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z451">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA451">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC451">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40714,7 +40714,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7670247</v>
+        <v>7670249</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40726,76 +40726,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F452" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G452" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H452">
         <v>1</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K452">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L452">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M452">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="N452">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O452">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P452">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q452">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R452">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S452">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T452">
         <v>2</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z452">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41085,7 +41085,7 @@
         <v>43</v>
       </c>
       <c r="G456" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H456">
         <v>0</v>
@@ -41174,7 +41174,7 @@
         <v>36</v>
       </c>
       <c r="G457" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H457">
         <v>1</v>
@@ -41604,7 +41604,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7670270</v>
+        <v>7670259</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41616,76 +41616,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G462" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K462">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L462">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M462">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N462">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O462">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P462">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S462">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T462">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U462">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V462">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W462">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
         <v>-1</v>
       </c>
       <c r="AC462">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41693,7 +41693,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7670259</v>
+        <v>7670270</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41705,76 +41705,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F463" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G463" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K463">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L463">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N463">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O463">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P463">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S463">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T463">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X463">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA463">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
         <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41782,7 +41782,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7670258</v>
+        <v>7670264</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41794,10 +41794,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G464" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41809,40 +41809,40 @@
         <v>61</v>
       </c>
       <c r="K464">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M464">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N464">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
         <v>3.1</v>
       </c>
       <c r="P464">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>1.85</v>
+      </c>
+      <c r="T464">
+        <v>2</v>
+      </c>
+      <c r="U464">
         <v>2.025</v>
       </c>
-      <c r="S464">
+      <c r="V464">
         <v>1.825</v>
-      </c>
-      <c r="T464">
-        <v>1.75</v>
-      </c>
-      <c r="U464">
-        <v>1.875</v>
-      </c>
-      <c r="V464">
-        <v>1.975</v>
       </c>
       <c r="W464">
         <v>-1</v>
@@ -41854,16 +41854,16 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB464">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41871,7 +41871,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7670264</v>
+        <v>7670258</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41883,10 +41883,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G465" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41898,40 +41898,40 @@
         <v>61</v>
       </c>
       <c r="K465">
+        <v>1.727</v>
+      </c>
+      <c r="L465">
         <v>3.4</v>
       </c>
-      <c r="L465">
-        <v>3</v>
-      </c>
       <c r="M465">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N465">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O465">
         <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S465">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T465">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U465">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41943,16 +41943,16 @@
         <v>-1</v>
       </c>
       <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.825</v>
+      </c>
+      <c r="AB465">
+        <v>0.4375</v>
+      </c>
+      <c r="AC465">
         <v>-0.5</v>
-      </c>
-      <c r="AA465">
-        <v>0.425</v>
-      </c>
-      <c r="AB465">
-        <v>0</v>
-      </c>
-      <c r="AC465">
-        <v>-0</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41972,7 +41972,7 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F466" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G466" t="s">
         <v>40</v>
@@ -42506,7 +42506,7 @@
         <v>45363.88541666666</v>
       </c>
       <c r="F472" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G472" t="s">
         <v>36</v>
@@ -42865,7 +42865,7 @@
         <v>39</v>
       </c>
       <c r="G476" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H476">
         <v>1</v>
@@ -42939,7 +42939,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7670284</v>
+        <v>7670279</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42951,49 +42951,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G477" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J477" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K477">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L477">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M477">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N477">
+        <v>1.727</v>
+      </c>
+      <c r="O477">
+        <v>3.5</v>
+      </c>
+      <c r="P477">
+        <v>5.5</v>
+      </c>
+      <c r="Q477">
+        <v>-0.75</v>
+      </c>
+      <c r="R477">
+        <v>1.975</v>
+      </c>
+      <c r="S477">
+        <v>1.875</v>
+      </c>
+      <c r="T477">
         <v>2.25</v>
-      </c>
-      <c r="O477">
-        <v>3.1</v>
-      </c>
-      <c r="P477">
-        <v>3.5</v>
-      </c>
-      <c r="Q477">
-        <v>-0.25</v>
-      </c>
-      <c r="R477">
-        <v>1.875</v>
-      </c>
-      <c r="S477">
-        <v>1.975</v>
-      </c>
-      <c r="T477">
-        <v>2</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -43002,25 +43002,25 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X477">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
+        <v>-1</v>
+      </c>
+      <c r="AA477">
         <v>0.875</v>
       </c>
-      <c r="AA477">
-        <v>-1</v>
-      </c>
       <c r="AB477">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC477">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43028,7 +43028,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7670279</v>
+        <v>7670284</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43040,49 +43040,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F478" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G478" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K478">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L478">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M478">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N478">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O478">
+        <v>3.1</v>
+      </c>
+      <c r="P478">
         <v>3.5</v>
       </c>
-      <c r="P478">
-        <v>5.5</v>
-      </c>
       <c r="Q478">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R478">
+        <v>1.875</v>
+      </c>
+      <c r="S478">
         <v>1.975</v>
       </c>
-      <c r="S478">
-        <v>1.875</v>
-      </c>
       <c r="T478">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U478">
         <v>1.95</v>
@@ -43091,25 +43091,25 @@
         <v>1.9</v>
       </c>
       <c r="W478">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X478">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y478">
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA478">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43384,7 +43384,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7670275</v>
+        <v>7670278</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43396,10 +43396,10 @@
         <v>45368.875</v>
       </c>
       <c r="F482" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G482" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43411,61 +43411,61 @@
         <v>61</v>
       </c>
       <c r="K482">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L482">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M482">
+        <v>2.375</v>
+      </c>
+      <c r="N482">
         <v>2.9</v>
       </c>
-      <c r="N482">
-        <v>2.3</v>
-      </c>
       <c r="O482">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P482">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R482">
+        <v>2.1</v>
+      </c>
+      <c r="S482">
+        <v>1.775</v>
+      </c>
+      <c r="T482">
+        <v>2</v>
+      </c>
+      <c r="U482">
+        <v>1.9</v>
+      </c>
+      <c r="V482">
         <v>1.95</v>
       </c>
-      <c r="S482">
-        <v>1.9</v>
-      </c>
-      <c r="T482">
-        <v>2</v>
-      </c>
-      <c r="U482">
-        <v>1.875</v>
-      </c>
-      <c r="V482">
-        <v>1.975</v>
-      </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA482">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43473,7 +43473,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7670278</v>
+        <v>7670275</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43485,10 +43485,10 @@
         <v>45368.875</v>
       </c>
       <c r="F483" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G483" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -43500,61 +43500,61 @@
         <v>61</v>
       </c>
       <c r="K483">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L483">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M483">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N483">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O483">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P483">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R483">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S483">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T483">
         <v>2</v>
       </c>
       <c r="U483">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V483">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y483">
         <v>-1</v>
       </c>
       <c r="Z483">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA483">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43577,7 +43577,7 @@
         <v>40</v>
       </c>
       <c r="G484" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H484">
         <v>2</v>
@@ -43666,7 +43666,7 @@
         <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H485">
         <v>3</v>
@@ -44019,7 +44019,7 @@
         <v>45379.83333333334</v>
       </c>
       <c r="F489" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G489" t="s">
         <v>44</v>
@@ -44185,7 +44185,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7977912</v>
+        <v>7977954</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44194,64 +44194,79 @@
         <v>30</v>
       </c>
       <c r="E491" s="2">
-        <v>45381.79166666666</v>
+        <v>45380.75</v>
       </c>
       <c r="F491" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G491" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491" t="s">
+        <v>62</v>
       </c>
       <c r="K491">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L491">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M491">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N491">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O491">
         <v>3.4</v>
       </c>
       <c r="P491">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q491">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R491">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S491">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T491">
         <v>2.25</v>
       </c>
       <c r="U491">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V491">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W491">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X491">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y491">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA491">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB491">
+        <v>-1</v>
+      </c>
+      <c r="AC491">
+        <v>1.05</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44259,7 +44274,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7977737</v>
+        <v>7977851</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44268,34 +44283,43 @@
         <v>30</v>
       </c>
       <c r="E492" s="2">
-        <v>45381.875</v>
+        <v>45380.75</v>
       </c>
       <c r="F492" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G492" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+      <c r="I492">
+        <v>4</v>
+      </c>
+      <c r="J492" t="s">
+        <v>63</v>
       </c>
       <c r="K492">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L492">
+        <v>3</v>
+      </c>
+      <c r="M492">
+        <v>2.875</v>
+      </c>
+      <c r="N492">
+        <v>2.7</v>
+      </c>
+      <c r="O492">
         <v>3.2</v>
       </c>
-      <c r="M492">
-        <v>3.75</v>
-      </c>
-      <c r="N492">
-        <v>1.909</v>
-      </c>
-      <c r="O492">
-        <v>3.4</v>
-      </c>
       <c r="P492">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q492">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R492">
         <v>1.875</v>
@@ -44307,25 +44331,31 @@
         <v>2.25</v>
       </c>
       <c r="U492">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V492">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W492">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X492">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y492">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z492">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA492">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB492">
+        <v>1.1</v>
+      </c>
+      <c r="AC492">
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -44333,7 +44363,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>7977955</v>
+        <v>7977956</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44342,64 +44372,79 @@
         <v>30</v>
       </c>
       <c r="E493" s="2">
-        <v>45382.66666666666</v>
+        <v>45380.85416666666</v>
       </c>
       <c r="F493" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G493" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493" t="s">
+        <v>62</v>
       </c>
       <c r="K493">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="L493">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M493">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N493">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O493">
         <v>3.4</v>
       </c>
       <c r="P493">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q493">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R493">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S493">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T493">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U493">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V493">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W493">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z493">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA493">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB493">
+        <v>-1</v>
+      </c>
+      <c r="AC493">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44407,7 +44452,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7978107</v>
+        <v>7978038</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44416,49 +44461,49 @@
         <v>30</v>
       </c>
       <c r="E494" s="2">
-        <v>45382.66666666666</v>
+        <v>45382.875</v>
       </c>
       <c r="F494" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G494" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K494">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L494">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M494">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N494">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O494">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P494">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q494">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R494">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S494">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T494">
         <v>1.75</v>
       </c>
       <c r="U494">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W494">
         <v>0</v>
@@ -44481,7 +44526,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7977734</v>
+        <v>7977736</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44490,49 +44535,49 @@
         <v>30</v>
       </c>
       <c r="E495" s="2">
-        <v>45382.77083333334</v>
+        <v>45383.79166666666</v>
       </c>
       <c r="F495" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G495" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K495">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L495">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M495">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N495">
+        <v>3.1</v>
+      </c>
+      <c r="O495">
+        <v>2.9</v>
+      </c>
+      <c r="P495">
+        <v>2.6</v>
+      </c>
+      <c r="Q495">
+        <v>0</v>
+      </c>
+      <c r="R495">
+        <v>2.05</v>
+      </c>
+      <c r="S495">
         <v>1.8</v>
       </c>
-      <c r="O495">
-        <v>3.4</v>
-      </c>
-      <c r="P495">
-        <v>5.25</v>
-      </c>
-      <c r="Q495">
-        <v>-0.75</v>
-      </c>
-      <c r="R495">
-        <v>2.025</v>
-      </c>
-      <c r="S495">
-        <v>1.825</v>
-      </c>
       <c r="T495">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U495">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V495">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W495">
         <v>0</v>
@@ -44555,7 +44600,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7978038</v>
+        <v>7670311</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44564,49 +44609,49 @@
         <v>30</v>
       </c>
       <c r="E496" s="2">
-        <v>45382.875</v>
+        <v>45387.79166666666</v>
       </c>
       <c r="F496" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G496" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K496">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L496">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M496">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N496">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O496">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P496">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q496">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R496">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S496">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T496">
         <v>2</v>
       </c>
       <c r="U496">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V496">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W496">
         <v>0</v>
@@ -44629,7 +44674,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7977736</v>
+        <v>7670302</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44638,34 +44683,34 @@
         <v>30</v>
       </c>
       <c r="E497" s="2">
-        <v>45383.79166666666</v>
+        <v>45388.80208333334</v>
       </c>
       <c r="F497" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G497" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K497">
+        <v>1.727</v>
+      </c>
+      <c r="L497">
         <v>3.4</v>
       </c>
-      <c r="L497">
-        <v>3</v>
-      </c>
       <c r="M497">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N497">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="O497">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P497">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q497">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R497">
         <v>2.025</v>
@@ -44674,27 +44719,249 @@
         <v>1.825</v>
       </c>
       <c r="T497">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U497">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V497">
+        <v>1.875</v>
+      </c>
+      <c r="W497">
+        <v>0</v>
+      </c>
+      <c r="X497">
+        <v>0</v>
+      </c>
+      <c r="Y497">
+        <v>0</v>
+      </c>
+      <c r="Z497">
+        <v>0</v>
+      </c>
+      <c r="AA497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:27">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>7670299</v>
+      </c>
+      <c r="C498" t="s">
+        <v>28</v>
+      </c>
+      <c r="D498" t="s">
+        <v>30</v>
+      </c>
+      <c r="E498" s="2">
+        <v>45388.80208333334</v>
+      </c>
+      <c r="F498" t="s">
+        <v>41</v>
+      </c>
+      <c r="G498" t="s">
+        <v>54</v>
+      </c>
+      <c r="K498">
+        <v>2</v>
+      </c>
+      <c r="L498">
+        <v>3.2</v>
+      </c>
+      <c r="M498">
+        <v>4</v>
+      </c>
+      <c r="N498">
         <v>2.1</v>
       </c>
-      <c r="W497">
-        <v>0</v>
-      </c>
-      <c r="X497">
-        <v>0</v>
-      </c>
-      <c r="Y497">
-        <v>0</v>
-      </c>
-      <c r="Z497">
-        <v>0</v>
-      </c>
-      <c r="AA497">
+      <c r="O498">
+        <v>3.2</v>
+      </c>
+      <c r="P498">
+        <v>3.75</v>
+      </c>
+      <c r="Q498">
+        <v>-0.25</v>
+      </c>
+      <c r="R498">
+        <v>1.8</v>
+      </c>
+      <c r="S498">
+        <v>2.05</v>
+      </c>
+      <c r="T498">
+        <v>2</v>
+      </c>
+      <c r="U498">
+        <v>2.05</v>
+      </c>
+      <c r="V498">
+        <v>1.8</v>
+      </c>
+      <c r="W498">
+        <v>0</v>
+      </c>
+      <c r="X498">
+        <v>0</v>
+      </c>
+      <c r="Y498">
+        <v>0</v>
+      </c>
+      <c r="Z498">
+        <v>0</v>
+      </c>
+      <c r="AA498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:27">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>7670300</v>
+      </c>
+      <c r="C499" t="s">
+        <v>28</v>
+      </c>
+      <c r="D499" t="s">
+        <v>30</v>
+      </c>
+      <c r="E499" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F499" t="s">
+        <v>40</v>
+      </c>
+      <c r="G499" t="s">
+        <v>36</v>
+      </c>
+      <c r="K499">
+        <v>2.25</v>
+      </c>
+      <c r="L499">
+        <v>3</v>
+      </c>
+      <c r="M499">
+        <v>3.5</v>
+      </c>
+      <c r="N499">
+        <v>2.05</v>
+      </c>
+      <c r="O499">
+        <v>3.1</v>
+      </c>
+      <c r="P499">
+        <v>4</v>
+      </c>
+      <c r="Q499">
+        <v>-0.5</v>
+      </c>
+      <c r="R499">
+        <v>2.05</v>
+      </c>
+      <c r="S499">
+        <v>1.8</v>
+      </c>
+      <c r="T499">
+        <v>2</v>
+      </c>
+      <c r="U499">
+        <v>1.85</v>
+      </c>
+      <c r="V499">
+        <v>2</v>
+      </c>
+      <c r="W499">
+        <v>0</v>
+      </c>
+      <c r="X499">
+        <v>0</v>
+      </c>
+      <c r="Y499">
+        <v>0</v>
+      </c>
+      <c r="Z499">
+        <v>0</v>
+      </c>
+      <c r="AA499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:27">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>7670310</v>
+      </c>
+      <c r="C500" t="s">
+        <v>28</v>
+      </c>
+      <c r="D500" t="s">
+        <v>30</v>
+      </c>
+      <c r="E500" s="2">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="F500" t="s">
+        <v>44</v>
+      </c>
+      <c r="G500" t="s">
+        <v>52</v>
+      </c>
+      <c r="K500">
+        <v>2.7</v>
+      </c>
+      <c r="L500">
+        <v>3</v>
+      </c>
+      <c r="M500">
+        <v>2.8</v>
+      </c>
+      <c r="N500">
+        <v>2.875</v>
+      </c>
+      <c r="O500">
+        <v>3</v>
+      </c>
+      <c r="P500">
+        <v>2.625</v>
+      </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
+      <c r="R500">
+        <v>2</v>
+      </c>
+      <c r="S500">
+        <v>1.85</v>
+      </c>
+      <c r="T500">
+        <v>2</v>
+      </c>
+      <c r="U500">
+        <v>2.025</v>
+      </c>
+      <c r="V500">
+        <v>1.825</v>
+      </c>
+      <c r="W500">
+        <v>0</v>
+      </c>
+      <c r="X500">
+        <v>0</v>
+      </c>
+      <c r="Y500">
+        <v>0</v>
+      </c>
+      <c r="Z500">
+        <v>0</v>
+      </c>
+      <c r="AA500">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475420</v>
+        <v>7475472</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,76 +28800,76 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G318" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H318">
         <v>0</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K318">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L318">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M318">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N318">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O318">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P318">
+        <v>9.5</v>
+      </c>
+      <c r="Q318">
+        <v>-1.25</v>
+      </c>
+      <c r="R318">
+        <v>1.95</v>
+      </c>
+      <c r="S318">
+        <v>1.9</v>
+      </c>
+      <c r="T318">
+        <v>2.5</v>
+      </c>
+      <c r="U318">
+        <v>1.925</v>
+      </c>
+      <c r="V318">
+        <v>1.925</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
         <v>3.2</v>
       </c>
-      <c r="Q318">
-        <v>-0.25</v>
-      </c>
-      <c r="R318">
-        <v>2.1</v>
-      </c>
-      <c r="S318">
-        <v>1.775</v>
-      </c>
-      <c r="T318">
-        <v>1.75</v>
-      </c>
-      <c r="U318">
-        <v>1.85</v>
-      </c>
-      <c r="V318">
-        <v>2</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB318">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475472</v>
+        <v>7475420</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K319">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L319">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M319">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N319">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O319">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P319">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q319">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB319">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC319">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G334" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O334">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R334">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G335" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
+        <v>1.909</v>
+      </c>
+      <c r="L335">
+        <v>3.3</v>
+      </c>
+      <c r="M335">
+        <v>4.333</v>
+      </c>
+      <c r="N335">
         <v>2.3</v>
       </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
-      <c r="M335">
-        <v>3.2</v>
-      </c>
-      <c r="N335">
-        <v>1.8</v>
-      </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P335">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q335">
+        <v>-0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.925</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>1.75</v>
+      </c>
+      <c r="U335">
+        <v>1.925</v>
+      </c>
+      <c r="V335">
+        <v>1.925</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>1.875</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
         <v>-0.5</v>
       </c>
-      <c r="R335">
-        <v>1.85</v>
-      </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
-      <c r="U335">
-        <v>2.05</v>
-      </c>
-      <c r="V335">
-        <v>1.8</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>2.4</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
       <c r="AA335">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,76 +30758,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G340" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
+        <v>2.3</v>
+      </c>
+      <c r="L340">
         <v>2.9</v>
       </c>
-      <c r="L340">
-        <v>3.1</v>
-      </c>
       <c r="M340">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N340">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O340">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P340">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R340">
+        <v>1.9</v>
+      </c>
+      <c r="S340">
+        <v>1.95</v>
+      </c>
+      <c r="T340">
+        <v>1.5</v>
+      </c>
+      <c r="U340">
         <v>1.875</v>
       </c>
-      <c r="S340">
+      <c r="V340">
         <v>1.975</v>
       </c>
-      <c r="T340">
-        <v>1.75</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
+      <c r="W340">
+        <v>-1</v>
+      </c>
+      <c r="X340">
+        <v>-1</v>
+      </c>
+      <c r="Y340">
         <v>1.9</v>
       </c>
-      <c r="W340">
-        <v>-1</v>
-      </c>
-      <c r="X340">
-        <v>-1</v>
-      </c>
-      <c r="Y340">
-        <v>1.375</v>
-      </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC340">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,56 +30847,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G341" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L341">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M341">
+        <v>2.5</v>
+      </c>
+      <c r="N341">
         <v>3.5</v>
       </c>
-      <c r="N341">
-        <v>2.8</v>
-      </c>
       <c r="O341">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P341">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q341">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R341">
+        <v>1.875</v>
+      </c>
+      <c r="S341">
+        <v>1.975</v>
+      </c>
+      <c r="T341">
+        <v>1.75</v>
+      </c>
+      <c r="U341">
+        <v>1.95</v>
+      </c>
+      <c r="V341">
         <v>1.9</v>
       </c>
-      <c r="S341">
-        <v>1.95</v>
-      </c>
-      <c r="T341">
-        <v>1.5</v>
-      </c>
-      <c r="U341">
-        <v>1.875</v>
-      </c>
-      <c r="V341">
-        <v>1.975</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30904,19 +30904,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB341">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC341">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31814,7 +31814,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7669975</v>
+        <v>7669965</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31826,37 +31826,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G352" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H352">
         <v>0</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J352" t="s">
         <v>63</v>
       </c>
       <c r="K352">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L352">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M352">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N352">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O352">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P352">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -31871,10 +31871,10 @@
         <v>1.75</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31883,7 +31883,7 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z352">
         <v>-1</v>
@@ -31892,10 +31892,10 @@
         <v>1.05</v>
       </c>
       <c r="AB352">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31903,7 +31903,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7669965</v>
+        <v>7669975</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31915,37 +31915,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J353" t="s">
         <v>63</v>
       </c>
       <c r="K353">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M353">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N353">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O353">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P353">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -31960,10 +31960,10 @@
         <v>1.75</v>
       </c>
       <c r="U353">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V353">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31972,7 +31972,7 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z353">
         <v>-1</v>
@@ -31981,10 +31981,10 @@
         <v>1.05</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC353">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
+        <v>2.875</v>
+      </c>
+      <c r="L360">
         <v>2.9</v>
       </c>
-      <c r="L360">
-        <v>3</v>
-      </c>
       <c r="M360">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N360">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G361" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L361">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M361">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N361">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC361">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -35463,7 +35463,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7670012</v>
+        <v>7817098</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35475,76 +35475,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K393">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L393">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M393">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N393">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O393">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P393">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q393">
+        <v>-0.25</v>
+      </c>
+      <c r="R393">
+        <v>1.8</v>
+      </c>
+      <c r="S393">
+        <v>2.05</v>
+      </c>
+      <c r="T393">
+        <v>1.75</v>
+      </c>
+      <c r="U393">
+        <v>1.825</v>
+      </c>
+      <c r="V393">
+        <v>2.025</v>
+      </c>
+      <c r="W393">
+        <v>-1</v>
+      </c>
+      <c r="X393">
+        <v>1.9</v>
+      </c>
+      <c r="Y393">
+        <v>-1</v>
+      </c>
+      <c r="Z393">
         <v>-0.5</v>
       </c>
-      <c r="R393">
-        <v>2.025</v>
-      </c>
-      <c r="S393">
-        <v>1.825</v>
-      </c>
-      <c r="T393">
-        <v>2</v>
-      </c>
-      <c r="U393">
-        <v>1.95</v>
-      </c>
-      <c r="V393">
-        <v>1.9</v>
-      </c>
-      <c r="W393">
-        <v>0.95</v>
-      </c>
-      <c r="X393">
-        <v>-1</v>
-      </c>
-      <c r="Y393">
-        <v>-1</v>
-      </c>
-      <c r="Z393">
+      <c r="AA393">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB393">
+        <v>-1</v>
+      </c>
+      <c r="AC393">
         <v>1.025</v>
-      </c>
-      <c r="AA393">
-        <v>-1</v>
-      </c>
-      <c r="AB393">
-        <v>-1</v>
-      </c>
-      <c r="AC393">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35552,7 +35552,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7817098</v>
+        <v>7670012</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35564,76 +35564,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G394" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394">
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K394">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L394">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M394">
+        <v>3.75</v>
+      </c>
+      <c r="N394">
+        <v>1.95</v>
+      </c>
+      <c r="O394">
+        <v>3.25</v>
+      </c>
+      <c r="P394">
         <v>4.333</v>
       </c>
-      <c r="N394">
-        <v>2.15</v>
-      </c>
-      <c r="O394">
-        <v>2.9</v>
-      </c>
-      <c r="P394">
-        <v>4</v>
-      </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R394">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S394">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T394">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U394">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V394">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X394">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
         <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA394">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G419" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L419">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M419">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N419">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O419">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P419">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q419">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U419">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA419">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB419">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L420">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M420">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N420">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O420">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P420">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U420">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V420">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA420">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC420">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G421" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H421">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K421">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L421">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M421">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N421">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O421">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P421">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q421">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R421">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S421">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V421">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W421">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA421">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB421">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G422" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K422">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L422">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M422">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N422">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O422">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P422">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q422">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R422">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S422">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V422">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X422">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC422">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38400,7 +38400,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7670046</v>
+        <v>7670048</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38412,73 +38412,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G426" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K426">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L426">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M426">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N426">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O426">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P426">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q426">
         <v>-0.5</v>
       </c>
       <c r="R426">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S426">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T426">
         <v>1.75</v>
       </c>
       <c r="U426">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V426">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W426">
         <v>-1</v>
       </c>
       <c r="X426">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB426">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AC426">
         <v>-0.5</v>
@@ -38489,7 +38489,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7670048</v>
+        <v>7670046</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38501,73 +38501,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F427" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G427" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K427">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L427">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M427">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N427">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O427">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P427">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q427">
         <v>-0.5</v>
       </c>
       <c r="R427">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S427">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T427">
         <v>1.75</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W427">
         <v>-1</v>
       </c>
       <c r="X427">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y427">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB427">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AC427">
         <v>-0.5</v>
@@ -39824,7 +39824,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670057</v>
+        <v>7670061</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39836,56 +39836,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G442" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J442" t="s">
         <v>63</v>
       </c>
       <c r="K442">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L442">
         <v>3</v>
       </c>
       <c r="M442">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N442">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O442">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S442">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T442">
         <v>2</v>
       </c>
       <c r="U442">
+        <v>1.875</v>
+      </c>
+      <c r="V442">
         <v>1.975</v>
       </c>
-      <c r="V442">
-        <v>1.875</v>
-      </c>
       <c r="W442">
         <v>-1</v>
       </c>
@@ -39893,16 +39893,16 @@
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z442">
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB442">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39913,7 +39913,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7670061</v>
+        <v>7670057</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39925,56 +39925,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G443" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443" t="s">
         <v>63</v>
       </c>
       <c r="K443">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L443">
         <v>3</v>
       </c>
       <c r="M443">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N443">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O443">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P443">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S443">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T443">
         <v>2</v>
       </c>
       <c r="U443">
+        <v>1.975</v>
+      </c>
+      <c r="V443">
         <v>1.875</v>
       </c>
-      <c r="V443">
-        <v>1.975</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39982,16 +39982,16 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB443">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40625,7 +40625,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7670247</v>
+        <v>7670249</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40637,76 +40637,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F451" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G451" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H451">
         <v>1</v>
       </c>
       <c r="I451">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K451">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L451">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M451">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="N451">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O451">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P451">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q451">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R451">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S451">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T451">
         <v>2</v>
       </c>
       <c r="U451">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V451">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W451">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z451">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA451">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB451">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC451">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40714,7 +40714,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7670249</v>
+        <v>7670247</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40726,76 +40726,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F452" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H452">
         <v>1</v>
       </c>
       <c r="I452">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J452" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K452">
+        <v>3</v>
+      </c>
+      <c r="L452">
+        <v>2.9</v>
+      </c>
+      <c r="M452">
+        <v>2.6</v>
+      </c>
+      <c r="N452">
+        <v>3.5</v>
+      </c>
+      <c r="O452">
+        <v>2.9</v>
+      </c>
+      <c r="P452">
+        <v>2.375</v>
+      </c>
+      <c r="Q452">
+        <v>0.25</v>
+      </c>
+      <c r="R452">
         <v>1.85</v>
       </c>
-      <c r="L452">
-        <v>3.3</v>
-      </c>
-      <c r="M452">
-        <v>4.6</v>
-      </c>
-      <c r="N452">
-        <v>1.75</v>
-      </c>
-      <c r="O452">
-        <v>3.2</v>
-      </c>
-      <c r="P452">
-        <v>6</v>
-      </c>
-      <c r="Q452">
-        <v>-0.75</v>
-      </c>
-      <c r="R452">
-        <v>2.05</v>
-      </c>
       <c r="S452">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T452">
         <v>2</v>
       </c>
       <c r="U452">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V452">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W452">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA452">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB452">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC452">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41159,7 +41159,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7670246</v>
+        <v>7670251</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41171,76 +41171,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F457" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G457" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H457">
         <v>1</v>
       </c>
       <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457" t="s">
+        <v>62</v>
+      </c>
+      <c r="K457">
+        <v>1.666</v>
+      </c>
+      <c r="L457">
+        <v>3.8</v>
+      </c>
+      <c r="M457">
+        <v>5</v>
+      </c>
+      <c r="N457">
+        <v>1.615</v>
+      </c>
+      <c r="O457">
+        <v>3.75</v>
+      </c>
+      <c r="P457">
+        <v>6</v>
+      </c>
+      <c r="Q457">
+        <v>-0.75</v>
+      </c>
+      <c r="R457">
+        <v>1.8</v>
+      </c>
+      <c r="S457">
+        <v>2.05</v>
+      </c>
+      <c r="T457">
+        <v>2</v>
+      </c>
+      <c r="U457">
+        <v>1.85</v>
+      </c>
+      <c r="V457">
+        <v>2</v>
+      </c>
+      <c r="W457">
+        <v>0.615</v>
+      </c>
+      <c r="X457">
+        <v>-1</v>
+      </c>
+      <c r="Y457">
+        <v>-1</v>
+      </c>
+      <c r="Z457">
+        <v>0.4</v>
+      </c>
+      <c r="AA457">
+        <v>-0.5</v>
+      </c>
+      <c r="AB457">
+        <v>-1</v>
+      </c>
+      <c r="AC457">
         <v>1</v>
-      </c>
-      <c r="J457" t="s">
-        <v>61</v>
-      </c>
-      <c r="K457">
-        <v>2.5</v>
-      </c>
-      <c r="L457">
-        <v>3</v>
-      </c>
-      <c r="M457">
-        <v>2.9</v>
-      </c>
-      <c r="N457">
-        <v>2.3</v>
-      </c>
-      <c r="O457">
-        <v>3.1</v>
-      </c>
-      <c r="P457">
-        <v>3.1</v>
-      </c>
-      <c r="Q457">
-        <v>-0.25</v>
-      </c>
-      <c r="R457">
-        <v>1.975</v>
-      </c>
-      <c r="S457">
-        <v>1.875</v>
-      </c>
-      <c r="T457">
-        <v>2.25</v>
-      </c>
-      <c r="U457">
-        <v>2.1</v>
-      </c>
-      <c r="V457">
-        <v>1.775</v>
-      </c>
-      <c r="W457">
-        <v>-1</v>
-      </c>
-      <c r="X457">
-        <v>2.1</v>
-      </c>
-      <c r="Y457">
-        <v>-1</v>
-      </c>
-      <c r="Z457">
-        <v>-0.5</v>
-      </c>
-      <c r="AA457">
-        <v>0.4375</v>
-      </c>
-      <c r="AB457">
-        <v>-0.5</v>
-      </c>
-      <c r="AC457">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41248,7 +41248,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7670251</v>
+        <v>7670246</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41260,76 +41260,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F458" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G458" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H458">
         <v>1</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K458">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L458">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M458">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N458">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O458">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P458">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q458">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R458">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S458">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T458">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V458">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W458">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X458">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y458">
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA458">
+        <v>0.4375</v>
+      </c>
+      <c r="AB458">
         <v>-0.5</v>
       </c>
-      <c r="AB458">
-        <v>-1</v>
-      </c>
       <c r="AC458">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41337,7 +41337,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7670265</v>
+        <v>7670260</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41349,58 +41349,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G459" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>62</v>
       </c>
       <c r="K459">
+        <v>4.5</v>
+      </c>
+      <c r="L459">
+        <v>3.3</v>
+      </c>
+      <c r="M459">
+        <v>1.85</v>
+      </c>
+      <c r="N459">
+        <v>3.2</v>
+      </c>
+      <c r="O459">
         <v>3.1</v>
       </c>
-      <c r="L459">
-        <v>3</v>
-      </c>
-      <c r="M459">
-        <v>2.45</v>
-      </c>
-      <c r="N459">
-        <v>2.15</v>
-      </c>
-      <c r="O459">
-        <v>3.25</v>
-      </c>
       <c r="P459">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q459">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S459">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T459">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U459">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V459">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W459">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41409,16 +41409,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC459">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41426,7 +41426,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7670260</v>
+        <v>7670265</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41438,58 +41438,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="s">
         <v>62</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L460">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M460">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N460">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O460">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P460">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q460">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W460">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="X460">
         <v>-1</v>
@@ -41498,16 +41498,16 @@
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
         <v>-1</v>
       </c>
       <c r="AB460">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC460">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -42939,7 +42939,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7670279</v>
+        <v>7670284</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42951,49 +42951,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G477" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J477" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K477">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L477">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M477">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N477">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O477">
+        <v>3.1</v>
+      </c>
+      <c r="P477">
         <v>3.5</v>
       </c>
-      <c r="P477">
-        <v>5.5</v>
-      </c>
       <c r="Q477">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R477">
+        <v>1.875</v>
+      </c>
+      <c r="S477">
         <v>1.975</v>
       </c>
-      <c r="S477">
-        <v>1.875</v>
-      </c>
       <c r="T477">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -43002,25 +43002,25 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X477">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA477">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43028,7 +43028,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7670284</v>
+        <v>7670279</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43040,49 +43040,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F478" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G478" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K478">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L478">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M478">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N478">
+        <v>1.727</v>
+      </c>
+      <c r="O478">
+        <v>3.5</v>
+      </c>
+      <c r="P478">
+        <v>5.5</v>
+      </c>
+      <c r="Q478">
+        <v>-0.75</v>
+      </c>
+      <c r="R478">
+        <v>1.975</v>
+      </c>
+      <c r="S478">
+        <v>1.875</v>
+      </c>
+      <c r="T478">
         <v>2.25</v>
-      </c>
-      <c r="O478">
-        <v>3.1</v>
-      </c>
-      <c r="P478">
-        <v>3.5</v>
-      </c>
-      <c r="Q478">
-        <v>-0.25</v>
-      </c>
-      <c r="R478">
-        <v>1.875</v>
-      </c>
-      <c r="S478">
-        <v>1.975</v>
-      </c>
-      <c r="T478">
-        <v>2</v>
       </c>
       <c r="U478">
         <v>1.95</v>
@@ -43091,25 +43091,25 @@
         <v>1.9</v>
       </c>
       <c r="W478">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X478">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y478">
         <v>-1</v>
       </c>
       <c r="Z478">
+        <v>-1</v>
+      </c>
+      <c r="AA478">
         <v>0.875</v>
       </c>
-      <c r="AA478">
-        <v>-1</v>
-      </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43384,7 +43384,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7670278</v>
+        <v>7670275</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43396,10 +43396,10 @@
         <v>45368.875</v>
       </c>
       <c r="F482" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G482" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43411,61 +43411,61 @@
         <v>61</v>
       </c>
       <c r="K482">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M482">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N482">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P482">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S482">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43473,7 +43473,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7670275</v>
+        <v>7670278</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43485,10 +43485,10 @@
         <v>45368.875</v>
       </c>
       <c r="F483" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G483" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -43500,61 +43500,61 @@
         <v>61</v>
       </c>
       <c r="K483">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M483">
+        <v>2.375</v>
+      </c>
+      <c r="N483">
         <v>2.9</v>
       </c>
-      <c r="N483">
-        <v>2.3</v>
-      </c>
       <c r="O483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P483">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R483">
+        <v>2.1</v>
+      </c>
+      <c r="S483">
+        <v>1.775</v>
+      </c>
+      <c r="T483">
+        <v>2</v>
+      </c>
+      <c r="U483">
+        <v>1.9</v>
+      </c>
+      <c r="V483">
         <v>1.95</v>
       </c>
-      <c r="S483">
-        <v>1.9</v>
-      </c>
-      <c r="T483">
-        <v>2</v>
-      </c>
-      <c r="U483">
-        <v>1.875</v>
-      </c>
-      <c r="V483">
-        <v>1.975</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y483">
         <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA483">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -44719,7 +44719,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7977955</v>
+        <v>7978107</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44731,76 +44731,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F497" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G497" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497">
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K497">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L497">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M497">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N497">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O497">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P497">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q497">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R497">
+        <v>1.75</v>
+      </c>
+      <c r="S497">
+        <v>2.125</v>
+      </c>
+      <c r="T497">
+        <v>1.75</v>
+      </c>
+      <c r="U497">
+        <v>2.025</v>
+      </c>
+      <c r="V497">
         <v>1.825</v>
       </c>
-      <c r="S497">
-        <v>2.025</v>
-      </c>
-      <c r="T497">
-        <v>2</v>
-      </c>
-      <c r="U497">
-        <v>1.825</v>
-      </c>
-      <c r="V497">
-        <v>2.025</v>
-      </c>
       <c r="W497">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z497">
+        <v>-1</v>
+      </c>
+      <c r="AA497">
+        <v>1.125</v>
+      </c>
+      <c r="AB497">
+        <v>-1</v>
+      </c>
+      <c r="AC497">
         <v>0.825</v>
-      </c>
-      <c r="AA497">
-        <v>-1</v>
-      </c>
-      <c r="AB497">
-        <v>0.825</v>
-      </c>
-      <c r="AC497">
-        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -44808,7 +44808,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7978107</v>
+        <v>7977955</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44820,76 +44820,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G498" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498">
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K498">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L498">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M498">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N498">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O498">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P498">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q498">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R498">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S498">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T498">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U498">
+        <v>1.825</v>
+      </c>
+      <c r="V498">
         <v>2.025</v>
       </c>
-      <c r="V498">
-        <v>1.825</v>
-      </c>
       <c r="W498">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z498">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA498">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB498">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC498">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -45194,19 +45194,19 @@
         <v>1.95</v>
       </c>
       <c r="O502">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P502">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q502">
         <v>-0.5</v>
       </c>
       <c r="R502">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S502">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T502">
         <v>2.25</v>
@@ -45271,7 +45271,7 @@
         <v>3.1</v>
       </c>
       <c r="P503">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q503">
         <v>0</v>
@@ -45351,10 +45351,10 @@
         <v>0</v>
       </c>
       <c r="R504">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S504">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T504">
         <v>1.75</v>
@@ -45425,19 +45425,19 @@
         <v>-0.25</v>
       </c>
       <c r="R505">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S505">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T505">
         <v>2</v>
       </c>
       <c r="U505">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V505">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W505">
         <v>0</v>
@@ -45534,7 +45534,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7670300</v>
+        <v>7670312</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45546,46 +45546,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F507" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G507" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K507">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L507">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M507">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N507">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="O507">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P507">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q507">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R507">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S507">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T507">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V507">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W507">
         <v>0</v>
@@ -45608,7 +45608,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7670312</v>
+        <v>7670300</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45620,31 +45620,31 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F508" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G508" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K508">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L508">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M508">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N508">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O508">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P508">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q508">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R508">
         <v>1.975</v>
@@ -45653,13 +45653,13 @@
         <v>1.875</v>
       </c>
       <c r="T508">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U508">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V508">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W508">
         <v>0</v>
@@ -45682,7 +45682,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7670310</v>
+        <v>7670307</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45694,46 +45694,46 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F509" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G509" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K509">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L509">
         <v>3</v>
       </c>
       <c r="M509">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N509">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O509">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P509">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q509">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R509">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S509">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T509">
         <v>2</v>
       </c>
       <c r="U509">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V509">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W509">
         <v>0</v>
@@ -45756,7 +45756,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7670307</v>
+        <v>7670310</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45768,46 +45768,46 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F510" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G510" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K510">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L510">
         <v>3</v>
       </c>
       <c r="M510">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N510">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O510">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P510">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q510">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R510">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S510">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T510">
         <v>2</v>
       </c>
       <c r="U510">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V510">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W510">
         <v>0</v>
@@ -45931,22 +45931,22 @@
         <v>6</v>
       </c>
       <c r="N512">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O512">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P512">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q512">
         <v>-1.25</v>
       </c>
       <c r="R512">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S512">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T512">
         <v>2.5</v>
@@ -46017,10 +46017,10 @@
         <v>0.25</v>
       </c>
       <c r="R513">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S513">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T513">
         <v>1.75</v>
@@ -46052,7 +46052,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7670304</v>
+        <v>7670305</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46064,46 +46064,46 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F514" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G514" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K514">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L514">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M514">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N514">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O514">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P514">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q514">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R514">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S514">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T514">
         <v>2</v>
       </c>
       <c r="U514">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V514">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W514">
         <v>0</v>
@@ -46126,7 +46126,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7670305</v>
+        <v>7670304</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46138,46 +46138,46 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F515" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G515" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K515">
+        <v>1.571</v>
+      </c>
+      <c r="L515">
+        <v>3.9</v>
+      </c>
+      <c r="M515">
+        <v>5.75</v>
+      </c>
+      <c r="N515">
+        <v>1.65</v>
+      </c>
+      <c r="O515">
+        <v>3.8</v>
+      </c>
+      <c r="P515">
+        <v>5</v>
+      </c>
+      <c r="Q515">
+        <v>-0.75</v>
+      </c>
+      <c r="R515">
+        <v>1.825</v>
+      </c>
+      <c r="S515">
+        <v>2.025</v>
+      </c>
+      <c r="T515">
+        <v>2</v>
+      </c>
+      <c r="U515">
         <v>1.95</v>
       </c>
-      <c r="L515">
-        <v>3</v>
-      </c>
-      <c r="M515">
-        <v>4.5</v>
-      </c>
-      <c r="N515">
-        <v>1.95</v>
-      </c>
-      <c r="O515">
-        <v>3</v>
-      </c>
-      <c r="P515">
-        <v>4.5</v>
-      </c>
-      <c r="Q515">
-        <v>-0.5</v>
-      </c>
-      <c r="R515">
-        <v>2</v>
-      </c>
-      <c r="S515">
-        <v>1.85</v>
-      </c>
-      <c r="T515">
-        <v>2</v>
-      </c>
-      <c r="U515">
-        <v>2.1</v>
-      </c>
       <c r="V515">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W515">
         <v>0</v>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -28788,7 +28788,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7475472</v>
+        <v>7475420</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28800,76 +28800,76 @@
         <v>45256.75</v>
       </c>
       <c r="F318" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G318" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H318">
         <v>0</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K318">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M318">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O318">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="P318">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q318">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7475420</v>
+        <v>7475472</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28889,76 +28889,76 @@
         <v>45256.75</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G319" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K319">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L319">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M319">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N319">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O319">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P319">
+        <v>9.5</v>
+      </c>
+      <c r="Q319">
+        <v>-1.25</v>
+      </c>
+      <c r="R319">
+        <v>1.95</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>1.925</v>
+      </c>
+      <c r="V319">
+        <v>1.925</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>3.2</v>
       </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>2.1</v>
-      </c>
-      <c r="S319">
-        <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>1.75</v>
-      </c>
-      <c r="U319">
-        <v>1.85</v>
-      </c>
-      <c r="V319">
-        <v>2</v>
-      </c>
-      <c r="W319">
-        <v>-1</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
+        <v>1.909</v>
+      </c>
+      <c r="L334">
+        <v>3.3</v>
+      </c>
+      <c r="M334">
+        <v>4.333</v>
+      </c>
+      <c r="N334">
         <v>2.3</v>
       </c>
-      <c r="L334">
-        <v>3.2</v>
-      </c>
-      <c r="M334">
-        <v>3.2</v>
-      </c>
-      <c r="N334">
-        <v>1.8</v>
-      </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P334">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.925</v>
+      </c>
+      <c r="S334">
+        <v>1.925</v>
+      </c>
+      <c r="T334">
+        <v>1.75</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>1.925</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>1.875</v>
+      </c>
+      <c r="Y334">
+        <v>-1</v>
+      </c>
+      <c r="Z334">
         <v>-0.5</v>
       </c>
-      <c r="R334">
-        <v>1.85</v>
-      </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>2</v>
-      </c>
-      <c r="U334">
-        <v>2.05</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
-      <c r="W334">
-        <v>-1</v>
-      </c>
-      <c r="X334">
-        <v>2.4</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
       <c r="AA334">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G335" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L335">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T335">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,56 +30758,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G340" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
+        <v>2.5</v>
+      </c>
+      <c r="N340">
         <v>3.5</v>
       </c>
-      <c r="N340">
-        <v>2.8</v>
-      </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.875</v>
+      </c>
+      <c r="S340">
+        <v>1.975</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.9</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.5</v>
-      </c>
-      <c r="U340">
-        <v>1.875</v>
-      </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30815,19 +30815,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,76 +30847,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
+        <v>2.3</v>
+      </c>
+      <c r="L341">
         <v>2.9</v>
       </c>
-      <c r="L341">
-        <v>3.1</v>
-      </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O341">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P341">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>1.9</v>
       </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.375</v>
-      </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31814,7 +31814,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7669965</v>
+        <v>7669975</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31826,37 +31826,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H352">
         <v>0</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="s">
         <v>63</v>
       </c>
       <c r="K352">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L352">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N352">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P352">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -31871,10 +31871,10 @@
         <v>1.75</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31883,7 +31883,7 @@
         <v>-1</v>
       </c>
       <c r="Y352">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
@@ -31892,10 +31892,10 @@
         <v>1.05</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC352">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31903,7 +31903,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7669975</v>
+        <v>7669965</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31915,37 +31915,37 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J353" t="s">
         <v>63</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L353">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M353">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N353">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O353">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -31960,10 +31960,10 @@
         <v>1.75</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31972,7 +31972,7 @@
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z353">
         <v>-1</v>
@@ -31981,10 +31981,10 @@
         <v>1.05</v>
       </c>
       <c r="AB353">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L360">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M360">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N360">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V360">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC360">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
+        <v>2.875</v>
+      </c>
+      <c r="L361">
         <v>2.9</v>
       </c>
-      <c r="L361">
-        <v>3</v>
-      </c>
       <c r="M361">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N361">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q361">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V361">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -35463,7 +35463,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7817098</v>
+        <v>7670012</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35475,76 +35475,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K393">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L393">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M393">
+        <v>3.75</v>
+      </c>
+      <c r="N393">
+        <v>1.95</v>
+      </c>
+      <c r="O393">
+        <v>3.25</v>
+      </c>
+      <c r="P393">
         <v>4.333</v>
       </c>
-      <c r="N393">
-        <v>2.15</v>
-      </c>
-      <c r="O393">
-        <v>2.9</v>
-      </c>
-      <c r="P393">
-        <v>4</v>
-      </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S393">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T393">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U393">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V393">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X393">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA393">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35552,7 +35552,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7670012</v>
+        <v>7817098</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35564,76 +35564,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394">
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L394">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M394">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N394">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O394">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P394">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q394">
+        <v>-0.25</v>
+      </c>
+      <c r="R394">
+        <v>1.8</v>
+      </c>
+      <c r="S394">
+        <v>2.05</v>
+      </c>
+      <c r="T394">
+        <v>1.75</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>2.025</v>
+      </c>
+      <c r="W394">
+        <v>-1</v>
+      </c>
+      <c r="X394">
+        <v>1.9</v>
+      </c>
+      <c r="Y394">
+        <v>-1</v>
+      </c>
+      <c r="Z394">
         <v>-0.5</v>
       </c>
-      <c r="R394">
-        <v>2.025</v>
-      </c>
-      <c r="S394">
-        <v>1.825</v>
-      </c>
-      <c r="T394">
-        <v>2</v>
-      </c>
-      <c r="U394">
-        <v>1.95</v>
-      </c>
-      <c r="V394">
-        <v>1.9</v>
-      </c>
-      <c r="W394">
-        <v>0.95</v>
-      </c>
-      <c r="X394">
-        <v>-1</v>
-      </c>
-      <c r="Y394">
-        <v>-1</v>
-      </c>
-      <c r="Z394">
+      <c r="AA394">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB394">
+        <v>-1</v>
+      </c>
+      <c r="AC394">
         <v>1.025</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>-1</v>
-      </c>
-      <c r="AC394">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -37777,7 +37777,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>7670037</v>
+        <v>7670042</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37789,40 +37789,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F419" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J419" t="s">
         <v>61</v>
       </c>
       <c r="K419">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L419">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M419">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N419">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O419">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P419">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q419">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R419">
         <v>1.775</v>
@@ -37831,34 +37831,34 @@
         <v>2.1</v>
       </c>
       <c r="T419">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U419">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V419">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA419">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC419">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -37866,7 +37866,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7670042</v>
+        <v>7670037</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37878,40 +37878,40 @@
         <v>45346.8125</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G420" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J420" t="s">
         <v>61</v>
       </c>
       <c r="K420">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L420">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N420">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P420">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q420">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R420">
         <v>1.775</v>
@@ -37920,34 +37920,34 @@
         <v>2.1</v>
       </c>
       <c r="T420">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U420">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V420">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W420">
         <v>-1</v>
       </c>
       <c r="X420">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Y420">
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA420">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB420">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K421">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L421">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N421">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O421">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X421">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K422">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L422">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M422">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N422">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P422">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q422">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S422">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38400,7 +38400,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7670048</v>
+        <v>7670046</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38412,73 +38412,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G426" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K426">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L426">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M426">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N426">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O426">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P426">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q426">
         <v>-0.5</v>
       </c>
       <c r="R426">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S426">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T426">
         <v>1.75</v>
       </c>
       <c r="U426">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V426">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W426">
         <v>-1</v>
       </c>
       <c r="X426">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y426">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB426">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
       <c r="AC426">
         <v>-0.5</v>
@@ -38489,7 +38489,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7670046</v>
+        <v>7670048</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38501,73 +38501,73 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F427" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G427" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J427" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K427">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L427">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M427">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N427">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O427">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P427">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q427">
         <v>-0.5</v>
       </c>
       <c r="R427">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S427">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T427">
         <v>1.75</v>
       </c>
       <c r="U427">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V427">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W427">
         <v>-1</v>
       </c>
       <c r="X427">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB427">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="AC427">
         <v>-0.5</v>
@@ -39824,7 +39824,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670061</v>
+        <v>7670057</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39836,56 +39836,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G442" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J442" t="s">
         <v>63</v>
       </c>
       <c r="K442">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L442">
         <v>3</v>
       </c>
       <c r="M442">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P442">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S442">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T442">
         <v>2</v>
       </c>
       <c r="U442">
+        <v>1.975</v>
+      </c>
+      <c r="V442">
         <v>1.875</v>
       </c>
-      <c r="V442">
-        <v>1.975</v>
-      </c>
       <c r="W442">
         <v>-1</v>
       </c>
@@ -39893,16 +39893,16 @@
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z442">
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB442">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39913,7 +39913,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7670057</v>
+        <v>7670061</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39925,56 +39925,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G443" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
         <v>63</v>
       </c>
       <c r="K443">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L443">
         <v>3</v>
       </c>
       <c r="M443">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N443">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O443">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P443">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S443">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T443">
         <v>2</v>
       </c>
       <c r="U443">
+        <v>1.875</v>
+      </c>
+      <c r="V443">
         <v>1.975</v>
       </c>
-      <c r="V443">
-        <v>1.875</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39982,16 +39982,16 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40625,7 +40625,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7670249</v>
+        <v>7670247</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40637,76 +40637,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F451" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G451" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H451">
         <v>1</v>
       </c>
       <c r="I451">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J451" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K451">
+        <v>3</v>
+      </c>
+      <c r="L451">
+        <v>2.9</v>
+      </c>
+      <c r="M451">
+        <v>2.6</v>
+      </c>
+      <c r="N451">
+        <v>3.5</v>
+      </c>
+      <c r="O451">
+        <v>2.9</v>
+      </c>
+      <c r="P451">
+        <v>2.375</v>
+      </c>
+      <c r="Q451">
+        <v>0.25</v>
+      </c>
+      <c r="R451">
         <v>1.85</v>
       </c>
-      <c r="L451">
-        <v>3.3</v>
-      </c>
-      <c r="M451">
-        <v>4.6</v>
-      </c>
-      <c r="N451">
-        <v>1.75</v>
-      </c>
-      <c r="O451">
-        <v>3.2</v>
-      </c>
-      <c r="P451">
-        <v>6</v>
-      </c>
-      <c r="Q451">
-        <v>-0.75</v>
-      </c>
-      <c r="R451">
-        <v>2.05</v>
-      </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T451">
         <v>2</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V451">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W451">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z451">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA451">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC451">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40714,7 +40714,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7670247</v>
+        <v>7670249</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40726,76 +40726,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F452" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G452" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H452">
         <v>1</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K452">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L452">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M452">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="N452">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O452">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P452">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q452">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R452">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S452">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T452">
         <v>2</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z452">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41159,7 +41159,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7670251</v>
+        <v>7670246</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41171,76 +41171,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F457" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G457" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H457">
         <v>1</v>
       </c>
       <c r="I457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K457">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L457">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M457">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N457">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O457">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P457">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S457">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T457">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V457">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W457">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X457">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y457">
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA457">
+        <v>0.4375</v>
+      </c>
+      <c r="AB457">
         <v>-0.5</v>
       </c>
-      <c r="AB457">
-        <v>-1</v>
-      </c>
       <c r="AC457">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41248,7 +41248,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7670246</v>
+        <v>7670251</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41260,76 +41260,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F458" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G458" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H458">
         <v>1</v>
       </c>
       <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458" t="s">
+        <v>62</v>
+      </c>
+      <c r="K458">
+        <v>1.666</v>
+      </c>
+      <c r="L458">
+        <v>3.8</v>
+      </c>
+      <c r="M458">
+        <v>5</v>
+      </c>
+      <c r="N458">
+        <v>1.615</v>
+      </c>
+      <c r="O458">
+        <v>3.75</v>
+      </c>
+      <c r="P458">
+        <v>6</v>
+      </c>
+      <c r="Q458">
+        <v>-0.75</v>
+      </c>
+      <c r="R458">
+        <v>1.8</v>
+      </c>
+      <c r="S458">
+        <v>2.05</v>
+      </c>
+      <c r="T458">
+        <v>2</v>
+      </c>
+      <c r="U458">
+        <v>1.85</v>
+      </c>
+      <c r="V458">
+        <v>2</v>
+      </c>
+      <c r="W458">
+        <v>0.615</v>
+      </c>
+      <c r="X458">
+        <v>-1</v>
+      </c>
+      <c r="Y458">
+        <v>-1</v>
+      </c>
+      <c r="Z458">
+        <v>0.4</v>
+      </c>
+      <c r="AA458">
+        <v>-0.5</v>
+      </c>
+      <c r="AB458">
+        <v>-1</v>
+      </c>
+      <c r="AC458">
         <v>1</v>
-      </c>
-      <c r="J458" t="s">
-        <v>61</v>
-      </c>
-      <c r="K458">
-        <v>2.5</v>
-      </c>
-      <c r="L458">
-        <v>3</v>
-      </c>
-      <c r="M458">
-        <v>2.9</v>
-      </c>
-      <c r="N458">
-        <v>2.3</v>
-      </c>
-      <c r="O458">
-        <v>3.1</v>
-      </c>
-      <c r="P458">
-        <v>3.1</v>
-      </c>
-      <c r="Q458">
-        <v>-0.25</v>
-      </c>
-      <c r="R458">
-        <v>1.975</v>
-      </c>
-      <c r="S458">
-        <v>1.875</v>
-      </c>
-      <c r="T458">
-        <v>2.25</v>
-      </c>
-      <c r="U458">
-        <v>2.1</v>
-      </c>
-      <c r="V458">
-        <v>1.775</v>
-      </c>
-      <c r="W458">
-        <v>-1</v>
-      </c>
-      <c r="X458">
-        <v>2.1</v>
-      </c>
-      <c r="Y458">
-        <v>-1</v>
-      </c>
-      <c r="Z458">
-        <v>-0.5</v>
-      </c>
-      <c r="AA458">
-        <v>0.4375</v>
-      </c>
-      <c r="AB458">
-        <v>-0.5</v>
-      </c>
-      <c r="AC458">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41337,7 +41337,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7670260</v>
+        <v>7670265</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41349,58 +41349,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G459" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" t="s">
         <v>62</v>
       </c>
       <c r="K459">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L459">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M459">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N459">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O459">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P459">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q459">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S459">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T459">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U459">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V459">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W459">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41409,16 +41409,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC459">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41426,7 +41426,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7670265</v>
+        <v>7670260</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41438,58 +41438,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G460" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" t="s">
         <v>62</v>
       </c>
       <c r="K460">
+        <v>4.5</v>
+      </c>
+      <c r="L460">
+        <v>3.3</v>
+      </c>
+      <c r="M460">
+        <v>1.85</v>
+      </c>
+      <c r="N460">
+        <v>3.2</v>
+      </c>
+      <c r="O460">
         <v>3.1</v>
       </c>
-      <c r="L460">
-        <v>3</v>
-      </c>
-      <c r="M460">
-        <v>2.45</v>
-      </c>
-      <c r="N460">
-        <v>2.15</v>
-      </c>
-      <c r="O460">
-        <v>3.25</v>
-      </c>
       <c r="P460">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q460">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R460">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S460">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T460">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U460">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V460">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W460">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="X460">
         <v>-1</v>
@@ -41498,16 +41498,16 @@
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA460">
         <v>-1</v>
       </c>
       <c r="AB460">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC460">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -42939,7 +42939,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7670284</v>
+        <v>7670279</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42951,49 +42951,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G477" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J477" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K477">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L477">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M477">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N477">
+        <v>1.727</v>
+      </c>
+      <c r="O477">
+        <v>3.5</v>
+      </c>
+      <c r="P477">
+        <v>5.5</v>
+      </c>
+      <c r="Q477">
+        <v>-0.75</v>
+      </c>
+      <c r="R477">
+        <v>1.975</v>
+      </c>
+      <c r="S477">
+        <v>1.875</v>
+      </c>
+      <c r="T477">
         <v>2.25</v>
-      </c>
-      <c r="O477">
-        <v>3.1</v>
-      </c>
-      <c r="P477">
-        <v>3.5</v>
-      </c>
-      <c r="Q477">
-        <v>-0.25</v>
-      </c>
-      <c r="R477">
-        <v>1.875</v>
-      </c>
-      <c r="S477">
-        <v>1.975</v>
-      </c>
-      <c r="T477">
-        <v>2</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -43002,25 +43002,25 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X477">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
+        <v>-1</v>
+      </c>
+      <c r="AA477">
         <v>0.875</v>
       </c>
-      <c r="AA477">
-        <v>-1</v>
-      </c>
       <c r="AB477">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC477">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43028,7 +43028,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7670279</v>
+        <v>7670284</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43040,49 +43040,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F478" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G478" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K478">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L478">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M478">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N478">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O478">
+        <v>3.1</v>
+      </c>
+      <c r="P478">
         <v>3.5</v>
       </c>
-      <c r="P478">
-        <v>5.5</v>
-      </c>
       <c r="Q478">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R478">
+        <v>1.875</v>
+      </c>
+      <c r="S478">
         <v>1.975</v>
       </c>
-      <c r="S478">
-        <v>1.875</v>
-      </c>
       <c r="T478">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U478">
         <v>1.95</v>
@@ -43091,25 +43091,25 @@
         <v>1.9</v>
       </c>
       <c r="W478">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X478">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y478">
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA478">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43384,7 +43384,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7670275</v>
+        <v>7670278</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43396,10 +43396,10 @@
         <v>45368.875</v>
       </c>
       <c r="F482" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G482" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43411,61 +43411,61 @@
         <v>61</v>
       </c>
       <c r="K482">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L482">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M482">
+        <v>2.375</v>
+      </c>
+      <c r="N482">
         <v>2.9</v>
       </c>
-      <c r="N482">
-        <v>2.3</v>
-      </c>
       <c r="O482">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P482">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R482">
+        <v>2.1</v>
+      </c>
+      <c r="S482">
+        <v>1.775</v>
+      </c>
+      <c r="T482">
+        <v>2</v>
+      </c>
+      <c r="U482">
+        <v>1.9</v>
+      </c>
+      <c r="V482">
         <v>1.95</v>
       </c>
-      <c r="S482">
-        <v>1.9</v>
-      </c>
-      <c r="T482">
-        <v>2</v>
-      </c>
-      <c r="U482">
-        <v>1.875</v>
-      </c>
-      <c r="V482">
-        <v>1.975</v>
-      </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA482">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43473,7 +43473,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7670278</v>
+        <v>7670275</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43485,10 +43485,10 @@
         <v>45368.875</v>
       </c>
       <c r="F483" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G483" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -43500,61 +43500,61 @@
         <v>61</v>
       </c>
       <c r="K483">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L483">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M483">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N483">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O483">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P483">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R483">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S483">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T483">
         <v>2</v>
       </c>
       <c r="U483">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V483">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y483">
         <v>-1</v>
       </c>
       <c r="Z483">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA483">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -44719,7 +44719,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7978107</v>
+        <v>7977955</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44731,76 +44731,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F497" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G497" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497">
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K497">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L497">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M497">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N497">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O497">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P497">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q497">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R497">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S497">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T497">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U497">
+        <v>1.825</v>
+      </c>
+      <c r="V497">
         <v>2.025</v>
       </c>
-      <c r="V497">
-        <v>1.825</v>
-      </c>
       <c r="W497">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA497">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB497">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC497">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:29">
@@ -44808,7 +44808,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7977955</v>
+        <v>7978107</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44820,76 +44820,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G498" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498">
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K498">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L498">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M498">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N498">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O498">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P498">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q498">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R498">
+        <v>1.75</v>
+      </c>
+      <c r="S498">
+        <v>2.125</v>
+      </c>
+      <c r="T498">
+        <v>1.75</v>
+      </c>
+      <c r="U498">
+        <v>2.025</v>
+      </c>
+      <c r="V498">
         <v>1.825</v>
       </c>
-      <c r="S498">
-        <v>2.025</v>
-      </c>
-      <c r="T498">
-        <v>2</v>
-      </c>
-      <c r="U498">
-        <v>1.825</v>
-      </c>
-      <c r="V498">
-        <v>2.025</v>
-      </c>
       <c r="W498">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z498">
+        <v>-1</v>
+      </c>
+      <c r="AA498">
+        <v>1.125</v>
+      </c>
+      <c r="AB498">
+        <v>-1</v>
+      </c>
+      <c r="AC498">
         <v>0.825</v>
-      </c>
-      <c r="AA498">
-        <v>-1</v>
-      </c>
-      <c r="AB498">
-        <v>0.825</v>
-      </c>
-      <c r="AC498">
-        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -45173,7 +45173,7 @@
         <v>30</v>
       </c>
       <c r="E502" s="2">
-        <v>45387.79166666666</v>
+        <v>45387.8125</v>
       </c>
       <c r="F502" t="s">
         <v>51</v>
@@ -45191,31 +45191,31 @@
         <v>3.6</v>
       </c>
       <c r="N502">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O502">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P502">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q502">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R502">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S502">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T502">
         <v>2.25</v>
       </c>
       <c r="U502">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V502">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W502">
         <v>0</v>
@@ -45277,19 +45277,19 @@
         <v>0</v>
       </c>
       <c r="R503">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S503">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T503">
         <v>1.75</v>
       </c>
       <c r="U503">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V503">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W503">
         <v>0</v>
@@ -45339,22 +45339,22 @@
         <v>2.625</v>
       </c>
       <c r="N504">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O504">
         <v>3.1</v>
       </c>
       <c r="P504">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q504">
         <v>0</v>
       </c>
       <c r="R504">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S504">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T504">
         <v>1.75</v>
@@ -45386,7 +45386,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>7670299</v>
+        <v>7670302</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45398,46 +45398,46 @@
         <v>45388.80208333334</v>
       </c>
       <c r="F505" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G505" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K505">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L505">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M505">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N505">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O505">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P505">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q505">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R505">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S505">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T505">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U505">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V505">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W505">
         <v>0</v>
@@ -45460,7 +45460,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>7670302</v>
+        <v>7670299</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45472,46 +45472,46 @@
         <v>45388.80208333334</v>
       </c>
       <c r="F506" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G506" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K506">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L506">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M506">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N506">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O506">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P506">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q506">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R506">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S506">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T506">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V506">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W506">
         <v>0</v>
@@ -45534,7 +45534,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7670312</v>
+        <v>7670300</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45546,46 +45546,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F507" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G507" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K507">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L507">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M507">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N507">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O507">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P507">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q507">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R507">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S507">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T507">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U507">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V507">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W507">
         <v>0</v>
@@ -45608,7 +45608,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7670300</v>
+        <v>7670312</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45620,31 +45620,31 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F508" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G508" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K508">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L508">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M508">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N508">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="O508">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P508">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q508">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R508">
         <v>1.975</v>
@@ -45653,13 +45653,13 @@
         <v>1.875</v>
       </c>
       <c r="T508">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U508">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V508">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W508">
         <v>0</v>
@@ -45682,7 +45682,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7670307</v>
+        <v>7670310</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45694,46 +45694,46 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F509" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G509" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K509">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L509">
         <v>3</v>
       </c>
       <c r="M509">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N509">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O509">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P509">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q509">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R509">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S509">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T509">
         <v>2</v>
       </c>
       <c r="U509">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V509">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W509">
         <v>0</v>
@@ -45756,7 +45756,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7670310</v>
+        <v>7670307</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45768,46 +45768,46 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F510" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G510" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K510">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L510">
         <v>3</v>
       </c>
       <c r="M510">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N510">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O510">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P510">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R510">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S510">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T510">
         <v>2</v>
       </c>
       <c r="U510">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V510">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W510">
         <v>0</v>
@@ -45863,7 +45863,7 @@
         <v>3.4</v>
       </c>
       <c r="P511">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q511">
         <v>-0.5</v>
@@ -45931,7 +45931,7 @@
         <v>6</v>
       </c>
       <c r="N512">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O512">
         <v>4.5</v>
@@ -45943,10 +45943,10 @@
         <v>-1.25</v>
       </c>
       <c r="R512">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S512">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T512">
         <v>2.5</v>
@@ -46017,10 +46017,10 @@
         <v>0.25</v>
       </c>
       <c r="R513">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S513">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T513">
         <v>1.75</v>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -169,10 +169,10 @@
     <t>Banfield</t>
   </si>
   <si>
-    <t>Instituto AC Cordoba</t>
+    <t>Velez Sarsfield</t>
   </si>
   <si>
-    <t>Velez Sarsfield</t>
+    <t>Instituto AC Cordoba</t>
   </si>
   <si>
     <t>Colon</t>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC524"/>
+  <dimension ref="A1:AC529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -2533,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6120066</v>
+        <v>6120069</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2548,73 +2548,73 @@
         <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
         <v>2.8</v>
       </c>
-      <c r="N23">
-        <v>2.2</v>
-      </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2622,7 +2622,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6120069</v>
+        <v>6120066</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3171,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3527,7 +3527,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3705,7 +3705,7 @@
         <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4681,7 +4681,7 @@
         <v>45107.89583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -5393,7 +5393,7 @@
         <v>45109.79166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -5470,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6120094</v>
+        <v>6120871</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5482,10 +5482,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5497,43 +5497,43 @@
         <v>62</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M56">
+        <v>3.5</v>
+      </c>
+      <c r="N56">
+        <v>1.95</v>
+      </c>
+      <c r="O56">
+        <v>3.25</v>
+      </c>
+      <c r="P56">
+        <v>4.2</v>
+      </c>
+      <c r="Q56">
+        <v>-0.5</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="N56">
-        <v>3.2</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>2.45</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
+        <v>2.025</v>
+      </c>
+      <c r="V56">
         <v>1.825</v>
       </c>
-      <c r="S56">
-        <v>2.025</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5542,16 +5542,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>1.05</v>
+      </c>
+      <c r="AA56">
+        <v>-1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.825</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>-1</v>
-      </c>
-      <c r="AC56">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5559,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6120871</v>
+        <v>6120094</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5571,10 +5571,10 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5586,43 +5586,43 @@
         <v>62</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
+        <v>2.875</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
         <v>3</v>
       </c>
-      <c r="M57">
-        <v>3.5</v>
-      </c>
-      <c r="N57">
+      <c r="P57">
+        <v>2.45</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="O57">
-        <v>3.25</v>
-      </c>
-      <c r="P57">
-        <v>4.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.8</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>2.025</v>
-      </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5631,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5640,7 +5640,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5841,7 +5841,7 @@
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7262,7 +7262,7 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
         <v>35</v>
@@ -7440,7 +7440,7 @@
         <v>45116.75</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
@@ -8318,7 +8318,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6120136</v>
+        <v>6120135</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8330,76 +8330,76 @@
         <v>45121.79166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>61</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O88">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>1.75</v>
+      </c>
+      <c r="U88">
+        <v>2.025</v>
+      </c>
+      <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>1.8</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>-0</v>
+      </c>
+      <c r="AB88">
+        <v>0.5125</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>2.05</v>
-      </c>
-      <c r="S88">
-        <v>1.75</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.25</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.75</v>
-      </c>
-      <c r="AB88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8407,7 +8407,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6120135</v>
+        <v>6120136</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8419,76 +8419,76 @@
         <v>45121.79166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>61</v>
       </c>
       <c r="K89">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9401,7 +9401,7 @@
         <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10110,7 +10110,7 @@
         <v>45131.6875</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10733,7 +10733,7 @@
         <v>45132.85416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10810,7 +10810,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6120168</v>
+        <v>6120162</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10822,76 +10822,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10899,7 +10899,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6120162</v>
+        <v>6120168</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10911,76 +10911,76 @@
         <v>45135.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K117">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
         <v>3</v>
       </c>
       <c r="M117">
+        <v>3.6</v>
+      </c>
+      <c r="N117">
+        <v>2.625</v>
+      </c>
+      <c r="O117">
+        <v>2.9</v>
+      </c>
+      <c r="P117">
         <v>3</v>
       </c>
-      <c r="N117">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="O117">
-        <v>3.5</v>
-      </c>
-      <c r="P117">
-        <v>4.5</v>
-      </c>
-      <c r="Q117">
-        <v>-0.5</v>
-      </c>
-      <c r="R117">
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>2.05</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2.05</v>
-      </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC117">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10988,7 +10988,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6120159</v>
+        <v>6120169</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11000,76 +11000,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>61</v>
       </c>
       <c r="K118">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>1.75</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AB118">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11077,7 +11077,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6120169</v>
+        <v>6120159</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11089,76 +11089,76 @@
         <v>45135.79166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>61</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>1.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.425</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="AA119">
-        <v>0.4125</v>
-      </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11611,7 +11611,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6961142</v>
+        <v>6120166</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11623,10 +11623,10 @@
         <v>45137.625</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11638,43 +11638,43 @@
         <v>62</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11700,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6120166</v>
+        <v>6961142</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11712,10 +11712,10 @@
         <v>45137.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11727,43 +11727,43 @@
         <v>62</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11789,7 +11789,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6120161</v>
+        <v>6120160</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11801,76 +11801,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K127">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M127">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O127">
         <v>2.8</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
         <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>1.75</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6120160</v>
+        <v>6120161</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11890,76 +11890,76 @@
         <v>45137.72916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L128">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O128">
         <v>2.8</v>
       </c>
       <c r="P128">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T128">
         <v>1.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AA128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11982,7 +11982,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -12513,7 +12513,7 @@
         <v>45157.875</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G135" t="s">
         <v>44</v>
@@ -12605,7 +12605,7 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14385,7 +14385,7 @@
         <v>55</v>
       </c>
       <c r="G156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14916,7 +14916,7 @@
         <v>45171.89583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G162" t="s">
         <v>57</v>
@@ -15094,7 +15094,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G164" t="s">
         <v>50</v>
@@ -15809,7 +15809,7 @@
         <v>56</v>
       </c>
       <c r="G172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -16328,7 +16328,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7137524</v>
+        <v>7137513</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16340,76 +16340,76 @@
         <v>45184.875</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M178">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>1.75</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
         <v>2.05</v>
       </c>
-      <c r="S178">
-        <v>1.8</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>1.05</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16417,7 +16417,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7137513</v>
+        <v>7137524</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16429,76 +16429,76 @@
         <v>45184.875</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.3</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
+        <v>2.375</v>
+      </c>
+      <c r="O179">
         <v>3.2</v>
       </c>
-      <c r="L179">
-        <v>2.9</v>
-      </c>
-      <c r="M179">
-        <v>2.375</v>
-      </c>
-      <c r="N179">
-        <v>3.5</v>
-      </c>
-      <c r="O179">
-        <v>3</v>
-      </c>
       <c r="P179">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.875</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>1.75</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2.05</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16788,7 +16788,7 @@
         <v>48</v>
       </c>
       <c r="G183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17574,7 +17574,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7179016</v>
+        <v>7178903</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17586,76 +17586,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K192">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M192">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N192">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P192">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
+        <v>1.9</v>
+      </c>
+      <c r="S192">
         <v>1.95</v>
       </c>
-      <c r="S192">
+      <c r="T192">
+        <v>1.75</v>
+      </c>
+      <c r="U192">
+        <v>1.925</v>
+      </c>
+      <c r="V192">
+        <v>1.925</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
         <v>1.9</v>
       </c>
-      <c r="T192">
-        <v>2</v>
-      </c>
-      <c r="U192">
-        <v>2.05</v>
-      </c>
-      <c r="V192">
-        <v>1.8</v>
-      </c>
-      <c r="W192">
-        <v>0.7</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>-0.5</v>
+      </c>
+      <c r="AA192">
         <v>0.475</v>
       </c>
-      <c r="AA192">
-        <v>-0.5</v>
-      </c>
       <c r="AB192">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17663,7 +17663,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7178903</v>
+        <v>7179016</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17675,76 +17675,76 @@
         <v>45189.77083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K193">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
+        <v>5</v>
+      </c>
+      <c r="N193">
+        <v>1.7</v>
+      </c>
+      <c r="O193">
         <v>3.4</v>
       </c>
-      <c r="N193">
-        <v>2.2</v>
-      </c>
-      <c r="O193">
-        <v>2.9</v>
-      </c>
       <c r="P193">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
         <v>1.9</v>
       </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
       <c r="T193">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X193">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>0.475</v>
+      </c>
+      <c r="AA193">
         <v>-0.5</v>
       </c>
-      <c r="AA193">
-        <v>0.475</v>
-      </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17764,7 +17764,7 @@
         <v>45189.875</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G194" t="s">
         <v>53</v>
@@ -18568,7 +18568,7 @@
         <v>58</v>
       </c>
       <c r="G203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18657,7 +18657,7 @@
         <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -19547,7 +19547,7 @@
         <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -20526,7 +20526,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20600,7 +20600,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7031981</v>
+        <v>7031985</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20612,10 +20612,10 @@
         <v>45201.875</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20627,40 +20627,40 @@
         <v>61</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O226">
         <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T226">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20672,16 +20672,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20689,7 +20689,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7031985</v>
+        <v>7031981</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20701,10 +20701,10 @@
         <v>45201.875</v>
       </c>
       <c r="F227" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20716,40 +20716,40 @@
         <v>61</v>
       </c>
       <c r="K227">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
         <v>3.1</v>
       </c>
       <c r="P227">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20761,16 +20761,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA227">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21324,7 +21324,7 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G234" t="s">
         <v>56</v>
@@ -21858,7 +21858,7 @@
         <v>45208.85416666666</v>
       </c>
       <c r="F240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G240" t="s">
         <v>55</v>
@@ -22751,7 +22751,7 @@
         <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23107,7 +23107,7 @@
         <v>58</v>
       </c>
       <c r="G254" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23371,7 +23371,7 @@
         <v>45222.875</v>
       </c>
       <c r="F257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G257" t="s">
         <v>50</v>
@@ -23816,7 +23816,7 @@
         <v>45223.89583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G262" t="s">
         <v>37</v>
@@ -24617,10 +24617,10 @@
         <v>45227.89583333334</v>
       </c>
       <c r="F271" t="s">
+        <v>52</v>
+      </c>
+      <c r="G271" t="s">
         <v>51</v>
-      </c>
-      <c r="G271" t="s">
-        <v>52</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>34</v>
       </c>
       <c r="G286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -26130,7 +26130,7 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G288" t="s">
         <v>48</v>
@@ -27201,7 +27201,7 @@
         <v>34</v>
       </c>
       <c r="G300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -27898,7 +27898,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7447895</v>
+        <v>7032025</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27910,76 +27910,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M308">
+        <v>3.9</v>
+      </c>
+      <c r="N308">
+        <v>1.909</v>
+      </c>
+      <c r="O308">
+        <v>3</v>
+      </c>
+      <c r="P308">
         <v>5</v>
       </c>
-      <c r="N308">
-        <v>2.625</v>
-      </c>
-      <c r="O308">
-        <v>2.8</v>
-      </c>
-      <c r="P308">
-        <v>3.1</v>
-      </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
         <v>2.1</v>
       </c>
-      <c r="S308">
-        <v>1.7</v>
-      </c>
-      <c r="T308">
-        <v>1.75</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W308">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27987,7 +27987,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7032025</v>
+        <v>7447895</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27999,76 +27999,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K309">
+        <v>1.8</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <v>5</v>
+      </c>
+      <c r="N309">
+        <v>2.625</v>
+      </c>
+      <c r="O309">
+        <v>2.8</v>
+      </c>
+      <c r="P309">
+        <v>3.1</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
         <v>2.1</v>
       </c>
-      <c r="L309">
-        <v>2.8</v>
-      </c>
-      <c r="M309">
-        <v>3.9</v>
-      </c>
-      <c r="N309">
-        <v>1.909</v>
-      </c>
-      <c r="O309">
-        <v>3</v>
-      </c>
-      <c r="P309">
-        <v>5</v>
-      </c>
-      <c r="Q309">
-        <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>1.9</v>
-      </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X309">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28177,7 +28177,7 @@
         <v>45243.875</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G311" t="s">
         <v>44</v>
@@ -28444,7 +28444,7 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G314" t="s">
         <v>53</v>
@@ -28610,7 +28610,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7475397</v>
+        <v>7475420</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28622,13 +28622,13 @@
         <v>45256.75</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G316" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -28637,40 +28637,40 @@
         <v>63</v>
       </c>
       <c r="K316">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L316">
+        <v>2.9</v>
+      </c>
+      <c r="M316">
+        <v>3.5</v>
+      </c>
+      <c r="N316">
+        <v>2.625</v>
+      </c>
+      <c r="O316">
+        <v>2.75</v>
+      </c>
+      <c r="P316">
         <v>3.2</v>
       </c>
-      <c r="M316">
-        <v>1.909</v>
-      </c>
-      <c r="N316">
-        <v>4.5</v>
-      </c>
-      <c r="O316">
-        <v>3.5</v>
-      </c>
-      <c r="P316">
-        <v>1.8</v>
-      </c>
       <c r="Q316">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S316">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W316">
         <v>-1</v>
@@ -28679,19 +28679,19 @@
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB316">
+        <v>0.425</v>
+      </c>
+      <c r="AC316">
         <v>-0.5</v>
-      </c>
-      <c r="AA316">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB316">
-        <v>0.8</v>
-      </c>
-      <c r="AC316">
-        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475420</v>
+        <v>7475397</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,13 +28711,13 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>2</v>
@@ -28726,40 +28726,40 @@
         <v>63</v>
       </c>
       <c r="K317">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L317">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
+        <v>1.909</v>
+      </c>
+      <c r="N317">
+        <v>4.5</v>
+      </c>
+      <c r="O317">
         <v>3.5</v>
       </c>
-      <c r="N317">
-        <v>2.625</v>
-      </c>
-      <c r="O317">
-        <v>2.75</v>
-      </c>
       <c r="P317">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R317">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S317">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
         <v>-1</v>
@@ -28768,19 +28768,19 @@
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB317">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28892,7 +28892,7 @@
         <v>57</v>
       </c>
       <c r="G319" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7475439</v>
+        <v>7475444</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29067,40 +29067,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G321" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K321">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L321">
+        <v>3.1</v>
+      </c>
+      <c r="M321">
+        <v>3.5</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321">
         <v>3.2</v>
       </c>
-      <c r="M321">
-        <v>4.333</v>
-      </c>
-      <c r="N321">
-        <v>1.7</v>
-      </c>
-      <c r="O321">
-        <v>3.4</v>
-      </c>
       <c r="P321">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R321">
         <v>2.05</v>
@@ -29109,34 +29109,34 @@
         <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X321">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA321">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
+        <v>0.45</v>
+      </c>
+      <c r="AC321">
         <v>-0.5</v>
-      </c>
-      <c r="AC321">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29144,7 +29144,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7475444</v>
+        <v>7475439</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29156,40 +29156,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K322">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N322">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R322">
         <v>2.05</v>
@@ -29198,34 +29198,34 @@
         <v>1.8</v>
       </c>
       <c r="T322">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB322">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC322">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29233,7 +29233,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7475440</v>
+        <v>7475443</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29245,46 +29245,46 @@
         <v>45257.89583333334</v>
       </c>
       <c r="F323" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G323" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
         <v>62</v>
       </c>
       <c r="K323">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L323">
+        <v>2.5</v>
+      </c>
+      <c r="M323">
+        <v>3.4</v>
+      </c>
+      <c r="N323">
+        <v>2</v>
+      </c>
+      <c r="O323">
         <v>3.2</v>
       </c>
-      <c r="M323">
-        <v>3</v>
-      </c>
-      <c r="N323">
-        <v>1.666</v>
-      </c>
-      <c r="O323">
-        <v>3.6</v>
-      </c>
       <c r="P323">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q323">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S323">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T323">
         <v>2.25</v>
@@ -29293,10 +29293,10 @@
         <v>2.05</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W323">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29305,7 +29305,7 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA323">
         <v>-1</v>
@@ -29322,7 +29322,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7475443</v>
+        <v>7475440</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29334,46 +29334,46 @@
         <v>45257.89583333334</v>
       </c>
       <c r="F324" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G324" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H324">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>62</v>
       </c>
       <c r="K324">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L324">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M324">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N324">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O324">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q324">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R324">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S324">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T324">
         <v>2.25</v>
@@ -29382,10 +29382,10 @@
         <v>2.05</v>
       </c>
       <c r="V324">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29394,7 +29394,7 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA324">
         <v>-1</v>
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G334" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L334">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O334">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R334">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G335" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
+        <v>1.909</v>
+      </c>
+      <c r="L335">
+        <v>3.3</v>
+      </c>
+      <c r="M335">
+        <v>4.333</v>
+      </c>
+      <c r="N335">
         <v>2.3</v>
       </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
-      <c r="M335">
-        <v>3.2</v>
-      </c>
-      <c r="N335">
-        <v>1.8</v>
-      </c>
       <c r="O335">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P335">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q335">
+        <v>-0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.925</v>
+      </c>
+      <c r="S335">
+        <v>1.925</v>
+      </c>
+      <c r="T335">
+        <v>1.75</v>
+      </c>
+      <c r="U335">
+        <v>1.925</v>
+      </c>
+      <c r="V335">
+        <v>1.925</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>1.875</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
         <v>-0.5</v>
       </c>
-      <c r="R335">
-        <v>1.85</v>
-      </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
-      <c r="U335">
-        <v>2.05</v>
-      </c>
-      <c r="V335">
-        <v>1.8</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>2.4</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
       <c r="AA335">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30583,7 +30583,7 @@
         <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -31470,7 +31470,7 @@
         <v>45320.875</v>
       </c>
       <c r="F348" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G348" t="s">
         <v>55</v>
@@ -31636,7 +31636,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7669968</v>
+        <v>7669966</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31648,76 +31648,76 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F350" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G350" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K350">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L350">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M350">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N350">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O350">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P350">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R350">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S350">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T350">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U350">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V350">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC350">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31725,7 +31725,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7669966</v>
+        <v>7669968</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31737,76 +31737,76 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F351" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G351" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K351">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L351">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M351">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N351">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O351">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P351">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q351">
+        <v>-0.25</v>
+      </c>
+      <c r="R351">
+        <v>1.875</v>
+      </c>
+      <c r="S351">
+        <v>1.975</v>
+      </c>
+      <c r="T351">
+        <v>1.75</v>
+      </c>
+      <c r="U351">
+        <v>1.875</v>
+      </c>
+      <c r="V351">
+        <v>1.975</v>
+      </c>
+      <c r="W351">
+        <v>-1</v>
+      </c>
+      <c r="X351">
+        <v>1.9</v>
+      </c>
+      <c r="Y351">
+        <v>-1</v>
+      </c>
+      <c r="Z351">
         <v>-0.5</v>
       </c>
-      <c r="R351">
-        <v>1.825</v>
-      </c>
-      <c r="S351">
-        <v>2.025</v>
-      </c>
-      <c r="T351">
-        <v>2</v>
-      </c>
-      <c r="U351">
-        <v>2.05</v>
-      </c>
-      <c r="V351">
-        <v>1.8</v>
-      </c>
-      <c r="W351">
-        <v>-1</v>
-      </c>
-      <c r="X351">
-        <v>-1</v>
-      </c>
-      <c r="Y351">
-        <v>3.75</v>
-      </c>
-      <c r="Z351">
-        <v>-1</v>
-      </c>
       <c r="AA351">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB351">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31826,7 +31826,7 @@
         <v>45321.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G352" t="s">
         <v>45</v>
@@ -32526,7 +32526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7669976</v>
+        <v>7669973</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32538,40 +32538,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F360" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>0</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
         <v>63</v>
       </c>
       <c r="K360">
+        <v>2.875</v>
+      </c>
+      <c r="L360">
         <v>2.9</v>
       </c>
-      <c r="L360">
-        <v>3</v>
-      </c>
       <c r="M360">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N360">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O360">
         <v>3</v>
       </c>
       <c r="P360">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q360">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R360">
         <v>1.8</v>
@@ -32583,10 +32583,10 @@
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W360">
         <v>-1</v>
@@ -32595,7 +32595,7 @@
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z360">
         <v>-1</v>
@@ -32604,10 +32604,10 @@
         <v>1.05</v>
       </c>
       <c r="AB360">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32615,7 +32615,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7669973</v>
+        <v>7669976</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32627,40 +32627,40 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G361" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H361">
         <v>0</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
         <v>63</v>
       </c>
       <c r="K361">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L361">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M361">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N361">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="O361">
         <v>3</v>
       </c>
       <c r="P361">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R361">
         <v>1.8</v>
@@ -32672,10 +32672,10 @@
         <v>1.75</v>
       </c>
       <c r="U361">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -32684,7 +32684,7 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z361">
         <v>-1</v>
@@ -32693,10 +32693,10 @@
         <v>1.05</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC361">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33075,7 +33075,7 @@
         <v>57</v>
       </c>
       <c r="G366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H366">
         <v>5</v>
@@ -33698,7 +33698,7 @@
         <v>50</v>
       </c>
       <c r="G373" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7670002</v>
+        <v>7670000</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34140,76 +34140,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K378">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L378">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M378">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O378">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P378">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q378">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T378">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U378">
+        <v>1.8</v>
+      </c>
+      <c r="V378">
         <v>2.05</v>
       </c>
-      <c r="V378">
-        <v>1.8</v>
-      </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34217,7 +34217,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7670000</v>
+        <v>7670002</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34229,76 +34229,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K379">
+        <v>2.75</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379">
+        <v>2.75</v>
+      </c>
+      <c r="N379">
+        <v>3.2</v>
+      </c>
+      <c r="O379">
+        <v>2.625</v>
+      </c>
+      <c r="P379">
+        <v>2.7</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
+        <v>1.775</v>
+      </c>
+      <c r="T379">
+        <v>1.75</v>
+      </c>
+      <c r="U379">
+        <v>2.05</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="L379">
-        <v>3.6</v>
-      </c>
-      <c r="M379">
-        <v>4.5</v>
-      </c>
-      <c r="N379">
-        <v>1.666</v>
-      </c>
-      <c r="O379">
-        <v>3.8</v>
-      </c>
-      <c r="P379">
-        <v>5</v>
-      </c>
-      <c r="Q379">
-        <v>-0.75</v>
-      </c>
-      <c r="R379">
-        <v>1.9</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>2</v>
-      </c>
-      <c r="U379">
-        <v>1.8</v>
-      </c>
-      <c r="V379">
-        <v>2.05</v>
-      </c>
       <c r="W379">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34318,7 +34318,7 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F380" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G380" t="s">
         <v>56</v>
@@ -35119,7 +35119,7 @@
         <v>45334.79166666666</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G389" t="s">
         <v>48</v>
@@ -35463,7 +35463,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7817098</v>
+        <v>7670012</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35475,76 +35475,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K393">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L393">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M393">
+        <v>3.75</v>
+      </c>
+      <c r="N393">
+        <v>1.95</v>
+      </c>
+      <c r="O393">
+        <v>3.25</v>
+      </c>
+      <c r="P393">
         <v>4.333</v>
       </c>
-      <c r="N393">
-        <v>2.15</v>
-      </c>
-      <c r="O393">
-        <v>2.9</v>
-      </c>
-      <c r="P393">
-        <v>4</v>
-      </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S393">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T393">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U393">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V393">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X393">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA393">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35552,7 +35552,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7670012</v>
+        <v>7817098</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35564,76 +35564,76 @@
         <v>45335.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394">
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L394">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M394">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N394">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O394">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P394">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q394">
+        <v>-0.25</v>
+      </c>
+      <c r="R394">
+        <v>1.8</v>
+      </c>
+      <c r="S394">
+        <v>2.05</v>
+      </c>
+      <c r="T394">
+        <v>1.75</v>
+      </c>
+      <c r="U394">
+        <v>1.825</v>
+      </c>
+      <c r="V394">
+        <v>2.025</v>
+      </c>
+      <c r="W394">
+        <v>-1</v>
+      </c>
+      <c r="X394">
+        <v>1.9</v>
+      </c>
+      <c r="Y394">
+        <v>-1</v>
+      </c>
+      <c r="Z394">
         <v>-0.5</v>
       </c>
-      <c r="R394">
-        <v>2.025</v>
-      </c>
-      <c r="S394">
-        <v>1.825</v>
-      </c>
-      <c r="T394">
-        <v>2</v>
-      </c>
-      <c r="U394">
-        <v>1.95</v>
-      </c>
-      <c r="V394">
-        <v>1.9</v>
-      </c>
-      <c r="W394">
-        <v>0.95</v>
-      </c>
-      <c r="X394">
-        <v>-1</v>
-      </c>
-      <c r="Y394">
-        <v>-1</v>
-      </c>
-      <c r="Z394">
+      <c r="AA394">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB394">
+        <v>-1</v>
+      </c>
+      <c r="AC394">
         <v>1.025</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>-1</v>
-      </c>
-      <c r="AC394">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -36101,7 +36101,7 @@
         <v>60</v>
       </c>
       <c r="G400" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H400">
         <v>1</v>
@@ -36279,7 +36279,7 @@
         <v>59</v>
       </c>
       <c r="G402" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -36721,7 +36721,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G407" t="s">
         <v>45</v>
@@ -36810,7 +36810,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G408" t="s">
         <v>58</v>
@@ -38412,7 +38412,7 @@
         <v>45347.91666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G426" t="s">
         <v>42</v>
@@ -38768,7 +38768,7 @@
         <v>45348.89583333334</v>
       </c>
       <c r="F430" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G430" t="s">
         <v>35</v>
@@ -38949,7 +38949,7 @@
         <v>56</v>
       </c>
       <c r="G432" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H432">
         <v>1</v>
@@ -39023,7 +39023,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7670052</v>
+        <v>7670055</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39035,76 +39035,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F433" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G433" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433" t="s">
+        <v>62</v>
+      </c>
+      <c r="K433">
+        <v>2.55</v>
+      </c>
+      <c r="L433">
+        <v>2.9</v>
+      </c>
+      <c r="M433">
+        <v>2.875</v>
+      </c>
+      <c r="N433">
+        <v>2.3</v>
+      </c>
+      <c r="O433">
         <v>3</v>
       </c>
-      <c r="J433" t="s">
-        <v>63</v>
-      </c>
-      <c r="K433">
+      <c r="P433">
         <v>3.6</v>
-      </c>
-      <c r="L433">
-        <v>3.05</v>
-      </c>
-      <c r="M433">
-        <v>2.1</v>
-      </c>
-      <c r="N433">
-        <v>2.55</v>
-      </c>
-      <c r="O433">
-        <v>2.875</v>
-      </c>
-      <c r="P433">
-        <v>3.2</v>
       </c>
       <c r="Q433">
         <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S433">
+        <v>1.9</v>
+      </c>
+      <c r="T433">
         <v>1.75</v>
       </c>
-      <c r="T433">
-        <v>2</v>
-      </c>
       <c r="U433">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V433">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA433">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AC433">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39112,7 +39112,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>7670055</v>
+        <v>7670052</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39124,76 +39124,76 @@
         <v>45351.88541666666</v>
       </c>
       <c r="F434" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G434" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J434" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K434">
+        <v>3.6</v>
+      </c>
+      <c r="L434">
+        <v>3.05</v>
+      </c>
+      <c r="M434">
+        <v>2.1</v>
+      </c>
+      <c r="N434">
         <v>2.55</v>
       </c>
-      <c r="L434">
-        <v>2.9</v>
-      </c>
-      <c r="M434">
+      <c r="O434">
         <v>2.875</v>
       </c>
-      <c r="N434">
-        <v>2.3</v>
-      </c>
-      <c r="O434">
-        <v>3</v>
-      </c>
       <c r="P434">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q434">
         <v>-0.25</v>
       </c>
       <c r="R434">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S434">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T434">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U434">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V434">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W434">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z434">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA434">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB434">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AC434">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39290,7 +39290,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7670060</v>
+        <v>7670050</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39302,76 +39302,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F436" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G436" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436">
         <v>0</v>
       </c>
       <c r="J436" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K436">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M436">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N436">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O436">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P436">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q436">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R436">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S436">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T436">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U436">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V436">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W436">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X436">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA436">
+        <v>-1</v>
+      </c>
+      <c r="AB436">
+        <v>0.45</v>
+      </c>
+      <c r="AC436">
         <v>-0.5</v>
-      </c>
-      <c r="AB436">
-        <v>-1</v>
-      </c>
-      <c r="AC436">
-        <v>0.875</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39379,7 +39379,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7670050</v>
+        <v>7670060</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39391,76 +39391,76 @@
         <v>45352.88541666666</v>
       </c>
       <c r="F437" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G437" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437">
         <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K437">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M437">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N437">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O437">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P437">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q437">
+        <v>0.25</v>
+      </c>
+      <c r="R437">
+        <v>2.025</v>
+      </c>
+      <c r="S437">
+        <v>1.825</v>
+      </c>
+      <c r="T437">
+        <v>2</v>
+      </c>
+      <c r="U437">
+        <v>1.975</v>
+      </c>
+      <c r="V437">
+        <v>1.875</v>
+      </c>
+      <c r="W437">
+        <v>-1</v>
+      </c>
+      <c r="X437">
+        <v>2</v>
+      </c>
+      <c r="Y437">
+        <v>-1</v>
+      </c>
+      <c r="Z437">
+        <v>0.5125</v>
+      </c>
+      <c r="AA437">
         <v>-0.5</v>
       </c>
-      <c r="R437">
-        <v>1.975</v>
-      </c>
-      <c r="S437">
-        <v>1.875</v>
-      </c>
-      <c r="T437">
-        <v>1.75</v>
-      </c>
-      <c r="U437">
-        <v>1.9</v>
-      </c>
-      <c r="V437">
-        <v>1.95</v>
-      </c>
-      <c r="W437">
-        <v>0.95</v>
-      </c>
-      <c r="X437">
-        <v>-1</v>
-      </c>
-      <c r="Y437">
-        <v>-1</v>
-      </c>
-      <c r="Z437">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA437">
-        <v>-1</v>
-      </c>
       <c r="AB437">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39572,7 +39572,7 @@
         <v>55</v>
       </c>
       <c r="G439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H439">
         <v>0</v>
@@ -40192,7 +40192,7 @@
         <v>45355.875</v>
       </c>
       <c r="F446" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G446" t="s">
         <v>58</v>
@@ -40459,7 +40459,7 @@
         <v>45356.89583333334</v>
       </c>
       <c r="F449" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G449" t="s">
         <v>37</v>
@@ -40625,7 +40625,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>7670249</v>
+        <v>7670247</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40637,76 +40637,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F451" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G451" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H451">
         <v>1</v>
       </c>
       <c r="I451">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J451" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K451">
+        <v>3</v>
+      </c>
+      <c r="L451">
+        <v>2.9</v>
+      </c>
+      <c r="M451">
+        <v>2.6</v>
+      </c>
+      <c r="N451">
+        <v>3.5</v>
+      </c>
+      <c r="O451">
+        <v>2.9</v>
+      </c>
+      <c r="P451">
+        <v>2.375</v>
+      </c>
+      <c r="Q451">
+        <v>0.25</v>
+      </c>
+      <c r="R451">
         <v>1.85</v>
       </c>
-      <c r="L451">
-        <v>3.3</v>
-      </c>
-      <c r="M451">
-        <v>4.6</v>
-      </c>
-      <c r="N451">
-        <v>1.75</v>
-      </c>
-      <c r="O451">
-        <v>3.2</v>
-      </c>
-      <c r="P451">
-        <v>6</v>
-      </c>
-      <c r="Q451">
-        <v>-0.75</v>
-      </c>
-      <c r="R451">
-        <v>2.05</v>
-      </c>
       <c r="S451">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T451">
         <v>2</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V451">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W451">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z451">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA451">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB451">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC451">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40714,7 +40714,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>7670247</v>
+        <v>7670249</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40726,76 +40726,76 @@
         <v>45357.80208333334</v>
       </c>
       <c r="F452" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G452" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H452">
         <v>1</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K452">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L452">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M452">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="N452">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O452">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P452">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q452">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R452">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S452">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T452">
         <v>2</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z452">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC452">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41337,7 +41337,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7670265</v>
+        <v>7670260</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41349,58 +41349,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G459" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>62</v>
       </c>
       <c r="K459">
+        <v>4.5</v>
+      </c>
+      <c r="L459">
+        <v>3.3</v>
+      </c>
+      <c r="M459">
+        <v>1.85</v>
+      </c>
+      <c r="N459">
+        <v>3.2</v>
+      </c>
+      <c r="O459">
         <v>3.1</v>
       </c>
-      <c r="L459">
-        <v>3</v>
-      </c>
-      <c r="M459">
-        <v>2.45</v>
-      </c>
-      <c r="N459">
-        <v>2.15</v>
-      </c>
-      <c r="O459">
-        <v>3.25</v>
-      </c>
       <c r="P459">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q459">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S459">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T459">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U459">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V459">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W459">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41409,16 +41409,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC459">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41426,7 +41426,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7670260</v>
+        <v>7670265</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41438,58 +41438,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="s">
         <v>62</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L460">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M460">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N460">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O460">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P460">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q460">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W460">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="X460">
         <v>-1</v>
@@ -41498,16 +41498,16 @@
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
         <v>-1</v>
       </c>
       <c r="AB460">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC460">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41708,7 +41708,7 @@
         <v>37</v>
       </c>
       <c r="G463" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H463">
         <v>1</v>
@@ -41782,7 +41782,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7670258</v>
+        <v>7670264</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41794,10 +41794,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G464" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41809,40 +41809,40 @@
         <v>61</v>
       </c>
       <c r="K464">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M464">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N464">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
         <v>3.1</v>
       </c>
       <c r="P464">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>1.85</v>
+      </c>
+      <c r="T464">
+        <v>2</v>
+      </c>
+      <c r="U464">
         <v>2.025</v>
       </c>
-      <c r="S464">
+      <c r="V464">
         <v>1.825</v>
-      </c>
-      <c r="T464">
-        <v>1.75</v>
-      </c>
-      <c r="U464">
-        <v>1.875</v>
-      </c>
-      <c r="V464">
-        <v>1.975</v>
       </c>
       <c r="W464">
         <v>-1</v>
@@ -41854,16 +41854,16 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB464">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41871,7 +41871,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7670264</v>
+        <v>7670258</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41883,10 +41883,10 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G465" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41898,40 +41898,40 @@
         <v>61</v>
       </c>
       <c r="K465">
+        <v>1.727</v>
+      </c>
+      <c r="L465">
         <v>3.4</v>
       </c>
-      <c r="L465">
-        <v>3</v>
-      </c>
       <c r="M465">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N465">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O465">
         <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S465">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T465">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U465">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41943,16 +41943,16 @@
         <v>-1</v>
       </c>
       <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.825</v>
+      </c>
+      <c r="AB465">
+        <v>0.4375</v>
+      </c>
+      <c r="AC465">
         <v>-0.5</v>
-      </c>
-      <c r="AA465">
-        <v>0.425</v>
-      </c>
-      <c r="AB465">
-        <v>0</v>
-      </c>
-      <c r="AC465">
-        <v>-0</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42420,7 +42420,7 @@
         <v>50</v>
       </c>
       <c r="G471" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H471">
         <v>1</v>
@@ -42939,7 +42939,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7670279</v>
+        <v>7670284</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42951,49 +42951,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G477" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J477" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K477">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L477">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M477">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N477">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O477">
+        <v>3.1</v>
+      </c>
+      <c r="P477">
         <v>3.5</v>
       </c>
-      <c r="P477">
-        <v>5.5</v>
-      </c>
       <c r="Q477">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R477">
+        <v>1.875</v>
+      </c>
+      <c r="S477">
         <v>1.975</v>
       </c>
-      <c r="S477">
-        <v>1.875</v>
-      </c>
       <c r="T477">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U477">
         <v>1.95</v>
@@ -43002,25 +43002,25 @@
         <v>1.9</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X477">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
         <v>-1</v>
       </c>
       <c r="Z477">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA477">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -43028,7 +43028,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7670284</v>
+        <v>7670279</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43040,49 +43040,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F478" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G478" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K478">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L478">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M478">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N478">
+        <v>1.727</v>
+      </c>
+      <c r="O478">
+        <v>3.5</v>
+      </c>
+      <c r="P478">
+        <v>5.5</v>
+      </c>
+      <c r="Q478">
+        <v>-0.75</v>
+      </c>
+      <c r="R478">
+        <v>1.975</v>
+      </c>
+      <c r="S478">
+        <v>1.875</v>
+      </c>
+      <c r="T478">
         <v>2.25</v>
-      </c>
-      <c r="O478">
-        <v>3.1</v>
-      </c>
-      <c r="P478">
-        <v>3.5</v>
-      </c>
-      <c r="Q478">
-        <v>-0.25</v>
-      </c>
-      <c r="R478">
-        <v>1.875</v>
-      </c>
-      <c r="S478">
-        <v>1.975</v>
-      </c>
-      <c r="T478">
-        <v>2</v>
       </c>
       <c r="U478">
         <v>1.95</v>
@@ -43091,25 +43091,25 @@
         <v>1.9</v>
       </c>
       <c r="W478">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X478">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y478">
         <v>-1</v>
       </c>
       <c r="Z478">
+        <v>-1</v>
+      </c>
+      <c r="AA478">
         <v>0.875</v>
       </c>
-      <c r="AA478">
-        <v>-1</v>
-      </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -44108,7 +44108,7 @@
         <v>45379.875</v>
       </c>
       <c r="F490" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G490" t="s">
         <v>34</v>
@@ -44185,7 +44185,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>7977954</v>
+        <v>7977851</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44197,76 +44197,76 @@
         <v>45380.75</v>
       </c>
       <c r="F491" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G491" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H491">
         <v>1</v>
       </c>
       <c r="I491">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J491" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K491">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L491">
         <v>3</v>
       </c>
       <c r="M491">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N491">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O491">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P491">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q491">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R491">
+        <v>1.875</v>
+      </c>
+      <c r="S491">
         <v>1.975</v>
-      </c>
-      <c r="S491">
-        <v>1.875</v>
       </c>
       <c r="T491">
         <v>2.25</v>
       </c>
       <c r="U491">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V491">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W491">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X491">
         <v>-1</v>
       </c>
       <c r="Y491">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z491">
+        <v>-1</v>
+      </c>
+      <c r="AA491">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA491">
-        <v>-1</v>
-      </c>
       <c r="AB491">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC491">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44274,7 +44274,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>7977851</v>
+        <v>7977954</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44286,76 +44286,76 @@
         <v>45380.75</v>
       </c>
       <c r="F492" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G492" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H492">
         <v>1</v>
       </c>
       <c r="I492">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J492" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K492">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L492">
         <v>3</v>
       </c>
       <c r="M492">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N492">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O492">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P492">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q492">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R492">
+        <v>1.975</v>
+      </c>
+      <c r="S492">
         <v>1.875</v>
-      </c>
-      <c r="S492">
-        <v>1.975</v>
       </c>
       <c r="T492">
         <v>2.25</v>
       </c>
       <c r="U492">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V492">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W492">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X492">
         <v>-1</v>
       </c>
       <c r="Y492">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z492">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA492">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB492">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC492">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -44645,7 +44645,7 @@
         <v>48</v>
       </c>
       <c r="G496" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H496">
         <v>1</v>
@@ -45176,7 +45176,7 @@
         <v>45387.8125</v>
       </c>
       <c r="F502" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G502" t="s">
         <v>34</v>
@@ -45609,7 +45609,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7670300</v>
+        <v>7670312</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45621,76 +45621,76 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F507" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G507" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K507">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L507">
+        <v>3.6</v>
+      </c>
+      <c r="M507">
+        <v>6</v>
+      </c>
+      <c r="N507">
+        <v>1.55</v>
+      </c>
+      <c r="O507">
+        <v>4</v>
+      </c>
+      <c r="P507">
+        <v>6</v>
+      </c>
+      <c r="Q507">
+        <v>-1</v>
+      </c>
+      <c r="R507">
+        <v>2</v>
+      </c>
+      <c r="S507">
+        <v>1.85</v>
+      </c>
+      <c r="T507">
+        <v>2.5</v>
+      </c>
+      <c r="U507">
+        <v>1.925</v>
+      </c>
+      <c r="V507">
+        <v>1.925</v>
+      </c>
+      <c r="W507">
+        <v>-1</v>
+      </c>
+      <c r="X507">
         <v>3</v>
       </c>
-      <c r="M507">
-        <v>3.5</v>
-      </c>
-      <c r="N507">
-        <v>1.85</v>
-      </c>
-      <c r="O507">
-        <v>3.2</v>
-      </c>
-      <c r="P507">
-        <v>4.75</v>
-      </c>
-      <c r="Q507">
-        <v>-0.5</v>
-      </c>
-      <c r="R507">
-        <v>1.875</v>
-      </c>
-      <c r="S507">
-        <v>1.975</v>
-      </c>
-      <c r="T507">
-        <v>2</v>
-      </c>
-      <c r="U507">
-        <v>1.9</v>
-      </c>
-      <c r="V507">
-        <v>1.95</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
-      <c r="X507">
-        <v>-1</v>
-      </c>
       <c r="Y507">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB507">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45698,7 +45698,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7670312</v>
+        <v>7670300</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45710,76 +45710,76 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F508" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G508" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H508">
         <v>1</v>
       </c>
       <c r="I508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J508" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K508">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L508">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M508">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N508">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O508">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P508">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q508">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R508">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S508">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T508">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U508">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V508">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W508">
         <v>-1</v>
       </c>
       <c r="X508">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z508">
         <v>-1</v>
       </c>
       <c r="AA508">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC508">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45891,7 +45891,7 @@
         <v>44</v>
       </c>
       <c r="G510" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H510">
         <v>3</v>
@@ -46232,7 +46232,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7670305</v>
+        <v>7670304</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46244,58 +46244,58 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F514" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G514" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H514">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J514" t="s">
         <v>62</v>
       </c>
       <c r="K514">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L514">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M514">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N514">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O514">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P514">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q514">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R514">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S514">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T514">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U514">
         <v>2.05</v>
       </c>
       <c r="V514">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W514">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X514">
         <v>-1</v>
@@ -46304,16 +46304,16 @@
         <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA514">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB514">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC514">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46321,7 +46321,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7670304</v>
+        <v>7670305</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46333,58 +46333,58 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F515" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G515" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H515">
+        <v>3</v>
+      </c>
+      <c r="I515">
         <v>1</v>
-      </c>
-      <c r="I515">
-        <v>0</v>
       </c>
       <c r="J515" t="s">
         <v>62</v>
       </c>
       <c r="K515">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L515">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M515">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N515">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O515">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P515">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q515">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R515">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S515">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T515">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U515">
         <v>2.05</v>
       </c>
       <c r="V515">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W515">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X515">
         <v>-1</v>
@@ -46393,16 +46393,16 @@
         <v>-1</v>
       </c>
       <c r="Z515">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA515">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB515">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC515">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -46437,22 +46437,22 @@
         <v>2.75</v>
       </c>
       <c r="N516">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O516">
         <v>3.1</v>
       </c>
       <c r="P516">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q516">
         <v>0</v>
       </c>
       <c r="R516">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S516">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T516">
         <v>2</v>
@@ -46514,7 +46514,7 @@
         <v>2</v>
       </c>
       <c r="O517">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P517">
         <v>4</v>
@@ -46523,19 +46523,19 @@
         <v>-0.5</v>
       </c>
       <c r="R517">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S517">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T517">
         <v>2</v>
       </c>
       <c r="U517">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V517">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W517">
         <v>0</v>
@@ -46585,31 +46585,31 @@
         <v>3</v>
       </c>
       <c r="N518">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O518">
         <v>3.1</v>
       </c>
       <c r="P518">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q518">
         <v>-0.25</v>
       </c>
       <c r="R518">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S518">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T518">
         <v>1.75</v>
       </c>
       <c r="U518">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V518">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W518">
         <v>0</v>
@@ -46659,22 +46659,22 @@
         <v>2.625</v>
       </c>
       <c r="N519">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O519">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P519">
         <v>2.5</v>
       </c>
       <c r="Q519">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R519">
+        <v>1.775</v>
+      </c>
+      <c r="S519">
         <v>2.1</v>
-      </c>
-      <c r="S519">
-        <v>1.775</v>
       </c>
       <c r="T519">
         <v>1.75</v>
@@ -46733,7 +46733,7 @@
         <v>3.2</v>
       </c>
       <c r="N520">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O520">
         <v>3.2</v>
@@ -46780,7 +46780,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>8071600</v>
+        <v>8071630</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46792,46 +46792,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F521" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G521" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K521">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L521">
         <v>3.5</v>
       </c>
       <c r="M521">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N521">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O521">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P521">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q521">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R521">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S521">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T521">
         <v>2.25</v>
       </c>
       <c r="U521">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
         <v>0</v>
@@ -46854,7 +46854,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>8071604</v>
+        <v>8071629</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46866,46 +46866,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F522" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G522" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K522">
+        <v>3.2</v>
+      </c>
+      <c r="L522">
+        <v>3.2</v>
+      </c>
+      <c r="M522">
         <v>2.3</v>
       </c>
-      <c r="L522">
-        <v>3.3</v>
-      </c>
-      <c r="M522">
-        <v>3.1</v>
-      </c>
       <c r="N522">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O522">
         <v>3.3</v>
       </c>
       <c r="P522">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q522">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R522">
+        <v>2.05</v>
+      </c>
+      <c r="S522">
+        <v>1.8</v>
+      </c>
+      <c r="T522">
+        <v>2.25</v>
+      </c>
+      <c r="U522">
         <v>2.025</v>
       </c>
-      <c r="S522">
+      <c r="V522">
         <v>1.825</v>
-      </c>
-      <c r="T522">
-        <v>2</v>
-      </c>
-      <c r="U522">
-        <v>1.925</v>
-      </c>
-      <c r="V522">
-        <v>1.925</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -46928,7 +46928,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>8071629</v>
+        <v>8071600</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46940,46 +46940,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G523" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K523">
+        <v>1.909</v>
+      </c>
+      <c r="L523">
+        <v>3.5</v>
+      </c>
+      <c r="M523">
+        <v>4</v>
+      </c>
+      <c r="N523">
+        <v>2</v>
+      </c>
+      <c r="O523">
         <v>3.2</v>
       </c>
-      <c r="L523">
-        <v>3.2</v>
-      </c>
-      <c r="M523">
-        <v>2.3</v>
-      </c>
-      <c r="N523">
-        <v>3.6</v>
-      </c>
-      <c r="O523">
-        <v>3.25</v>
-      </c>
       <c r="P523">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q523">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S523">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T523">
         <v>2.25</v>
       </c>
       <c r="U523">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V523">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W523">
         <v>0</v>
@@ -47002,7 +47002,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>8071630</v>
+        <v>8071604</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -47014,60 +47014,430 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F524" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G524" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K524">
+        <v>2.3</v>
+      </c>
+      <c r="L524">
+        <v>3.3</v>
+      </c>
+      <c r="M524">
+        <v>3.1</v>
+      </c>
+      <c r="N524">
+        <v>2.3</v>
+      </c>
+      <c r="O524">
+        <v>3.4</v>
+      </c>
+      <c r="P524">
+        <v>3</v>
+      </c>
+      <c r="Q524">
+        <v>-0.25</v>
+      </c>
+      <c r="R524">
+        <v>2.05</v>
+      </c>
+      <c r="S524">
+        <v>1.8</v>
+      </c>
+      <c r="T524">
+        <v>2</v>
+      </c>
+      <c r="U524">
+        <v>1.875</v>
+      </c>
+      <c r="V524">
+        <v>1.975</v>
+      </c>
+      <c r="W524">
+        <v>0</v>
+      </c>
+      <c r="X524">
+        <v>0</v>
+      </c>
+      <c r="Y524">
+        <v>0</v>
+      </c>
+      <c r="Z524">
+        <v>0</v>
+      </c>
+      <c r="AA524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:29">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>8071624</v>
+      </c>
+      <c r="C525" t="s">
+        <v>28</v>
+      </c>
+      <c r="D525" t="s">
+        <v>30</v>
+      </c>
+      <c r="E525" s="2">
+        <v>45398.8125</v>
+      </c>
+      <c r="F525" t="s">
+        <v>54</v>
+      </c>
+      <c r="G525" t="s">
+        <v>49</v>
+      </c>
+      <c r="K525">
+        <v>2.375</v>
+      </c>
+      <c r="L525">
+        <v>3.3</v>
+      </c>
+      <c r="M525">
+        <v>3</v>
+      </c>
+      <c r="N525">
+        <v>2.25</v>
+      </c>
+      <c r="O525">
+        <v>3.4</v>
+      </c>
+      <c r="P525">
+        <v>3.1</v>
+      </c>
+      <c r="Q525">
+        <v>-0.25</v>
+      </c>
+      <c r="R525">
+        <v>2</v>
+      </c>
+      <c r="S525">
+        <v>1.85</v>
+      </c>
+      <c r="T525">
+        <v>2</v>
+      </c>
+      <c r="U525">
+        <v>1.875</v>
+      </c>
+      <c r="V525">
+        <v>1.975</v>
+      </c>
+      <c r="W525">
+        <v>0</v>
+      </c>
+      <c r="X525">
+        <v>0</v>
+      </c>
+      <c r="Y525">
+        <v>0</v>
+      </c>
+      <c r="Z525">
+        <v>0</v>
+      </c>
+      <c r="AA525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:29">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>8071636</v>
+      </c>
+      <c r="C526" t="s">
+        <v>28</v>
+      </c>
+      <c r="D526" t="s">
+        <v>30</v>
+      </c>
+      <c r="E526" s="2">
+        <v>45398.8125</v>
+      </c>
+      <c r="F526" t="s">
+        <v>43</v>
+      </c>
+      <c r="G526" t="s">
+        <v>33</v>
+      </c>
+      <c r="K526">
+        <v>2.5</v>
+      </c>
+      <c r="L526">
+        <v>3.2</v>
+      </c>
+      <c r="M526">
+        <v>2.875</v>
+      </c>
+      <c r="N526">
+        <v>2.45</v>
+      </c>
+      <c r="O526">
+        <v>3.2</v>
+      </c>
+      <c r="P526">
+        <v>2.9</v>
+      </c>
+      <c r="Q526">
+        <v>-0.25</v>
+      </c>
+      <c r="R526">
+        <v>2.125</v>
+      </c>
+      <c r="S526">
+        <v>1.75</v>
+      </c>
+      <c r="T526">
+        <v>2</v>
+      </c>
+      <c r="U526">
+        <v>1.875</v>
+      </c>
+      <c r="V526">
+        <v>1.975</v>
+      </c>
+      <c r="W526">
+        <v>0</v>
+      </c>
+      <c r="X526">
+        <v>0</v>
+      </c>
+      <c r="Y526">
+        <v>0</v>
+      </c>
+      <c r="Z526">
+        <v>0</v>
+      </c>
+      <c r="AA526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:29">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>8071601</v>
+      </c>
+      <c r="C527" t="s">
+        <v>28</v>
+      </c>
+      <c r="D527" t="s">
+        <v>30</v>
+      </c>
+      <c r="E527" s="2">
+        <v>45398.8125</v>
+      </c>
+      <c r="F527" t="s">
+        <v>36</v>
+      </c>
+      <c r="G527" t="s">
+        <v>39</v>
+      </c>
+      <c r="K527">
+        <v>3.3</v>
+      </c>
+      <c r="L527">
+        <v>3.3</v>
+      </c>
+      <c r="M527">
+        <v>2.2</v>
+      </c>
+      <c r="N527">
+        <v>3.8</v>
+      </c>
+      <c r="O527">
+        <v>3.4</v>
+      </c>
+      <c r="P527">
+        <v>1.95</v>
+      </c>
+      <c r="Q527">
+        <v>0.5</v>
+      </c>
+      <c r="R527">
+        <v>1.875</v>
+      </c>
+      <c r="S527">
+        <v>1.975</v>
+      </c>
+      <c r="T527">
+        <v>2.25</v>
+      </c>
+      <c r="U527">
+        <v>1.95</v>
+      </c>
+      <c r="V527">
+        <v>1.9</v>
+      </c>
+      <c r="W527">
+        <v>0</v>
+      </c>
+      <c r="X527">
+        <v>0</v>
+      </c>
+      <c r="Y527">
+        <v>0</v>
+      </c>
+      <c r="Z527">
+        <v>0</v>
+      </c>
+      <c r="AA527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:29">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>8071603</v>
+      </c>
+      <c r="C528" t="s">
+        <v>28</v>
+      </c>
+      <c r="D528" t="s">
+        <v>30</v>
+      </c>
+      <c r="E528" s="2">
+        <v>45398.8125</v>
+      </c>
+      <c r="F528" t="s">
+        <v>47</v>
+      </c>
+      <c r="G528" t="s">
+        <v>42</v>
+      </c>
+      <c r="K528">
+        <v>1.909</v>
+      </c>
+      <c r="L528">
+        <v>3.5</v>
+      </c>
+      <c r="M528">
+        <v>4</v>
+      </c>
+      <c r="N528">
+        <v>1.85</v>
+      </c>
+      <c r="O528">
+        <v>3.5</v>
+      </c>
+      <c r="P528">
+        <v>4.2</v>
+      </c>
+      <c r="Q528">
+        <v>-0.5</v>
+      </c>
+      <c r="R528">
+        <v>1.875</v>
+      </c>
+      <c r="S528">
+        <v>1.975</v>
+      </c>
+      <c r="T528">
+        <v>2</v>
+      </c>
+      <c r="U528">
+        <v>1.825</v>
+      </c>
+      <c r="V528">
+        <v>2.025</v>
+      </c>
+      <c r="W528">
+        <v>0</v>
+      </c>
+      <c r="X528">
+        <v>0</v>
+      </c>
+      <c r="Y528">
+        <v>0</v>
+      </c>
+      <c r="Z528">
+        <v>0</v>
+      </c>
+      <c r="AA528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:27">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>8071648</v>
+      </c>
+      <c r="C529" t="s">
+        <v>28</v>
+      </c>
+      <c r="D529" t="s">
+        <v>30</v>
+      </c>
+      <c r="E529" s="2">
+        <v>45399.8125</v>
+      </c>
+      <c r="F529" t="s">
+        <v>37</v>
+      </c>
+      <c r="G529" t="s">
+        <v>60</v>
+      </c>
+      <c r="K529">
+        <v>1.727</v>
+      </c>
+      <c r="L529">
+        <v>3.75</v>
+      </c>
+      <c r="M529">
+        <v>4.5</v>
+      </c>
+      <c r="N529">
+        <v>1.75</v>
+      </c>
+      <c r="O529">
         <v>3.6</v>
       </c>
-      <c r="L524">
-        <v>3.5</v>
-      </c>
-      <c r="M524">
-        <v>2</v>
-      </c>
-      <c r="N524">
-        <v>4.5</v>
-      </c>
-      <c r="O524">
-        <v>3.5</v>
-      </c>
-      <c r="P524">
-        <v>1.833</v>
-      </c>
-      <c r="Q524">
-        <v>0.5</v>
-      </c>
-      <c r="R524">
-        <v>2.025</v>
-      </c>
-      <c r="S524">
-        <v>1.825</v>
-      </c>
-      <c r="T524">
-        <v>2.25</v>
-      </c>
-      <c r="U524">
-        <v>1.95</v>
-      </c>
-      <c r="V524">
-        <v>1.9</v>
-      </c>
-      <c r="W524">
-        <v>0</v>
-      </c>
-      <c r="X524">
-        <v>0</v>
-      </c>
-      <c r="Y524">
-        <v>0</v>
-      </c>
-      <c r="Z524">
-        <v>0</v>
-      </c>
-      <c r="AA524">
+      <c r="P529">
+        <v>4.333</v>
+      </c>
+      <c r="Q529">
+        <v>-0.75</v>
+      </c>
+      <c r="R529">
+        <v>2.05</v>
+      </c>
+      <c r="S529">
+        <v>1.8</v>
+      </c>
+      <c r="T529">
+        <v>2</v>
+      </c>
+      <c r="U529">
+        <v>1.8</v>
+      </c>
+      <c r="V529">
+        <v>2.05</v>
+      </c>
+      <c r="W529">
+        <v>0</v>
+      </c>
+      <c r="X529">
+        <v>0</v>
+      </c>
+      <c r="Y529">
+        <v>0</v>
+      </c>
+      <c r="Z529">
+        <v>0</v>
+      </c>
+      <c r="AA529">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -127,10 +127,10 @@
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Central Cordoba</t>
   </si>
   <si>
-    <t>Central Cordoba</t>
+    <t>Rosario Central</t>
   </si>
   <si>
     <t>Racing Club</t>
@@ -175,10 +175,10 @@
     <t>Velez Sarsfield</t>
   </si>
   <si>
-    <t>Colon</t>
+    <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Defensa y Justicia</t>
+    <t>Colon</t>
   </si>
   <si>
     <t>Gimnasia LP</t>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6120060</v>
+        <v>6120049</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1213,55 +1213,55 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1270,16 +1270,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6120049</v>
+        <v>6120060</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1302,55 +1302,55 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1359,16 +1359,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1569,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6120064</v>
+        <v>6120068</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2726,10 +2726,10 @@
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2738,43 +2738,43 @@
         <v>62</v>
       </c>
       <c r="K25">
+        <v>1.85</v>
+      </c>
+      <c r="L25">
         <v>3.3</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N25">
+        <v>1.727</v>
+      </c>
+      <c r="O25">
         <v>3.6</v>
       </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V25">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>2.6</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2783,16 +2783,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6120068</v>
+        <v>6120064</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2815,10 +2815,10 @@
         <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2827,43 +2827,43 @@
         <v>62</v>
       </c>
       <c r="K26">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W26">
-        <v>0.7270000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2872,16 +2872,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3260,7 +3260,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>45098.89583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -3972,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4325,10 +4325,10 @@
         <v>45102.79166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>45109.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -5571,7 +5571,7 @@
         <v>45109.8125</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -6105,7 +6105,7 @@
         <v>45112.75</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6286,7 +6286,7 @@
         <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6375,7 +6375,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6120112</v>
+        <v>6120104</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6728,55 +6728,55 @@
         <v>45113.89583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>63</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>3.1</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
         <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6785,19 +6785,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6805,7 +6805,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6120104</v>
+        <v>6120112</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6817,55 +6817,55 @@
         <v>45113.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>63</v>
       </c>
       <c r="K71">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O71">
         <v>3.1</v>
       </c>
       <c r="P71">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
         <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
         <v>1.75</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6874,19 +6874,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.333</v>
+        <v>3.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6995,7 +6995,7 @@
         <v>45114.89583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -7250,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6857892</v>
+        <v>6857883</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7262,49 +7262,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U76">
         <v>1.825</v>
@@ -7313,19 +7313,19 @@
         <v>2.025</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6857883</v>
+        <v>6857892</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7351,49 +7351,49 @@
         <v>45116.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <v>1.825</v>
@@ -7402,19 +7402,19 @@
         <v>2.025</v>
       </c>
       <c r="W77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7529,7 +7529,7 @@
         <v>45116.85416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7796,7 +7796,7 @@
         <v>45117.6875</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -8063,10 +8063,10 @@
         <v>45118.78125</v>
       </c>
       <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
         <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8689,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9134,7 +9134,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>45123.89583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9297,7 +9297,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6120138</v>
+        <v>6120139</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45124.75</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>63</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>2.3</v>
+      </c>
+      <c r="O99">
+        <v>2.9</v>
+      </c>
+      <c r="P99">
+        <v>3.6</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>1.775</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>2.6</v>
       </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>2.8</v>
-      </c>
-      <c r="P99">
-        <v>2.7</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2.1</v>
-      </c>
-      <c r="S99">
-        <v>1.775</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>1.85</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>1.7</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.925</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB99">
-        <v>0.5</v>
-      </c>
-      <c r="AC99">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9386,7 +9386,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6120139</v>
+        <v>6120138</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9398,55 +9398,55 @@
         <v>45124.75</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>63</v>
       </c>
       <c r="K100">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N100">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9455,19 +9455,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9932,7 +9932,7 @@
         <v>45130.78125</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -10021,7 +10021,7 @@
         <v>45130.875</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>57</v>
@@ -10380,7 +10380,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10644,7 +10644,7 @@
         <v>45132.75</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10914,7 +10914,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11003,7 +11003,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>45136.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>56</v>
@@ -11611,7 +11611,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6961142</v>
+        <v>6120166</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11623,10 +11623,10 @@
         <v>45137.625</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11638,43 +11638,43 @@
         <v>62</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>4.8</v>
+        <v>2.625</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11700,7 +11700,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6120166</v>
+        <v>6961142</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11712,10 +11712,10 @@
         <v>45137.625</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11727,43 +11727,43 @@
         <v>62</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.625</v>
+        <v>4.8</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -12338,7 +12338,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12780,7 +12780,7 @@
         <v>45158.67708333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>56</v>
@@ -13139,7 +13139,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13314,7 +13314,7 @@
         <v>45163.89583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G144" t="s">
         <v>55</v>
@@ -13836,7 +13836,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7095523</v>
+        <v>7095518</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13848,76 +13848,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N150">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W150">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13925,7 +13925,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7095518</v>
+        <v>7095523</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13937,76 +13937,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K151">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
+        <v>1.825</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
         <v>2.05</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.8</v>
       </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
-      <c r="V151">
-        <v>1.925</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
         <v>0.8</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-      <c r="AC151">
-        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14296,7 +14296,7 @@
         <v>50</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14471,7 +14471,7 @@
         <v>45170.875</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
         <v>46</v>
@@ -14726,7 +14726,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7032043</v>
+        <v>7031954</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14738,73 +14738,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G160" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K160">
         <v>2.2</v>
       </c>
       <c r="L160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O160">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X160">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14815,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7031954</v>
+        <v>7032043</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14827,73 +14827,73 @@
         <v>45171.79166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K161">
         <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>2.55</v>
+      </c>
+      <c r="P161">
+        <v>3.25</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
         <v>2.05</v>
       </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>4.75</v>
-      </c>
-      <c r="Q161">
-        <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>2.1</v>
-      </c>
-      <c r="S161">
-        <v>1.775</v>
-      </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15094,7 +15094,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15171,7 +15171,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7031949</v>
+        <v>7031951</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15183,76 +15183,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O165">
         <v>3.2</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
         <v>1.95</v>
       </c>
-      <c r="S165">
-        <v>1.9</v>
-      </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
         <v>1.825</v>
       </c>
-      <c r="V165">
-        <v>2.025</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15260,7 +15260,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7031951</v>
+        <v>7031949</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15272,76 +15272,76 @@
         <v>45172.67708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M166">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N166">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O166">
         <v>3.2</v>
       </c>
       <c r="P166">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
         <v>1.9</v>
       </c>
-      <c r="S166">
-        <v>1.95</v>
-      </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
         <v>2.025</v>
       </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
       <c r="AB166">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15717,7 +15717,7 @@
         <v>45180.83333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G171" t="s">
         <v>42</v>
@@ -15898,7 +15898,7 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         <v>45184.78125</v>
       </c>
       <c r="F177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16328,7 +16328,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7137513</v>
+        <v>7137524</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16340,76 +16340,76 @@
         <v>45184.875</v>
       </c>
       <c r="F178" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.3</v>
+      </c>
+      <c r="M178">
+        <v>3.1</v>
+      </c>
+      <c r="N178">
+        <v>2.375</v>
+      </c>
+      <c r="O178">
         <v>3.2</v>
       </c>
-      <c r="L178">
-        <v>2.9</v>
-      </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3</v>
-      </c>
       <c r="P178">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>1.75</v>
-      </c>
-      <c r="U178">
-        <v>1.8</v>
-      </c>
-      <c r="V178">
-        <v>2.05</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16417,7 +16417,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7137524</v>
+        <v>7137513</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16429,76 +16429,76 @@
         <v>45184.875</v>
       </c>
       <c r="F179" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.8</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.05</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17141,7 +17141,7 @@
         <v>45188.78125</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
@@ -17319,7 +17319,7 @@
         <v>45188.875</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
         <v>45</v>
@@ -17497,7 +17497,7 @@
         <v>45189.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G191" t="s">
         <v>34</v>
@@ -17767,7 +17767,7 @@
         <v>51</v>
       </c>
       <c r="G194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -18301,7 +18301,7 @@
         <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18476,10 +18476,10 @@
         <v>45192.875</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -19277,7 +19277,7 @@
         <v>45194.77083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G211" t="s">
         <v>35</v>
@@ -19636,7 +19636,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19811,7 +19811,7 @@
         <v>45199.6875</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
         <v>49</v>
@@ -20167,7 +20167,7 @@
         <v>45200.6875</v>
       </c>
       <c r="F221" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G221" t="s">
         <v>40</v>
@@ -20704,7 +20704,7 @@
         <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20790,7 +20790,7 @@
         <v>45205.85416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
         <v>58</v>
@@ -20956,7 +20956,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7032060</v>
+        <v>7032064</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20968,55 +20968,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>63</v>
       </c>
       <c r="K230">
+        <v>1.909</v>
+      </c>
+      <c r="L230">
+        <v>3.3</v>
+      </c>
+      <c r="M230">
+        <v>4.333</v>
+      </c>
+      <c r="N230">
         <v>2.1</v>
       </c>
-      <c r="L230">
-        <v>3.2</v>
-      </c>
-      <c r="M230">
-        <v>3.6</v>
-      </c>
-      <c r="N230">
-        <v>1.909</v>
-      </c>
       <c r="O230">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P230">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U230">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21025,19 +21025,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21045,7 +21045,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7032064</v>
+        <v>7032060</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21057,55 +21057,55 @@
         <v>45206.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>63</v>
       </c>
       <c r="K231">
+        <v>2.1</v>
+      </c>
+      <c r="L231">
+        <v>3.2</v>
+      </c>
+      <c r="M231">
+        <v>3.6</v>
+      </c>
+      <c r="N231">
         <v>1.909</v>
       </c>
-      <c r="L231">
-        <v>3.3</v>
-      </c>
-      <c r="M231">
-        <v>4.333</v>
-      </c>
-      <c r="N231">
-        <v>2.1</v>
-      </c>
       <c r="O231">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P231">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21114,19 +21114,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21134,7 +21134,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7032059</v>
+        <v>7031991</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21146,76 +21146,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L232">
         <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O232">
         <v>3.1</v>
       </c>
       <c r="P232">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S232">
+        <v>2.05</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
         <v>2.1</v>
       </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
-      <c r="U232">
-        <v>2.05</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
-      <c r="W232">
-        <v>2.2</v>
-      </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21223,7 +21223,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7031991</v>
+        <v>7032059</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21235,76 +21235,76 @@
         <v>45206.89583333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K233">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N233">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O233">
         <v>3.1</v>
       </c>
       <c r="P233">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
+        <v>2.1</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
         <v>2.05</v>
       </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
-      <c r="U233">
-        <v>2.025</v>
-      </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21312,7 +21312,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7031992</v>
+        <v>7032062</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21324,76 +21324,76 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F234" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L234">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O234">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q234">
         <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X234">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21401,7 +21401,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7032062</v>
+        <v>7031992</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21413,76 +21413,76 @@
         <v>45207.60416666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K235">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M235">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N235">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q235">
         <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
         <v>2</v>
       </c>
       <c r="U235">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V235">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21772,7 +21772,7 @@
         <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -22125,7 +22125,7 @@
         <v>45215.75</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
         <v>43</v>
@@ -22214,7 +22214,7 @@
         <v>45215.83333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -22659,7 +22659,7 @@
         <v>45218.77083333334</v>
       </c>
       <c r="F249" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G249" t="s">
         <v>57</v>
@@ -22748,7 +22748,7 @@
         <v>45218.86458333334</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
         <v>52</v>
@@ -23003,7 +23003,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7289503</v>
+        <v>7289447</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23015,76 +23015,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G253" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K253">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L253">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M253">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N253">
+        <v>1.45</v>
+      </c>
+      <c r="O253">
+        <v>4.2</v>
+      </c>
+      <c r="P253">
+        <v>7.5</v>
+      </c>
+      <c r="Q253">
+        <v>-1</v>
+      </c>
+      <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
         <v>2.05</v>
       </c>
-      <c r="O253">
-        <v>2.8</v>
-      </c>
-      <c r="P253">
-        <v>5.25</v>
-      </c>
-      <c r="Q253">
-        <v>-0.5</v>
-      </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
-      <c r="S253">
-        <v>1.825</v>
-      </c>
       <c r="T253">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
         <v>1.8</v>
       </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y253">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
         <v>0.8</v>
-      </c>
-      <c r="AC253">
-        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23092,7 +23092,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7289447</v>
+        <v>7289503</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23104,76 +23104,76 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H254">
         <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K254">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M254">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P254">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
+        <v>1.825</v>
+      </c>
+      <c r="T254">
+        <v>1.5</v>
+      </c>
+      <c r="U254">
         <v>1.8</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.05</v>
       </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>2.05</v>
-      </c>
-      <c r="V254">
-        <v>1.8</v>
-      </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23552,7 +23552,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -23730,7 +23730,7 @@
         <v>51</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -23997,7 +23997,7 @@
         <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -24706,7 +24706,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G272" t="s">
         <v>56</v>
@@ -24795,7 +24795,7 @@
         <v>45228.6875</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
         <v>35</v>
@@ -25596,7 +25596,7 @@
         <v>45230.875</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G282" t="s">
         <v>40</v>
@@ -25685,7 +25685,7 @@
         <v>45231.83333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G283" t="s">
         <v>39</v>
@@ -26311,7 +26311,7 @@
         <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26400,7 +26400,7 @@
         <v>33</v>
       </c>
       <c r="G291" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26578,7 +26578,7 @@
         <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26845,7 +26845,7 @@
         <v>50</v>
       </c>
       <c r="G296" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -27020,7 +27020,7 @@
         <v>45240.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27287,7 +27287,7 @@
         <v>45241.77083333334</v>
       </c>
       <c r="F301" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G301" t="s">
         <v>57</v>
@@ -27554,7 +27554,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F304" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G304" t="s">
         <v>41</v>
@@ -27643,7 +27643,7 @@
         <v>45242.61111111111</v>
       </c>
       <c r="F305" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G305" t="s">
         <v>48</v>
@@ -28358,7 +28358,7 @@
         <v>52</v>
       </c>
       <c r="G313" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H313">
         <v>3</v>
@@ -28432,7 +28432,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7475419</v>
+        <v>7475441</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28444,13 +28444,13 @@
         <v>45255.75</v>
       </c>
       <c r="F314" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G314" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -28459,19 +28459,19 @@
         <v>62</v>
       </c>
       <c r="K314">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L314">
         <v>3.2</v>
       </c>
       <c r="M314">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N314">
         <v>2.2</v>
       </c>
       <c r="O314">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P314">
         <v>3.6</v>
@@ -28486,13 +28486,13 @@
         <v>1.95</v>
       </c>
       <c r="T314">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U314">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W314">
         <v>1.2</v>
@@ -28510,10 +28510,10 @@
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28521,7 +28521,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7475441</v>
+        <v>7475419</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28533,13 +28533,13 @@
         <v>45255.75</v>
       </c>
       <c r="F315" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G315" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -28548,19 +28548,19 @@
         <v>62</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L315">
         <v>3.2</v>
       </c>
       <c r="M315">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N315">
         <v>2.2</v>
       </c>
       <c r="O315">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P315">
         <v>3.6</v>
@@ -28575,13 +28575,13 @@
         <v>1.95</v>
       </c>
       <c r="T315">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W315">
         <v>1.2</v>
@@ -28599,10 +28599,10 @@
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC315">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28610,7 +28610,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7475397</v>
+        <v>7475472</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28622,76 +28622,76 @@
         <v>45256.75</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G316" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J316" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K316">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L316">
+        <v>3.75</v>
+      </c>
+      <c r="M316">
+        <v>5.5</v>
+      </c>
+      <c r="N316">
+        <v>1.4</v>
+      </c>
+      <c r="O316">
+        <v>4.2</v>
+      </c>
+      <c r="P316">
+        <v>9.5</v>
+      </c>
+      <c r="Q316">
+        <v>-1.25</v>
+      </c>
+      <c r="R316">
+        <v>1.95</v>
+      </c>
+      <c r="S316">
+        <v>1.9</v>
+      </c>
+      <c r="T316">
+        <v>2.5</v>
+      </c>
+      <c r="U316">
+        <v>1.925</v>
+      </c>
+      <c r="V316">
+        <v>1.925</v>
+      </c>
+      <c r="W316">
+        <v>-1</v>
+      </c>
+      <c r="X316">
         <v>3.2</v>
       </c>
-      <c r="M316">
-        <v>1.909</v>
-      </c>
-      <c r="N316">
-        <v>4.5</v>
-      </c>
-      <c r="O316">
-        <v>3.5</v>
-      </c>
-      <c r="P316">
-        <v>1.8</v>
-      </c>
-      <c r="Q316">
-        <v>0.75</v>
-      </c>
-      <c r="R316">
-        <v>1.8</v>
-      </c>
-      <c r="S316">
-        <v>2.05</v>
-      </c>
-      <c r="T316">
-        <v>2.25</v>
-      </c>
-      <c r="U316">
-        <v>1.8</v>
-      </c>
-      <c r="V316">
-        <v>2.05</v>
-      </c>
-      <c r="W316">
-        <v>-1</v>
-      </c>
-      <c r="X316">
-        <v>-1</v>
-      </c>
       <c r="Y316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28699,7 +28699,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7475472</v>
+        <v>7475397</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28711,76 +28711,76 @@
         <v>45256.75</v>
       </c>
       <c r="F317" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K317">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L317">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N317">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P317">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S317">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC317">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29055,7 +29055,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7475439</v>
+        <v>7475444</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29067,40 +29067,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G321" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K321">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L321">
+        <v>3.1</v>
+      </c>
+      <c r="M321">
+        <v>3.5</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321">
         <v>3.2</v>
       </c>
-      <c r="M321">
-        <v>4.333</v>
-      </c>
-      <c r="N321">
-        <v>1.7</v>
-      </c>
-      <c r="O321">
-        <v>3.4</v>
-      </c>
       <c r="P321">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R321">
         <v>2.05</v>
@@ -29109,34 +29109,34 @@
         <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X321">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA321">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
+        <v>0.45</v>
+      </c>
+      <c r="AC321">
         <v>-0.5</v>
-      </c>
-      <c r="AC321">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29144,7 +29144,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7475444</v>
+        <v>7475439</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29156,40 +29156,40 @@
         <v>45257.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K322">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N322">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P322">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R322">
         <v>2.05</v>
@@ -29198,34 +29198,34 @@
         <v>1.8</v>
       </c>
       <c r="T322">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB322">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC322">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29248,7 +29248,7 @@
         <v>49</v>
       </c>
       <c r="G323" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H323">
         <v>3</v>
@@ -29512,7 +29512,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G326" t="s">
         <v>55</v>
@@ -29871,7 +29871,7 @@
         <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H330">
         <v>8</v>
@@ -30049,7 +30049,7 @@
         <v>57</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30138,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7656465</v>
+        <v>7656504</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30224,10 +30224,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30239,61 +30239,61 @@
         <v>61</v>
       </c>
       <c r="K334">
+        <v>1.909</v>
+      </c>
+      <c r="L334">
+        <v>3.3</v>
+      </c>
+      <c r="M334">
+        <v>4.333</v>
+      </c>
+      <c r="N334">
         <v>2.3</v>
       </c>
-      <c r="L334">
-        <v>3.2</v>
-      </c>
-      <c r="M334">
-        <v>3.2</v>
-      </c>
-      <c r="N334">
-        <v>1.8</v>
-      </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P334">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.925</v>
+      </c>
+      <c r="S334">
+        <v>1.925</v>
+      </c>
+      <c r="T334">
+        <v>1.75</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>1.925</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>1.875</v>
+      </c>
+      <c r="Y334">
+        <v>-1</v>
+      </c>
+      <c r="Z334">
         <v>-0.5</v>
       </c>
-      <c r="R334">
-        <v>1.85</v>
-      </c>
-      <c r="S334">
-        <v>2</v>
-      </c>
-      <c r="T334">
-        <v>2</v>
-      </c>
-      <c r="U334">
-        <v>2.05</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
-      <c r="W334">
-        <v>-1</v>
-      </c>
-      <c r="X334">
-        <v>2.4</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
       <c r="AA334">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30301,7 +30301,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7656504</v>
+        <v>7656465</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30313,10 +30313,10 @@
         <v>45316.79166666666</v>
       </c>
       <c r="F335" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G335" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30328,61 +30328,61 @@
         <v>61</v>
       </c>
       <c r="K335">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L335">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P335">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T335">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30390,7 +30390,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7656459</v>
+        <v>7656468</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30402,76 +30402,76 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F336" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G336" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336">
         <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K336">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L336">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N336">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O336">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P336">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q336">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R336">
+        <v>1.775</v>
+      </c>
+      <c r="S336">
         <v>2.1</v>
       </c>
-      <c r="S336">
-        <v>1.775</v>
-      </c>
       <c r="T336">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U336">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V336">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z336">
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30479,7 +30479,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7656468</v>
+        <v>7656459</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30491,76 +30491,76 @@
         <v>45316.88541666666</v>
       </c>
       <c r="F337" t="s">
+        <v>56</v>
+      </c>
+      <c r="G337" t="s">
         <v>38</v>
       </c>
-      <c r="G337" t="s">
-        <v>49</v>
-      </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337">
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K337">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L337">
+        <v>2.875</v>
+      </c>
+      <c r="M337">
         <v>3</v>
       </c>
-      <c r="M337">
-        <v>3.4</v>
-      </c>
       <c r="N337">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O337">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q337">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
+        <v>2.1</v>
+      </c>
+      <c r="S337">
         <v>1.775</v>
       </c>
-      <c r="S337">
-        <v>2.1</v>
-      </c>
       <c r="T337">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U337">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y337">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC337">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30746,7 +30746,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7656460</v>
+        <v>7656505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30758,56 +30758,56 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F340" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G340" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H340">
         <v>0</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>63</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
+        <v>2.5</v>
+      </c>
+      <c r="N340">
         <v>3.5</v>
       </c>
-      <c r="N340">
-        <v>2.8</v>
-      </c>
       <c r="O340">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.875</v>
+      </c>
+      <c r="S340">
+        <v>1.975</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.9</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.5</v>
-      </c>
-      <c r="U340">
-        <v>1.875</v>
-      </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
         <v>-1</v>
       </c>
@@ -30815,19 +30815,19 @@
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z340">
         <v>-1</v>
       </c>
       <c r="AA340">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30835,7 +30835,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7656505</v>
+        <v>7656460</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30847,76 +30847,76 @@
         <v>45317.88541666666</v>
       </c>
       <c r="F341" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>63</v>
       </c>
       <c r="K341">
+        <v>2.3</v>
+      </c>
+      <c r="L341">
         <v>2.9</v>
       </c>
-      <c r="L341">
-        <v>3.1</v>
-      </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N341">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O341">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P341">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R341">
+        <v>1.9</v>
+      </c>
+      <c r="S341">
+        <v>1.95</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.875</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.975</v>
       </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>1.9</v>
       </c>
-      <c r="W341">
-        <v>-1</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>1.375</v>
-      </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -31206,7 +31206,7 @@
         <v>42</v>
       </c>
       <c r="G345" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -31636,7 +31636,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7669966</v>
+        <v>7669968</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31648,76 +31648,76 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F350" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K350">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L350">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M350">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N350">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O350">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P350">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q350">
+        <v>-0.25</v>
+      </c>
+      <c r="R350">
+        <v>1.875</v>
+      </c>
+      <c r="S350">
+        <v>1.975</v>
+      </c>
+      <c r="T350">
+        <v>1.75</v>
+      </c>
+      <c r="U350">
+        <v>1.875</v>
+      </c>
+      <c r="V350">
+        <v>1.975</v>
+      </c>
+      <c r="W350">
+        <v>-1</v>
+      </c>
+      <c r="X350">
+        <v>1.9</v>
+      </c>
+      <c r="Y350">
+        <v>-1</v>
+      </c>
+      <c r="Z350">
         <v>-0.5</v>
       </c>
-      <c r="R350">
-        <v>1.825</v>
-      </c>
-      <c r="S350">
-        <v>2.025</v>
-      </c>
-      <c r="T350">
-        <v>2</v>
-      </c>
-      <c r="U350">
-        <v>2.05</v>
-      </c>
-      <c r="V350">
-        <v>1.8</v>
-      </c>
-      <c r="W350">
-        <v>-1</v>
-      </c>
-      <c r="X350">
-        <v>-1</v>
-      </c>
-      <c r="Y350">
-        <v>3.75</v>
-      </c>
-      <c r="Z350">
-        <v>-1</v>
-      </c>
       <c r="AA350">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB350">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31725,7 +31725,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7669968</v>
+        <v>7669966</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31737,76 +31737,76 @@
         <v>45321.80208333334</v>
       </c>
       <c r="F351" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G351" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K351">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L351">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M351">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N351">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O351">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P351">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S351">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T351">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U351">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V351">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC351">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -32093,7 +32093,7 @@
         <v>45322.73958333334</v>
       </c>
       <c r="F355" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G355" t="s">
         <v>46</v>
@@ -32627,7 +32627,7 @@
         <v>45323.89583333334</v>
       </c>
       <c r="F361" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G361" t="s">
         <v>42</v>
@@ -32808,7 +32808,7 @@
         <v>48</v>
       </c>
       <c r="G363" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H363">
         <v>4</v>
@@ -33164,7 +33164,7 @@
         <v>46</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33787,7 +33787,7 @@
         <v>31</v>
       </c>
       <c r="G374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33962,7 +33962,7 @@
         <v>45330.8125</v>
       </c>
       <c r="F376" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
         <v>59</v>
@@ -34128,7 +34128,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7670002</v>
+        <v>7670000</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34140,76 +34140,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K378">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L378">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M378">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O378">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="P378">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q378">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T378">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U378">
+        <v>1.8</v>
+      </c>
+      <c r="V378">
         <v>2.05</v>
       </c>
-      <c r="V378">
-        <v>1.8</v>
-      </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34217,7 +34217,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7670000</v>
+        <v>7670002</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34229,76 +34229,76 @@
         <v>45331.79166666666</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K379">
+        <v>2.75</v>
+      </c>
+      <c r="L379">
+        <v>3</v>
+      </c>
+      <c r="M379">
+        <v>2.75</v>
+      </c>
+      <c r="N379">
+        <v>3.2</v>
+      </c>
+      <c r="O379">
+        <v>2.625</v>
+      </c>
+      <c r="P379">
+        <v>2.7</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>2.1</v>
+      </c>
+      <c r="S379">
+        <v>1.775</v>
+      </c>
+      <c r="T379">
+        <v>1.75</v>
+      </c>
+      <c r="U379">
+        <v>2.05</v>
+      </c>
+      <c r="V379">
         <v>1.8</v>
       </c>
-      <c r="L379">
-        <v>3.6</v>
-      </c>
-      <c r="M379">
-        <v>4.5</v>
-      </c>
-      <c r="N379">
-        <v>1.666</v>
-      </c>
-      <c r="O379">
-        <v>3.8</v>
-      </c>
-      <c r="P379">
-        <v>5</v>
-      </c>
-      <c r="Q379">
-        <v>-0.75</v>
-      </c>
-      <c r="R379">
-        <v>1.9</v>
-      </c>
-      <c r="S379">
-        <v>1.95</v>
-      </c>
-      <c r="T379">
-        <v>2</v>
-      </c>
-      <c r="U379">
-        <v>1.8</v>
-      </c>
-      <c r="V379">
-        <v>2.05</v>
-      </c>
       <c r="W379">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34306,7 +34306,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7670001</v>
+        <v>7669993</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34318,13 +34318,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F380" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G380" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -34333,43 +34333,43 @@
         <v>62</v>
       </c>
       <c r="K380">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L380">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M380">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N380">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O380">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P380">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q380">
         <v>-0.25</v>
       </c>
       <c r="R380">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T380">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U380">
+        <v>2.025</v>
+      </c>
+      <c r="V380">
         <v>1.825</v>
       </c>
-      <c r="V380">
-        <v>2.025</v>
-      </c>
       <c r="W380">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34378,13 +34378,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34395,7 +34395,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7669993</v>
+        <v>7670001</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34407,13 +34407,13 @@
         <v>45331.88541666666</v>
       </c>
       <c r="F381" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G381" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -34422,43 +34422,43 @@
         <v>62</v>
       </c>
       <c r="K381">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L381">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M381">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N381">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O381">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P381">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q381">
         <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S381">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U381">
+        <v>1.825</v>
+      </c>
+      <c r="V381">
         <v>2.025</v>
       </c>
-      <c r="V381">
-        <v>1.825</v>
-      </c>
       <c r="W381">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34467,13 +34467,13 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA381">
         <v>-1</v>
       </c>
       <c r="AB381">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -34588,7 +34588,7 @@
         <v>47</v>
       </c>
       <c r="G383" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H383">
         <v>0</v>
@@ -34662,7 +34662,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7670005</v>
+        <v>7670003</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34674,76 +34674,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G384" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K384">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L384">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M384">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N384">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O384">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P384">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S384">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T384">
         <v>1.75</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W384">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z384">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB384">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34751,7 +34751,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7670003</v>
+        <v>7670005</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34763,76 +34763,76 @@
         <v>45332.89583333334</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G385" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K385">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L385">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M385">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N385">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O385">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P385">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R385">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S385">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T385">
         <v>1.75</v>
       </c>
       <c r="U385">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V385">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W385">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z385">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA385">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC385">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -35478,7 +35478,7 @@
         <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -35641,7 +35641,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7670016</v>
+        <v>7670014</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35653,10 +35653,10 @@
         <v>45336.70833333334</v>
       </c>
       <c r="F395" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H395">
         <v>0</v>
@@ -35668,25 +35668,25 @@
         <v>63</v>
       </c>
       <c r="K395">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L395">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M395">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N395">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O395">
         <v>3</v>
       </c>
       <c r="P395">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R395">
         <v>1.975</v>
@@ -35695,22 +35695,22 @@
         <v>1.875</v>
       </c>
       <c r="T395">
+        <v>2</v>
+      </c>
+      <c r="U395">
+        <v>1.9</v>
+      </c>
+      <c r="V395">
+        <v>1.95</v>
+      </c>
+      <c r="W395">
+        <v>-1</v>
+      </c>
+      <c r="X395">
+        <v>-1</v>
+      </c>
+      <c r="Y395">
         <v>1.75</v>
-      </c>
-      <c r="U395">
-        <v>1.775</v>
-      </c>
-      <c r="V395">
-        <v>2.1</v>
-      </c>
-      <c r="W395">
-        <v>-1</v>
-      </c>
-      <c r="X395">
-        <v>-1</v>
-      </c>
-      <c r="Y395">
-        <v>1.2</v>
       </c>
       <c r="Z395">
         <v>-1</v>
@@ -35722,7 +35722,7 @@
         <v>-1</v>
       </c>
       <c r="AC395">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35730,7 +35730,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7670014</v>
+        <v>7670016</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35742,10 +35742,10 @@
         <v>45336.70833333334</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G396" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -35757,25 +35757,25 @@
         <v>63</v>
       </c>
       <c r="K396">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L396">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N396">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O396">
         <v>3</v>
       </c>
       <c r="P396">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
         <v>1.975</v>
@@ -35784,13 +35784,13 @@
         <v>1.875</v>
       </c>
       <c r="T396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U396">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W396">
         <v>-1</v>
@@ -35799,7 +35799,7 @@
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z396">
         <v>-1</v>
@@ -35811,7 +35811,7 @@
         <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35819,7 +35819,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7670015</v>
+        <v>7670009</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35831,76 +35831,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K397">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L397">
+        <v>3</v>
+      </c>
+      <c r="M397">
         <v>4</v>
       </c>
-      <c r="M397">
-        <v>6.5</v>
-      </c>
       <c r="N397">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O397">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P397">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q397">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R397">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S397">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T397">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U397">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V397">
+        <v>1.875</v>
+      </c>
+      <c r="W397">
+        <v>-1</v>
+      </c>
+      <c r="X397">
         <v>1.8</v>
       </c>
-      <c r="W397">
-        <v>0.363</v>
-      </c>
-      <c r="X397">
-        <v>-1</v>
-      </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35908,7 +35908,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7670009</v>
+        <v>7670015</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35920,76 +35920,76 @@
         <v>45336.80208333334</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K398">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L398">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M398">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N398">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O398">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P398">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q398">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R398">
+        <v>1.85</v>
+      </c>
+      <c r="S398">
+        <v>2</v>
+      </c>
+      <c r="T398">
+        <v>2.5</v>
+      </c>
+      <c r="U398">
         <v>2.05</v>
       </c>
-      <c r="S398">
+      <c r="V398">
         <v>1.8</v>
       </c>
-      <c r="T398">
-        <v>1.75</v>
-      </c>
-      <c r="U398">
-        <v>1.975</v>
-      </c>
-      <c r="V398">
-        <v>1.875</v>
-      </c>
       <c r="W398">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X398">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA398">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36632,7 +36632,7 @@
         <v>45339.875</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
         <v>55</v>
@@ -36709,7 +36709,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7670023</v>
+        <v>7670021</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36721,76 +36721,76 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K407">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L407">
         <v>3</v>
       </c>
       <c r="M407">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N407">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O407">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P407">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S407">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T407">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U407">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V407">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA407">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC407">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36798,7 +36798,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7670021</v>
+        <v>7670023</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36810,76 +36810,76 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F408" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G408" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K408">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L408">
         <v>3</v>
       </c>
       <c r="M408">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N408">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O408">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P408">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>1.8</v>
+      </c>
+      <c r="S408">
+        <v>2.05</v>
+      </c>
+      <c r="T408">
+        <v>1.75</v>
+      </c>
+      <c r="U408">
+        <v>1.925</v>
+      </c>
+      <c r="V408">
+        <v>1.925</v>
+      </c>
+      <c r="W408">
+        <v>-1</v>
+      </c>
+      <c r="X408">
+        <v>-1</v>
+      </c>
+      <c r="Y408">
+        <v>2</v>
+      </c>
+      <c r="Z408">
+        <v>-1</v>
+      </c>
+      <c r="AA408">
+        <v>1.05</v>
+      </c>
+      <c r="AB408">
+        <v>0.4625</v>
+      </c>
+      <c r="AC408">
         <v>-0.5</v>
-      </c>
-      <c r="R408">
-        <v>2.025</v>
-      </c>
-      <c r="S408">
-        <v>1.825</v>
-      </c>
-      <c r="T408">
-        <v>2</v>
-      </c>
-      <c r="U408">
-        <v>1.95</v>
-      </c>
-      <c r="V408">
-        <v>1.9</v>
-      </c>
-      <c r="W408">
-        <v>0.95</v>
-      </c>
-      <c r="X408">
-        <v>-1</v>
-      </c>
-      <c r="Y408">
-        <v>-1</v>
-      </c>
-      <c r="Z408">
-        <v>1.025</v>
-      </c>
-      <c r="AA408">
-        <v>-1</v>
-      </c>
-      <c r="AB408">
-        <v>-1</v>
-      </c>
-      <c r="AC408">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37154,7 +37154,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7670025</v>
+        <v>7670029</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37166,58 +37166,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F412" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G412" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H412">
         <v>2</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="s">
         <v>62</v>
       </c>
       <c r="K412">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L412">
         <v>3.1</v>
       </c>
       <c r="M412">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O412">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q412">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R412">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S412">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U412">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V412">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W412">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37226,16 +37226,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC412">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37243,7 +37243,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7670029</v>
+        <v>7670025</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37255,58 +37255,58 @@
         <v>45341.80208333334</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G413" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>62</v>
       </c>
       <c r="K413">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L413">
         <v>3.1</v>
       </c>
       <c r="M413">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N413">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O413">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P413">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R413">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S413">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T413">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V413">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W413">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37315,16 +37315,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC413">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37332,7 +37332,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7670032</v>
+        <v>7670031</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37344,76 +37344,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F414" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G414" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H414">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K414">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L414">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M414">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N414">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O414">
         <v>3</v>
       </c>
       <c r="P414">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q414">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S414">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T414">
         <v>1.75</v>
       </c>
       <c r="U414">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V414">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W414">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X414">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y414">
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA414">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB414">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37421,7 +37421,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7670031</v>
+        <v>7670032</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37433,76 +37433,76 @@
         <v>45341.89583333334</v>
       </c>
       <c r="F415" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G415" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K415">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L415">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M415">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N415">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O415">
         <v>3</v>
       </c>
       <c r="P415">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R415">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S415">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T415">
         <v>1.75</v>
       </c>
       <c r="U415">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V415">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W415">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X415">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y415">
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA415">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC415">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37611,10 +37611,10 @@
         <v>45342.83333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G417" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H417">
         <v>1</v>
@@ -37955,7 +37955,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7670035</v>
+        <v>7670036</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37967,76 +37967,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F421" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K421">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L421">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N421">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O421">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q421">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S421">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X421">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA421">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38044,7 +38044,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7670036</v>
+        <v>7670035</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38056,76 +38056,76 @@
         <v>45346.91666666666</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K422">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L422">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M422">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N422">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P422">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q422">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S422">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T422">
         <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V422">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W422">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38326,7 +38326,7 @@
         <v>49</v>
       </c>
       <c r="G425" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H425">
         <v>0</v>
@@ -38590,7 +38590,7 @@
         <v>45348.79166666666</v>
       </c>
       <c r="F428" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G428" t="s">
         <v>60</v>
@@ -38857,7 +38857,7 @@
         <v>45348.90625</v>
       </c>
       <c r="F431" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G431" t="s">
         <v>56</v>
@@ -39127,7 +39127,7 @@
         <v>58</v>
       </c>
       <c r="G434" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H434">
         <v>2</v>
@@ -39216,7 +39216,7 @@
         <v>34</v>
       </c>
       <c r="G435" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -39824,7 +39824,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7670061</v>
+        <v>7670057</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39836,56 +39836,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G442" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J442" t="s">
         <v>63</v>
       </c>
       <c r="K442">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L442">
         <v>3</v>
       </c>
       <c r="M442">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P442">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
       <c r="R442">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S442">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="T442">
         <v>2</v>
       </c>
       <c r="U442">
+        <v>1.975</v>
+      </c>
+      <c r="V442">
         <v>1.875</v>
       </c>
-      <c r="V442">
-        <v>1.975</v>
-      </c>
       <c r="W442">
         <v>-1</v>
       </c>
@@ -39893,16 +39893,16 @@
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z442">
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB442">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -39913,7 +39913,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7670057</v>
+        <v>7670061</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39925,56 +39925,56 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G443" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
         <v>63</v>
       </c>
       <c r="K443">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L443">
         <v>3</v>
       </c>
       <c r="M443">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N443">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O443">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P443">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
       <c r="R443">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S443">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T443">
         <v>2</v>
       </c>
       <c r="U443">
+        <v>1.875</v>
+      </c>
+      <c r="V443">
         <v>1.975</v>
       </c>
-      <c r="V443">
-        <v>1.875</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39982,16 +39982,16 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC443">
         <v>-1</v>
@@ -40462,7 +40462,7 @@
         <v>52</v>
       </c>
       <c r="G449" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H449">
         <v>1</v>
@@ -40803,7 +40803,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>7670254</v>
+        <v>7670252</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40815,76 +40815,76 @@
         <v>45357.89583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G453" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J453" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K453">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L453">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M453">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="N453">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O453">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P453">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q453">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R453">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S453">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T453">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U453">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V453">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W453">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z453">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA453">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB453">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC453">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40892,7 +40892,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>7670252</v>
+        <v>7670254</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40904,76 +40904,76 @@
         <v>45357.89583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G454" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J454" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K454">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L454">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M454">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N454">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="O454">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P454">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R454">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S454">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T454">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="U454">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V454">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W454">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z454">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA454">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB454">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -41085,7 +41085,7 @@
         <v>43</v>
       </c>
       <c r="G456" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H456">
         <v>0</v>
@@ -41159,7 +41159,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7670246</v>
+        <v>7670251</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41171,76 +41171,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F457" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G457" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H457">
         <v>1</v>
       </c>
       <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457" t="s">
+        <v>62</v>
+      </c>
+      <c r="K457">
+        <v>1.666</v>
+      </c>
+      <c r="L457">
+        <v>3.8</v>
+      </c>
+      <c r="M457">
+        <v>5</v>
+      </c>
+      <c r="N457">
+        <v>1.615</v>
+      </c>
+      <c r="O457">
+        <v>3.75</v>
+      </c>
+      <c r="P457">
+        <v>6</v>
+      </c>
+      <c r="Q457">
+        <v>-0.75</v>
+      </c>
+      <c r="R457">
+        <v>1.8</v>
+      </c>
+      <c r="S457">
+        <v>2.05</v>
+      </c>
+      <c r="T457">
+        <v>2</v>
+      </c>
+      <c r="U457">
+        <v>1.85</v>
+      </c>
+      <c r="V457">
+        <v>2</v>
+      </c>
+      <c r="W457">
+        <v>0.615</v>
+      </c>
+      <c r="X457">
+        <v>-1</v>
+      </c>
+      <c r="Y457">
+        <v>-1</v>
+      </c>
+      <c r="Z457">
+        <v>0.4</v>
+      </c>
+      <c r="AA457">
+        <v>-0.5</v>
+      </c>
+      <c r="AB457">
+        <v>-1</v>
+      </c>
+      <c r="AC457">
         <v>1</v>
-      </c>
-      <c r="J457" t="s">
-        <v>61</v>
-      </c>
-      <c r="K457">
-        <v>2.5</v>
-      </c>
-      <c r="L457">
-        <v>3</v>
-      </c>
-      <c r="M457">
-        <v>2.9</v>
-      </c>
-      <c r="N457">
-        <v>2.3</v>
-      </c>
-      <c r="O457">
-        <v>3.1</v>
-      </c>
-      <c r="P457">
-        <v>3.1</v>
-      </c>
-      <c r="Q457">
-        <v>-0.25</v>
-      </c>
-      <c r="R457">
-        <v>1.975</v>
-      </c>
-      <c r="S457">
-        <v>1.875</v>
-      </c>
-      <c r="T457">
-        <v>2.25</v>
-      </c>
-      <c r="U457">
-        <v>2.1</v>
-      </c>
-      <c r="V457">
-        <v>1.775</v>
-      </c>
-      <c r="W457">
-        <v>-1</v>
-      </c>
-      <c r="X457">
-        <v>2.1</v>
-      </c>
-      <c r="Y457">
-        <v>-1</v>
-      </c>
-      <c r="Z457">
-        <v>-0.5</v>
-      </c>
-      <c r="AA457">
-        <v>0.4375</v>
-      </c>
-      <c r="AB457">
-        <v>-0.5</v>
-      </c>
-      <c r="AC457">
-        <v>0.3875</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41248,7 +41248,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7670251</v>
+        <v>7670246</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41260,76 +41260,76 @@
         <v>45358.88541666666</v>
       </c>
       <c r="F458" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G458" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H458">
         <v>1</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K458">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L458">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M458">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N458">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O458">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P458">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q458">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R458">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S458">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T458">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V458">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W458">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X458">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y458">
         <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA458">
+        <v>0.4375</v>
+      </c>
+      <c r="AB458">
         <v>-0.5</v>
       </c>
-      <c r="AB458">
-        <v>-1</v>
-      </c>
       <c r="AC458">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41337,7 +41337,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7670265</v>
+        <v>7670260</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41349,58 +41349,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G459" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="s">
         <v>62</v>
       </c>
       <c r="K459">
+        <v>4.5</v>
+      </c>
+      <c r="L459">
+        <v>3.3</v>
+      </c>
+      <c r="M459">
+        <v>1.85</v>
+      </c>
+      <c r="N459">
+        <v>3.2</v>
+      </c>
+      <c r="O459">
         <v>3.1</v>
       </c>
-      <c r="L459">
-        <v>3</v>
-      </c>
-      <c r="M459">
-        <v>2.45</v>
-      </c>
-      <c r="N459">
-        <v>2.15</v>
-      </c>
-      <c r="O459">
-        <v>3.25</v>
-      </c>
       <c r="P459">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q459">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S459">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T459">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U459">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V459">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W459">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -41409,16 +41409,16 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC459">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41426,7 +41426,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>7670260</v>
+        <v>7670265</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41438,58 +41438,58 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G460" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="s">
         <v>62</v>
       </c>
       <c r="K460">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L460">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M460">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N460">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O460">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P460">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q460">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S460">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T460">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U460">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V460">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W460">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="X460">
         <v>-1</v>
@@ -41498,16 +41498,16 @@
         <v>-1</v>
       </c>
       <c r="Z460">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA460">
         <v>-1</v>
       </c>
       <c r="AB460">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC460">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41604,7 +41604,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>7670259</v>
+        <v>7670270</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41616,76 +41616,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G462" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K462">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L462">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M462">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N462">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O462">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P462">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T462">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U462">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V462">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X462">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA462">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB462">
         <v>-1</v>
       </c>
       <c r="AC462">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41693,7 +41693,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7670270</v>
+        <v>7670259</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41705,76 +41705,76 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F463" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G463" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K463">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L463">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M463">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N463">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O463">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P463">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
       <c r="R463">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S463">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T463">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U463">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V463">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W463">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB463">
         <v>-1</v>
       </c>
       <c r="AC463">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -42061,7 +42061,7 @@
         <v>45361.80208333334</v>
       </c>
       <c r="F467" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G467" t="s">
         <v>40</v>
@@ -42506,7 +42506,7 @@
         <v>45363.88541666666</v>
       </c>
       <c r="F472" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G472" t="s">
         <v>36</v>
@@ -42865,7 +42865,7 @@
         <v>39</v>
       </c>
       <c r="G476" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H476">
         <v>1</v>
@@ -43384,7 +43384,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7670278</v>
+        <v>7670275</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43396,10 +43396,10 @@
         <v>45368.875</v>
       </c>
       <c r="F482" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G482" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43411,61 +43411,61 @@
         <v>61</v>
       </c>
       <c r="K482">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M482">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N482">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P482">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S482">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43473,7 +43473,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7670275</v>
+        <v>7670278</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43485,10 +43485,10 @@
         <v>45368.875</v>
       </c>
       <c r="F483" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G483" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H483">
         <v>0</v>
@@ -43500,61 +43500,61 @@
         <v>61</v>
       </c>
       <c r="K483">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M483">
+        <v>2.375</v>
+      </c>
+      <c r="N483">
         <v>2.9</v>
       </c>
-      <c r="N483">
-        <v>2.3</v>
-      </c>
       <c r="O483">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P483">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q483">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R483">
+        <v>2.1</v>
+      </c>
+      <c r="S483">
+        <v>1.775</v>
+      </c>
+      <c r="T483">
+        <v>2</v>
+      </c>
+      <c r="U483">
+        <v>1.9</v>
+      </c>
+      <c r="V483">
         <v>1.95</v>
       </c>
-      <c r="S483">
-        <v>1.9</v>
-      </c>
-      <c r="T483">
-        <v>2</v>
-      </c>
-      <c r="U483">
-        <v>1.875</v>
-      </c>
-      <c r="V483">
-        <v>1.975</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y483">
         <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA483">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43577,7 +43577,7 @@
         <v>40</v>
       </c>
       <c r="G484" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H484">
         <v>2</v>
@@ -43666,7 +43666,7 @@
         <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H485">
         <v>3</v>
@@ -44019,7 +44019,7 @@
         <v>45379.83333333334</v>
       </c>
       <c r="F489" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G489" t="s">
         <v>44</v>
@@ -44286,7 +44286,7 @@
         <v>45380.75</v>
       </c>
       <c r="F492" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G492" t="s">
         <v>33</v>
@@ -44553,7 +44553,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F495" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G495" t="s">
         <v>39</v>
@@ -45446,7 +45446,7 @@
         <v>33</v>
       </c>
       <c r="G505" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H505">
         <v>5</v>
@@ -45535,7 +45535,7 @@
         <v>41</v>
       </c>
       <c r="G506" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H506">
         <v>0</v>
@@ -45609,7 +45609,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7670312</v>
+        <v>7670300</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45621,76 +45621,76 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F507" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G507" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J507" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K507">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L507">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M507">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N507">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="O507">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P507">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q507">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R507">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S507">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T507">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U507">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V507">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W507">
         <v>-1</v>
       </c>
       <c r="X507">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y507">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB507">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC507">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45698,7 +45698,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7670300</v>
+        <v>7670312</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45710,76 +45710,76 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F508" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G508" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H508">
         <v>1</v>
       </c>
       <c r="I508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K508">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L508">
+        <v>3.6</v>
+      </c>
+      <c r="M508">
+        <v>6</v>
+      </c>
+      <c r="N508">
+        <v>1.55</v>
+      </c>
+      <c r="O508">
+        <v>4</v>
+      </c>
+      <c r="P508">
+        <v>6</v>
+      </c>
+      <c r="Q508">
+        <v>-1</v>
+      </c>
+      <c r="R508">
+        <v>2</v>
+      </c>
+      <c r="S508">
+        <v>1.85</v>
+      </c>
+      <c r="T508">
+        <v>2.5</v>
+      </c>
+      <c r="U508">
+        <v>1.925</v>
+      </c>
+      <c r="V508">
+        <v>1.925</v>
+      </c>
+      <c r="W508">
+        <v>-1</v>
+      </c>
+      <c r="X508">
         <v>3</v>
       </c>
-      <c r="M508">
-        <v>3.5</v>
-      </c>
-      <c r="N508">
-        <v>1.85</v>
-      </c>
-      <c r="O508">
-        <v>3.2</v>
-      </c>
-      <c r="P508">
-        <v>4.75</v>
-      </c>
-      <c r="Q508">
-        <v>-0.5</v>
-      </c>
-      <c r="R508">
-        <v>1.875</v>
-      </c>
-      <c r="S508">
-        <v>1.975</v>
-      </c>
-      <c r="T508">
-        <v>2</v>
-      </c>
-      <c r="U508">
-        <v>1.9</v>
-      </c>
-      <c r="V508">
-        <v>1.95</v>
-      </c>
-      <c r="W508">
-        <v>-1</v>
-      </c>
-      <c r="X508">
-        <v>-1</v>
-      </c>
       <c r="Y508">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z508">
         <v>-1</v>
       </c>
       <c r="AA508">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB508">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC508">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -46069,7 +46069,7 @@
         <v>57</v>
       </c>
       <c r="G512" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H512">
         <v>2</v>
@@ -46232,7 +46232,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7670304</v>
+        <v>7670305</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46244,58 +46244,58 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F514" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G514" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H514">
+        <v>3</v>
+      </c>
+      <c r="I514">
         <v>1</v>
-      </c>
-      <c r="I514">
-        <v>0</v>
       </c>
       <c r="J514" t="s">
         <v>62</v>
       </c>
       <c r="K514">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L514">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M514">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N514">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O514">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P514">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q514">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R514">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S514">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T514">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U514">
         <v>2.05</v>
       </c>
       <c r="V514">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W514">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X514">
         <v>-1</v>
@@ -46304,16 +46304,16 @@
         <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA514">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB514">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC514">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46321,7 +46321,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7670305</v>
+        <v>7670304</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46333,58 +46333,58 @@
         <v>45390.83333333334</v>
       </c>
       <c r="F515" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G515" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J515" t="s">
         <v>62</v>
       </c>
       <c r="K515">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L515">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M515">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N515">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O515">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P515">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q515">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R515">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S515">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T515">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U515">
         <v>2.05</v>
       </c>
       <c r="V515">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W515">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="X515">
         <v>-1</v>
@@ -46393,16 +46393,16 @@
         <v>-1</v>
       </c>
       <c r="Z515">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA515">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB515">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC515">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -46458,10 +46458,10 @@
         <v>2</v>
       </c>
       <c r="U516">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V516">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W516">
         <v>0</v>
@@ -46520,22 +46520,22 @@
         <v>3.75</v>
       </c>
       <c r="Q517">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R517">
+        <v>1.8</v>
+      </c>
+      <c r="S517">
         <v>2.05</v>
       </c>
-      <c r="S517">
-        <v>1.8</v>
-      </c>
       <c r="T517">
         <v>2</v>
       </c>
       <c r="U517">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V517">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W517">
         <v>0</v>
@@ -46606,10 +46606,10 @@
         <v>1.75</v>
       </c>
       <c r="U518">
+        <v>1.975</v>
+      </c>
+      <c r="V518">
         <v>1.875</v>
-      </c>
-      <c r="V518">
-        <v>1.975</v>
       </c>
       <c r="W518">
         <v>0</v>
@@ -46671,19 +46671,19 @@
         <v>-0.25</v>
       </c>
       <c r="R519">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S519">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T519">
         <v>2</v>
       </c>
       <c r="U519">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V519">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W519">
         <v>0</v>
@@ -46718,7 +46718,7 @@
         <v>45396.83333333334</v>
       </c>
       <c r="F520" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G520" t="s">
         <v>41</v>
@@ -46745,10 +46745,10 @@
         <v>0.25</v>
       </c>
       <c r="R520">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S520">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T520">
         <v>1.75</v>
@@ -46780,7 +46780,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>8071629</v>
+        <v>8071630</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46792,46 +46792,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F521" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G521" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K521">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L521">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M521">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N521">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O521">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P521">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q521">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R521">
+        <v>1.8</v>
+      </c>
+      <c r="S521">
         <v>2.05</v>
-      </c>
-      <c r="S521">
-        <v>1.8</v>
       </c>
       <c r="T521">
         <v>2.25</v>
       </c>
       <c r="U521">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V521">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W521">
         <v>0</v>
@@ -46854,7 +46854,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>8071630</v>
+        <v>8071600</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46866,46 +46866,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F522" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G522" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K522">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L522">
         <v>3.5</v>
       </c>
       <c r="M522">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N522">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="O522">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P522">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q522">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R522">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S522">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T522">
         <v>2.25</v>
       </c>
       <c r="U522">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V522">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -46928,7 +46928,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>8071600</v>
+        <v>8071604</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46940,46 +46940,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G523" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K523">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L523">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M523">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N523">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O523">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P523">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q523">
         <v>-0.25</v>
       </c>
       <c r="R523">
+        <v>2.025</v>
+      </c>
+      <c r="S523">
         <v>1.825</v>
       </c>
-      <c r="S523">
+      <c r="T523">
+        <v>2</v>
+      </c>
+      <c r="U523">
+        <v>1.825</v>
+      </c>
+      <c r="V523">
         <v>2.025</v>
-      </c>
-      <c r="T523">
-        <v>2.25</v>
-      </c>
-      <c r="U523">
-        <v>2.025</v>
-      </c>
-      <c r="V523">
-        <v>1.825</v>
       </c>
       <c r="W523">
         <v>0</v>
@@ -47002,7 +47002,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>8071604</v>
+        <v>8071629</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -47014,46 +47014,46 @@
         <v>45397.83333333334</v>
       </c>
       <c r="F524" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G524" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K524">
+        <v>3.2</v>
+      </c>
+      <c r="L524">
+        <v>3.2</v>
+      </c>
+      <c r="M524">
         <v>2.3</v>
       </c>
-      <c r="L524">
+      <c r="N524">
+        <v>3.6</v>
+      </c>
+      <c r="O524">
         <v>3.3</v>
       </c>
-      <c r="M524">
-        <v>3.1</v>
-      </c>
-      <c r="N524">
-        <v>2.3</v>
-      </c>
-      <c r="O524">
-        <v>3.4</v>
-      </c>
       <c r="P524">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q524">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R524">
+        <v>2.05</v>
+      </c>
+      <c r="S524">
+        <v>1.8</v>
+      </c>
+      <c r="T524">
+        <v>2.25</v>
+      </c>
+      <c r="U524">
         <v>2.025</v>
       </c>
-      <c r="S524">
+      <c r="V524">
         <v>1.825</v>
-      </c>
-      <c r="T524">
-        <v>2</v>
-      </c>
-      <c r="U524">
-        <v>1.825</v>
-      </c>
-      <c r="V524">
-        <v>2.025</v>
       </c>
       <c r="W524">
         <v>0</v>
@@ -47076,7 +47076,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8071636</v>
+        <v>8071601</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47088,46 +47088,46 @@
         <v>45398.8125</v>
       </c>
       <c r="F525" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G525" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K525">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L525">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M525">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N525">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O525">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P525">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q525">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R525">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S525">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T525">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U525">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V525">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W525">
         <v>0</v>
@@ -47150,7 +47150,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>8071624</v>
+        <v>8071603</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47162,46 +47162,46 @@
         <v>45398.8125</v>
       </c>
       <c r="F526" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G526" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K526">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L526">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M526">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N526">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O526">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P526">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q526">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R526">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S526">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T526">
         <v>2</v>
       </c>
       <c r="U526">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V526">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W526">
         <v>0</v>
@@ -47224,7 +47224,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>8071601</v>
+        <v>8071624</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47236,46 +47236,46 @@
         <v>45398.8125</v>
       </c>
       <c r="F527" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G527" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K527">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="L527">
         <v>3.3</v>
       </c>
       <c r="M527">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N527">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O527">
         <v>3.4</v>
       </c>
       <c r="P527">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q527">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R527">
+        <v>1.975</v>
+      </c>
+      <c r="S527">
         <v>1.875</v>
       </c>
-      <c r="S527">
-        <v>1.975</v>
-      </c>
       <c r="T527">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U527">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V527">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W527">
         <v>0</v>
@@ -47298,7 +47298,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>8071603</v>
+        <v>8071636</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47310,46 +47310,46 @@
         <v>45398.8125</v>
       </c>
       <c r="F528" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G528" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K528">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L528">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M528">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N528">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O528">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P528">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q528">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R528">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S528">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T528">
         <v>2</v>
       </c>
       <c r="U528">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V528">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W528">
         <v>0</v>
@@ -47384,7 +47384,7 @@
         <v>45399.8125</v>
       </c>
       <c r="F529" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G529" t="s">
         <v>60</v>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>Div</t>
-  </si>
-  <si>
-    <t>Div Original Name</t>
   </si>
   <si>
     <t>Date</t>
@@ -455,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC1"/>
+  <dimension ref="B1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,9 +539,6 @@
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>FTAG</t>
+  </si>
+  <si>
+    <t>ht_goals_h</t>
+  </si>
+  <si>
+    <t>ht_goals_a</t>
   </si>
   <si>
     <t>FTR</t>
@@ -452,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AB1"/>
+  <dimension ref="B1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:28">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,6 +545,12 @@
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
+++ b/Argentina Liga Prefesional/Argentina Liga Prefesional.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
-  </si>
-  <si>
-    <t>ht_goals_a</t>
+    <t>HTHG</t>
+  </si>
+  <si>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
